--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bazop\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF28D15-4690-41DA-83C2-AC002191AE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502F50C5-E8FD-4AF9-89EB-04634B8406D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Atajos VSC</t>
-  </si>
-  <si>
-    <t>Documento HTML</t>
   </si>
   <si>
     <t>!</t>
@@ -219,9 +216,6 @@
     <t>Vetur (Pine Wu)</t>
   </si>
   <si>
-    <t>Vue router</t>
-  </si>
-  <si>
     <t>Fecha Ini:</t>
   </si>
   <si>
@@ -267,7 +261,64 @@
     <t>php artisan make:migration add_nombrecolumna_to_nombretabla_table</t>
   </si>
   <si>
-    <t>Eloquent</t>
+    <t>Instalar Vue Router</t>
+  </si>
+  <si>
+    <t>vue add router</t>
+  </si>
+  <si>
+    <t>Crear estructura Documento HTML</t>
+  </si>
+  <si>
+    <t>Crear estructura componente Vue</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
+    <t>Instalar Vuex</t>
+  </si>
+  <si>
+    <t>vue add vuex</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Crear un mailable:</t>
+  </si>
+  <si>
+    <t>php artisan make:mail NombreMailable</t>
+  </si>
+  <si>
+    <t>Crear un componente de clase:</t>
+  </si>
+  <si>
+    <t>php artisan make:component Nombre</t>
+  </si>
+  <si>
+    <t>Publicar los componentes de Jetstream</t>
+  </si>
+  <si>
+    <t>php artisan vendor:publish --tag=jetstream-views</t>
+  </si>
+  <si>
+    <t>composer global require "laravel/installer"</t>
+  </si>
+  <si>
+    <t>Instalar el instalador de Laravel vía Composer</t>
+  </si>
+  <si>
+    <t>Aprende Laravel Livewire desde cero</t>
+  </si>
+  <si>
+    <t>Introducción</t>
+  </si>
+  <si>
+    <t>https://codersfree.com/cursos/aprende-laravel-livewire-desde-cero</t>
+  </si>
+  <si>
+    <t>Relaciones Laravel</t>
   </si>
 </sst>
 </file>
@@ -276,7 +327,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -346,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -473,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R13" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R13" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R36" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R36" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -811,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,62 +883,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="T1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>14.060606060606061</v>
+        <v>35.178571428571431</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -895,7 +946,7 @@
         <v>44991</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:C8" si="0">SUM(D2:R2)</f>
@@ -919,7 +970,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="T2" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1">
         <f>MIN(Tabla2[Fecha])</f>
@@ -932,7 +983,7 @@
         <v>44992</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
@@ -958,11 +1009,11 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="T3" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45023</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -970,7 +1021,7 @@
         <v>45000</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
@@ -1004,7 +1055,7 @@
         <v>45002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -1037,7 +1088,7 @@
         <v>45005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
@@ -1070,7 +1121,7 @@
         <v>45010</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
@@ -1115,7 +1166,7 @@
         <v>45010</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
@@ -1150,10 +1201,10 @@
         <v>45018</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
-        <f>SUM(D9:R9)</f>
+        <f t="shared" ref="C9:C14" si="1">SUM(D9:R9)</f>
         <v>102</v>
       </c>
       <c r="D9" s="3">
@@ -1203,10 +1254,10 @@
         <v>45021</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4">
-        <f>SUM(D10:R10)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D10" s="3">
@@ -1232,10 +1283,10 @@
         <v>45022</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM(D11:R11)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D11" s="3">
@@ -1271,10 +1322,10 @@
         <v>45022</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4">
-        <f>SUM(D12:R12)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D12" s="3">
@@ -1304,10 +1355,10 @@
         <v>45023</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4">
-        <f>SUM(D13:R13)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D13" s="3">
@@ -1333,6 +1384,891 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="3">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3">
+        <v>9</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>14</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:C20" si="2">SUM(D15:R15)</f>
+        <v>84</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3">
+        <v>13</v>
+      </c>
+      <c r="K15" s="3">
+        <v>7</v>
+      </c>
+      <c r="L15" s="3">
+        <v>24</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3">
+        <v>15</v>
+      </c>
+      <c r="G16" s="3">
+        <v>7</v>
+      </c>
+      <c r="H16" s="3">
+        <v>11</v>
+      </c>
+      <c r="I16" s="3">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3">
+        <v>6</v>
+      </c>
+      <c r="K16" s="3">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D17" s="3">
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="D19" s="3">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3">
+        <v>33</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C26" si="3">SUM(D21:R21)</f>
+        <v>42</v>
+      </c>
+      <c r="D21" s="3">
+        <v>14</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="D22" s="3">
+        <v>33</v>
+      </c>
+      <c r="E22" s="3">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>23</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3">
+        <v>9</v>
+      </c>
+      <c r="K22" s="3">
+        <v>12</v>
+      </c>
+      <c r="L22" s="3">
+        <v>6</v>
+      </c>
+      <c r="M22" s="3">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>14</v>
+      </c>
+      <c r="P22" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>4+12+7+16+7</f>
+        <v>46</v>
+      </c>
+      <c r="R22" s="3">
+        <f>14+12+11</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="D24" s="3">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3">
+        <v>11</v>
+      </c>
+      <c r="F24" s="3">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3">
+        <v>33</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="4">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="D26" s="3">
+        <v>11</v>
+      </c>
+      <c r="E26" s="3">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2</v>
+      </c>
+      <c r="J26" s="3">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:C33" si="4">SUM(D27:R27)</f>
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6</v>
+      </c>
+      <c r="G27" s="3">
+        <v>3</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>9</v>
+      </c>
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>9</v>
+      </c>
+      <c r="R28" s="3">
+        <f>2+4+5+7+10+8+20+6</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3">
+        <v>23</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="D31" s="3">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3">
+        <v>18</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D32" s="3">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>26</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="4">
+        <f>SUM(D34:R34)</f>
+        <v>65</v>
+      </c>
+      <c r="D34" s="3">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3">
+        <v>16</v>
+      </c>
+      <c r="F34" s="3">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3">
+        <v>24</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4">
+        <f>SUM(D35:R35)</f>
+        <v>130</v>
+      </c>
+      <c r="D35" s="3">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3">
+        <v>21</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3">
+        <v>12</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9</v>
+      </c>
+      <c r="J35" s="3">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
+        <v>22</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="4">
+        <f>SUM(D36:R36)</f>
+        <v>115</v>
+      </c>
+      <c r="D36" s="3">
+        <v>28</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14</v>
+      </c>
+      <c r="F36" s="3">
+        <v>7</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="H36" s="3">
+        <v>11</v>
+      </c>
+      <c r="I36" s="3">
+        <v>7</v>
+      </c>
+      <c r="J36" s="3">
+        <v>10</v>
+      </c>
+      <c r="K36" s="3">
+        <v>9</v>
+      </c>
+      <c r="L36" s="3">
+        <v>14</v>
+      </c>
+      <c r="M36" s="3">
+        <v>12</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1364,32 +2300,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,83 +2351,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>12</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
     <hyperlink ref="B7" r:id="rId2" display="https://codersfree.com/cursos/aprende-vue-3-desde-cero-mas-inertia" xr:uid="{D84DDA66-D2D3-4A51-8CF6-88D2B82CE5A6}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{D7D66BA5-A9A7-42A6-9354-E3E2AFC7F763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D094A-AC76-43DD-815B-F44FC879D1DB}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1505,10 +2476,22 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1529,57 +2512,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1592,92 +2575,132 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>67</v>
+      <c r="A7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>71</v>
+      <c r="B8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>72</v>
+      <c r="C9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>70</v>
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1690,52 +2713,72 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502F50C5-E8FD-4AF9-89EB-04634B8406D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7893C8D-2B52-4A77-BE84-0E42596F4886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>Fecha</t>
   </si>
@@ -524,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R36" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R36" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R37" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R37" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -862,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L40" sqref="L40"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>35.178571428571431</v>
+        <v>35.842105263157897</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45046</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2267,8 +2267,53 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C42" s="4"/>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4">
+        <f>SUM(D37:R37)</f>
+        <v>73</v>
+      </c>
+      <c r="D37" s="3">
+        <v>12</v>
+      </c>
+      <c r="E37" s="3">
+        <v>6</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3">
+        <v>11</v>
+      </c>
+      <c r="J37" s="3">
+        <v>8</v>
+      </c>
+      <c r="K37" s="3">
+        <v>14</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7893C8D-2B52-4A77-BE84-0E42596F4886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD6C929-34E5-4056-84BE-90E5CBEF8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -309,16 +309,10 @@
     <t>Instalar el instalador de Laravel vía Composer</t>
   </si>
   <si>
-    <t>Aprende Laravel Livewire desde cero</t>
-  </si>
-  <si>
-    <t>Introducción</t>
-  </si>
-  <si>
-    <t>https://codersfree.com/cursos/aprende-laravel-livewire-desde-cero</t>
-  </si>
-  <si>
-    <t>Relaciones Laravel</t>
+    <t>Backend del blog</t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -524,8 +518,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R37" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R37" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R59" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R59" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -553,10 +547,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A6" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-    <sortCondition ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A7" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+    <sortCondition ref="A1:A7"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -862,13 +856,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +932,7 @@
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>35.842105263157897</v>
+        <v>19.785714285714285</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1013,7 +1007,7 @@
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45047</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2150,7 +2144,7 @@
         <v>7</v>
       </c>
       <c r="C34" s="4">
-        <f>SUM(D34:R34)</f>
+        <f t="shared" ref="C34:C42" si="5">SUM(D34:R34)</f>
         <v>65</v>
       </c>
       <c r="D34" s="3">
@@ -2185,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="C35" s="4">
-        <f>SUM(D35:R35)</f>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="D35" s="3">
@@ -2228,7 +2222,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="4">
-        <f>SUM(D36:R36)</f>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="D36" s="3">
@@ -2275,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4">
-        <f>SUM(D37:R37)</f>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="D37" s="3">
@@ -2312,8 +2306,681 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="D38" s="3">
+        <v>19</v>
+      </c>
+      <c r="E38" s="3">
+        <v>9</v>
+      </c>
+      <c r="F38" s="3">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="D39" s="3">
+        <v>10</v>
+      </c>
+      <c r="E39" s="3">
+        <v>23</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>11</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>36</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="D42" s="3">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C43" s="4"/>
+      <c r="A43" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" ref="C43:C49" si="6">SUM(D43:R43)</f>
+        <v>34</v>
+      </c>
+      <c r="D43" s="3">
+        <v>34</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>19</v>
+      </c>
+      <c r="E44" s="3">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="D45" s="3">
+        <v>12</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="D46" s="3">
+        <v>61</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="D48" s="3">
+        <v>33</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="D49" s="3">
+        <v>23</v>
+      </c>
+      <c r="E49" s="3">
+        <v>23</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" ref="C50:C56" si="7">SUM(D50:R50)</f>
+        <v>31</v>
+      </c>
+      <c r="D50" s="3">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="D51" s="3">
+        <v>25</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D52" s="3">
+        <v>18</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D53" s="3">
+        <v>12</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="D54" s="3">
+        <v>12</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="D55" s="3">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3">
+        <v>16</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="4">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4</v>
+      </c>
+      <c r="E56" s="3">
+        <v>7</v>
+      </c>
+      <c r="F56" s="3">
+        <v>4</v>
+      </c>
+      <c r="G56" s="3">
+        <v>7</v>
+      </c>
+      <c r="H56" s="3">
+        <v>24</v>
+      </c>
+      <c r="I56" s="3">
+        <v>4</v>
+      </c>
+      <c r="J56" s="3">
+        <v>10</v>
+      </c>
+      <c r="K56" s="3">
+        <v>3</v>
+      </c>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="4">
+        <f>SUM(D57:R57)</f>
+        <v>26</v>
+      </c>
+      <c r="D57" s="3">
+        <v>12</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="4">
+        <f>SUM(D58:R58)</f>
+        <v>37</v>
+      </c>
+      <c r="D58" s="3">
+        <v>37</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="4">
+        <f>SUM(D59:R59)</f>
+        <v>26</v>
+      </c>
+      <c r="D59" s="3">
+        <v>14</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2332,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2360,16 +3027,21 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2386,7 +3058,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2447,7 +3119,7 @@
         <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2455,49 +3127,40 @@
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
     <hyperlink ref="B7" r:id="rId2" display="https://codersfree.com/cursos/aprende-vue-3-desde-cero-mas-inertia" xr:uid="{D84DDA66-D2D3-4A51-8CF6-88D2B82CE5A6}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{D7D66BA5-A9A7-42A6-9354-E3E2AFC7F763}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD6C929-34E5-4056-84BE-90E5CBEF8BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD226B-5230-4C3B-BFB1-C2D6078F6367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>Fecha</t>
   </si>
@@ -394,7 +392,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
@@ -518,8 +516,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R59" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R59" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R60" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R60" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -560,7 +558,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,16 +854,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="2"/>
@@ -932,7 +930,7 @@
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>19.785714285714285</v>
+        <v>19.98581560283688</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1007,7 +1005,7 @@
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45130</v>
+        <v>45131</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2981,6 +2979,39 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="4">
+        <f>SUM(D60:R60)</f>
+        <v>48</v>
+      </c>
+      <c r="D60" s="3">
+        <v>31</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3005,7 +3036,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.77734375" customWidth="1"/>
   </cols>
@@ -3061,7 +3092,7 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
@@ -3172,7 +3203,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3216,7 +3247,7 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -3289,7 +3320,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -3427,7 +3458,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD226B-5230-4C3B-BFB1-C2D6078F6367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A22EB-7529-4C46-A715-42755EB0281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -132,22 +132,9 @@
     <t>Video</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Aprende Vue 3 desde cero + inertia</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://codersfree.com/cursos/aprende-vue-3-desde-cero-mas-inertia</t>
-  </si>
-  <si>
-    <t>https://codersfree.com/cursos/aprende-laravel-desde-cero</t>
-  </si>
-  <si>
-    <t>Aprende Laravel 10 desde cero</t>
-  </si>
-  <si>
     <t>Larabel Blade formatter</t>
   </si>
   <si>
@@ -280,9 +267,6 @@
     <t>vue add vuex</t>
   </si>
   <si>
-    <t>Proyecto</t>
-  </si>
-  <si>
     <t>Crear un mailable:</t>
   </si>
   <si>
@@ -307,10 +291,43 @@
     <t>Instalar el instalador de Laravel vía Composer</t>
   </si>
   <si>
-    <t>Backend del blog</t>
-  </si>
-  <si>
     <t>General</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Vue js 3 [Actualizado] Desde cero + Vite + Firebase 9 + MEVN</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/curso-vue/learn/lecture/33493884#overview</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>SQL: Consultas básicas a complejas</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/aprende-sql-desde-cero-curso-con-mas-de-100-ejercicios</t>
+  </si>
+  <si>
+    <t>Aprende SQL desde cero: ¡Curso con mas de 50 ejercicios! 1</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/aprende-sql-desde-cero-curso-con-mas-de-50-ejercicios</t>
+  </si>
+  <si>
+    <t>Aprende SQL desde cero: ¡Curso con mas de 50 ejercicios! 2</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/aprende-sql-nivel-avanzado-curso-con-mas-de-50-ejercicios/</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -516,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R60" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R60" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R94" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -545,10 +562,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A7" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
-    <sortCondition ref="A1:A7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A9" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
+    <sortCondition ref="A1:A9"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -854,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -926,11 +943,11 @@
         <v>24</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>19.98581560283688</v>
+        <v>21.26341463414634</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -962,7 +979,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="T2" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="U2" s="1">
         <f>MIN(Tabla2[Fecha])</f>
@@ -1001,11 +1018,11 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="T3" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45131</v>
+        <v>45195</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2791,7 +2808,7 @@
         <v>45073</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="7"/>
@@ -2820,7 +2837,7 @@
         <v>45074</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="7"/>
@@ -2897,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="4">
-        <f>SUM(D57:R57)</f>
+        <f t="shared" ref="C57:C62" si="8">SUM(D57:R57)</f>
         <v>26</v>
       </c>
       <c r="D57" s="3">
@@ -2928,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="4">
-        <f>SUM(D58:R58)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D58" s="3">
@@ -2957,7 +2974,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="4">
-        <f>SUM(D59:R59)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="D59" s="3">
@@ -2988,7 +3005,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="4">
-        <f>SUM(D60:R60)</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="D60" s="3">
@@ -3012,6 +3029,1393 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="D62" s="3">
+        <v>1</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>11</v>
+      </c>
+      <c r="H62" s="3">
+        <v>11</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
+        <v>2</v>
+      </c>
+      <c r="L62" s="3">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>20</v>
+      </c>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" ref="C63:C69" si="9">SUM(D63:R63)</f>
+        <v>12</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4</v>
+      </c>
+      <c r="E63" s="3">
+        <v>4</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8</v>
+      </c>
+      <c r="G64" s="3">
+        <v>7</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="3">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3">
+        <v>3</v>
+      </c>
+      <c r="K64" s="3">
+        <v>5</v>
+      </c>
+      <c r="L64" s="3">
+        <v>5</v>
+      </c>
+      <c r="M64" s="3">
+        <v>6</v>
+      </c>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+      <c r="E65" s="3">
+        <v>4</v>
+      </c>
+      <c r="F65" s="3">
+        <v>4</v>
+      </c>
+      <c r="G65" s="3">
+        <v>3</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65" s="3">
+        <v>3</v>
+      </c>
+      <c r="J65" s="3">
+        <v>1</v>
+      </c>
+      <c r="K65" s="3">
+        <v>3</v>
+      </c>
+      <c r="L65" s="3">
+        <v>4</v>
+      </c>
+      <c r="M65" s="3">
+        <v>8</v>
+      </c>
+      <c r="N65" s="3">
+        <v>1</v>
+      </c>
+      <c r="O65" s="3">
+        <v>5</v>
+      </c>
+      <c r="P65" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+      <c r="E66" s="3">
+        <v>14</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3">
+        <v>6</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3">
+        <v>6</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2</v>
+      </c>
+      <c r="O66" s="3">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="D67" s="3">
+        <v>3</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5</v>
+      </c>
+      <c r="F67" s="3">
+        <v>3</v>
+      </c>
+      <c r="G67" s="3">
+        <v>7</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3">
+        <v>4</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
+      </c>
+      <c r="K67" s="3">
+        <v>5</v>
+      </c>
+      <c r="L67" s="3">
+        <v>3</v>
+      </c>
+      <c r="M67" s="3">
+        <v>2</v>
+      </c>
+      <c r="N67" s="3">
+        <v>3</v>
+      </c>
+      <c r="O67" s="3">
+        <v>5</v>
+      </c>
+      <c r="P67" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>4</v>
+      </c>
+      <c r="R67" s="3">
+        <f>3+4+4</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="D68" s="3">
+        <v>9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>2</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2</v>
+      </c>
+      <c r="K68" s="3">
+        <v>4</v>
+      </c>
+      <c r="L68" s="3">
+        <v>6</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>4</v>
+      </c>
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3">
+        <v>3</v>
+      </c>
+      <c r="K69" s="3">
+        <v>6</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="3">
+        <v>2</v>
+      </c>
+      <c r="O69" s="3">
+        <v>2</v>
+      </c>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" ref="C70:C75" si="10">SUM(D70:R70)</f>
+        <v>32</v>
+      </c>
+      <c r="D70" s="3">
+        <v>9</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>4</v>
+      </c>
+      <c r="G70" s="3">
+        <v>3</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3">
+        <v>2</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
+      </c>
+      <c r="K70" s="3">
+        <v>3</v>
+      </c>
+      <c r="L70" s="3">
+        <v>7</v>
+      </c>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
+      <c r="G71" s="3">
+        <v>10</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4</v>
+      </c>
+      <c r="I71" s="3">
+        <v>4</v>
+      </c>
+      <c r="J71" s="3">
+        <v>5</v>
+      </c>
+      <c r="K71" s="3">
+        <v>2</v>
+      </c>
+      <c r="L71" s="3">
+        <v>3</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="D72" s="3">
+        <v>14</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D73" s="3">
+        <v>8</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="D74" s="3">
+        <v>26</v>
+      </c>
+      <c r="E74" s="3">
+        <v>14</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+      <c r="D75" s="3">
+        <v>20</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3</v>
+      </c>
+      <c r="G75" s="3">
+        <v>5</v>
+      </c>
+      <c r="H75" s="3">
+        <v>4</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" ref="C76:C81" si="11">SUM(D76:R76)</f>
+        <v>52</v>
+      </c>
+      <c r="D76" s="3">
+        <v>16</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>11</v>
+      </c>
+      <c r="H76" s="3">
+        <v>16</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="D77" s="3">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>6</v>
+      </c>
+      <c r="H77" s="3">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3">
+        <v>21</v>
+      </c>
+      <c r="J77" s="3">
+        <v>9</v>
+      </c>
+      <c r="K77" s="3">
+        <v>16</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="11"/>
+        <v>142</v>
+      </c>
+      <c r="D78" s="3">
+        <v>6</v>
+      </c>
+      <c r="E78" s="3">
+        <v>28</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>9</v>
+      </c>
+      <c r="H78" s="3">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3">
+        <v>15</v>
+      </c>
+      <c r="J78" s="3">
+        <v>8</v>
+      </c>
+      <c r="K78" s="3">
+        <v>7</v>
+      </c>
+      <c r="L78" s="3">
+        <v>7</v>
+      </c>
+      <c r="M78" s="3">
+        <v>10</v>
+      </c>
+      <c r="N78" s="3">
+        <v>4</v>
+      </c>
+      <c r="O78" s="3">
+        <v>10</v>
+      </c>
+      <c r="P78" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>3</v>
+      </c>
+      <c r="R78" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="D79" s="3">
+        <v>8</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8</v>
+      </c>
+      <c r="F79" s="3">
+        <v>11</v>
+      </c>
+      <c r="G79" s="3">
+        <v>10</v>
+      </c>
+      <c r="H79" s="3">
+        <v>14</v>
+      </c>
+      <c r="I79" s="3">
+        <v>18</v>
+      </c>
+      <c r="J79" s="3">
+        <v>6</v>
+      </c>
+      <c r="K79" s="3">
+        <v>8</v>
+      </c>
+      <c r="L79" s="3">
+        <v>4</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="D80" s="3">
+        <v>9</v>
+      </c>
+      <c r="E80" s="3">
+        <v>14</v>
+      </c>
+      <c r="F80" s="3">
+        <v>5</v>
+      </c>
+      <c r="G80" s="3">
+        <v>11</v>
+      </c>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="D81" s="3">
+        <v>13</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3">
+        <v>7</v>
+      </c>
+      <c r="G81" s="3">
+        <v>12</v>
+      </c>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" ref="C82:C87" si="12">SUM(D82:R82)</f>
+        <v>67</v>
+      </c>
+      <c r="D82" s="3">
+        <v>12</v>
+      </c>
+      <c r="E82" s="3">
+        <v>11</v>
+      </c>
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3">
+        <v>4</v>
+      </c>
+      <c r="H82" s="3">
+        <v>17</v>
+      </c>
+      <c r="I82" s="3">
+        <v>11</v>
+      </c>
+      <c r="J82" s="3">
+        <v>9</v>
+      </c>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="D83" s="3">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>7</v>
+      </c>
+      <c r="F83" s="3">
+        <v>12</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="D84" s="3">
+        <v>6</v>
+      </c>
+      <c r="E84" s="3">
+        <v>14</v>
+      </c>
+      <c r="F84" s="3">
+        <v>7</v>
+      </c>
+      <c r="G84" s="3">
+        <v>4</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="D85" s="3">
+        <v>10</v>
+      </c>
+      <c r="E85" s="3">
+        <v>5</v>
+      </c>
+      <c r="F85" s="3">
+        <v>6</v>
+      </c>
+      <c r="G85" s="3">
+        <v>3</v>
+      </c>
+      <c r="H85" s="3">
+        <v>11</v>
+      </c>
+      <c r="I85" s="3">
+        <v>6</v>
+      </c>
+      <c r="J85" s="3">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="D86" s="3">
+        <v>12</v>
+      </c>
+      <c r="E86" s="3">
+        <v>13</v>
+      </c>
+      <c r="F86" s="3">
+        <v>12</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="D87" s="3">
+        <v>12</v>
+      </c>
+      <c r="E87" s="3">
+        <v>22</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" ref="C88:C94" si="13">SUM(D88:R88)</f>
+        <v>17</v>
+      </c>
+      <c r="D88" s="3">
+        <v>17</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="13"/>
+        <v>65</v>
+      </c>
+      <c r="D89" s="3">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3">
+        <v>7</v>
+      </c>
+      <c r="F89" s="3">
+        <v>9</v>
+      </c>
+      <c r="G89" s="3">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3">
+        <v>7</v>
+      </c>
+      <c r="I89" s="3">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
+        <v>7</v>
+      </c>
+      <c r="M89" s="3">
+        <v>7</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="D90" s="3">
+        <v>8</v>
+      </c>
+      <c r="E90" s="3">
+        <v>6</v>
+      </c>
+      <c r="F90" s="3">
+        <v>8</v>
+      </c>
+      <c r="G90" s="3">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3">
+        <v>6</v>
+      </c>
+      <c r="I90" s="3">
+        <v>8</v>
+      </c>
+      <c r="J90" s="3">
+        <v>6</v>
+      </c>
+      <c r="K90" s="3">
+        <v>5</v>
+      </c>
+      <c r="L90" s="3">
+        <v>6</v>
+      </c>
+      <c r="M90" s="3">
+        <v>7</v>
+      </c>
+      <c r="N90" s="3">
+        <v>5</v>
+      </c>
+      <c r="O90" s="3">
+        <v>9</v>
+      </c>
+      <c r="P90" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>5</v>
+      </c>
+      <c r="R90" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="D91" s="3">
+        <v>6</v>
+      </c>
+      <c r="E91" s="3">
+        <v>9</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="D92" s="3">
+        <v>9</v>
+      </c>
+      <c r="E92" s="3">
+        <v>6</v>
+      </c>
+      <c r="F92" s="3">
+        <v>6</v>
+      </c>
+      <c r="G92" s="3">
+        <v>4</v>
+      </c>
+      <c r="H92" s="3">
+        <v>5</v>
+      </c>
+      <c r="I92" s="3">
+        <v>11</v>
+      </c>
+      <c r="J92" s="3">
+        <v>8</v>
+      </c>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="13"/>
+        <v>33</v>
+      </c>
+      <c r="D93" s="3">
+        <v>6</v>
+      </c>
+      <c r="E93" s="3">
+        <v>6</v>
+      </c>
+      <c r="F93" s="3">
+        <v>6</v>
+      </c>
+      <c r="G93" s="3">
+        <v>9</v>
+      </c>
+      <c r="H93" s="3">
+        <v>6</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="13"/>
+        <v>62</v>
+      </c>
+      <c r="D94" s="3">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7</v>
+      </c>
+      <c r="F94" s="3">
+        <v>11</v>
+      </c>
+      <c r="G94" s="3">
+        <v>15</v>
+      </c>
+      <c r="H94" s="3">
+        <v>6</v>
+      </c>
+      <c r="I94" s="3">
+        <v>6</v>
+      </c>
+      <c r="J94" s="3">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3030,10 +4434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,7 +4462,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -3073,6 +4477,16 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3086,10 +4500,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3102,64 +4516,54 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5">
-        <v>62</v>
-      </c>
+      <c r="B9" s="5"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -3169,7 +4573,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
     </row>
@@ -3185,13 +4589,68 @@
       </c>
       <c r="B14" s="5"/>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://codersfree.com/cursos/aprende-vue-3-desde-cero-mas-inertia" xr:uid="{D84DDA66-D2D3-4A51-8CF6-88D2B82CE5A6}"/>
+    <hyperlink ref="B2" r:id="rId1" location="overview" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3215,7 +4674,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,12 +4684,12 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3256,52 +4715,52 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -3324,122 +4783,122 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3462,62 +4921,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704A22EB-7529-4C46-A715-42755EB0281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A69C5E-65E2-4EED-BB8B-59136E8F326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -533,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R94" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R94" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R95" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R95" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -871,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W94"/>
+  <dimension ref="A1:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomRight" activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>21.26341463414634</v>
+        <v>21.315533980582526</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45195</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -4416,6 +4416,61 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4">
+        <f>SUM(D95:R95)</f>
+        <v>32</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>3</v>
+      </c>
+      <c r="I95" s="3">
+        <v>4</v>
+      </c>
+      <c r="J95" s="3">
+        <v>2</v>
+      </c>
+      <c r="K95" s="3">
+        <v>2</v>
+      </c>
+      <c r="L95" s="3">
+        <v>1</v>
+      </c>
+      <c r="M95" s="3">
+        <v>3</v>
+      </c>
+      <c r="N95" s="3">
+        <v>2</v>
+      </c>
+      <c r="O95" s="3">
+        <v>1</v>
+      </c>
+      <c r="P95" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="3">
+        <v>3</v>
+      </c>
+      <c r="R95" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4503,7 +4558,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A69C5E-65E2-4EED-BB8B-59136E8F326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2EBBD-2F0D-4F8B-BC9B-0D637D78C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
   <si>
     <t>Fecha</t>
   </si>
@@ -297,12 +297,6 @@
     <t>Node.js</t>
   </si>
   <si>
-    <t>Vue js 3 [Actualizado] Desde cero + Vite + Firebase 9 + MEVN</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/curso-vue/learn/lecture/33493884#overview</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Vue JS (2 y 3) - Crea Aplicaciones Web Modernas con Vue</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/vue-js-2-para-principiantes/</t>
   </si>
 </sst>
 </file>
@@ -533,8 +533,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R95" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R95" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R102" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="A1:R102" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
@@ -871,13 +871,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W95"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q96" sqref="Q96"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="U1" s="9">
         <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>21.315533980582526</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="U3" s="1">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45196</v>
+        <v>45240</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -4166,7 +4166,7 @@
         <v>45191</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C89" s="4">
         <f t="shared" si="13"/>
@@ -4213,7 +4213,7 @@
         <v>45192</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C90" s="4">
         <f t="shared" si="13"/>
@@ -4270,7 +4270,7 @@
         <v>45192</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C91" s="4">
         <f t="shared" si="13"/>
@@ -4301,7 +4301,7 @@
         <v>45193</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C92" s="4">
         <f t="shared" si="13"/>
@@ -4342,7 +4342,7 @@
         <v>45194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C93" s="4">
         <f t="shared" si="13"/>
@@ -4379,7 +4379,7 @@
         <v>45195</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C94" s="4">
         <f t="shared" si="13"/>
@@ -4422,10 +4422,10 @@
         <v>45196</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C95" s="4">
-        <f>SUM(D95:R95)</f>
+        <f t="shared" ref="C95:C100" si="14">SUM(D95:R95)</f>
         <v>32</v>
       </c>
       <c r="D95" s="3">
@@ -4471,6 +4471,281 @@
         <v>3</v>
       </c>
       <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="D96" s="3">
+        <v>4</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>8</v>
+      </c>
+      <c r="F97" s="3">
+        <v>1</v>
+      </c>
+      <c r="G97" s="3">
+        <v>6</v>
+      </c>
+      <c r="H97" s="3">
+        <v>8</v>
+      </c>
+      <c r="I97" s="3">
+        <v>4</v>
+      </c>
+      <c r="J97" s="3">
+        <v>6</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="14"/>
+        <v>37</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5</v>
+      </c>
+      <c r="E98" s="3">
+        <v>7</v>
+      </c>
+      <c r="F98" s="3">
+        <v>11</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="3">
+        <v>3</v>
+      </c>
+      <c r="I98" s="3">
+        <v>1</v>
+      </c>
+      <c r="J98" s="3">
+        <v>9</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="3">
+        <v>3</v>
+      </c>
+      <c r="F99" s="3">
+        <v>5</v>
+      </c>
+      <c r="G99" s="3">
+        <v>5</v>
+      </c>
+      <c r="H99" s="3">
+        <v>5</v>
+      </c>
+      <c r="I99" s="3">
+        <v>4</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="3">
+        <v>6</v>
+      </c>
+      <c r="F100" s="3">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+      <c r="I100" s="3">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>7</v>
+      </c>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" s="4">
+        <f>SUM(D101:R101)</f>
+        <v>30</v>
+      </c>
+      <c r="D101" s="3">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2</v>
+      </c>
+      <c r="F101" s="3">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6</v>
+      </c>
+      <c r="I101" s="3">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1</v>
+      </c>
+      <c r="K101" s="3">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
+        <v>1</v>
+      </c>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" s="4">
+        <f>SUM(D102:R102)</f>
+        <v>12</v>
+      </c>
+      <c r="D102" s="3">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>8</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4537,7 +4812,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -4557,8 +4832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4571,7 +4846,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4579,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4592,9 +4867,7 @@
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5">
-        <v>123</v>
-      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4646,7 +4919,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -4655,7 +4928,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4663,10 +4936,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -4677,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -4691,10 +4964,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -4702,7 +4975,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="overview" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2EBBD-2F0D-4F8B-BC9B-0D637D78C471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCF646-FEEF-4989-813B-BCE42B203B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
-    <sheet name="Tablas" sheetId="5" r:id="rId2"/>
-    <sheet name="Avances" sheetId="2" r:id="rId3"/>
-    <sheet name="Atajos VSC" sheetId="3" r:id="rId4"/>
-    <sheet name="Ext VSC" sheetId="4" r:id="rId5"/>
-    <sheet name="Laravel" sheetId="7" r:id="rId6"/>
-    <sheet name="Vue.js" sheetId="8" r:id="rId7"/>
+    <sheet name="Resumen" sheetId="9" r:id="rId2"/>
+    <sheet name="Tablas" sheetId="5" r:id="rId3"/>
+    <sheet name="Avances" sheetId="2" r:id="rId4"/>
+    <sheet name="Atajos VSC" sheetId="3" r:id="rId5"/>
+    <sheet name="Ext VSC" sheetId="4" r:id="rId6"/>
+    <sheet name="Laravel" sheetId="7" r:id="rId7"/>
+    <sheet name="Vue.js" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="tecnologias">Tabla1[Tecnologías]</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -324,10 +325,61 @@
     <t>SQL</t>
   </si>
   <si>
-    <t>Vue JS (2 y 3) - Crea Aplicaciones Web Modernas con Vue</t>
-  </si>
-  <si>
-    <t>https://www.udemy.com/course/vue-js-2-para-principiantes/</t>
+    <t>Anho</t>
+  </si>
+  <si>
+    <t>Repasar</t>
+  </si>
+  <si>
+    <t>https://campus-ademass.com/curso/24</t>
+  </si>
+  <si>
+    <t>Curso Profesional de Vue 3</t>
+  </si>
+  <si>
+    <t>Minuto</t>
+  </si>
+  <si>
+    <t>Mínutos meta:</t>
+  </si>
+  <si>
+    <t>Inicio:</t>
+  </si>
+  <si>
+    <t>Fin:</t>
+  </si>
+  <si>
+    <t>Minutos cumplidos:</t>
+  </si>
+  <si>
+    <t>Avance:</t>
+  </si>
+  <si>
+    <t>Curso avanzado de Laravel 10</t>
+  </si>
+  <si>
+    <t>https://codersfree.com/cursos/aprende-laravel-avanzado</t>
+  </si>
+  <si>
+    <t>React.js</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>https://campus-ademass.com/curso/3</t>
+  </si>
+  <si>
+    <t>Curso de Laravel</t>
   </si>
 </sst>
 </file>
@@ -338,7 +390,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +420,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -386,11 +445,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -406,13 +466,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
     <dxf>
       <font>
         <b/>
@@ -430,6 +511,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
@@ -533,39 +617,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:R102" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A1:R102" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}"/>
-  <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{D60D569B-D532-4F7C-B0AC-14266C4717EF}" name="Total" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S211" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S211" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+    <filterColumn colId="18">
+      <filters>
+        <filter val="2024"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="19">
+    <tableColumn id="1" xr3:uid="{6EB50BBC-A992-4ADF-BB05-ECB488BF83C1}" name="Fecha" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{FC25AB37-9A85-4201-AB73-D88882E710FA}" name="Tecnologías" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D60D569B-D532-4F7C-B0AC-14266C4717EF}" name="Total" dataDxfId="17">
       <calculatedColumnFormula>SUM(D2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52571B56-1E35-479C-9AC8-F27338A9D5F2}" name="P1" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D14B1508-FE1B-4477-AD1D-33A6AC8C1D1C}" name="P2" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{F8FE7BB9-63AD-4033-80CC-ACA404E7CAFB}" name="P3" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{13B149A6-3DED-4B16-BA96-0776DD321EF3}" name="P4" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{2B5E9130-847B-4021-8552-AFDB87D04888}" name="P5" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{4CDB4FE2-697A-4DA9-B612-18B21FC0F0CE}" name="P6" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{1531DFE9-921C-4AE2-B1B1-1207F08B6226}" name="P7" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{997E472F-50C5-446C-8AAB-B55BE5FA63FB}" name="P8" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{C5FE5953-EBB6-4F64-8531-2F3FC11C6133}" name="P9" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{653FF7F2-3EA4-47EB-BABA-878053F26BAB}" name="P10" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{8ACC6B97-DBBA-40EC-8EE3-D8CD7FC754D3}" name="P11" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{DBC4F266-1246-4789-9D41-E5E543DC3F06}" name="P12" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{D47E86D5-9170-49A7-8BE7-3FB201E2E82A}" name="P13" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{5B1ED7FB-605B-486A-AC75-6566DF0C2259}" name="P14" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{5E9E9242-7A0A-4D90-87FA-D71A5774E122}" name="P15" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{52571B56-1E35-479C-9AC8-F27338A9D5F2}" name="P1" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{D14B1508-FE1B-4477-AD1D-33A6AC8C1D1C}" name="P2" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{F8FE7BB9-63AD-4033-80CC-ACA404E7CAFB}" name="P3" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{13B149A6-3DED-4B16-BA96-0776DD321EF3}" name="P4" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{2B5E9130-847B-4021-8552-AFDB87D04888}" name="P5" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4CDB4FE2-697A-4DA9-B612-18B21FC0F0CE}" name="P6" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{1531DFE9-921C-4AE2-B1B1-1207F08B6226}" name="P7" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{997E472F-50C5-446C-8AAB-B55BE5FA63FB}" name="P8" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{C5FE5953-EBB6-4F64-8531-2F3FC11C6133}" name="P9" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{653FF7F2-3EA4-47EB-BABA-878053F26BAB}" name="P10" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{8ACC6B97-DBBA-40EC-8EE3-D8CD7FC754D3}" name="P11" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{DBC4F266-1246-4789-9D41-E5E543DC3F06}" name="P12" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{D47E86D5-9170-49A7-8BE7-3FB201E2E82A}" name="P13" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{5B1ED7FB-605B-486A-AC75-6566DF0C2259}" name="P14" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{5E9E9242-7A0A-4D90-87FA-D71A5774E122}" name="P15" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{5D760BBB-480A-4D6B-9876-F6CC06948E08}" name="Anho" dataDxfId="1">
+      <calculatedColumnFormula>YEAR(Tabla2[[#This Row],[Fecha]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A9" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A9">
-    <sortCondition ref="A1:A9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A13" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -871,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:W102"/>
+  <dimension ref="A1:X211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D196" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,9 +978,14 @@
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="2"/>
     <col min="4" max="18" width="7.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="13"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="22" width="8.33203125" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -942,15 +1040,26 @@
       <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="9">
-        <f>SUM(Tabla2[Total])/(U3-U2+1)</f>
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="V1" s="15">
+        <f>Resumen!D2</f>
+        <v>46.974683544303801</v>
+      </c>
+      <c r="W1" s="17">
+        <f>Resumen!D11</f>
+        <v>0.33797814207650279</v>
+      </c>
+      <c r="X1" s="19">
+        <f>Resumen!D7+Resumen!F10</f>
+        <v>45415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44991</v>
       </c>
@@ -978,16 +1087,13 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-      <c r="T2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="1">
-        <f>MIN(Tabla2[Fecha])</f>
-        <v>44991</v>
-      </c>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S2" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44992</v>
       </c>
@@ -1017,15 +1123,12 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="T3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="1">
-        <f>MAX(Tabla2[Fecha])</f>
-        <v>45240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S3" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45000</v>
       </c>
@@ -1057,9 +1160,12 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="T4" s="8"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S4" s="14">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45002</v>
       </c>
@@ -1091,8 +1197,12 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S5" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45005</v>
       </c>
@@ -1124,8 +1234,12 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S6" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45010</v>
       </c>
@@ -1169,8 +1283,12 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S7" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45010</v>
       </c>
@@ -1204,8 +1322,12 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S8" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45018</v>
       </c>
@@ -1257,8 +1379,12 @@
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S9" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45021</v>
       </c>
@@ -1286,8 +1412,12 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S10" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45022</v>
       </c>
@@ -1325,8 +1455,12 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S11" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45022</v>
       </c>
@@ -1358,8 +1492,12 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S12" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45023</v>
       </c>
@@ -1393,8 +1531,12 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S13" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45023</v>
       </c>
@@ -1448,8 +1590,12 @@
         <v>14</v>
       </c>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S14" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45024</v>
       </c>
@@ -1493,8 +1639,12 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S15" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45025</v>
       </c>
@@ -1538,8 +1688,12 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45026</v>
       </c>
@@ -1569,8 +1723,12 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45027</v>
       </c>
@@ -1602,8 +1760,12 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45028</v>
       </c>
@@ -1633,8 +1795,12 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45029</v>
       </c>
@@ -1664,8 +1830,12 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45030</v>
       </c>
@@ -1699,8 +1869,12 @@
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45031</v>
       </c>
@@ -1758,8 +1932,12 @@
         <f>14+12+11</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45032</v>
       </c>
@@ -1791,8 +1969,12 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45033</v>
       </c>
@@ -1826,8 +2008,12 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45034</v>
       </c>
@@ -1857,8 +2043,12 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45036</v>
       </c>
@@ -1898,8 +2088,12 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45037</v>
       </c>
@@ -1933,8 +2127,12 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45038</v>
       </c>
@@ -1991,8 +2189,12 @@
         <f>2+4+5+7+10+8+20+6</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45039</v>
       </c>
@@ -2026,8 +2228,12 @@
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45040</v>
       </c>
@@ -2057,8 +2263,12 @@
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45041</v>
       </c>
@@ -2088,8 +2298,12 @@
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45042</v>
       </c>
@@ -2117,8 +2331,12 @@
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>45043</v>
       </c>
@@ -2150,8 +2368,12 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45044</v>
       </c>
@@ -2185,8 +2407,12 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45045</v>
       </c>
@@ -2228,8 +2454,12 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>45046</v>
       </c>
@@ -2275,8 +2505,12 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>45047</v>
       </c>
@@ -2320,8 +2554,12 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45048</v>
       </c>
@@ -2353,8 +2591,12 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45049</v>
       </c>
@@ -2384,8 +2626,12 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45049</v>
       </c>
@@ -2417,8 +2663,12 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>45050</v>
       </c>
@@ -2446,8 +2696,12 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>45051</v>
       </c>
@@ -2477,8 +2731,12 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>45052</v>
       </c>
@@ -2506,8 +2764,12 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45053</v>
       </c>
@@ -2537,8 +2799,12 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45058</v>
       </c>
@@ -2568,8 +2834,12 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45061</v>
       </c>
@@ -2597,8 +2867,12 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45062</v>
       </c>
@@ -2626,8 +2900,12 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45063</v>
       </c>
@@ -2655,8 +2933,12 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45065</v>
       </c>
@@ -2686,8 +2968,12 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>45068</v>
       </c>
@@ -2715,8 +3001,12 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45069</v>
       </c>
@@ -2744,8 +3034,12 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>45070</v>
       </c>
@@ -2773,8 +3067,12 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>45072</v>
       </c>
@@ -2802,8 +3100,12 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>45073</v>
       </c>
@@ -2831,8 +3133,12 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>45074</v>
       </c>
@@ -2862,8 +3168,12 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>45074</v>
       </c>
@@ -2905,8 +3215,12 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>45075</v>
       </c>
@@ -2936,8 +3250,12 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>45077</v>
       </c>
@@ -2965,8 +3283,12 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>45130</v>
       </c>
@@ -2996,8 +3318,12 @@
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>45131</v>
       </c>
@@ -3029,8 +3355,12 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>45132</v>
       </c>
@@ -3058,8 +3388,12 @@
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>45132</v>
       </c>
@@ -3107,8 +3441,12 @@
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>45133</v>
       </c>
@@ -3140,8 +3478,12 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>45133</v>
       </c>
@@ -3187,8 +3529,12 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>45134</v>
       </c>
@@ -3240,8 +3586,12 @@
       </c>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>45135</v>
       </c>
@@ -3291,8 +3641,12 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>45136</v>
       </c>
@@ -3349,8 +3703,12 @@
         <f>3+4+4</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>45137</v>
       </c>
@@ -3394,8 +3752,12 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>45138</v>
       </c>
@@ -3445,8 +3807,12 @@
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>45139</v>
       </c>
@@ -3490,8 +3856,12 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>45140</v>
       </c>
@@ -3535,8 +3905,12 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>45141</v>
       </c>
@@ -3566,8 +3940,12 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>45141</v>
       </c>
@@ -3595,8 +3973,12 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>45142</v>
       </c>
@@ -3626,8 +4008,12 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>45143</v>
       </c>
@@ -3663,8 +4049,12 @@
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>45145</v>
       </c>
@@ -3700,8 +4090,12 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>45147</v>
       </c>
@@ -3743,8 +4137,12 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>45148</v>
       </c>
@@ -3800,8 +4198,12 @@
       <c r="R78" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>45148</v>
       </c>
@@ -3845,8 +4247,12 @@
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>45149</v>
       </c>
@@ -3880,8 +4286,12 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>45152</v>
       </c>
@@ -3915,8 +4325,12 @@
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>45154</v>
       </c>
@@ -3956,8 +4370,12 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>45155</v>
       </c>
@@ -3991,8 +4409,12 @@
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45156</v>
       </c>
@@ -4026,8 +4448,12 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>45157</v>
       </c>
@@ -4067,8 +4493,12 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>45158</v>
       </c>
@@ -4100,8 +4530,12 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>45173</v>
       </c>
@@ -4131,8 +4565,12 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
       <c r="R87" s="3"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>45175</v>
       </c>
@@ -4160,8 +4598,12 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>45191</v>
       </c>
@@ -4207,8 +4649,12 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>45192</v>
       </c>
@@ -4264,8 +4710,12 @@
       <c r="R90" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>45192</v>
       </c>
@@ -4295,8 +4745,12 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
       <c r="R91" s="3"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>45193</v>
       </c>
@@ -4336,8 +4790,12 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>45194</v>
       </c>
@@ -4373,8 +4831,12 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
       <c r="R93" s="3"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>45195</v>
       </c>
@@ -4416,8 +4878,12 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
       <c r="R94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>45196</v>
       </c>
@@ -4471,8 +4937,12 @@
         <v>3</v>
       </c>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>45234</v>
       </c>
@@ -4500,8 +4970,12 @@
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>45234</v>
       </c>
@@ -4541,8 +5015,12 @@
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
       <c r="R97" s="3"/>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>45235</v>
       </c>
@@ -4582,8 +5060,12 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S98" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>45236</v>
       </c>
@@ -4621,8 +5103,12 @@
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
       <c r="R99" s="3"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>45237</v>
       </c>
@@ -4670,8 +5156,12 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>45239</v>
       </c>
@@ -4679,7 +5169,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="4">
-        <f>SUM(D101:R101)</f>
+        <f t="shared" ref="C101:C106" si="15">SUM(D101:R101)</f>
         <v>30</v>
       </c>
       <c r="D101" s="3">
@@ -4715,8 +5205,12 @@
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
       <c r="R101" s="3"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S101" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>45240</v>
       </c>
@@ -4724,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="C102" s="4">
-        <f>SUM(D102:R102)</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="D102" s="3">
@@ -4746,6 +5240,3916 @@
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3"/>
+      <c r="S102" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="15"/>
+        <v>46</v>
+      </c>
+      <c r="D103" s="3">
+        <v>4</v>
+      </c>
+      <c r="E103" s="3">
+        <v>7</v>
+      </c>
+      <c r="F103" s="3">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3">
+        <v>7</v>
+      </c>
+      <c r="H103" s="3">
+        <v>24</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="D104" s="3">
+        <v>3</v>
+      </c>
+      <c r="E104" s="3">
+        <v>8</v>
+      </c>
+      <c r="F104" s="3">
+        <v>21</v>
+      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="15"/>
+        <v>35</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+      <c r="E105" s="3">
+        <v>1</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" s="3">
+        <v>7</v>
+      </c>
+      <c r="H105" s="3">
+        <v>24</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="D106" s="3">
+        <v>3</v>
+      </c>
+      <c r="E106" s="3">
+        <v>8</v>
+      </c>
+      <c r="F106" s="3">
+        <v>3</v>
+      </c>
+      <c r="G106" s="3">
+        <v>5</v>
+      </c>
+      <c r="H106" s="3">
+        <v>2</v>
+      </c>
+      <c r="I106" s="3">
+        <v>4</v>
+      </c>
+      <c r="J106" s="3">
+        <v>2</v>
+      </c>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>45297</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" ref="C107:C112" si="16">SUM(D107:R107)</f>
+        <v>62</v>
+      </c>
+      <c r="D107" s="3">
+        <v>9</v>
+      </c>
+      <c r="E107" s="3">
+        <v>8</v>
+      </c>
+      <c r="F107" s="3">
+        <v>6</v>
+      </c>
+      <c r="G107" s="3">
+        <v>7</v>
+      </c>
+      <c r="H107" s="3">
+        <v>4</v>
+      </c>
+      <c r="I107" s="3">
+        <v>8</v>
+      </c>
+      <c r="J107" s="3">
+        <v>13</v>
+      </c>
+      <c r="K107" s="3">
+        <v>7</v>
+      </c>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>45298</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="16"/>
+        <v>54</v>
+      </c>
+      <c r="D108" s="3">
+        <v>3</v>
+      </c>
+      <c r="E108" s="3">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3">
+        <v>8</v>
+      </c>
+      <c r="G108" s="3">
+        <v>4</v>
+      </c>
+      <c r="H108" s="3">
+        <v>13</v>
+      </c>
+      <c r="I108" s="3">
+        <v>11</v>
+      </c>
+      <c r="J108" s="3">
+        <v>6</v>
+      </c>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="16"/>
+        <v>40</v>
+      </c>
+      <c r="D109" s="3">
+        <v>19</v>
+      </c>
+      <c r="E109" s="3">
+        <v>6</v>
+      </c>
+      <c r="F109" s="3">
+        <v>15</v>
+      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" si="16"/>
+        <v>41</v>
+      </c>
+      <c r="D110" s="3">
+        <v>20</v>
+      </c>
+      <c r="E110" s="3">
+        <v>4</v>
+      </c>
+      <c r="F110" s="3">
+        <v>17</v>
+      </c>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="D111" s="3">
+        <v>8</v>
+      </c>
+      <c r="E111" s="3">
+        <v>13</v>
+      </c>
+      <c r="F111" s="3">
+        <v>14</v>
+      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="D112" s="3">
+        <v>13</v>
+      </c>
+      <c r="E112" s="3">
+        <v>18</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" ref="C113:C118" si="17">SUM(D113:R113)</f>
+        <v>39</v>
+      </c>
+      <c r="D113" s="3">
+        <v>12</v>
+      </c>
+      <c r="E113" s="3">
+        <v>11</v>
+      </c>
+      <c r="F113" s="3">
+        <v>5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>11</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="D114" s="3">
+        <v>15</v>
+      </c>
+      <c r="E114" s="3">
+        <v>16</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="D115" s="3">
+        <v>23</v>
+      </c>
+      <c r="E115" s="3">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3">
+        <v>33</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="D116" s="3">
+        <v>22</v>
+      </c>
+      <c r="E116" s="3">
+        <v>10</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="4">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="D117" s="3">
+        <v>14</v>
+      </c>
+      <c r="E117" s="3">
+        <v>8</v>
+      </c>
+      <c r="F117" s="3">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3">
+        <v>19</v>
+      </c>
+      <c r="H117" s="3">
+        <v>14</v>
+      </c>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="4">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="D118" s="3">
+        <v>18</v>
+      </c>
+      <c r="E118" s="3">
+        <v>21</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="4">
+        <f t="shared" ref="C119:C125" si="18">SUM(D119:R119)</f>
+        <v>31</v>
+      </c>
+      <c r="D119" s="3">
+        <v>31</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="4">
+        <f t="shared" si="18"/>
+        <v>53</v>
+      </c>
+      <c r="D120" s="3">
+        <v>20</v>
+      </c>
+      <c r="E120" s="3">
+        <v>33</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="4">
+        <f t="shared" si="18"/>
+        <v>44</v>
+      </c>
+      <c r="D121" s="3">
+        <v>21</v>
+      </c>
+      <c r="E121" s="3">
+        <v>23</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="4">
+        <f t="shared" si="18"/>
+        <v>32</v>
+      </c>
+      <c r="D122" s="3">
+        <v>13</v>
+      </c>
+      <c r="E122" s="3">
+        <v>19</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>45318</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="4">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="D123" s="3">
+        <v>39</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>45319</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="4">
+        <f t="shared" si="18"/>
+        <v>36</v>
+      </c>
+      <c r="D124" s="3">
+        <v>10</v>
+      </c>
+      <c r="E124" s="3">
+        <v>26</v>
+      </c>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="4">
+        <f t="shared" si="18"/>
+        <v>37</v>
+      </c>
+      <c r="D125" s="3">
+        <v>21</v>
+      </c>
+      <c r="E125" s="3">
+        <v>16</v>
+      </c>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="4">
+        <f t="shared" ref="C126:C131" si="19">SUM(D126:R126)</f>
+        <v>22</v>
+      </c>
+      <c r="D126" s="3">
+        <v>22</v>
+      </c>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="4">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="D127" s="3">
+        <v>19</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="4">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="D128" s="3">
+        <f>38-22</f>
+        <v>16</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="4">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="D129" s="3">
+        <v>10</v>
+      </c>
+      <c r="E129" s="3">
+        <v>10</v>
+      </c>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130" s="4">
+        <f t="shared" si="19"/>
+        <v>34</v>
+      </c>
+      <c r="D130" s="3">
+        <f>60+12-D128-D126</f>
+        <v>34</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="4">
+        <f t="shared" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="D131" s="3">
+        <v>10</v>
+      </c>
+      <c r="E131" s="3">
+        <v>23</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132" s="4">
+        <f t="shared" ref="C132:C137" si="20">SUM(D132:R132)</f>
+        <v>21</v>
+      </c>
+      <c r="D132" s="3">
+        <v>21</v>
+      </c>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="4">
+        <f t="shared" si="20"/>
+        <v>36</v>
+      </c>
+      <c r="D133" s="3">
+        <v>36</v>
+      </c>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="4">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="D134" s="3">
+        <v>18</v>
+      </c>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+      <c r="U134" s="3"/>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>45326</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="4">
+        <f t="shared" si="20"/>
+        <v>60</v>
+      </c>
+      <c r="D135" s="3">
+        <v>19</v>
+      </c>
+      <c r="E135" s="3">
+        <v>41</v>
+      </c>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+      <c r="J135" s="3"/>
+      <c r="K135" s="3"/>
+      <c r="L135" s="3"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="4">
+        <f t="shared" si="20"/>
+        <v>33</v>
+      </c>
+      <c r="D136" s="3">
+        <v>17</v>
+      </c>
+      <c r="E136" s="3">
+        <v>16</v>
+      </c>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3"/>
+      <c r="K136" s="3"/>
+      <c r="L136" s="3"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="4">
+        <f t="shared" si="20"/>
+        <v>35</v>
+      </c>
+      <c r="D137" s="3">
+        <v>35</v>
+      </c>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="J137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="4">
+        <f t="shared" ref="C138:C143" si="21">SUM(D138:R138)</f>
+        <v>22</v>
+      </c>
+      <c r="D138" s="3">
+        <v>22</v>
+      </c>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="4">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="D139" s="3">
+        <v>20</v>
+      </c>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="4">
+        <f t="shared" si="21"/>
+        <v>31</v>
+      </c>
+      <c r="D140" s="3">
+        <v>17</v>
+      </c>
+      <c r="E140" s="3">
+        <v>14</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
+      <c r="K140" s="3"/>
+      <c r="L140" s="3"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="4">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="D141" s="3">
+        <v>20</v>
+      </c>
+      <c r="E141" s="3">
+        <v>12</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="3"/>
+      <c r="K141" s="3"/>
+      <c r="L141" s="3"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="4">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="D142" s="3">
+        <v>14</v>
+      </c>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="4">
+        <f t="shared" si="21"/>
+        <v>30</v>
+      </c>
+      <c r="D143" s="3">
+        <v>10</v>
+      </c>
+      <c r="E143" s="3">
+        <v>20</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="4">
+        <f t="shared" ref="C144:C149" si="22">SUM(D144:R144)</f>
+        <v>42</v>
+      </c>
+      <c r="D144" s="3">
+        <v>42</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" s="4">
+        <f t="shared" si="22"/>
+        <v>14</v>
+      </c>
+      <c r="D145" s="3">
+        <v>14</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="4">
+        <f t="shared" si="22"/>
+        <v>45</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45</v>
+      </c>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" s="4">
+        <f t="shared" si="22"/>
+        <v>52</v>
+      </c>
+      <c r="D147" s="3">
+        <v>52</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="4">
+        <f t="shared" si="22"/>
+        <v>33</v>
+      </c>
+      <c r="D148" s="3">
+        <v>33</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" s="4">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="D149" s="3">
+        <v>28</v>
+      </c>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="4">
+        <f t="shared" ref="C150:C155" si="23">SUM(D150:R150)</f>
+        <v>42</v>
+      </c>
+      <c r="D150" s="3">
+        <v>23</v>
+      </c>
+      <c r="E150" s="3">
+        <v>19</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+      <c r="J150" s="3"/>
+      <c r="K150" s="3"/>
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" s="4">
+        <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="D151" s="3">
+        <v>37</v>
+      </c>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
+      <c r="K151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="4">
+        <f t="shared" si="23"/>
+        <v>24</v>
+      </c>
+      <c r="D152" s="3">
+        <v>24</v>
+      </c>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+      <c r="J152" s="3"/>
+      <c r="K152" s="3"/>
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="4">
+        <f t="shared" si="23"/>
+        <v>18</v>
+      </c>
+      <c r="D153" s="3">
+        <v>18</v>
+      </c>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+      <c r="J153" s="3"/>
+      <c r="K153" s="3"/>
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="4">
+        <f t="shared" si="23"/>
+        <v>32</v>
+      </c>
+      <c r="D154" s="3">
+        <v>32</v>
+      </c>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
+      <c r="K154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>45339</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" s="4">
+        <f t="shared" si="23"/>
+        <v>13</v>
+      </c>
+      <c r="D155" s="3">
+        <v>13</v>
+      </c>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="3"/>
+      <c r="K155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="4">
+        <f t="shared" ref="C156:C161" si="24">SUM(D156:R156)</f>
+        <v>45</v>
+      </c>
+      <c r="D156" s="3">
+        <v>26</v>
+      </c>
+      <c r="E156" s="3">
+        <v>19</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>45340</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" s="4">
+        <f t="shared" si="24"/>
+        <v>40</v>
+      </c>
+      <c r="D157" s="3">
+        <v>40</v>
+      </c>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+      <c r="J157" s="3"/>
+      <c r="K157" s="3"/>
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="4">
+        <f t="shared" si="24"/>
+        <v>23</v>
+      </c>
+      <c r="D158" s="3">
+        <v>13</v>
+      </c>
+      <c r="E158" s="3">
+        <v>10</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
+      <c r="K158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" s="4">
+        <f t="shared" si="24"/>
+        <v>27</v>
+      </c>
+      <c r="D159" s="3">
+        <v>27</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="3"/>
+      <c r="K159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="4">
+        <f t="shared" si="24"/>
+        <v>51</v>
+      </c>
+      <c r="D160" s="3">
+        <v>14</v>
+      </c>
+      <c r="E160" s="3">
+        <v>37</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" s="4">
+        <f t="shared" si="24"/>
+        <v>30</v>
+      </c>
+      <c r="D161" s="3">
+        <v>30</v>
+      </c>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="3"/>
+      <c r="K161" s="3"/>
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="4">
+        <f t="shared" ref="C162:C167" si="25">SUM(D162:R162)</f>
+        <v>28</v>
+      </c>
+      <c r="D162" s="3">
+        <v>15</v>
+      </c>
+      <c r="E162" s="3">
+        <v>13</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+      <c r="J162" s="3"/>
+      <c r="K162" s="3"/>
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="4">
+        <f t="shared" si="25"/>
+        <v>29</v>
+      </c>
+      <c r="D163" s="3">
+        <v>29</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+      <c r="J163" s="3"/>
+      <c r="K163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="4">
+        <f t="shared" si="25"/>
+        <v>32</v>
+      </c>
+      <c r="D164" s="3">
+        <v>32</v>
+      </c>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="3"/>
+      <c r="K164" s="3"/>
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" s="4">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="D165" s="3">
+        <v>16</v>
+      </c>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+      <c r="J165" s="3"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="4">
+        <f t="shared" si="25"/>
+        <v>31</v>
+      </c>
+      <c r="D166" s="3">
+        <v>12</v>
+      </c>
+      <c r="E166" s="3">
+        <v>5</v>
+      </c>
+      <c r="F166" s="3">
+        <v>8</v>
+      </c>
+      <c r="G166" s="3">
+        <v>4</v>
+      </c>
+      <c r="H166" s="3">
+        <v>2</v>
+      </c>
+      <c r="I166" s="3"/>
+      <c r="J166" s="3"/>
+      <c r="K166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" s="4">
+        <f t="shared" si="25"/>
+        <v>26</v>
+      </c>
+      <c r="D167" s="3">
+        <v>26</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3"/>
+      <c r="K167" s="3"/>
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3"/>
+      <c r="S167" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="4">
+        <f t="shared" ref="C168:C173" si="26">SUM(D168:R168)</f>
+        <v>32</v>
+      </c>
+      <c r="D168" s="3">
+        <v>3</v>
+      </c>
+      <c r="E168" s="3">
+        <v>3</v>
+      </c>
+      <c r="F168" s="3">
+        <v>5</v>
+      </c>
+      <c r="G168" s="3">
+        <v>2</v>
+      </c>
+      <c r="H168" s="3">
+        <v>3</v>
+      </c>
+      <c r="I168" s="3">
+        <v>5</v>
+      </c>
+      <c r="J168" s="3">
+        <v>11</v>
+      </c>
+      <c r="K168" s="3"/>
+      <c r="L168" s="3"/>
+      <c r="M168" s="3"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="3"/>
+      <c r="P168" s="3"/>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3"/>
+      <c r="S168" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" s="4">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
+      <c r="D169" s="3">
+        <v>11</v>
+      </c>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+      <c r="J169" s="3"/>
+      <c r="K169" s="3"/>
+      <c r="L169" s="3"/>
+      <c r="M169" s="3"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="3"/>
+      <c r="P169" s="3"/>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3"/>
+      <c r="S169" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="4">
+        <f t="shared" si="26"/>
+        <v>35</v>
+      </c>
+      <c r="D170" s="3">
+        <v>4</v>
+      </c>
+      <c r="E170" s="3">
+        <v>6</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>5</v>
+      </c>
+      <c r="H170" s="3">
+        <v>8</v>
+      </c>
+      <c r="I170" s="3">
+        <v>4</v>
+      </c>
+      <c r="J170" s="3">
+        <v>7</v>
+      </c>
+      <c r="K170" s="3"/>
+      <c r="L170" s="3"/>
+      <c r="M170" s="3"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="3"/>
+      <c r="P170" s="3"/>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3"/>
+      <c r="S170" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>45347</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" s="4">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="D171" s="3">
+        <v>15</v>
+      </c>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
+      <c r="K171" s="3"/>
+      <c r="L171" s="3"/>
+      <c r="M171" s="3"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="3"/>
+      <c r="P171" s="3"/>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3"/>
+      <c r="S171" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="4">
+        <f t="shared" si="26"/>
+        <v>33</v>
+      </c>
+      <c r="D172" s="3">
+        <v>8</v>
+      </c>
+      <c r="E172" s="3">
+        <v>12</v>
+      </c>
+      <c r="F172" s="3">
+        <v>8</v>
+      </c>
+      <c r="G172" s="3">
+        <v>5</v>
+      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="3"/>
+      <c r="P172" s="3"/>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3"/>
+      <c r="S172" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" s="4">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="D173" s="3">
+        <v>24</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+      <c r="J173" s="3"/>
+      <c r="K173" s="3"/>
+      <c r="L173" s="3"/>
+      <c r="M173" s="3"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="3"/>
+      <c r="P173" s="3"/>
+      <c r="Q173" s="3"/>
+      <c r="R173" s="3"/>
+      <c r="S173" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="4">
+        <f t="shared" ref="C174:C179" si="27">SUM(D174:R174)</f>
+        <v>43</v>
+      </c>
+      <c r="D174" s="3">
+        <v>6</v>
+      </c>
+      <c r="E174" s="3">
+        <v>2</v>
+      </c>
+      <c r="F174" s="3">
+        <v>13</v>
+      </c>
+      <c r="G174" s="3">
+        <v>5</v>
+      </c>
+      <c r="H174" s="3">
+        <v>17</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+      <c r="L174" s="3"/>
+      <c r="M174" s="3"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="3"/>
+      <c r="P174" s="3"/>
+      <c r="Q174" s="3"/>
+      <c r="R174" s="3"/>
+      <c r="S174" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" s="4">
+        <f t="shared" si="27"/>
+        <v>33</v>
+      </c>
+      <c r="D175" s="3">
+        <v>9</v>
+      </c>
+      <c r="E175" s="3">
+        <v>24</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="3"/>
+      <c r="P175" s="3"/>
+      <c r="Q175" s="3"/>
+      <c r="R175" s="3"/>
+      <c r="S175" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+      <c r="V175" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="4">
+        <f t="shared" si="27"/>
+        <v>33</v>
+      </c>
+      <c r="D176" s="3">
+        <v>12</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+      <c r="F176" s="3">
+        <v>8</v>
+      </c>
+      <c r="G176" s="3">
+        <v>11</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+      <c r="L176" s="3"/>
+      <c r="M176" s="3"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="3"/>
+      <c r="P176" s="3"/>
+      <c r="Q176" s="3"/>
+      <c r="R176" s="3"/>
+      <c r="S176" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" s="4">
+        <f t="shared" si="27"/>
+        <v>45</v>
+      </c>
+      <c r="D177" s="3">
+        <v>45</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="J177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="3"/>
+      <c r="P177" s="3"/>
+      <c r="Q177" s="3"/>
+      <c r="R177" s="3"/>
+      <c r="S177" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="4">
+        <f t="shared" si="27"/>
+        <v>24</v>
+      </c>
+      <c r="D178" s="3">
+        <v>7</v>
+      </c>
+      <c r="E178" s="3">
+        <v>4</v>
+      </c>
+      <c r="F178" s="3">
+        <v>4</v>
+      </c>
+      <c r="G178" s="3">
+        <v>9</v>
+      </c>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+      <c r="J178" s="3"/>
+      <c r="K178" s="3"/>
+      <c r="L178" s="3"/>
+      <c r="M178" s="3"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="3"/>
+      <c r="P178" s="3"/>
+      <c r="Q178" s="3"/>
+      <c r="R178" s="3"/>
+      <c r="S178" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" s="4">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="D179" s="3">
+        <v>32</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+      <c r="J179" s="3"/>
+      <c r="K179" s="3"/>
+      <c r="L179" s="3"/>
+      <c r="M179" s="3"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="3"/>
+      <c r="P179" s="3"/>
+      <c r="Q179" s="3"/>
+      <c r="R179" s="3"/>
+      <c r="S179" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="4">
+        <f t="shared" ref="C180:C185" si="28">SUM(D180:R180)</f>
+        <v>32</v>
+      </c>
+      <c r="D180" s="3">
+        <v>5</v>
+      </c>
+      <c r="E180" s="3">
+        <v>3</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5</v>
+      </c>
+      <c r="G180" s="3">
+        <v>8</v>
+      </c>
+      <c r="H180" s="3">
+        <v>4</v>
+      </c>
+      <c r="I180" s="3">
+        <v>4</v>
+      </c>
+      <c r="J180" s="3">
+        <v>3</v>
+      </c>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="3"/>
+      <c r="P180" s="3"/>
+      <c r="Q180" s="3"/>
+      <c r="R180" s="3"/>
+      <c r="S180" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="4">
+        <f t="shared" si="28"/>
+        <v>32</v>
+      </c>
+      <c r="D181" s="3">
+        <v>32</v>
+      </c>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="3"/>
+      <c r="P181" s="3"/>
+      <c r="Q181" s="3"/>
+      <c r="R181" s="3"/>
+      <c r="S181" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="4">
+        <f t="shared" si="28"/>
+        <v>43</v>
+      </c>
+      <c r="D182" s="3">
+        <v>3</v>
+      </c>
+      <c r="E182" s="3">
+        <v>7</v>
+      </c>
+      <c r="F182" s="3">
+        <v>5</v>
+      </c>
+      <c r="G182" s="3">
+        <v>9</v>
+      </c>
+      <c r="H182" s="3">
+        <v>4</v>
+      </c>
+      <c r="I182" s="3">
+        <v>9</v>
+      </c>
+      <c r="J182" s="3">
+        <v>6</v>
+      </c>
+      <c r="K182" s="3"/>
+      <c r="L182" s="3"/>
+      <c r="M182" s="3"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="3"/>
+      <c r="P182" s="3"/>
+      <c r="Q182" s="3"/>
+      <c r="R182" s="3"/>
+      <c r="S182" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="4">
+        <f t="shared" si="28"/>
+        <v>17</v>
+      </c>
+      <c r="D183" s="3">
+        <v>17</v>
+      </c>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="4">
+        <f t="shared" si="28"/>
+        <v>23</v>
+      </c>
+      <c r="D184" s="3">
+        <v>23</v>
+      </c>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="3"/>
+      <c r="K184" s="3"/>
+      <c r="L184" s="3"/>
+      <c r="M184" s="3"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="3"/>
+      <c r="P184" s="3"/>
+      <c r="Q184" s="3"/>
+      <c r="R184" s="3"/>
+      <c r="S184" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>45354</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C185" s="4">
+        <f t="shared" si="28"/>
+        <v>116</v>
+      </c>
+      <c r="D185" s="3">
+        <f>120-4</f>
+        <v>116</v>
+      </c>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3"/>
+      <c r="M185" s="3"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="3"/>
+      <c r="P185" s="3"/>
+      <c r="Q185" s="3"/>
+      <c r="R185" s="3"/>
+      <c r="S185" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="4">
+        <f t="shared" ref="C186:C191" si="29">SUM(D186:R186)</f>
+        <v>24</v>
+      </c>
+      <c r="D186" s="3">
+        <v>24</v>
+      </c>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3"/>
+      <c r="M186" s="3"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="3"/>
+      <c r="P186" s="3"/>
+      <c r="Q186" s="3"/>
+      <c r="R186" s="3"/>
+      <c r="S186" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187" s="4">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="D187" s="3">
+        <v>15</v>
+      </c>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3"/>
+      <c r="M187" s="3"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="3"/>
+      <c r="P187" s="3"/>
+      <c r="Q187" s="3"/>
+      <c r="R187" s="3"/>
+      <c r="S187" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="4">
+        <f t="shared" si="29"/>
+        <v>35</v>
+      </c>
+      <c r="D188" s="3">
+        <v>8</v>
+      </c>
+      <c r="E188" s="3">
+        <v>8</v>
+      </c>
+      <c r="F188" s="3">
+        <v>5</v>
+      </c>
+      <c r="G188" s="3">
+        <v>6</v>
+      </c>
+      <c r="H188" s="3">
+        <v>8</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="3"/>
+      <c r="P188" s="3"/>
+      <c r="Q188" s="3"/>
+      <c r="R188" s="3"/>
+      <c r="S188" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189" s="4">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="D189" s="3">
+        <v>15</v>
+      </c>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3"/>
+      <c r="M189" s="3"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="3"/>
+      <c r="P189" s="3"/>
+      <c r="Q189" s="3"/>
+      <c r="R189" s="3"/>
+      <c r="S189" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="4">
+        <f t="shared" si="29"/>
+        <v>34</v>
+      </c>
+      <c r="D190" s="3">
+        <v>12</v>
+      </c>
+      <c r="E190" s="3">
+        <v>6</v>
+      </c>
+      <c r="F190" s="3">
+        <v>9</v>
+      </c>
+      <c r="G190" s="3">
+        <v>7</v>
+      </c>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3"/>
+      <c r="M190" s="3"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="3"/>
+      <c r="P190" s="3"/>
+      <c r="Q190" s="3"/>
+      <c r="R190" s="3"/>
+      <c r="S190" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191" s="4">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="D191" s="3">
+        <v>13</v>
+      </c>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3"/>
+      <c r="M191" s="3"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="3"/>
+      <c r="P191" s="3"/>
+      <c r="Q191" s="3"/>
+      <c r="R191" s="3"/>
+      <c r="S191" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="4">
+        <f t="shared" ref="C192:C197" si="30">SUM(D192:R192)</f>
+        <v>72</v>
+      </c>
+      <c r="D192" s="3">
+        <v>22</v>
+      </c>
+      <c r="E192" s="3">
+        <v>12</v>
+      </c>
+      <c r="F192" s="3">
+        <v>15</v>
+      </c>
+      <c r="G192" s="3">
+        <v>23</v>
+      </c>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3"/>
+      <c r="M192" s="3"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="3"/>
+      <c r="P192" s="3"/>
+      <c r="Q192" s="3"/>
+      <c r="R192" s="3"/>
+      <c r="S192" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193" s="4">
+        <f t="shared" si="30"/>
+        <v>14</v>
+      </c>
+      <c r="D193" s="3">
+        <v>14</v>
+      </c>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3"/>
+      <c r="M193" s="3"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="3"/>
+      <c r="P193" s="3"/>
+      <c r="Q193" s="3"/>
+      <c r="R193" s="3"/>
+      <c r="S193" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="4">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="D194" s="3">
+        <v>4</v>
+      </c>
+      <c r="E194" s="3">
+        <v>14</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="3"/>
+      <c r="P194" s="3"/>
+      <c r="Q194" s="3"/>
+      <c r="R194" s="3"/>
+      <c r="S194" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195" s="4">
+        <f t="shared" si="30"/>
+        <v>22</v>
+      </c>
+      <c r="D195" s="3">
+        <v>22</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+      <c r="J195" s="3"/>
+      <c r="K195" s="3"/>
+      <c r="L195" s="3"/>
+      <c r="M195" s="3"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="3"/>
+      <c r="P195" s="3"/>
+      <c r="Q195" s="3"/>
+      <c r="R195" s="3"/>
+      <c r="S195" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>45360</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="4">
+        <f t="shared" si="30"/>
+        <v>18</v>
+      </c>
+      <c r="D196" s="3">
+        <v>9</v>
+      </c>
+      <c r="E196" s="3">
+        <v>4</v>
+      </c>
+      <c r="F196" s="3">
+        <v>3</v>
+      </c>
+      <c r="G196" s="3">
+        <v>2</v>
+      </c>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+      <c r="J196" s="3"/>
+      <c r="K196" s="3"/>
+      <c r="L196" s="3"/>
+      <c r="M196" s="3"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="3"/>
+      <c r="P196" s="3"/>
+      <c r="Q196" s="3"/>
+      <c r="R196" s="3"/>
+      <c r="S196" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>45361</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="4">
+        <f t="shared" si="30"/>
+        <v>34</v>
+      </c>
+      <c r="D197" s="3">
+        <v>10</v>
+      </c>
+      <c r="E197" s="3">
+        <v>4</v>
+      </c>
+      <c r="F197" s="3">
+        <v>14</v>
+      </c>
+      <c r="G197" s="3">
+        <v>6</v>
+      </c>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+      <c r="J197" s="3"/>
+      <c r="K197" s="3"/>
+      <c r="L197" s="3"/>
+      <c r="M197" s="3"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="3"/>
+      <c r="P197" s="3"/>
+      <c r="Q197" s="3"/>
+      <c r="R197" s="3"/>
+      <c r="S197" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="4">
+        <f t="shared" ref="C198:C203" si="31">SUM(D198:R198)</f>
+        <v>36</v>
+      </c>
+      <c r="D198" s="3">
+        <v>14</v>
+      </c>
+      <c r="E198" s="3">
+        <v>11</v>
+      </c>
+      <c r="F198" s="3">
+        <v>4</v>
+      </c>
+      <c r="G198" s="3">
+        <v>7</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="3"/>
+      <c r="K198" s="3"/>
+      <c r="L198" s="3"/>
+      <c r="M198" s="3"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="3"/>
+      <c r="P198" s="3"/>
+      <c r="Q198" s="3"/>
+      <c r="R198" s="3"/>
+      <c r="S198" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C199" s="4">
+        <f t="shared" si="31"/>
+        <v>37</v>
+      </c>
+      <c r="D199" s="3">
+        <v>14</v>
+      </c>
+      <c r="E199" s="3">
+        <v>13</v>
+      </c>
+      <c r="F199" s="3">
+        <v>10</v>
+      </c>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+      <c r="J199" s="3"/>
+      <c r="K199" s="3"/>
+      <c r="L199" s="3"/>
+      <c r="M199" s="3"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="3"/>
+      <c r="P199" s="3"/>
+      <c r="Q199" s="3"/>
+      <c r="R199" s="3"/>
+      <c r="S199" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="4">
+        <f t="shared" si="31"/>
+        <v>25</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2</v>
+      </c>
+      <c r="E200" s="3">
+        <v>7</v>
+      </c>
+      <c r="F200" s="3">
+        <v>6</v>
+      </c>
+      <c r="G200" s="3">
+        <v>5</v>
+      </c>
+      <c r="H200" s="3">
+        <v>3</v>
+      </c>
+      <c r="I200" s="3">
+        <v>2</v>
+      </c>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201" s="4">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="D201" s="3">
+        <v>13</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="4">
+        <f t="shared" si="31"/>
+        <v>32</v>
+      </c>
+      <c r="D202" s="3">
+        <v>12</v>
+      </c>
+      <c r="E202" s="3">
+        <v>5</v>
+      </c>
+      <c r="F202" s="3">
+        <v>7</v>
+      </c>
+      <c r="G202" s="3">
+        <v>5</v>
+      </c>
+      <c r="H202" s="3">
+        <v>3</v>
+      </c>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="4">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="D203" s="3">
+        <v>4</v>
+      </c>
+      <c r="E203" s="3">
+        <v>10</v>
+      </c>
+      <c r="F203" s="3">
+        <v>6</v>
+      </c>
+      <c r="G203" s="3">
+        <v>4</v>
+      </c>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="4">
+        <f t="shared" ref="C204:C209" si="32">SUM(D204:R204)</f>
+        <v>32</v>
+      </c>
+      <c r="D204" s="3">
+        <v>1</v>
+      </c>
+      <c r="E204" s="3">
+        <v>25</v>
+      </c>
+      <c r="F204" s="3">
+        <v>6</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" s="4">
+        <f t="shared" si="32"/>
+        <v>51</v>
+      </c>
+      <c r="D205" s="3">
+        <v>51</v>
+      </c>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>45367</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="4">
+        <f t="shared" si="32"/>
+        <v>36</v>
+      </c>
+      <c r="D206" s="3">
+        <v>12</v>
+      </c>
+      <c r="E206" s="3">
+        <v>7</v>
+      </c>
+      <c r="F206" s="3">
+        <v>17</v>
+      </c>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>45368</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="4">
+        <f t="shared" si="32"/>
+        <v>96</v>
+      </c>
+      <c r="D207" s="3">
+        <v>4</v>
+      </c>
+      <c r="E207" s="3">
+        <v>3</v>
+      </c>
+      <c r="F207" s="3">
+        <v>9</v>
+      </c>
+      <c r="G207" s="3">
+        <v>8</v>
+      </c>
+      <c r="H207" s="3">
+        <v>72</v>
+      </c>
+      <c r="I207" s="3"/>
+      <c r="J207" s="3"/>
+      <c r="K207" s="3"/>
+      <c r="L207" s="3"/>
+      <c r="M207" s="3"/>
+      <c r="N207" s="3"/>
+      <c r="O207" s="3"/>
+      <c r="P207" s="3"/>
+      <c r="Q207" s="3"/>
+      <c r="R207" s="3"/>
+      <c r="S207" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="4">
+        <f t="shared" si="32"/>
+        <v>71</v>
+      </c>
+      <c r="D208" s="3">
+        <v>71</v>
+      </c>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
+      <c r="K208" s="3"/>
+      <c r="L208" s="3"/>
+      <c r="M208" s="3"/>
+      <c r="N208" s="3"/>
+      <c r="O208" s="3"/>
+      <c r="P208" s="3"/>
+      <c r="Q208" s="3"/>
+      <c r="R208" s="3"/>
+      <c r="S208" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209" s="4">
+        <f t="shared" si="32"/>
+        <v>13</v>
+      </c>
+      <c r="D209" s="3">
+        <v>13</v>
+      </c>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
+      <c r="K209" s="3"/>
+      <c r="L209" s="3"/>
+      <c r="M209" s="3"/>
+      <c r="N209" s="3"/>
+      <c r="O209" s="3"/>
+      <c r="P209" s="3"/>
+      <c r="Q209" s="3"/>
+      <c r="R209" s="3"/>
+      <c r="S209" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="4">
+        <f>SUM(D210:R210)</f>
+        <v>94</v>
+      </c>
+      <c r="D210" s="3">
+        <v>86</v>
+      </c>
+      <c r="E210" s="3">
+        <v>5</v>
+      </c>
+      <c r="F210" s="3">
+        <v>3</v>
+      </c>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
+      <c r="L210" s="3"/>
+      <c r="M210" s="3"/>
+      <c r="N210" s="3"/>
+      <c r="O210" s="3"/>
+      <c r="P210" s="3"/>
+      <c r="Q210" s="3"/>
+      <c r="R210" s="3"/>
+      <c r="S210" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211" s="4">
+        <f>SUM(D211:R211)</f>
+        <v>17</v>
+      </c>
+      <c r="D211" s="3">
+        <v>17</v>
+      </c>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
+      <c r="K211" s="3"/>
+      <c r="L211" s="3"/>
+      <c r="M211" s="3"/>
+      <c r="N211" s="3"/>
+      <c r="O211" s="3"/>
+      <c r="P211" s="3"/>
+      <c r="Q211" s="3"/>
+      <c r="R211" s="3"/>
+      <c r="S211" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4763,11 +9167,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3055B751-B643-4B45-918A-797418D79973}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10">
+        <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
+        <v>21.805263157894736</v>
+      </c>
+      <c r="C2" s="10">
+        <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
+        <v>15.199335548172758</v>
+      </c>
+      <c r="D2" s="10">
+        <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
+        <v>46.974683544303801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="11">
+        <f>MIN(Tabla2[Fecha])</f>
+        <v>44991</v>
+      </c>
+      <c r="C3" s="11">
+        <f>B3</f>
+        <v>44991</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="11">
+        <f>MAX(Tabla2[Fecha])</f>
+        <v>45370</v>
+      </c>
+      <c r="C4" s="11">
+        <v>45291</v>
+      </c>
+      <c r="D4" s="11">
+        <f>MAX(Tabla2[Fecha])</f>
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D3</f>
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <f>DATE(D1,12,31)</f>
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <f>(D8-D7+1)*30</f>
+        <v>10980</v>
+      </c>
+      <c r="F9">
+        <f>D8-D7</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <f>(D4-D3+1)*D2</f>
+        <v>3711.0000000000005</v>
+      </c>
+      <c r="F10">
+        <f>ROUND(D10*F9/D9,0)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D10/D9</f>
+        <v>0.33797814207650279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4782,41 +9321,61 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4828,12 +9387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4841,81 +9400,125 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -4976,13 +9579,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{A800A2B5-4499-4203-9A54-65FFCC2FFF77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8D094A-AC76-43DD-815B-F44FC879D1DB}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5026,7 +9631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D926CB-425F-4991-B1A5-CE4F0FE1F223}">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -5096,7 +9701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAEBB12-76A4-4189-89FC-54E895581664}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -5234,7 +9839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58D96FA-D899-460C-8687-DD2AE28D61A7}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FCF646-FEEF-4989-813B-BCE42B203B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859B419-54AB-48A9-94BB-DA9ACD5AB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-28920" yWindow="-8520" windowWidth="29040" windowHeight="15720" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -617,8 +617,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S211" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S211" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S218" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S218" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -964,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X211"/>
+  <dimension ref="A1:X218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D196" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E215" sqref="E215"/>
+      <selection pane="bottomRight" activeCell="J231" sqref="J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,15 +1048,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>46.974683544303801</v>
+        <v>48.109756097560975</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.33797814207650279</v>
+        <v>0.35928961748633881</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45415</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -9089,8 +9089,8 @@
         <v>7</v>
       </c>
       <c r="C210" s="4">
-        <f>SUM(D210:R210)</f>
-        <v>94</v>
+        <f t="shared" ref="C210:C215" si="33">SUM(D210:R210)</f>
+        <v>103</v>
       </c>
       <c r="D210" s="3">
         <v>86</v>
@@ -9101,9 +9101,15 @@
       <c r="F210" s="3">
         <v>3</v>
       </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
+      <c r="G210" s="3">
+        <v>4</v>
+      </c>
+      <c r="H210" s="3">
+        <v>3</v>
+      </c>
+      <c r="I210" s="3">
+        <v>2</v>
+      </c>
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
@@ -9126,7 +9132,7 @@
         <v>25</v>
       </c>
       <c r="C211" s="4">
-        <f>SUM(D211:R211)</f>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="D211" s="3">
@@ -9147,6 +9153,237 @@
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
       <c r="S211" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="4">
+        <f t="shared" si="33"/>
+        <v>53</v>
+      </c>
+      <c r="D212" s="3">
+        <v>53</v>
+      </c>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
+      <c r="L212" s="3"/>
+      <c r="M212" s="3"/>
+      <c r="N212" s="3"/>
+      <c r="O212" s="3"/>
+      <c r="P212" s="3"/>
+      <c r="Q212" s="3"/>
+      <c r="R212" s="3"/>
+      <c r="S212" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213" s="4">
+        <f t="shared" si="33"/>
+        <v>9</v>
+      </c>
+      <c r="D213" s="3">
+        <v>9</v>
+      </c>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+      <c r="J213" s="3"/>
+      <c r="K213" s="3"/>
+      <c r="L213" s="3"/>
+      <c r="M213" s="3"/>
+      <c r="N213" s="3"/>
+      <c r="O213" s="3"/>
+      <c r="P213" s="3"/>
+      <c r="Q213" s="3"/>
+      <c r="R213" s="3"/>
+      <c r="S213" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="4">
+        <f t="shared" si="33"/>
+        <v>34</v>
+      </c>
+      <c r="D214" s="3">
+        <v>34</v>
+      </c>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+      <c r="J214" s="3"/>
+      <c r="K214" s="3"/>
+      <c r="L214" s="3"/>
+      <c r="M214" s="3"/>
+      <c r="N214" s="3"/>
+      <c r="O214" s="3"/>
+      <c r="P214" s="3"/>
+      <c r="Q214" s="3"/>
+      <c r="R214" s="3"/>
+      <c r="S214" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215" s="4">
+        <f t="shared" si="33"/>
+        <v>8</v>
+      </c>
+      <c r="D215" s="3">
+        <v>8</v>
+      </c>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="O215" s="3"/>
+      <c r="P215" s="3"/>
+      <c r="Q215" s="3"/>
+      <c r="R215" s="3"/>
+      <c r="S215" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="4">
+        <f>SUM(D216:R216)</f>
+        <v>63</v>
+      </c>
+      <c r="D216" s="3">
+        <v>63</v>
+      </c>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3"/>
+      <c r="K216" s="3"/>
+      <c r="L216" s="3"/>
+      <c r="M216" s="3"/>
+      <c r="N216" s="3"/>
+      <c r="O216" s="3"/>
+      <c r="P216" s="3"/>
+      <c r="Q216" s="3"/>
+      <c r="R216" s="3"/>
+      <c r="S216" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217" s="4">
+        <f>SUM(D217:R217)</f>
+        <v>7</v>
+      </c>
+      <c r="D217" s="3">
+        <v>7</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
+      <c r="Q217" s="3"/>
+      <c r="R217" s="3"/>
+      <c r="S217" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C218" s="4">
+        <f>SUM(D218:R218)</f>
+        <v>51</v>
+      </c>
+      <c r="D218" s="3">
+        <v>51</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
+      <c r="K218" s="3"/>
+      <c r="L218" s="3"/>
+      <c r="M218" s="3"/>
+      <c r="N218" s="3"/>
+      <c r="O218" s="3"/>
+      <c r="P218" s="3"/>
+      <c r="Q218" s="3"/>
+      <c r="R218" s="3"/>
+      <c r="S218" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -9199,7 +9436,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>21.805263157894736</v>
+        <v>22.245430809399476</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -9207,7 +9444,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>46.974683544303801</v>
+        <v>48.109756097560975</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9232,14 +9469,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45370</v>
+        <v>45373</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9279,11 +9516,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>3711.0000000000005</v>
+        <v>3945</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -9292,7 +9529,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.33797814207650279</v>
+        <v>0.35928961748633881</v>
       </c>
     </row>
   </sheetData>
@@ -9392,7 +9629,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9475,13 +9712,13 @@
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -9511,13 +9748,13 @@
         <v>28</v>
       </c>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>97</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2859B419-54AB-48A9-94BB-DA9ACD5AB184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEF0CAC-59C8-451C-9783-58CB31B253EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8520" windowWidth="29040" windowHeight="15720" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
   <si>
     <t>Fecha</t>
   </si>
@@ -328,9 +328,6 @@
     <t>Anho</t>
   </si>
   <si>
-    <t>Repasar</t>
-  </si>
-  <si>
     <t>https://campus-ademass.com/curso/24</t>
   </si>
   <si>
@@ -380,6 +377,12 @@
   </si>
   <si>
     <t>Curso de Laravel</t>
+  </si>
+  <si>
+    <t>Blockchain</t>
+  </si>
+  <si>
+    <t>Docker</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S218" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S218" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S293" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S293" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -655,10 +658,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A13" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A13" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A13">
-    <sortCondition ref="A1:A13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A15" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -964,13 +967,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X218"/>
+  <dimension ref="A1:X293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D208" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J231" sqref="J231"/>
+      <selection pane="bottomRight" activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,15 +1051,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>48.109756097560975</v>
+        <v>41.246987951807228</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.35928961748633881</v>
+        <v>0.62358834244080141</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45423</v>
+        <v>45520</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -7835,7 +7838,7 @@
         <v>2024</v>
       </c>
       <c r="V175" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
@@ -8176,7 +8179,7 @@
         <v>45354</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C185" s="4">
         <f t="shared" si="28"/>
@@ -8679,7 +8682,7 @@
         <v>45362</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C199" s="4">
         <f t="shared" si="31"/>
@@ -8909,7 +8912,7 @@
         <v>45366</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C205" s="4">
         <f t="shared" si="32"/>
@@ -9297,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="C216" s="4">
-        <f>SUM(D216:R216)</f>
+        <f t="shared" ref="C216:C221" si="34">SUM(D216:R216)</f>
         <v>63</v>
       </c>
       <c r="D216" s="3">
@@ -9330,7 +9333,7 @@
         <v>25</v>
       </c>
       <c r="C217" s="4">
-        <f>SUM(D217:R217)</f>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="D217" s="3">
@@ -9360,10 +9363,10 @@
         <v>45373</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C218" s="4">
-        <f>SUM(D218:R218)</f>
+        <f t="shared" si="34"/>
         <v>51</v>
       </c>
       <c r="D218" s="3">
@@ -9384,6 +9387,2713 @@
       <c r="Q218" s="3"/>
       <c r="R218" s="3"/>
       <c r="S218" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="4">
+        <f t="shared" si="34"/>
+        <v>74</v>
+      </c>
+      <c r="D219" s="3">
+        <v>74</v>
+      </c>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="O219" s="3"/>
+      <c r="P219" s="3"/>
+      <c r="Q219" s="3"/>
+      <c r="R219" s="3"/>
+      <c r="S219" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="4">
+        <f t="shared" si="34"/>
+        <v>63</v>
+      </c>
+      <c r="D220" s="3">
+        <v>63</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
+      <c r="Q220" s="3"/>
+      <c r="R220" s="3"/>
+      <c r="S220" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="4">
+        <f t="shared" si="34"/>
+        <v>43</v>
+      </c>
+      <c r="D221" s="3">
+        <v>20</v>
+      </c>
+      <c r="E221" s="3">
+        <v>6</v>
+      </c>
+      <c r="F221" s="3">
+        <v>2</v>
+      </c>
+      <c r="G221" s="3">
+        <v>12</v>
+      </c>
+      <c r="H221" s="3">
+        <v>3</v>
+      </c>
+      <c r="I221" s="3"/>
+      <c r="J221" s="3"/>
+      <c r="K221" s="3"/>
+      <c r="L221" s="3"/>
+      <c r="M221" s="3"/>
+      <c r="N221" s="3"/>
+      <c r="O221" s="3"/>
+      <c r="P221" s="3"/>
+      <c r="Q221" s="3"/>
+      <c r="R221" s="3"/>
+      <c r="S221" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="4">
+        <f t="shared" ref="C222:C227" si="35">SUM(D222:R222)</f>
+        <v>6</v>
+      </c>
+      <c r="D222" s="3">
+        <v>6</v>
+      </c>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
+      <c r="L222" s="3"/>
+      <c r="M222" s="3"/>
+      <c r="N222" s="3"/>
+      <c r="O222" s="3"/>
+      <c r="P222" s="3"/>
+      <c r="Q222" s="3"/>
+      <c r="R222" s="3"/>
+      <c r="S222" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="4">
+        <f t="shared" si="35"/>
+        <v>30</v>
+      </c>
+      <c r="D223" s="3">
+        <v>11</v>
+      </c>
+      <c r="E223" s="3">
+        <v>10</v>
+      </c>
+      <c r="F223" s="3">
+        <v>9</v>
+      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+      <c r="J223" s="3"/>
+      <c r="K223" s="3"/>
+      <c r="L223" s="3"/>
+      <c r="M223" s="3"/>
+      <c r="N223" s="3"/>
+      <c r="O223" s="3"/>
+      <c r="P223" s="3"/>
+      <c r="Q223" s="3"/>
+      <c r="R223" s="3"/>
+      <c r="S223" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="4">
+        <f t="shared" si="35"/>
+        <v>40</v>
+      </c>
+      <c r="D224" s="3">
+        <v>20</v>
+      </c>
+      <c r="E224" s="3">
+        <v>20</v>
+      </c>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+      <c r="J224" s="3"/>
+      <c r="K224" s="3"/>
+      <c r="L224" s="3"/>
+      <c r="M224" s="3"/>
+      <c r="N224" s="3"/>
+      <c r="O224" s="3"/>
+      <c r="P224" s="3"/>
+      <c r="Q224" s="3"/>
+      <c r="R224" s="3"/>
+      <c r="S224" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225" s="4">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="D225" s="3">
+        <v>10</v>
+      </c>
+      <c r="E225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="O225" s="3"/>
+      <c r="P225" s="3"/>
+      <c r="Q225" s="3"/>
+      <c r="R225" s="3"/>
+      <c r="S225" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="4">
+        <f t="shared" si="35"/>
+        <v>39</v>
+      </c>
+      <c r="D226" s="3">
+        <v>11</v>
+      </c>
+      <c r="E226" s="3">
+        <v>13</v>
+      </c>
+      <c r="F226" s="3">
+        <v>15</v>
+      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
+      <c r="K226" s="3"/>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
+      <c r="N226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="3"/>
+      <c r="Q226" s="3"/>
+      <c r="R226" s="3"/>
+      <c r="S226" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C227" s="4">
+        <f t="shared" si="35"/>
+        <v>30</v>
+      </c>
+      <c r="D227" s="3">
+        <v>30</v>
+      </c>
+      <c r="E227" s="3"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
+      <c r="J227" s="3"/>
+      <c r="K227" s="3"/>
+      <c r="L227" s="3"/>
+      <c r="M227" s="3"/>
+      <c r="N227" s="3"/>
+      <c r="O227" s="3"/>
+      <c r="P227" s="3"/>
+      <c r="Q227" s="3"/>
+      <c r="R227" s="3"/>
+      <c r="S227" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" s="4">
+        <f t="shared" ref="C228:C233" si="36">SUM(D228:R228)</f>
+        <v>38</v>
+      </c>
+      <c r="D228" s="3">
+        <v>7</v>
+      </c>
+      <c r="E228" s="3">
+        <v>13</v>
+      </c>
+      <c r="F228" s="3">
+        <v>18</v>
+      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C229" s="4">
+        <f t="shared" si="36"/>
+        <v>21</v>
+      </c>
+      <c r="D229" s="3">
+        <v>21</v>
+      </c>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" s="4">
+        <f t="shared" si="36"/>
+        <v>30</v>
+      </c>
+      <c r="D230" s="3">
+        <v>6</v>
+      </c>
+      <c r="E230" s="3">
+        <v>5</v>
+      </c>
+      <c r="F230" s="3">
+        <v>19</v>
+      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231" s="4">
+        <f t="shared" si="36"/>
+        <v>11</v>
+      </c>
+      <c r="D231" s="3">
+        <v>11</v>
+      </c>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="4">
+        <f t="shared" si="36"/>
+        <v>46</v>
+      </c>
+      <c r="D232" s="3">
+        <v>4</v>
+      </c>
+      <c r="E232" s="3">
+        <v>11</v>
+      </c>
+      <c r="F232" s="3">
+        <v>9</v>
+      </c>
+      <c r="G232" s="3">
+        <v>4</v>
+      </c>
+      <c r="H232" s="3">
+        <v>4</v>
+      </c>
+      <c r="I232" s="3">
+        <v>14</v>
+      </c>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233" s="4">
+        <f t="shared" si="36"/>
+        <v>19</v>
+      </c>
+      <c r="D233" s="3">
+        <v>19</v>
+      </c>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" s="4">
+        <f t="shared" ref="C234:C239" si="37">SUM(D234:R234)</f>
+        <v>50</v>
+      </c>
+      <c r="D234" s="3">
+        <v>50</v>
+      </c>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" s="4">
+        <f t="shared" si="37"/>
+        <v>40</v>
+      </c>
+      <c r="D235" s="3">
+        <v>40</v>
+      </c>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="4">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="D236" s="3">
+        <v>30</v>
+      </c>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" s="4">
+        <f t="shared" si="37"/>
+        <v>30</v>
+      </c>
+      <c r="D237" s="3">
+        <v>30</v>
+      </c>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C238" s="4">
+        <f t="shared" si="37"/>
+        <v>18</v>
+      </c>
+      <c r="D238" s="3">
+        <v>18</v>
+      </c>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" s="4">
+        <f t="shared" si="37"/>
+        <v>20</v>
+      </c>
+      <c r="D239" s="3">
+        <v>20</v>
+      </c>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>45395</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C240" s="4">
+        <f t="shared" ref="C240:C245" si="38">SUM(D240:R240)</f>
+        <v>35</v>
+      </c>
+      <c r="D240" s="3">
+        <v>16</v>
+      </c>
+      <c r="E240" s="3">
+        <v>19</v>
+      </c>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>45396</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C241" s="4">
+        <f t="shared" si="38"/>
+        <v>43</v>
+      </c>
+      <c r="D241" s="3">
+        <v>13</v>
+      </c>
+      <c r="E241" s="3">
+        <v>30</v>
+      </c>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="4">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="D242" s="3">
+        <v>39</v>
+      </c>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="4">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="D243" s="3">
+        <v>32</v>
+      </c>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" s="4">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="D244" s="3">
+        <v>12</v>
+      </c>
+      <c r="E244" s="3">
+        <v>23</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="4">
+        <f t="shared" si="38"/>
+        <v>44</v>
+      </c>
+      <c r="D245" s="3">
+        <v>12</v>
+      </c>
+      <c r="E245" s="3">
+        <v>10</v>
+      </c>
+      <c r="F245" s="3">
+        <v>22</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" s="4">
+        <f t="shared" ref="C246:C251" si="39">SUM(D246:R246)</f>
+        <v>44</v>
+      </c>
+      <c r="D246" s="3">
+        <v>44</v>
+      </c>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" s="4">
+        <f t="shared" si="39"/>
+        <v>40</v>
+      </c>
+      <c r="D247" s="3">
+        <v>11</v>
+      </c>
+      <c r="E247" s="3">
+        <v>16</v>
+      </c>
+      <c r="F247" s="3">
+        <v>13</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C248" s="4">
+        <f t="shared" si="39"/>
+        <v>51</v>
+      </c>
+      <c r="D248" s="3">
+        <v>9</v>
+      </c>
+      <c r="E248" s="3">
+        <v>8</v>
+      </c>
+      <c r="F248" s="3">
+        <v>9</v>
+      </c>
+      <c r="G248" s="3">
+        <v>8</v>
+      </c>
+      <c r="H248" s="3">
+        <v>17</v>
+      </c>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C249" s="4">
+        <f t="shared" si="39"/>
+        <v>47</v>
+      </c>
+      <c r="D249" s="3">
+        <v>7</v>
+      </c>
+      <c r="E249" s="3">
+        <v>14</v>
+      </c>
+      <c r="F249" s="3">
+        <v>5</v>
+      </c>
+      <c r="G249" s="3">
+        <v>15</v>
+      </c>
+      <c r="H249" s="3">
+        <v>6</v>
+      </c>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250" s="4">
+        <f t="shared" si="39"/>
+        <v>33</v>
+      </c>
+      <c r="D250" s="3">
+        <v>24</v>
+      </c>
+      <c r="E250" s="3">
+        <v>9</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="4">
+        <f t="shared" si="39"/>
+        <v>41</v>
+      </c>
+      <c r="D251" s="3">
+        <v>7</v>
+      </c>
+      <c r="E251" s="3">
+        <v>12</v>
+      </c>
+      <c r="F251" s="3">
+        <v>22</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>45410</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C252" s="4">
+        <f t="shared" ref="C252:C257" si="40">SUM(D252:R252)</f>
+        <v>157</v>
+      </c>
+      <c r="D252" s="3">
+        <v>70</v>
+      </c>
+      <c r="E252" s="3">
+        <v>87</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" s="4">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="D253" s="3">
+        <v>13</v>
+      </c>
+      <c r="E253" s="3">
+        <v>3</v>
+      </c>
+      <c r="F253" s="3">
+        <v>4</v>
+      </c>
+      <c r="G253" s="3">
+        <v>13</v>
+      </c>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="4">
+        <f t="shared" si="40"/>
+        <v>33</v>
+      </c>
+      <c r="D254" s="3">
+        <v>10</v>
+      </c>
+      <c r="E254" s="3">
+        <v>18</v>
+      </c>
+      <c r="F254" s="3">
+        <v>5</v>
+      </c>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="4">
+        <f t="shared" si="40"/>
+        <v>22</v>
+      </c>
+      <c r="D255" s="3">
+        <v>6</v>
+      </c>
+      <c r="E255" s="3">
+        <v>4</v>
+      </c>
+      <c r="F255" s="3">
+        <v>3</v>
+      </c>
+      <c r="G255" s="3">
+        <v>7</v>
+      </c>
+      <c r="H255" s="3">
+        <v>2</v>
+      </c>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="4">
+        <f t="shared" si="40"/>
+        <v>37</v>
+      </c>
+      <c r="D256" s="3">
+        <v>37</v>
+      </c>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
+      <c r="S256" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="4">
+        <f t="shared" si="40"/>
+        <v>31</v>
+      </c>
+      <c r="D257" s="3">
+        <v>20</v>
+      </c>
+      <c r="E257" s="3">
+        <v>11</v>
+      </c>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="4">
+        <f t="shared" ref="C258:C263" si="41">SUM(D258:R258)</f>
+        <v>53</v>
+      </c>
+      <c r="D258" s="3">
+        <v>5</v>
+      </c>
+      <c r="E258" s="3">
+        <v>6</v>
+      </c>
+      <c r="F258" s="3">
+        <v>4</v>
+      </c>
+      <c r="G258" s="3">
+        <v>10</v>
+      </c>
+      <c r="H258" s="3">
+        <v>8</v>
+      </c>
+      <c r="I258" s="3">
+        <v>11</v>
+      </c>
+      <c r="J258" s="3">
+        <v>9</v>
+      </c>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="4">
+        <f t="shared" si="41"/>
+        <v>35</v>
+      </c>
+      <c r="D259" s="3">
+        <v>26</v>
+      </c>
+      <c r="E259" s="3">
+        <v>9</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
+      <c r="S259" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="4">
+        <f t="shared" si="41"/>
+        <v>35</v>
+      </c>
+      <c r="D260" s="3">
+        <v>5</v>
+      </c>
+      <c r="E260" s="3">
+        <v>12</v>
+      </c>
+      <c r="F260" s="3">
+        <v>6</v>
+      </c>
+      <c r="G260" s="3">
+        <v>12</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
+      <c r="S260" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="4">
+        <f t="shared" si="41"/>
+        <v>32</v>
+      </c>
+      <c r="D261" s="3">
+        <v>9</v>
+      </c>
+      <c r="E261" s="3">
+        <v>9</v>
+      </c>
+      <c r="F261" s="3">
+        <v>2</v>
+      </c>
+      <c r="G261" s="3">
+        <v>5</v>
+      </c>
+      <c r="H261" s="3">
+        <v>2</v>
+      </c>
+      <c r="I261" s="3">
+        <v>5</v>
+      </c>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>45423</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C262" s="4">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="D262" s="3">
+        <v>4</v>
+      </c>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="3"/>
+      <c r="R262" s="3"/>
+      <c r="S262" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>45424</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C263" s="4">
+        <f t="shared" si="41"/>
+        <v>13</v>
+      </c>
+      <c r="D263" s="3">
+        <v>5</v>
+      </c>
+      <c r="E263" s="3">
+        <v>8</v>
+      </c>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
+      <c r="Q263" s="3"/>
+      <c r="R263" s="3"/>
+      <c r="S263" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="4">
+        <f t="shared" ref="C264:C269" si="42">SUM(D264:R264)</f>
+        <v>37</v>
+      </c>
+      <c r="D264" s="3">
+        <v>6</v>
+      </c>
+      <c r="E264" s="3">
+        <v>4</v>
+      </c>
+      <c r="F264" s="3">
+        <v>16</v>
+      </c>
+      <c r="G264" s="3">
+        <v>2</v>
+      </c>
+      <c r="H264" s="3">
+        <v>4</v>
+      </c>
+      <c r="I264" s="3">
+        <v>5</v>
+      </c>
+      <c r="J264" s="3"/>
+      <c r="K264" s="3"/>
+      <c r="L264" s="3"/>
+      <c r="M264" s="3"/>
+      <c r="N264" s="3"/>
+      <c r="O264" s="3"/>
+      <c r="P264" s="3"/>
+      <c r="Q264" s="3"/>
+      <c r="R264" s="3"/>
+      <c r="S264" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" s="4">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="D265" s="3">
+        <v>7</v>
+      </c>
+      <c r="E265" s="3">
+        <v>8</v>
+      </c>
+      <c r="F265" s="3">
+        <v>5</v>
+      </c>
+      <c r="G265" s="3"/>
+      <c r="H265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3"/>
+      <c r="K265" s="3"/>
+      <c r="L265" s="3"/>
+      <c r="M265" s="3"/>
+      <c r="N265" s="3"/>
+      <c r="O265" s="3"/>
+      <c r="P265" s="3"/>
+      <c r="Q265" s="3"/>
+      <c r="R265" s="3"/>
+      <c r="S265" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="4">
+        <f t="shared" si="42"/>
+        <v>48</v>
+      </c>
+      <c r="D266" s="3">
+        <v>14</v>
+      </c>
+      <c r="E266" s="3">
+        <v>15</v>
+      </c>
+      <c r="F266" s="3">
+        <v>19</v>
+      </c>
+      <c r="G266" s="3"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="J266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="O266" s="3"/>
+      <c r="P266" s="3"/>
+      <c r="Q266" s="3"/>
+      <c r="R266" s="3"/>
+      <c r="S266" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" s="4">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="D267" s="3">
+        <v>6</v>
+      </c>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3"/>
+      <c r="K267" s="3"/>
+      <c r="L267" s="3"/>
+      <c r="M267" s="3"/>
+      <c r="N267" s="3"/>
+      <c r="O267" s="3"/>
+      <c r="P267" s="3"/>
+      <c r="Q267" s="3"/>
+      <c r="R267" s="3"/>
+      <c r="S267" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" s="4">
+        <f t="shared" si="42"/>
+        <v>47</v>
+      </c>
+      <c r="D268" s="3">
+        <v>8</v>
+      </c>
+      <c r="E268" s="3">
+        <v>9</v>
+      </c>
+      <c r="F268" s="3">
+        <v>4</v>
+      </c>
+      <c r="G268" s="3">
+        <v>26</v>
+      </c>
+      <c r="H268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3"/>
+      <c r="K268" s="3"/>
+      <c r="L268" s="3"/>
+      <c r="M268" s="3"/>
+      <c r="N268" s="3"/>
+      <c r="O268" s="3"/>
+      <c r="P268" s="3"/>
+      <c r="Q268" s="3"/>
+      <c r="R268" s="3"/>
+      <c r="S268" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C269" s="4">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="D269" s="3">
+        <v>10</v>
+      </c>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="H269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3"/>
+      <c r="K269" s="3"/>
+      <c r="L269" s="3"/>
+      <c r="M269" s="3"/>
+      <c r="N269" s="3"/>
+      <c r="O269" s="3"/>
+      <c r="P269" s="3"/>
+      <c r="Q269" s="3"/>
+      <c r="R269" s="3"/>
+      <c r="S269" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="4">
+        <f t="shared" ref="C270:C275" si="43">SUM(D270:R270)</f>
+        <v>31</v>
+      </c>
+      <c r="D270" s="3">
+        <v>31</v>
+      </c>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="H270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3"/>
+      <c r="K270" s="3"/>
+      <c r="L270" s="3"/>
+      <c r="M270" s="3"/>
+      <c r="N270" s="3"/>
+      <c r="O270" s="3"/>
+      <c r="P270" s="3"/>
+      <c r="Q270" s="3"/>
+      <c r="R270" s="3"/>
+      <c r="S270" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" s="4">
+        <f t="shared" si="43"/>
+        <v>37</v>
+      </c>
+      <c r="D271" s="3">
+        <v>15</v>
+      </c>
+      <c r="E271" s="3">
+        <v>12</v>
+      </c>
+      <c r="F271" s="3">
+        <v>10</v>
+      </c>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3"/>
+      <c r="K271" s="3"/>
+      <c r="L271" s="3"/>
+      <c r="M271" s="3"/>
+      <c r="N271" s="3"/>
+      <c r="O271" s="3"/>
+      <c r="P271" s="3"/>
+      <c r="Q271" s="3"/>
+      <c r="R271" s="3"/>
+      <c r="S271" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C272" s="4">
+        <f t="shared" si="43"/>
+        <v>11</v>
+      </c>
+      <c r="D272" s="3">
+        <v>5</v>
+      </c>
+      <c r="E272" s="3">
+        <v>6</v>
+      </c>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="H272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3"/>
+      <c r="K272" s="3"/>
+      <c r="L272" s="3"/>
+      <c r="M272" s="3"/>
+      <c r="N272" s="3"/>
+      <c r="O272" s="3"/>
+      <c r="P272" s="3"/>
+      <c r="Q272" s="3"/>
+      <c r="R272" s="3"/>
+      <c r="S272" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>45430</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C273" s="4">
+        <f t="shared" si="43"/>
+        <v>37</v>
+      </c>
+      <c r="D273" s="3">
+        <v>14</v>
+      </c>
+      <c r="E273" s="3">
+        <v>12</v>
+      </c>
+      <c r="F273" s="3">
+        <v>11</v>
+      </c>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="3"/>
+      <c r="J273" s="3"/>
+      <c r="K273" s="3"/>
+      <c r="L273" s="3"/>
+      <c r="M273" s="3"/>
+      <c r="N273" s="3"/>
+      <c r="O273" s="3"/>
+      <c r="P273" s="3"/>
+      <c r="Q273" s="3"/>
+      <c r="R273" s="3"/>
+      <c r="S273" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="4">
+        <f t="shared" si="43"/>
+        <v>46</v>
+      </c>
+      <c r="D274" s="3">
+        <v>46</v>
+      </c>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="3"/>
+      <c r="J274" s="3"/>
+      <c r="K274" s="3"/>
+      <c r="L274" s="3"/>
+      <c r="M274" s="3"/>
+      <c r="N274" s="3"/>
+      <c r="O274" s="3"/>
+      <c r="P274" s="3"/>
+      <c r="Q274" s="3"/>
+      <c r="R274" s="3"/>
+      <c r="S274" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C275" s="4">
+        <f t="shared" si="43"/>
+        <v>41</v>
+      </c>
+      <c r="D275" s="3">
+        <v>41</v>
+      </c>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="H275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3"/>
+      <c r="K275" s="3"/>
+      <c r="L275" s="3"/>
+      <c r="M275" s="3"/>
+      <c r="N275" s="3"/>
+      <c r="O275" s="3"/>
+      <c r="P275" s="3"/>
+      <c r="Q275" s="3"/>
+      <c r="R275" s="3"/>
+      <c r="S275" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C276" s="4">
+        <f t="shared" ref="C276:C281" si="44">SUM(D276:R276)</f>
+        <v>42</v>
+      </c>
+      <c r="D276" s="3">
+        <v>42</v>
+      </c>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="H276" s="3"/>
+      <c r="I276" s="3"/>
+      <c r="J276" s="3"/>
+      <c r="K276" s="3"/>
+      <c r="L276" s="3"/>
+      <c r="M276" s="3"/>
+      <c r="N276" s="3"/>
+      <c r="O276" s="3"/>
+      <c r="P276" s="3"/>
+      <c r="Q276" s="3"/>
+      <c r="R276" s="3"/>
+      <c r="S276" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="4">
+        <f t="shared" si="44"/>
+        <v>38</v>
+      </c>
+      <c r="D277" s="3">
+        <v>38</v>
+      </c>
+      <c r="E277" s="3"/>
+      <c r="F277" s="3"/>
+      <c r="G277" s="3"/>
+      <c r="H277" s="3"/>
+      <c r="I277" s="3"/>
+      <c r="J277" s="3"/>
+      <c r="K277" s="3"/>
+      <c r="L277" s="3"/>
+      <c r="M277" s="3"/>
+      <c r="N277" s="3"/>
+      <c r="O277" s="3"/>
+      <c r="P277" s="3"/>
+      <c r="Q277" s="3"/>
+      <c r="R277" s="3"/>
+      <c r="S277" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" s="4">
+        <f t="shared" si="44"/>
+        <v>37</v>
+      </c>
+      <c r="D278" s="3">
+        <v>11</v>
+      </c>
+      <c r="E278" s="3">
+        <v>7</v>
+      </c>
+      <c r="F278" s="3">
+        <v>8</v>
+      </c>
+      <c r="G278" s="3">
+        <v>4</v>
+      </c>
+      <c r="H278" s="3">
+        <v>7</v>
+      </c>
+      <c r="I278" s="3"/>
+      <c r="J278" s="3"/>
+      <c r="K278" s="3"/>
+      <c r="L278" s="3"/>
+      <c r="M278" s="3"/>
+      <c r="N278" s="3"/>
+      <c r="O278" s="3"/>
+      <c r="P278" s="3"/>
+      <c r="Q278" s="3"/>
+      <c r="R278" s="3"/>
+      <c r="S278" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C279" s="4">
+        <f t="shared" si="44"/>
+        <v>35</v>
+      </c>
+      <c r="D279" s="3">
+        <v>7</v>
+      </c>
+      <c r="E279" s="3">
+        <v>10</v>
+      </c>
+      <c r="F279" s="3">
+        <v>8</v>
+      </c>
+      <c r="G279" s="3">
+        <v>6</v>
+      </c>
+      <c r="H279" s="3">
+        <v>4</v>
+      </c>
+      <c r="I279" s="3"/>
+      <c r="J279" s="3"/>
+      <c r="K279" s="3"/>
+      <c r="L279" s="3"/>
+      <c r="M279" s="3"/>
+      <c r="N279" s="3"/>
+      <c r="O279" s="3"/>
+      <c r="P279" s="3"/>
+      <c r="Q279" s="3"/>
+      <c r="R279" s="3"/>
+      <c r="S279" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="4">
+        <f t="shared" si="44"/>
+        <v>39</v>
+      </c>
+      <c r="D280" s="3">
+        <v>39</v>
+      </c>
+      <c r="E280" s="3"/>
+      <c r="F280" s="3"/>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="3"/>
+      <c r="J280" s="3"/>
+      <c r="K280" s="3"/>
+      <c r="L280" s="3"/>
+      <c r="M280" s="3"/>
+      <c r="N280" s="3"/>
+      <c r="O280" s="3"/>
+      <c r="P280" s="3"/>
+      <c r="Q280" s="3"/>
+      <c r="R280" s="3"/>
+      <c r="S280" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" s="4">
+        <f t="shared" si="44"/>
+        <v>33</v>
+      </c>
+      <c r="D281" s="3">
+        <v>33</v>
+      </c>
+      <c r="E281" s="3"/>
+      <c r="F281" s="3"/>
+      <c r="G281" s="3"/>
+      <c r="H281" s="3"/>
+      <c r="I281" s="3"/>
+      <c r="J281" s="3"/>
+      <c r="K281" s="3"/>
+      <c r="L281" s="3"/>
+      <c r="M281" s="3"/>
+      <c r="N281" s="3"/>
+      <c r="O281" s="3"/>
+      <c r="P281" s="3"/>
+      <c r="Q281" s="3"/>
+      <c r="R281" s="3"/>
+      <c r="S281" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="4">
+        <f t="shared" ref="C282:C287" si="45">SUM(D282:R282)</f>
+        <v>47</v>
+      </c>
+      <c r="D282" s="3">
+        <v>47</v>
+      </c>
+      <c r="E282" s="3"/>
+      <c r="F282" s="3"/>
+      <c r="G282" s="3"/>
+      <c r="H282" s="3"/>
+      <c r="I282" s="3"/>
+      <c r="J282" s="3"/>
+      <c r="K282" s="3"/>
+      <c r="L282" s="3"/>
+      <c r="M282" s="3"/>
+      <c r="N282" s="3"/>
+      <c r="O282" s="3"/>
+      <c r="P282" s="3"/>
+      <c r="Q282" s="3"/>
+      <c r="R282" s="3"/>
+      <c r="S282" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" s="4">
+        <f t="shared" si="45"/>
+        <v>52</v>
+      </c>
+      <c r="D283" s="3">
+        <v>52</v>
+      </c>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="4">
+        <f t="shared" si="45"/>
+        <v>41</v>
+      </c>
+      <c r="D284" s="3">
+        <v>41</v>
+      </c>
+      <c r="E284" s="3"/>
+      <c r="F284" s="3"/>
+      <c r="G284" s="3"/>
+      <c r="H284" s="3"/>
+      <c r="I284" s="3"/>
+      <c r="J284" s="3"/>
+      <c r="K284" s="3"/>
+      <c r="L284" s="3"/>
+      <c r="M284" s="3"/>
+      <c r="N284" s="3"/>
+      <c r="O284" s="3"/>
+      <c r="P284" s="3"/>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C285" s="4">
+        <f t="shared" si="45"/>
+        <v>35</v>
+      </c>
+      <c r="D285" s="3">
+        <v>35</v>
+      </c>
+      <c r="E285" s="3"/>
+      <c r="F285" s="3"/>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="3"/>
+      <c r="R285" s="3"/>
+      <c r="S285" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="4">
+        <f t="shared" si="45"/>
+        <v>34</v>
+      </c>
+      <c r="D286" s="3">
+        <v>34</v>
+      </c>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="3"/>
+      <c r="R286" s="3"/>
+      <c r="S286" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="4">
+        <f t="shared" si="45"/>
+        <v>39</v>
+      </c>
+      <c r="D287" s="3">
+        <v>39</v>
+      </c>
+      <c r="E287" s="3"/>
+      <c r="F287" s="3"/>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>45452</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C288" s="4">
+        <f t="shared" ref="C288:C293" si="46">SUM(D288:R288)</f>
+        <v>56</v>
+      </c>
+      <c r="D288" s="3">
+        <v>56</v>
+      </c>
+      <c r="E288" s="3"/>
+      <c r="F288" s="3"/>
+      <c r="G288" s="3"/>
+      <c r="H288" s="3"/>
+      <c r="I288" s="3"/>
+      <c r="J288" s="3"/>
+      <c r="K288" s="3"/>
+      <c r="L288" s="3"/>
+      <c r="M288" s="3"/>
+      <c r="N288" s="3"/>
+      <c r="O288" s="3"/>
+      <c r="P288" s="3"/>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>45453</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C289" s="4">
+        <f t="shared" si="46"/>
+        <v>60</v>
+      </c>
+      <c r="D289" s="3">
+        <v>28</v>
+      </c>
+      <c r="E289" s="3">
+        <v>32</v>
+      </c>
+      <c r="F289" s="3"/>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="J289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="O289" s="3"/>
+      <c r="P289" s="3"/>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="4">
+        <f t="shared" si="46"/>
+        <v>71</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2</v>
+      </c>
+      <c r="E290" s="3">
+        <v>7</v>
+      </c>
+      <c r="F290" s="3">
+        <v>5</v>
+      </c>
+      <c r="G290" s="3">
+        <v>7</v>
+      </c>
+      <c r="H290" s="3">
+        <v>11</v>
+      </c>
+      <c r="I290" s="3">
+        <v>11</v>
+      </c>
+      <c r="J290" s="3">
+        <v>3</v>
+      </c>
+      <c r="K290" s="3">
+        <v>11</v>
+      </c>
+      <c r="L290" s="3">
+        <v>14</v>
+      </c>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
+      <c r="Q290" s="3"/>
+      <c r="R290" s="3"/>
+      <c r="S290" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="4">
+        <f t="shared" si="46"/>
+        <v>93</v>
+      </c>
+      <c r="D291" s="3">
+        <v>17</v>
+      </c>
+      <c r="E291" s="3">
+        <v>2</v>
+      </c>
+      <c r="F291" s="3">
+        <v>13</v>
+      </c>
+      <c r="G291" s="3">
+        <v>6</v>
+      </c>
+      <c r="H291" s="3">
+        <v>7</v>
+      </c>
+      <c r="I291" s="3">
+        <v>14</v>
+      </c>
+      <c r="J291" s="3">
+        <v>11</v>
+      </c>
+      <c r="K291" s="3">
+        <v>5</v>
+      </c>
+      <c r="L291" s="3">
+        <v>12</v>
+      </c>
+      <c r="M291" s="3">
+        <v>6</v>
+      </c>
+      <c r="N291" s="3"/>
+      <c r="O291" s="3"/>
+      <c r="P291" s="3"/>
+      <c r="Q291" s="3"/>
+      <c r="R291" s="3"/>
+      <c r="S291" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="4">
+        <f t="shared" si="46"/>
+        <v>60</v>
+      </c>
+      <c r="D292" s="3">
+        <v>7</v>
+      </c>
+      <c r="E292" s="3">
+        <v>12</v>
+      </c>
+      <c r="F292" s="3">
+        <v>14</v>
+      </c>
+      <c r="G292" s="3">
+        <v>9</v>
+      </c>
+      <c r="H292" s="3">
+        <v>18</v>
+      </c>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="O292" s="3"/>
+      <c r="P292" s="3"/>
+      <c r="Q292" s="3"/>
+      <c r="R292" s="3"/>
+      <c r="S292" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="4">
+        <f t="shared" si="46"/>
+        <v>62</v>
+      </c>
+      <c r="D293" s="3">
+        <v>8</v>
+      </c>
+      <c r="E293" s="3">
+        <v>4</v>
+      </c>
+      <c r="F293" s="3">
+        <v>10</v>
+      </c>
+      <c r="G293" s="3">
+        <v>6</v>
+      </c>
+      <c r="H293" s="3">
+        <v>13</v>
+      </c>
+      <c r="I293" s="3">
+        <v>4</v>
+      </c>
+      <c r="J293" s="3">
+        <v>17</v>
+      </c>
+      <c r="K293" s="3"/>
+      <c r="L293" s="3"/>
+      <c r="M293" s="3"/>
+      <c r="N293" s="3"/>
+      <c r="O293" s="3"/>
+      <c r="P293" s="3"/>
+      <c r="Q293" s="3"/>
+      <c r="R293" s="3"/>
+      <c r="S293" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -9436,7 +12146,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>22.245430809399476</v>
+        <v>24.458244111349035</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -9444,7 +12154,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>48.109756097560975</v>
+        <v>41.246987951807228</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9469,19 +12179,19 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45373</v>
+        <v>45457</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45373</v>
+        <v>45457</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1">
         <f>D3</f>
@@ -9490,7 +12200,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1">
         <f>DATE(D1,12,31)</f>
@@ -9499,7 +12209,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -9512,24 +12222,24 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>3945</v>
+        <v>6847</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>131</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.35928961748633881</v>
+        <v>0.62358834244080141</v>
       </c>
     </row>
   </sheetData>
@@ -9540,10 +12250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9558,7 +12268,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -9568,32 +12278,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
@@ -9603,16 +12313,26 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9626,10 +12346,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9637,124 +12357,112 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>94</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4">
-        <v>23</v>
-      </c>
-      <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEF0CAC-59C8-451C-9783-58CB31B253EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F97D82-7FC9-4BE8-8094-6925386D36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -352,12 +352,6 @@
     <t>Avance:</t>
   </si>
   <si>
-    <t>Curso avanzado de Laravel 10</t>
-  </si>
-  <si>
-    <t>https://codersfree.com/cursos/aprende-laravel-avanzado</t>
-  </si>
-  <si>
     <t>React.js</t>
   </si>
   <si>
@@ -383,6 +377,9 @@
   </si>
   <si>
     <t>Docker</t>
+  </si>
+  <si>
+    <t>SOLID</t>
   </si>
 </sst>
 </file>
@@ -620,8 +617,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S293" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S293" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S298" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S298" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -658,10 +655,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A15" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A15" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A16" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
+    <sortCondition ref="A1:A16"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -967,13 +964,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X293"/>
+  <dimension ref="A1:X298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J294" sqref="J294"/>
+      <selection pane="bottomRight" activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,15 +1048,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>41.246987951807228</v>
+        <v>41.941520467836256</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.62358834244080141</v>
+        <v>0.65318761384335156</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45520</v>
+        <v>45530</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -7838,7 +7835,7 @@
         <v>2024</v>
       </c>
       <c r="V175" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
@@ -8179,7 +8176,7 @@
         <v>45354</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C185" s="4">
         <f t="shared" si="28"/>
@@ -8682,7 +8679,7 @@
         <v>45362</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C199" s="4">
         <f t="shared" si="31"/>
@@ -8912,7 +8909,7 @@
         <v>45366</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C205" s="4">
         <f t="shared" si="32"/>
@@ -9363,7 +9360,7 @@
         <v>45373</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C218" s="4">
         <f t="shared" si="34"/>
@@ -9678,7 +9675,7 @@
         <v>45384</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C227" s="4">
         <f t="shared" si="35"/>
@@ -9748,7 +9745,7 @@
         <v>45385</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C229" s="4">
         <f t="shared" si="36"/>
@@ -10059,7 +10056,7 @@
         <v>45394</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C238" s="4">
         <f t="shared" si="37"/>
@@ -10125,7 +10122,7 @@
         <v>45395</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C240" s="4">
         <f t="shared" ref="C240:C245" si="38">SUM(D240:R240)</f>
@@ -10160,7 +10157,7 @@
         <v>45396</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C241" s="4">
         <f t="shared" si="38"/>
@@ -10939,7 +10936,7 @@
         <v>45423</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C262" s="4">
         <f t="shared" si="41"/>
@@ -10972,7 +10969,7 @@
         <v>45424</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C263" s="4">
         <f t="shared" si="41"/>
@@ -11050,7 +11047,7 @@
         <v>45425</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C265" s="4">
         <f t="shared" si="42"/>
@@ -11124,7 +11121,7 @@
         <v>45426</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="42"/>
@@ -11196,7 +11193,7 @@
         <v>45427</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C269" s="4">
         <f t="shared" si="42"/>
@@ -11299,7 +11296,7 @@
         <v>45429</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C272" s="4">
         <f t="shared" si="43"/>
@@ -12094,6 +12091,171 @@
       <c r="Q293" s="3"/>
       <c r="R293" s="3"/>
       <c r="S293" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="4">
+        <f>SUM(D294:R294)</f>
+        <v>53</v>
+      </c>
+      <c r="D294" s="3">
+        <v>53</v>
+      </c>
+      <c r="E294" s="3"/>
+      <c r="F294" s="3"/>
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3"/>
+      <c r="K294" s="3"/>
+      <c r="L294" s="3"/>
+      <c r="M294" s="3"/>
+      <c r="N294" s="3"/>
+      <c r="O294" s="3"/>
+      <c r="P294" s="3"/>
+      <c r="Q294" s="3"/>
+      <c r="R294" s="3"/>
+      <c r="S294" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="4">
+        <f>SUM(D295:R295)</f>
+        <v>81</v>
+      </c>
+      <c r="D295" s="3">
+        <v>81</v>
+      </c>
+      <c r="E295" s="3"/>
+      <c r="F295" s="3"/>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="3"/>
+      <c r="Q295" s="3"/>
+      <c r="R295" s="3"/>
+      <c r="S295" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="4">
+        <f>SUM(D296:R296)</f>
+        <v>74</v>
+      </c>
+      <c r="D296" s="3">
+        <v>74</v>
+      </c>
+      <c r="E296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="3"/>
+      <c r="R296" s="3"/>
+      <c r="S296" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="4">
+        <f>SUM(D297:R297)</f>
+        <v>59</v>
+      </c>
+      <c r="D297" s="3">
+        <v>59</v>
+      </c>
+      <c r="E297" s="3"/>
+      <c r="F297" s="3"/>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+      <c r="M297" s="3"/>
+      <c r="N297" s="3"/>
+      <c r="O297" s="3"/>
+      <c r="P297" s="3"/>
+      <c r="Q297" s="3"/>
+      <c r="R297" s="3"/>
+      <c r="S297" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C298" s="4">
+        <f>SUM(D298:R298)</f>
+        <v>58</v>
+      </c>
+      <c r="D298" s="3">
+        <v>58</v>
+      </c>
+      <c r="E298" s="3"/>
+      <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
+      <c r="M298" s="3"/>
+      <c r="N298" s="3"/>
+      <c r="O298" s="3"/>
+      <c r="P298" s="3"/>
+      <c r="Q298" s="3"/>
+      <c r="R298" s="3"/>
+      <c r="S298" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -12146,7 +12308,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>24.458244111349035</v>
+        <v>24.887711864406779</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -12154,7 +12316,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>41.246987951807228</v>
+        <v>41.941520467836256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12179,14 +12341,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45457</v>
+        <v>45462</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45457</v>
+        <v>45462</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12226,11 +12388,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>6847</v>
+        <v>7172</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12239,7 +12401,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.62358834244080141</v>
+        <v>0.65318761384335156</v>
       </c>
     </row>
   </sheetData>
@@ -12250,10 +12412,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12268,7 +12430,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -12278,7 +12440,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -12288,7 +12450,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -12308,7 +12470,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
@@ -12318,21 +12480,26 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12349,7 +12516,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12362,7 +12529,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -12370,7 +12537,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -12384,7 +12551,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
@@ -12433,17 +12600,13 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -12455,15 +12618,7 @@
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -12523,12 +12678,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A97873E9-00CB-4C37-B58A-CB6A48B18972}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{A800A2B5-4499-4203-9A54-65FFCC2FFF77}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F97D82-7FC9-4BE8-8094-6925386D36C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C0C40B-682E-4D76-ADBC-DA0182636CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="115">
   <si>
     <t>Fecha</t>
   </si>
@@ -367,12 +367,6 @@
     <t>Arquitectura</t>
   </si>
   <si>
-    <t>https://campus-ademass.com/curso/3</t>
-  </si>
-  <si>
-    <t>Curso de Laravel</t>
-  </si>
-  <si>
     <t>Blockchain</t>
   </si>
   <si>
@@ -380,6 +374,21 @@
   </si>
   <si>
     <t>SOLID</t>
+  </si>
+  <si>
+    <t>Curso de SOLID</t>
+  </si>
+  <si>
+    <t>https://campus-ademass.com/curso/34</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Taller de Laravel + Vue</t>
+  </si>
+  <si>
+    <t>https://campus-ademass.com/curso/4</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -487,6 +496,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S298" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S298" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S310" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S310" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -964,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X298"/>
+  <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D283" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D304" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G302" sqref="G302"/>
+      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,15 +1058,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>41.941520467836256</v>
+        <v>41.263440860215056</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.65318761384335156</v>
+        <v>0.69899817850637525</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45530</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -10056,7 +10066,7 @@
         <v>45394</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C238" s="4">
         <f t="shared" si="37"/>
@@ -10122,7 +10132,7 @@
         <v>45395</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C240" s="4">
         <f t="shared" ref="C240:C245" si="38">SUM(D240:R240)</f>
@@ -10157,7 +10167,7 @@
         <v>45396</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C241" s="4">
         <f t="shared" si="38"/>
@@ -10936,7 +10946,7 @@
         <v>45423</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C262" s="4">
         <f t="shared" si="41"/>
@@ -10969,7 +10979,7 @@
         <v>45424</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C263" s="4">
         <f t="shared" si="41"/>
@@ -11047,7 +11057,7 @@
         <v>45425</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C265" s="4">
         <f t="shared" si="42"/>
@@ -11121,7 +11131,7 @@
         <v>45426</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C267" s="4">
         <f t="shared" si="42"/>
@@ -11193,7 +11203,7 @@
         <v>45427</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C269" s="4">
         <f t="shared" si="42"/>
@@ -11296,7 +11306,7 @@
         <v>45429</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C272" s="4">
         <f t="shared" si="43"/>
@@ -12103,7 +12113,7 @@
         <v>7</v>
       </c>
       <c r="C294" s="4">
-        <f>SUM(D294:R294)</f>
+        <f t="shared" ref="C294:C299" si="47">SUM(D294:R294)</f>
         <v>53</v>
       </c>
       <c r="D294" s="3">
@@ -12136,7 +12146,7 @@
         <v>7</v>
       </c>
       <c r="C295" s="4">
-        <f>SUM(D295:R295)</f>
+        <f t="shared" si="47"/>
         <v>81</v>
       </c>
       <c r="D295" s="3">
@@ -12163,13 +12173,13 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <v>45460</v>
+        <v>45462</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C296" s="4">
-        <f>SUM(D296:R296)</f>
+        <f t="shared" si="47"/>
         <v>74</v>
       </c>
       <c r="D296" s="3">
@@ -12196,13 +12206,13 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C297" s="4">
-        <f>SUM(D297:R297)</f>
+        <f t="shared" si="47"/>
         <v>59</v>
       </c>
       <c r="D297" s="3">
@@ -12229,13 +12239,13 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <v>45462</v>
+        <v>45464</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C298" s="4">
-        <f>SUM(D298:R298)</f>
+        <f t="shared" si="47"/>
         <v>58</v>
       </c>
       <c r="D298" s="3">
@@ -12256,6 +12266,403 @@
       <c r="Q298" s="3"/>
       <c r="R298" s="3"/>
       <c r="S298" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C299" s="4">
+        <f t="shared" si="47"/>
+        <v>31</v>
+      </c>
+      <c r="D299" s="3">
+        <v>31</v>
+      </c>
+      <c r="E299" s="3"/>
+      <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
+      <c r="M299" s="3"/>
+      <c r="N299" s="3"/>
+      <c r="O299" s="3"/>
+      <c r="P299" s="3"/>
+      <c r="Q299" s="3"/>
+      <c r="R299" s="3"/>
+      <c r="S299" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C300" s="4">
+        <f t="shared" ref="C300:C306" si="48">SUM(D300:R300)</f>
+        <v>13</v>
+      </c>
+      <c r="D300" s="3">
+        <v>13</v>
+      </c>
+      <c r="E300" s="3"/>
+      <c r="F300" s="3"/>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3"/>
+      <c r="K300" s="3"/>
+      <c r="L300" s="3"/>
+      <c r="M300" s="3"/>
+      <c r="N300" s="3"/>
+      <c r="O300" s="3"/>
+      <c r="P300" s="3"/>
+      <c r="Q300" s="3"/>
+      <c r="R300" s="3"/>
+      <c r="S300" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="4">
+        <f t="shared" si="48"/>
+        <v>37</v>
+      </c>
+      <c r="D301" s="3">
+        <v>37</v>
+      </c>
+      <c r="E301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="3"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3"/>
+      <c r="K301" s="3"/>
+      <c r="L301" s="3"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="O301" s="3"/>
+      <c r="P301" s="3"/>
+      <c r="Q301" s="3"/>
+      <c r="R301" s="3"/>
+      <c r="S301" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C302" s="4">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="D302" s="3">
+        <v>1</v>
+      </c>
+      <c r="E302" s="3"/>
+      <c r="F302" s="3"/>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="3"/>
+      <c r="J302" s="3"/>
+      <c r="K302" s="3"/>
+      <c r="L302" s="3"/>
+      <c r="M302" s="3"/>
+      <c r="N302" s="3"/>
+      <c r="O302" s="3"/>
+      <c r="P302" s="3"/>
+      <c r="Q302" s="3"/>
+      <c r="R302" s="3"/>
+      <c r="S302" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="4">
+        <f t="shared" si="48"/>
+        <v>24</v>
+      </c>
+      <c r="D303" s="3">
+        <v>24</v>
+      </c>
+      <c r="E303" s="3"/>
+      <c r="F303" s="3"/>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="3"/>
+      <c r="J303" s="3"/>
+      <c r="K303" s="3"/>
+      <c r="L303" s="3"/>
+      <c r="M303" s="3"/>
+      <c r="N303" s="3"/>
+      <c r="O303" s="3"/>
+      <c r="P303" s="3"/>
+      <c r="Q303" s="3"/>
+      <c r="R303" s="3"/>
+      <c r="S303" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="4">
+        <f t="shared" si="48"/>
+        <v>60</v>
+      </c>
+      <c r="D304" s="3">
+        <v>60</v>
+      </c>
+      <c r="E304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="J304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="O304" s="3"/>
+      <c r="P304" s="3"/>
+      <c r="Q304" s="3"/>
+      <c r="R304" s="3"/>
+      <c r="S304" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="4">
+        <f t="shared" si="48"/>
+        <v>114</v>
+      </c>
+      <c r="D305" s="3">
+        <f>60+54</f>
+        <v>114</v>
+      </c>
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
+      <c r="I305" s="3"/>
+      <c r="J305" s="3"/>
+      <c r="K305" s="3"/>
+      <c r="L305" s="3"/>
+      <c r="M305" s="3"/>
+      <c r="N305" s="3"/>
+      <c r="O305" s="3"/>
+      <c r="P305" s="3"/>
+      <c r="Q305" s="3"/>
+      <c r="R305" s="3"/>
+      <c r="S305" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>45472</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C306" s="4">
+        <f t="shared" si="48"/>
+        <v>60</v>
+      </c>
+      <c r="D306" s="3">
+        <v>60</v>
+      </c>
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="3"/>
+      <c r="J306" s="3"/>
+      <c r="K306" s="3"/>
+      <c r="L306" s="3"/>
+      <c r="M306" s="3"/>
+      <c r="N306" s="3"/>
+      <c r="O306" s="3"/>
+      <c r="P306" s="3"/>
+      <c r="Q306" s="3"/>
+      <c r="R306" s="3"/>
+      <c r="S306" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C307" s="4">
+        <f>SUM(D307:R307)</f>
+        <v>51</v>
+      </c>
+      <c r="D307" s="3">
+        <v>51</v>
+      </c>
+      <c r="E307" s="3"/>
+      <c r="F307" s="3"/>
+      <c r="G307" s="3"/>
+      <c r="H307" s="3"/>
+      <c r="I307" s="3"/>
+      <c r="J307" s="3"/>
+      <c r="K307" s="3"/>
+      <c r="L307" s="3"/>
+      <c r="M307" s="3"/>
+      <c r="N307" s="3"/>
+      <c r="O307" s="3"/>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="3"/>
+      <c r="R307" s="3"/>
+      <c r="S307" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308" s="4">
+        <f>SUM(D308:R308)</f>
+        <v>51</v>
+      </c>
+      <c r="D308" s="3">
+        <v>51</v>
+      </c>
+      <c r="E308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="J308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="O308" s="3"/>
+      <c r="P308" s="3"/>
+      <c r="Q308" s="3"/>
+      <c r="R308" s="3"/>
+      <c r="S308" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309" s="4">
+        <f>SUM(D309:R309)</f>
+        <v>36</v>
+      </c>
+      <c r="D309" s="3">
+        <v>36</v>
+      </c>
+      <c r="E309" s="3"/>
+      <c r="F309" s="3"/>
+      <c r="G309" s="3"/>
+      <c r="H309" s="3"/>
+      <c r="I309" s="3"/>
+      <c r="J309" s="3"/>
+      <c r="K309" s="3"/>
+      <c r="L309" s="3"/>
+      <c r="M309" s="3"/>
+      <c r="N309" s="3"/>
+      <c r="O309" s="3"/>
+      <c r="P309" s="3"/>
+      <c r="Q309" s="3"/>
+      <c r="R309" s="3"/>
+      <c r="S309" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" s="4">
+        <f>SUM(D310:R310)</f>
+        <v>25</v>
+      </c>
+      <c r="D310" s="3">
+        <v>25</v>
+      </c>
+      <c r="E310" s="3"/>
+      <c r="F310" s="3"/>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="3"/>
+      <c r="J310" s="3"/>
+      <c r="K310" s="3"/>
+      <c r="L310" s="3"/>
+      <c r="M310" s="3"/>
+      <c r="N310" s="3"/>
+      <c r="O310" s="3"/>
+      <c r="P310" s="3"/>
+      <c r="Q310" s="3"/>
+      <c r="R310" s="3"/>
+      <c r="S310" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -12308,7 +12715,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>24.887711864406779</v>
+        <v>25.154004106776181</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -12316,7 +12723,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>41.941520467836256</v>
+        <v>41.263440860215056</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12341,14 +12748,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45462</v>
+        <v>45477</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45462</v>
+        <v>45477</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12388,11 +12795,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>7172</v>
+        <v>7675</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12401,7 +12808,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.65318761384335156</v>
+        <v>0.69899817850637525</v>
       </c>
     </row>
   </sheetData>
@@ -12440,7 +12847,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -12450,7 +12857,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -12490,7 +12897,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
@@ -12513,10 +12920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:BE22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12524,70 +12931,462 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>9</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
+        <v>11</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>15</v>
+      </c>
+      <c r="U6">
+        <v>16</v>
+      </c>
+      <c r="V6">
+        <v>17</v>
+      </c>
+      <c r="W6">
+        <v>18</v>
+      </c>
+      <c r="X6">
+        <v>19</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <v>21</v>
+      </c>
+      <c r="AA6">
+        <v>22</v>
+      </c>
+      <c r="AB6">
+        <v>23</v>
+      </c>
+      <c r="AC6">
+        <v>24</v>
+      </c>
+      <c r="AD6">
+        <v>25</v>
+      </c>
+      <c r="AE6">
+        <v>26</v>
+      </c>
+      <c r="AF6">
+        <v>27</v>
+      </c>
+      <c r="AG6">
+        <v>28</v>
+      </c>
+      <c r="AH6">
+        <v>29</v>
+      </c>
+      <c r="AI6">
+        <v>30</v>
+      </c>
+      <c r="AJ6">
+        <v>31</v>
+      </c>
+      <c r="AK6">
+        <v>32</v>
+      </c>
+      <c r="AL6">
+        <v>33</v>
+      </c>
+      <c r="AM6">
+        <v>34</v>
+      </c>
+      <c r="AN6">
+        <v>35</v>
+      </c>
+      <c r="AO6">
+        <v>36</v>
+      </c>
+      <c r="AP6">
+        <v>37</v>
+      </c>
+      <c r="AQ6">
+        <v>38</v>
+      </c>
+      <c r="AR6">
+        <v>39</v>
+      </c>
+      <c r="AS6">
+        <v>40</v>
+      </c>
+      <c r="AT6">
+        <v>41</v>
+      </c>
+      <c r="AU6">
+        <v>42</v>
+      </c>
+      <c r="AV6">
+        <v>43</v>
+      </c>
+      <c r="AW6">
+        <v>44</v>
+      </c>
+      <c r="AX6">
+        <v>45</v>
+      </c>
+      <c r="AY6">
+        <v>46</v>
+      </c>
+      <c r="AZ6">
+        <v>47</v>
+      </c>
+      <c r="BA6">
+        <v>48</v>
+      </c>
+      <c r="BB6">
+        <v>49</v>
+      </c>
+      <c r="BC6">
+        <v>50</v>
+      </c>
+      <c r="BD6">
+        <v>51</v>
+      </c>
+      <c r="BE6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f>60+12</f>
+        <v>72</v>
+      </c>
+      <c r="G7">
+        <v>58</v>
+      </c>
+      <c r="H7">
+        <f>60+20</f>
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <f>60+34</f>
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <f>60+23</f>
+        <v>83</v>
+      </c>
+      <c r="K7">
+        <v>53</v>
+      </c>
+      <c r="L7">
+        <v>57</v>
+      </c>
+      <c r="M7">
+        <f>60+11</f>
+        <v>71</v>
+      </c>
+      <c r="N7">
+        <v>58</v>
+      </c>
+      <c r="O7">
+        <f>60+9</f>
+        <v>69</v>
+      </c>
+      <c r="P7">
+        <f>60+4</f>
+        <v>64</v>
+      </c>
+      <c r="Q7">
+        <v>40</v>
+      </c>
+      <c r="R7">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>54</v>
+      </c>
+      <c r="U7">
+        <v>46</v>
+      </c>
+      <c r="V7">
+        <f>60+27</f>
+        <v>87</v>
+      </c>
+      <c r="W7">
+        <f>60+24</f>
+        <v>84</v>
+      </c>
+      <c r="X7">
+        <v>32</v>
+      </c>
+      <c r="Y7">
+        <v>31</v>
+      </c>
+      <c r="Z7">
+        <v>36</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AB7">
+        <f>60+8</f>
+        <v>68</v>
+      </c>
+      <c r="AC7">
+        <v>47</v>
+      </c>
+      <c r="AD7">
+        <v>55</v>
+      </c>
+      <c r="AE7">
+        <v>48</v>
+      </c>
+      <c r="AF7">
+        <v>47</v>
+      </c>
+      <c r="AG7">
+        <f>60+28</f>
+        <v>88</v>
+      </c>
+      <c r="AH7">
+        <v>59</v>
+      </c>
+      <c r="AI7">
+        <f>60+38</f>
+        <v>98</v>
+      </c>
+      <c r="AJ7">
+        <v>47</v>
+      </c>
+      <c r="AK7">
+        <v>53</v>
+      </c>
+      <c r="AL7">
+        <v>45</v>
+      </c>
+      <c r="AM7">
+        <v>52</v>
+      </c>
+      <c r="AN7">
+        <v>61</v>
+      </c>
+      <c r="AO7">
+        <f>60+34</f>
+        <v>94</v>
+      </c>
+      <c r="AP7">
+        <v>42</v>
+      </c>
+      <c r="AQ7">
+        <v>62</v>
+      </c>
+      <c r="AR7">
+        <v>36</v>
+      </c>
+      <c r="AS7">
+        <v>53</v>
+      </c>
+      <c r="AT7">
+        <v>35</v>
+      </c>
+      <c r="AU7">
+        <v>29</v>
+      </c>
+      <c r="AV7">
+        <v>52</v>
+      </c>
+      <c r="AW7">
+        <f>60+12</f>
+        <v>72</v>
+      </c>
+      <c r="AX7">
+        <v>44</v>
+      </c>
+      <c r="AY7">
+        <v>60</v>
+      </c>
+      <c r="AZ7">
+        <v>32</v>
+      </c>
+      <c r="BA7">
+        <v>62</v>
+      </c>
+      <c r="BB7">
+        <v>37</v>
+      </c>
+      <c r="BC7">
+        <v>53</v>
+      </c>
+      <c r="BD7">
+        <v>58</v>
+      </c>
+      <c r="BE7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -12595,30 +13394,67 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f>SUM(F7:BE7)</f>
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f>SUMIF(F8:BE8,"X",F7:BE7)</f>
+        <v>1286</v>
+      </c>
+      <c r="G10" s="16">
+        <f>F10/F9</f>
+        <v>0.44668287599861062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11">
+        <f>SUMIF(F8:BE8,"",F7:BE7)</f>
+        <v>1593</v>
+      </c>
+      <c r="K11" s="20">
+        <v>5439.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12">
+        <f>+K11/12</f>
+        <v>453.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -12679,9 +13515,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{BA537151-032D-4A4D-8416-22A3FFA96B52}"/>
+    <hyperlink ref="B12" r:id="rId3" xr:uid="{515B037E-D8F3-42E7-B49E-6C280582AED8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C0C40B-682E-4D76-ADBC-DA0182636CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A03966-B565-4A1A-9B80-B4D7B420A35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="115">
   <si>
     <t>Fecha</t>
   </si>
@@ -627,8 +627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S310" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S310" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S324" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S324" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -974,13 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X310"/>
+  <dimension ref="A1:X324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D304" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D313" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
+      <selection pane="bottomRight" activeCell="F327" sqref="F327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,15 +1058,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>41.263440860215056</v>
+        <v>42.031413612565444</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.69899817850637525</v>
+        <v>0.73114754098360657</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45547</v>
+        <v>45559</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -12543,7 +12543,7 @@
         <v>25</v>
       </c>
       <c r="C307" s="4">
-        <f>SUM(D307:R307)</f>
+        <f t="shared" ref="C307:C312" si="49">SUM(D307:R307)</f>
         <v>51</v>
       </c>
       <c r="D307" s="3">
@@ -12576,7 +12576,7 @@
         <v>25</v>
       </c>
       <c r="C308" s="4">
-        <f>SUM(D308:R308)</f>
+        <f t="shared" si="49"/>
         <v>51</v>
       </c>
       <c r="D308" s="3">
@@ -12609,7 +12609,7 @@
         <v>25</v>
       </c>
       <c r="C309" s="4">
-        <f>SUM(D309:R309)</f>
+        <f t="shared" si="49"/>
         <v>36</v>
       </c>
       <c r="D309" s="3">
@@ -12642,7 +12642,7 @@
         <v>25</v>
       </c>
       <c r="C310" s="4">
-        <f>SUM(D310:R310)</f>
+        <f t="shared" si="49"/>
         <v>25</v>
       </c>
       <c r="D310" s="3">
@@ -12663,6 +12663,474 @@
       <c r="Q310" s="3"/>
       <c r="R310" s="3"/>
       <c r="S310" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C311" s="4">
+        <f t="shared" si="49"/>
+        <v>5</v>
+      </c>
+      <c r="D311" s="3">
+        <v>5</v>
+      </c>
+      <c r="E311" s="3"/>
+      <c r="F311" s="3"/>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="3"/>
+      <c r="J311" s="3"/>
+      <c r="K311" s="3"/>
+      <c r="L311" s="3"/>
+      <c r="M311" s="3"/>
+      <c r="N311" s="3"/>
+      <c r="O311" s="3"/>
+      <c r="P311" s="3"/>
+      <c r="Q311" s="3"/>
+      <c r="R311" s="3"/>
+      <c r="S311" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312" s="4">
+        <f t="shared" si="49"/>
+        <v>68</v>
+      </c>
+      <c r="D312" s="3">
+        <v>68</v>
+      </c>
+      <c r="E312" s="3"/>
+      <c r="F312" s="3"/>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="3"/>
+      <c r="J312" s="3"/>
+      <c r="K312" s="3"/>
+      <c r="L312" s="3"/>
+      <c r="M312" s="3"/>
+      <c r="N312" s="3"/>
+      <c r="O312" s="3"/>
+      <c r="P312" s="3"/>
+      <c r="Q312" s="3"/>
+      <c r="R312" s="3"/>
+      <c r="S312" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C313" s="4">
+        <f t="shared" ref="C313:C318" si="50">SUM(D313:R313)</f>
+        <v>10</v>
+      </c>
+      <c r="D313" s="3">
+        <v>10</v>
+      </c>
+      <c r="E313" s="3"/>
+      <c r="F313" s="3"/>
+      <c r="G313" s="3"/>
+      <c r="H313" s="3"/>
+      <c r="I313" s="3"/>
+      <c r="J313" s="3"/>
+      <c r="K313" s="3"/>
+      <c r="L313" s="3"/>
+      <c r="M313" s="3"/>
+      <c r="N313" s="3"/>
+      <c r="O313" s="3"/>
+      <c r="P313" s="3"/>
+      <c r="Q313" s="3"/>
+      <c r="R313" s="3"/>
+      <c r="S313" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C314" s="4">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="D314" s="3">
+        <v>6</v>
+      </c>
+      <c r="E314" s="3"/>
+      <c r="F314" s="3"/>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3"/>
+      <c r="K314" s="3"/>
+      <c r="L314" s="3"/>
+      <c r="M314" s="3"/>
+      <c r="N314" s="3"/>
+      <c r="O314" s="3"/>
+      <c r="P314" s="3"/>
+      <c r="Q314" s="3"/>
+      <c r="R314" s="3"/>
+      <c r="S314" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C315" s="4">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="D315" s="3">
+        <v>5</v>
+      </c>
+      <c r="E315" s="3"/>
+      <c r="F315" s="3"/>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3"/>
+      <c r="K315" s="3"/>
+      <c r="L315" s="3"/>
+      <c r="M315" s="3"/>
+      <c r="N315" s="3"/>
+      <c r="O315" s="3"/>
+      <c r="P315" s="3"/>
+      <c r="Q315" s="3"/>
+      <c r="R315" s="3"/>
+      <c r="S315" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" s="4">
+        <f t="shared" si="50"/>
+        <v>47</v>
+      </c>
+      <c r="D316" s="3">
+        <v>47</v>
+      </c>
+      <c r="E316" s="3"/>
+      <c r="F316" s="3"/>
+      <c r="G316" s="3"/>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3"/>
+      <c r="K316" s="3"/>
+      <c r="L316" s="3"/>
+      <c r="M316" s="3"/>
+      <c r="N316" s="3"/>
+      <c r="O316" s="3"/>
+      <c r="P316" s="3"/>
+      <c r="Q316" s="3"/>
+      <c r="R316" s="3"/>
+      <c r="S316" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>45479</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="4">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="D317" s="3">
+        <v>1</v>
+      </c>
+      <c r="E317" s="3"/>
+      <c r="F317" s="3"/>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="3"/>
+      <c r="J317" s="3"/>
+      <c r="K317" s="3"/>
+      <c r="L317" s="3"/>
+      <c r="M317" s="3"/>
+      <c r="N317" s="3"/>
+      <c r="O317" s="3"/>
+      <c r="P317" s="3"/>
+      <c r="Q317" s="3"/>
+      <c r="R317" s="3"/>
+      <c r="S317" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>45480</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="4">
+        <f t="shared" si="50"/>
+        <v>52</v>
+      </c>
+      <c r="D318" s="3">
+        <v>28</v>
+      </c>
+      <c r="E318" s="3">
+        <v>6</v>
+      </c>
+      <c r="F318" s="3">
+        <v>18</v>
+      </c>
+      <c r="G318" s="3"/>
+      <c r="H318" s="3"/>
+      <c r="I318" s="3"/>
+      <c r="J318" s="3"/>
+      <c r="K318" s="3"/>
+      <c r="L318" s="3"/>
+      <c r="M318" s="3"/>
+      <c r="N318" s="3"/>
+      <c r="O318" s="3"/>
+      <c r="P318" s="3"/>
+      <c r="Q318" s="3"/>
+      <c r="R318" s="3"/>
+      <c r="S318" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C319" s="4">
+        <f>SUM(D319:R319)</f>
+        <v>55</v>
+      </c>
+      <c r="D319" s="3">
+        <v>55</v>
+      </c>
+      <c r="E319" s="3"/>
+      <c r="F319" s="3"/>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="3"/>
+      <c r="J319" s="3"/>
+      <c r="K319" s="3"/>
+      <c r="L319" s="3"/>
+      <c r="M319" s="3"/>
+      <c r="N319" s="3"/>
+      <c r="O319" s="3"/>
+      <c r="P319" s="3"/>
+      <c r="Q319" s="3"/>
+      <c r="R319" s="3"/>
+      <c r="S319" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C320" s="4">
+        <f>SUM(D320:R320)</f>
+        <v>6</v>
+      </c>
+      <c r="D320" s="3">
+        <v>6</v>
+      </c>
+      <c r="E320" s="3"/>
+      <c r="F320" s="3"/>
+      <c r="G320" s="3"/>
+      <c r="H320" s="3"/>
+      <c r="I320" s="3"/>
+      <c r="J320" s="3"/>
+      <c r="K320" s="3"/>
+      <c r="L320" s="3"/>
+      <c r="M320" s="3"/>
+      <c r="N320" s="3"/>
+      <c r="O320" s="3"/>
+      <c r="P320" s="3"/>
+      <c r="Q320" s="3"/>
+      <c r="R320" s="3"/>
+      <c r="S320" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" s="4">
+        <f>SUM(D321:R321)</f>
+        <v>9</v>
+      </c>
+      <c r="D321" s="3">
+        <v>9</v>
+      </c>
+      <c r="E321" s="3"/>
+      <c r="F321" s="3"/>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="3"/>
+      <c r="J321" s="3"/>
+      <c r="K321" s="3"/>
+      <c r="L321" s="3"/>
+      <c r="M321" s="3"/>
+      <c r="N321" s="3"/>
+      <c r="O321" s="3"/>
+      <c r="P321" s="3"/>
+      <c r="Q321" s="3"/>
+      <c r="R321" s="3"/>
+      <c r="S321" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C322" s="4">
+        <f>SUM(D322:R322)</f>
+        <v>48</v>
+      </c>
+      <c r="D322" s="3">
+        <v>48</v>
+      </c>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="3"/>
+      <c r="J322" s="3"/>
+      <c r="K322" s="3"/>
+      <c r="L322" s="3"/>
+      <c r="M322" s="3"/>
+      <c r="N322" s="3"/>
+      <c r="O322" s="3"/>
+      <c r="P322" s="3"/>
+      <c r="Q322" s="3"/>
+      <c r="R322" s="3"/>
+      <c r="S322" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="4">
+        <f>SUM(D323:R323)</f>
+        <v>24</v>
+      </c>
+      <c r="D323" s="3">
+        <v>13</v>
+      </c>
+      <c r="E323" s="3">
+        <v>11</v>
+      </c>
+      <c r="F323" s="3"/>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="J323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="O323" s="3"/>
+      <c r="P323" s="3"/>
+      <c r="Q323" s="3"/>
+      <c r="R323" s="3"/>
+      <c r="S323" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C324" s="4">
+        <f>SUM(D324:R324)</f>
+        <v>17</v>
+      </c>
+      <c r="D324" s="3">
+        <v>17</v>
+      </c>
+      <c r="E324" s="3"/>
+      <c r="F324" s="3"/>
+      <c r="G324" s="3"/>
+      <c r="H324" s="3"/>
+      <c r="I324" s="3"/>
+      <c r="J324" s="3"/>
+      <c r="K324" s="3"/>
+      <c r="L324" s="3"/>
+      <c r="M324" s="3"/>
+      <c r="N324" s="3"/>
+      <c r="O324" s="3"/>
+      <c r="P324" s="3"/>
+      <c r="Q324" s="3"/>
+      <c r="R324" s="3"/>
+      <c r="S324" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -12715,7 +13183,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.154004106776181</v>
+        <v>25.615853658536587</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -12723,7 +13191,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>41.263440860215056</v>
+        <v>42.031413612565444</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -12748,14 +13216,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45477</v>
+        <v>45482</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45477</v>
+        <v>45482</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -12795,11 +13263,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>7675</v>
+        <v>8028</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -12808,7 +13276,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.69899817850637525</v>
+        <v>0.73114754098360657</v>
       </c>
     </row>
   </sheetData>
@@ -12922,8 +13390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
   <dimension ref="A1:BE22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12964,7 +13432,11 @@
         <v>96</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <f>58-41</f>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
@@ -13380,13 +13852,25 @@
       <c r="AA8" s="18" t="s">
         <v>112</v>
       </c>
+      <c r="AB8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="18" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -13402,11 +13886,11 @@
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="F10">
         <f>SUMIF(F8:BE8,"X",F7:BE7)</f>
-        <v>1286</v>
+        <v>1504</v>
       </c>
       <c r="G10" s="16">
         <f>F10/F9</f>
-        <v>0.44668287599861062</v>
+        <v>0.52240361236540467</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -13418,7 +13902,7 @@
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
-        <v>1593</v>
+        <v>1375</v>
       </c>
       <c r="K11" s="20">
         <v>5439.6</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A03966-B565-4A1A-9B80-B4D7B420A35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE3519-96C5-452B-8456-D9D0FAFDFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="116">
   <si>
     <t>Fecha</t>
   </si>
@@ -390,6 +390,9 @@
   <si>
     <t>https://campus-ademass.com/curso/4</t>
   </si>
+  <si>
+    <t>PHP</t>
+  </si>
 </sst>
 </file>
 
@@ -627,8 +630,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S324" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S324" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S332" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S332" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="PHP"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -665,10 +673,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:A16" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}" name="Tabla1" displayName="Tabla1" ref="A1:A17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:A17" xr:uid="{4F07769A-B222-4F9A-993F-A5C63DFC99D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{AAEDA63C-5001-4ADA-84DC-0BDF6170A151}" name="Tecnologías"/>
@@ -974,13 +982,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X324"/>
+  <dimension ref="A1:X338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F327" sqref="F327"/>
+      <selection pane="bottomRight" activeCell="C325" sqref="C325:C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,15 +1066,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>42.031413612565444</v>
+        <v>44.126903553299492</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.73114754098360657</v>
+        <v>0.79171220400728592</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45559</v>
+        <v>45581</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -5255,7 +5263,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45293</v>
       </c>
@@ -5296,7 +5304,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45294</v>
       </c>
@@ -5333,7 +5341,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45295</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45296</v>
       </c>
@@ -5419,7 +5427,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45297</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45298</v>
       </c>
@@ -5511,7 +5519,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45299</v>
       </c>
@@ -5548,7 +5556,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45300</v>
       </c>
@@ -5585,7 +5593,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45301</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45302</v>
       </c>
@@ -5657,7 +5665,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45303</v>
       </c>
@@ -5696,7 +5704,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45306</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45307</v>
       </c>
@@ -5768,7 +5776,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45308</v>
       </c>
@@ -5803,7 +5811,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45309</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45313</v>
       </c>
@@ -5879,7 +5887,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45314</v>
       </c>
@@ -5912,7 +5920,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45315</v>
       </c>
@@ -5947,7 +5955,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45316</v>
       </c>
@@ -5982,7 +5990,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45317</v>
       </c>
@@ -6017,7 +6025,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45318</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45319</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45320</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45320</v>
       </c>
@@ -6153,7 +6161,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45321</v>
       </c>
@@ -6186,7 +6194,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45321</v>
       </c>
@@ -6220,7 +6228,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45322</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45322</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45323</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45323</v>
       </c>
@@ -6357,7 +6365,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45324</v>
       </c>
@@ -6390,7 +6398,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45324</v>
       </c>
@@ -6424,7 +6432,7 @@
       </c>
       <c r="U134" s="3"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45326</v>
       </c>
@@ -6459,7 +6467,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45327</v>
       </c>
@@ -6494,7 +6502,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45328</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45328</v>
       </c>
@@ -6560,7 +6568,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45329</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45329</v>
       </c>
@@ -6628,7 +6636,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45330</v>
       </c>
@@ -6663,7 +6671,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45330</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45331</v>
       </c>
@@ -6731,7 +6739,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45334</v>
       </c>
@@ -6764,7 +6772,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45334</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45335</v>
       </c>
@@ -6830,7 +6838,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45335</v>
       </c>
@@ -6863,7 +6871,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45336</v>
       </c>
@@ -6896,7 +6904,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45336</v>
       </c>
@@ -6929,7 +6937,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45337</v>
       </c>
@@ -6964,7 +6972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45337</v>
       </c>
@@ -6997,7 +7005,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45338</v>
       </c>
@@ -7030,7 +7038,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45338</v>
       </c>
@@ -7063,7 +7071,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45339</v>
       </c>
@@ -7096,7 +7104,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45339</v>
       </c>
@@ -7129,7 +7137,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45340</v>
       </c>
@@ -7164,7 +7172,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45340</v>
       </c>
@@ -7197,7 +7205,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45341</v>
       </c>
@@ -7232,7 +7240,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45341</v>
       </c>
@@ -7265,7 +7273,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45342</v>
       </c>
@@ -7300,7 +7308,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45342</v>
       </c>
@@ -7333,7 +7341,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45343</v>
       </c>
@@ -7368,7 +7376,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45343</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45344</v>
       </c>
@@ -7434,7 +7442,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45344</v>
       </c>
@@ -7467,7 +7475,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45345</v>
       </c>
@@ -7508,7 +7516,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45345</v>
       </c>
@@ -7541,7 +7549,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45346</v>
       </c>
@@ -7586,7 +7594,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45346</v>
       </c>
@@ -7619,7 +7627,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45347</v>
       </c>
@@ -7664,7 +7672,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45347</v>
       </c>
@@ -7697,7 +7705,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45348</v>
       </c>
@@ -7736,7 +7744,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45348</v>
       </c>
@@ -7769,7 +7777,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45349</v>
       </c>
@@ -7810,7 +7818,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45349</v>
       </c>
@@ -7848,7 +7856,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45350</v>
       </c>
@@ -7887,7 +7895,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45350</v>
       </c>
@@ -7920,7 +7928,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45351</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45351</v>
       </c>
@@ -7992,7 +8000,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45352</v>
       </c>
@@ -8037,7 +8045,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45352</v>
       </c>
@@ -8070,7 +8078,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45353</v>
       </c>
@@ -8115,7 +8123,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45353</v>
       </c>
@@ -8148,7 +8156,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45354</v>
       </c>
@@ -8181,7 +8189,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45354</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45355</v>
       </c>
@@ -8248,7 +8256,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45355</v>
       </c>
@@ -8281,7 +8289,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45356</v>
       </c>
@@ -8322,7 +8330,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45356</v>
       </c>
@@ -8355,7 +8363,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45357</v>
       </c>
@@ -8394,7 +8402,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45357</v>
       </c>
@@ -8427,7 +8435,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45358</v>
       </c>
@@ -8466,7 +8474,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45358</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45359</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45359</v>
       </c>
@@ -8567,7 +8575,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45360</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45361</v>
       </c>
@@ -8645,7 +8653,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45362</v>
       </c>
@@ -8684,7 +8692,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45362</v>
       </c>
@@ -8721,7 +8729,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45363</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45363</v>
       </c>
@@ -8797,7 +8805,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45364</v>
       </c>
@@ -8838,7 +8846,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45365</v>
       </c>
@@ -8877,7 +8885,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45366</v>
       </c>
@@ -8914,7 +8922,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45366</v>
       </c>
@@ -8947,7 +8955,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45367</v>
       </c>
@@ -8984,7 +8992,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45368</v>
       </c>
@@ -9025,7 +9033,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45369</v>
       </c>
@@ -9058,7 +9066,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45369</v>
       </c>
@@ -9091,7 +9099,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45370</v>
       </c>
@@ -9134,7 +9142,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45370</v>
       </c>
@@ -9167,7 +9175,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45371</v>
       </c>
@@ -9200,7 +9208,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45371</v>
       </c>
@@ -9233,7 +9241,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45372</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45372</v>
       </c>
@@ -9299,7 +9307,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45373</v>
       </c>
@@ -9332,7 +9340,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45373</v>
       </c>
@@ -9365,7 +9373,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45373</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45375</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45376</v>
       </c>
@@ -9464,7 +9472,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45377</v>
       </c>
@@ -9505,7 +9513,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45377</v>
       </c>
@@ -9538,7 +9546,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45378</v>
       </c>
@@ -9575,7 +9583,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45383</v>
       </c>
@@ -9610,7 +9618,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45383</v>
       </c>
@@ -9643,7 +9651,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45384</v>
       </c>
@@ -9680,7 +9688,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45384</v>
       </c>
@@ -9713,7 +9721,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45385</v>
       </c>
@@ -9750,7 +9758,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45385</v>
       </c>
@@ -9783,7 +9791,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45386</v>
       </c>
@@ -9820,7 +9828,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45386</v>
       </c>
@@ -9853,7 +9861,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45387</v>
       </c>
@@ -9896,7 +9904,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45387</v>
       </c>
@@ -9929,7 +9937,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45390</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45391</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45392</v>
       </c>
@@ -10028,7 +10036,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45393</v>
       </c>
@@ -10061,7 +10069,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45394</v>
       </c>
@@ -10094,7 +10102,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45394</v>
       </c>
@@ -10127,7 +10135,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45395</v>
       </c>
@@ -10162,7 +10170,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45396</v>
       </c>
@@ -10197,7 +10205,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45397</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45398</v>
       </c>
@@ -10263,7 +10271,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45399</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45400</v>
       </c>
@@ -10335,7 +10343,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45401</v>
       </c>
@@ -10368,7 +10376,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45404</v>
       </c>
@@ -10405,7 +10413,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45405</v>
       </c>
@@ -10446,7 +10454,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45406</v>
       </c>
@@ -10487,7 +10495,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45407</v>
       </c>
@@ -10522,7 +10530,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45408</v>
       </c>
@@ -10559,7 +10567,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45410</v>
       </c>
@@ -10594,7 +10602,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45411</v>
       </c>
@@ -10633,7 +10641,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45412</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45414</v>
       </c>
@@ -10711,7 +10719,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45415</v>
       </c>
@@ -10744,7 +10752,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45418</v>
       </c>
@@ -10779,7 +10787,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45419</v>
       </c>
@@ -10824,7 +10832,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45420</v>
       </c>
@@ -10859,7 +10867,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45421</v>
       </c>
@@ -10898,7 +10906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45422</v>
       </c>
@@ -10941,7 +10949,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45423</v>
       </c>
@@ -10974,7 +10982,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45424</v>
       </c>
@@ -11009,7 +11017,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45425</v>
       </c>
@@ -11052,7 +11060,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45425</v>
       </c>
@@ -11089,7 +11097,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45426</v>
       </c>
@@ -11126,7 +11134,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45426</v>
       </c>
@@ -11159,7 +11167,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45427</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45427</v>
       </c>
@@ -11231,7 +11239,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45428</v>
       </c>
@@ -11264,7 +11272,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45429</v>
       </c>
@@ -11301,7 +11309,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45429</v>
       </c>
@@ -11336,7 +11344,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45430</v>
       </c>
@@ -11373,7 +11381,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45432</v>
       </c>
@@ -11406,7 +11414,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45433</v>
       </c>
@@ -11439,7 +11447,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45434</v>
       </c>
@@ -11472,7 +11480,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45435</v>
       </c>
@@ -11505,7 +11513,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45436</v>
       </c>
@@ -11546,7 +11554,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45439</v>
       </c>
@@ -11587,7 +11595,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45440</v>
       </c>
@@ -11620,7 +11628,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45441</v>
       </c>
@@ -11653,7 +11661,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45442</v>
       </c>
@@ -11686,7 +11694,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45442</v>
       </c>
@@ -11719,7 +11727,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45443</v>
       </c>
@@ -11752,7 +11760,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45443</v>
       </c>
@@ -11785,7 +11793,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45446</v>
       </c>
@@ -11818,7 +11826,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45447</v>
       </c>
@@ -11851,7 +11859,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45452</v>
       </c>
@@ -11884,7 +11892,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45453</v>
       </c>
@@ -11919,7 +11927,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45454</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45455</v>
       </c>
@@ -12019,7 +12027,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45456</v>
       </c>
@@ -12060,7 +12068,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45457</v>
       </c>
@@ -12105,7 +12113,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45460</v>
       </c>
@@ -12138,7 +12146,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45461</v>
       </c>
@@ -12171,7 +12179,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45462</v>
       </c>
@@ -12204,7 +12212,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45463</v>
       </c>
@@ -12237,7 +12245,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45464</v>
       </c>
@@ -12270,7 +12278,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45467</v>
       </c>
@@ -12303,7 +12311,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45467</v>
       </c>
@@ -12336,7 +12344,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45468</v>
       </c>
@@ -12369,7 +12377,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45468</v>
       </c>
@@ -12402,7 +12410,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45469</v>
       </c>
@@ -12435,7 +12443,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45471</v>
       </c>
@@ -12468,7 +12476,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45472</v>
       </c>
@@ -12502,7 +12510,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45472</v>
       </c>
@@ -12535,7 +12543,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45473</v>
       </c>
@@ -12568,7 +12576,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45475</v>
       </c>
@@ -12601,7 +12609,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45476</v>
       </c>
@@ -12634,7 +12642,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45477</v>
       </c>
@@ -12667,7 +12675,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45477</v>
       </c>
@@ -12700,7 +12708,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45478</v>
       </c>
@@ -12733,7 +12741,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45478</v>
       </c>
@@ -12766,7 +12774,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45479</v>
       </c>
@@ -12799,7 +12807,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45479</v>
       </c>
@@ -12832,7 +12840,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45479</v>
       </c>
@@ -12865,7 +12873,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45479</v>
       </c>
@@ -12898,7 +12906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45480</v>
       </c>
@@ -12935,7 +12943,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45481</v>
       </c>
@@ -12943,7 +12951,7 @@
         <v>25</v>
       </c>
       <c r="C319" s="4">
-        <f>SUM(D319:R319)</f>
+        <f t="shared" ref="C319:C324" si="51">SUM(D319:R319)</f>
         <v>55</v>
       </c>
       <c r="D319" s="3">
@@ -12968,7 +12976,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45481</v>
       </c>
@@ -12976,7 +12984,7 @@
         <v>109</v>
       </c>
       <c r="C320" s="4">
-        <f>SUM(D320:R320)</f>
+        <f t="shared" si="51"/>
         <v>6</v>
       </c>
       <c r="D320" s="3">
@@ -13001,7 +13009,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45481</v>
       </c>
@@ -13009,7 +13017,7 @@
         <v>108</v>
       </c>
       <c r="C321" s="4">
-        <f>SUM(D321:R321)</f>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="D321" s="3">
@@ -13034,7 +13042,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45482</v>
       </c>
@@ -13042,7 +13050,7 @@
         <v>25</v>
       </c>
       <c r="C322" s="4">
-        <f>SUM(D322:R322)</f>
+        <f t="shared" si="51"/>
         <v>48</v>
       </c>
       <c r="D322" s="3">
@@ -13067,7 +13075,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45482</v>
       </c>
@@ -13075,7 +13083,7 @@
         <v>7</v>
       </c>
       <c r="C323" s="4">
-        <f>SUM(D323:R323)</f>
+        <f t="shared" si="51"/>
         <v>24</v>
       </c>
       <c r="D323" s="3">
@@ -13102,7 +13110,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45482</v>
       </c>
@@ -13110,7 +13118,7 @@
         <v>109</v>
       </c>
       <c r="C324" s="4">
-        <f>SUM(D324:R324)</f>
+        <f t="shared" si="51"/>
         <v>17</v>
       </c>
       <c r="D324" s="3">
@@ -13134,6 +13142,363 @@
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
+    </row>
+    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C325" s="4">
+        <f t="shared" ref="C325:C330" si="52">SUM(D325:R325)</f>
+        <v>153</v>
+      </c>
+      <c r="D325" s="3">
+        <v>3</v>
+      </c>
+      <c r="E325" s="3">
+        <v>22</v>
+      </c>
+      <c r="F325" s="3">
+        <v>17</v>
+      </c>
+      <c r="G325" s="3">
+        <v>8</v>
+      </c>
+      <c r="H325" s="3">
+        <v>5</v>
+      </c>
+      <c r="I325" s="3">
+        <v>13</v>
+      </c>
+      <c r="J325" s="3">
+        <v>9</v>
+      </c>
+      <c r="K325" s="3">
+        <v>23</v>
+      </c>
+      <c r="L325" s="3">
+        <v>9</v>
+      </c>
+      <c r="M325" s="3">
+        <v>14</v>
+      </c>
+      <c r="N325" s="3">
+        <v>8</v>
+      </c>
+      <c r="O325" s="3">
+        <v>7</v>
+      </c>
+      <c r="P325" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q325" s="3"/>
+      <c r="R325" s="3"/>
+      <c r="S325" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C326" s="4">
+        <f t="shared" si="52"/>
+        <v>159</v>
+      </c>
+      <c r="D326" s="3">
+        <v>14</v>
+      </c>
+      <c r="E326" s="3">
+        <v>9</v>
+      </c>
+      <c r="F326" s="3">
+        <v>8</v>
+      </c>
+      <c r="G326" s="3">
+        <v>12</v>
+      </c>
+      <c r="H326" s="3">
+        <v>6</v>
+      </c>
+      <c r="I326" s="3">
+        <v>12</v>
+      </c>
+      <c r="J326" s="3">
+        <v>6</v>
+      </c>
+      <c r="K326" s="3">
+        <v>9</v>
+      </c>
+      <c r="L326" s="3">
+        <v>10</v>
+      </c>
+      <c r="M326" s="3">
+        <v>12</v>
+      </c>
+      <c r="N326" s="3">
+        <v>9</v>
+      </c>
+      <c r="O326" s="3">
+        <v>10</v>
+      </c>
+      <c r="P326" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q326" s="3">
+        <v>16</v>
+      </c>
+      <c r="R326" s="3">
+        <v>11</v>
+      </c>
+      <c r="S326" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C327" s="4">
+        <f t="shared" si="52"/>
+        <v>12</v>
+      </c>
+      <c r="D327" s="3">
+        <v>12</v>
+      </c>
+      <c r="E327" s="3"/>
+      <c r="F327" s="3"/>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="3"/>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327" s="3"/>
+      <c r="M327" s="3"/>
+      <c r="N327" s="3"/>
+      <c r="O327" s="3"/>
+      <c r="P327" s="3"/>
+      <c r="Q327" s="3"/>
+      <c r="R327" s="3"/>
+      <c r="S327" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C328" s="4">
+        <f t="shared" si="52"/>
+        <v>100</v>
+      </c>
+      <c r="D328" s="3">
+        <v>15</v>
+      </c>
+      <c r="E328" s="3">
+        <v>14</v>
+      </c>
+      <c r="F328" s="3">
+        <v>18</v>
+      </c>
+      <c r="G328" s="3">
+        <v>15</v>
+      </c>
+      <c r="H328" s="3">
+        <v>7</v>
+      </c>
+      <c r="I328" s="3">
+        <v>4</v>
+      </c>
+      <c r="J328" s="3">
+        <v>5</v>
+      </c>
+      <c r="K328" s="3">
+        <v>10</v>
+      </c>
+      <c r="L328" s="3">
+        <v>12</v>
+      </c>
+      <c r="M328" s="3"/>
+      <c r="N328" s="3"/>
+      <c r="O328" s="3"/>
+      <c r="P328" s="3"/>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
+      <c r="S328" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C329" s="4">
+        <f t="shared" si="52"/>
+        <v>10</v>
+      </c>
+      <c r="D329" s="3">
+        <v>10</v>
+      </c>
+      <c r="E329" s="3"/>
+      <c r="F329" s="3"/>
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="3"/>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3"/>
+      <c r="L329" s="3"/>
+      <c r="M329" s="3"/>
+      <c r="N329" s="3"/>
+      <c r="O329" s="3"/>
+      <c r="P329" s="3"/>
+      <c r="Q329" s="3"/>
+      <c r="R329" s="3"/>
+      <c r="S329" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C330" s="4">
+        <f t="shared" si="52"/>
+        <v>77</v>
+      </c>
+      <c r="D330" s="3">
+        <v>11</v>
+      </c>
+      <c r="E330" s="3">
+        <v>16</v>
+      </c>
+      <c r="F330" s="3">
+        <v>20</v>
+      </c>
+      <c r="G330" s="3">
+        <v>17</v>
+      </c>
+      <c r="H330" s="3">
+        <v>13</v>
+      </c>
+      <c r="I330" s="3"/>
+      <c r="J330" s="3"/>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="O330" s="3"/>
+      <c r="P330" s="3"/>
+      <c r="Q330" s="3"/>
+      <c r="R330" s="3"/>
+      <c r="S330" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>45487</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C331" s="4">
+        <f>SUM(D331:R331)</f>
+        <v>102</v>
+      </c>
+      <c r="D331" s="3">
+        <v>11</v>
+      </c>
+      <c r="E331" s="3">
+        <v>21</v>
+      </c>
+      <c r="F331" s="3">
+        <v>32</v>
+      </c>
+      <c r="G331" s="3">
+        <v>19</v>
+      </c>
+      <c r="H331" s="3">
+        <v>19</v>
+      </c>
+      <c r="I331" s="3"/>
+      <c r="J331" s="3"/>
+      <c r="K331" s="3"/>
+      <c r="L331" s="3"/>
+      <c r="M331" s="3"/>
+      <c r="N331" s="3"/>
+      <c r="O331" s="3"/>
+      <c r="P331" s="3"/>
+      <c r="Q331" s="3"/>
+      <c r="R331" s="3"/>
+      <c r="S331" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C332" s="4">
+        <f>SUM(D332:R332)</f>
+        <v>52</v>
+      </c>
+      <c r="D332" s="3">
+        <v>23</v>
+      </c>
+      <c r="E332" s="3">
+        <v>3</v>
+      </c>
+      <c r="F332" s="3">
+        <v>11</v>
+      </c>
+      <c r="G332" s="3">
+        <v>15</v>
+      </c>
+      <c r="H332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3"/>
+      <c r="K332" s="3"/>
+      <c r="L332" s="3"/>
+      <c r="M332" s="3"/>
+      <c r="N332" s="3"/>
+      <c r="O332" s="3"/>
+      <c r="P332" s="3"/>
+      <c r="Q332" s="3"/>
+      <c r="R332" s="3"/>
+      <c r="S332" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13183,7 +13548,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.615853658536587</v>
+        <v>26.642570281124499</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -13191,7 +13556,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>42.031413612565444</v>
+        <v>44.126903553299492</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13216,14 +13581,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45482</v>
+        <v>45488</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45482</v>
+        <v>45488</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13263,11 +13628,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>8028</v>
+        <v>8693</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -13276,7 +13641,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.73114754098360657</v>
+        <v>0.79171220400728592</v>
       </c>
     </row>
   </sheetData>
@@ -13287,10 +13652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E9BC95-BDDC-4BA0-8C32-B1D087D6F575}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13355,26 +13720,31 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AE3519-96C5-452B-8456-D9D0FAFDFF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B0601-7026-4C15-803A-EDC59FD0D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Ext VSC" sheetId="4" r:id="rId6"/>
     <sheet name="Laravel" sheetId="7" r:id="rId7"/>
     <sheet name="Vue.js" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="tecnologias">Tabla1[Tecnologías]</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="187">
   <si>
     <t>Fecha</t>
   </si>
@@ -376,12 +377,6 @@
     <t>SOLID</t>
   </si>
   <si>
-    <t>Curso de SOLID</t>
-  </si>
-  <si>
-    <t>https://campus-ademass.com/curso/34</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -392,6 +387,225 @@
   </si>
   <si>
     <t>PHP</t>
+  </si>
+  <si>
+    <t>Curso Laravel 11 desde cero</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLZ2ovOgdI-kVtF2yQ2kiZetWWTmOQoUSG</t>
+  </si>
+  <si>
+    <t>Cursos de laravel 11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLd3a4dr8oUsAtdEXaR5XBQtspx7axkinm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLbFjjy1sD3hr3ppWz9JndcXJErAQdpDHt</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SupUqrZW5C4</t>
+  </si>
+  <si>
+    <t>Introducciónkeyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>file_downloadProyecto finalN/D</t>
+  </si>
+  <si>
+    <t>play_circle_outline¿Qué vamos a hacer?6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineExplicación inicial2 minutos</t>
+  </si>
+  <si>
+    <t>Contenido del cursokeyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>play_circle_outlineMigraciones y Seeders4 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEntendiendo los Value Objects5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object (clase abstracta)9 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Primitivo (Text)5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineProbando nuestro Value Object con Tinker5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Primitivo (Number) + Tinker5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Primitivo (Boolean) + Tinker6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineUtilizando Value Objects en los modelos Eloquent (Casts)6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineUtilizando Value Objects en Atributos Eloquent (FullName)11 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Email + Cast + Tinker7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object URL + Cast + Tinker7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Phone + Cast + Tinker6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object Money + Cast + Tinker7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineValue Object File + Cast + Tinker10 minutos</t>
+  </si>
+  <si>
+    <t>Laravel Value Objects</t>
+  </si>
+  <si>
+    <t>Arquitectura avanzada en Laravel con DDD para proyectos escalables</t>
+  </si>
+  <si>
+    <t>play_circle_outline¿Qué vamos a hacer?14 minutos</t>
+  </si>
+  <si>
+    <t>Preparando nuestro proyectokeyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>play_circle_outlineCrear proyecto con el stack Inertia y registrar namespace Domain4 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEstructura de directorios para aplicar DDD9 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineCrear modelos Post, Category, Tag y pasar modelo User a Shared3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineMigraciones para Post, Category y Tag7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineFactories, Seeds, y configurar modelos12 minutos</t>
+  </si>
+  <si>
+    <t>Shared Contextkeyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>play_circle_outlineCrear y aplicar GlobalScope para usuarios3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEloquent Api Resource para User5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineClase abstracta en Shared Context para crear filtros que realicen búsquedas3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineReflectionClass para nuestro modelo de vista abstracto6 minutos</t>
+  </si>
+  <si>
+    <t>Blog Contextkeyboard_arrow_down</t>
+  </si>
+  <si>
+    <t>play_circle_outlineApi Resources para gestionar el Blog4 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineGenerando los filtros del Blog a través de nuestra clase abstracta6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEnum Filter, un enumerable con lógica para procesar los filtros5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineFormRequest para Posts3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineExtender la paginación de Laravel para generar enlaces en el cliente a demanda6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineModelo de vista para el listado de Posts completo11 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineModelo de vista para el formulario de Posts6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineAcción para crear y actualizar Posts de forma centralizada8 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlinePostController con método Index para utilizar nuestro modelo de vista para el listado5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineComponentes Vue Badge y Post4 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineComponente Vue Paginación6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlinePágina Vue para listar posts con filtrado y paginación server side15 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineOperaciones de CRUD en el PostController utilizando Actions y ViewModels5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlinePágina formulario posts reutilizable para alta y edición7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineExportar el listado a Excel10 minutos</t>
+  </si>
+  <si>
+    <t>Desarrolla un acortador de URL con Laravel</t>
+  </si>
+  <si>
+    <t>play_circle_outline¿Qué vamos a hacer?3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineExplicación y crear proyecto3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineShared Domain y ajustar el modelo User4 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEstructura del dominio Shortener y seed + factory usuarios3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineMigración y modelo ShortUrl5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEloquent Accessor ShortUrl3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineControlador ShortUrl, rutas y ajustar navegación6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineModelo de Vista y listado de URLs con formulario de alta6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineRegla de validación para verificar la URL ingresada2 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineFormRequest para validar las URL3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineGenerar códigos alfanuméricos únicos3 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineAcción para crear ShortUrl5 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineEliminar ShortUrl2 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineAcción para redireccionar y actualizar los Hits7 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineProbando las URL con diferentes agentes de usuario6 minutos</t>
+  </si>
+  <si>
+    <t>play_circle_outlineDespedida1 minutos</t>
   </si>
 </sst>
 </file>
@@ -448,12 +662,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE9EDF2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -462,7 +700,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,6 +738,16 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -630,13 +878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S332" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S332" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="PHP"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S351" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S351" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -982,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X338"/>
+  <dimension ref="A1:X351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D346" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C325" sqref="C325:C332"/>
+      <selection pane="bottomRight" activeCell="E352" sqref="E352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,15 +1309,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>44.126903553299492</v>
+        <v>38.348178137651821</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.79171220400728592</v>
+        <v>0.86265938069216763</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45581</v>
+        <v>45607</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -5263,7 +5506,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>45293</v>
       </c>
@@ -5304,7 +5547,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>45294</v>
       </c>
@@ -5341,7 +5584,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>45295</v>
       </c>
@@ -5382,7 +5625,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>45296</v>
       </c>
@@ -5427,7 +5670,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>45297</v>
       </c>
@@ -5474,7 +5717,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>45298</v>
       </c>
@@ -5519,7 +5762,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>45299</v>
       </c>
@@ -5556,7 +5799,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>45300</v>
       </c>
@@ -5593,7 +5836,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>45301</v>
       </c>
@@ -5630,7 +5873,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>45302</v>
       </c>
@@ -5665,7 +5908,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>45303</v>
       </c>
@@ -5704,7 +5947,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>45306</v>
       </c>
@@ -5739,7 +5982,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>45307</v>
       </c>
@@ -5776,7 +6019,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>45308</v>
       </c>
@@ -5811,7 +6054,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>45309</v>
       </c>
@@ -5852,7 +6095,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>45313</v>
       </c>
@@ -5887,7 +6130,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>45314</v>
       </c>
@@ -5920,7 +6163,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>45315</v>
       </c>
@@ -5955,7 +6198,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>45316</v>
       </c>
@@ -5990,7 +6233,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>45317</v>
       </c>
@@ -6025,7 +6268,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>45318</v>
       </c>
@@ -6058,7 +6301,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>45319</v>
       </c>
@@ -6093,7 +6336,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>45320</v>
       </c>
@@ -6128,7 +6371,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>45320</v>
       </c>
@@ -6161,7 +6404,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>45321</v>
       </c>
@@ -6194,7 +6437,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>45321</v>
       </c>
@@ -6228,7 +6471,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>45322</v>
       </c>
@@ -6263,7 +6506,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>45322</v>
       </c>
@@ -6297,7 +6540,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>45323</v>
       </c>
@@ -6332,7 +6575,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>45323</v>
       </c>
@@ -6365,7 +6608,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>45324</v>
       </c>
@@ -6398,7 +6641,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>45324</v>
       </c>
@@ -6432,7 +6675,7 @@
       </c>
       <c r="U134" s="3"/>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>45326</v>
       </c>
@@ -6467,7 +6710,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>45327</v>
       </c>
@@ -6502,7 +6745,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>45328</v>
       </c>
@@ -6535,7 +6778,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>45328</v>
       </c>
@@ -6568,7 +6811,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>45329</v>
       </c>
@@ -6601,7 +6844,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>45329</v>
       </c>
@@ -6636,7 +6879,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>45330</v>
       </c>
@@ -6671,7 +6914,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>45330</v>
       </c>
@@ -6704,7 +6947,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>45331</v>
       </c>
@@ -6739,7 +6982,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>45334</v>
       </c>
@@ -6772,7 +7015,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>45334</v>
       </c>
@@ -6805,7 +7048,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>45335</v>
       </c>
@@ -6838,7 +7081,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>45335</v>
       </c>
@@ -6871,7 +7114,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>45336</v>
       </c>
@@ -6904,7 +7147,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>45336</v>
       </c>
@@ -6937,7 +7180,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>45337</v>
       </c>
@@ -6972,7 +7215,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>45337</v>
       </c>
@@ -7005,7 +7248,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>45338</v>
       </c>
@@ -7038,7 +7281,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>45338</v>
       </c>
@@ -7071,7 +7314,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>45339</v>
       </c>
@@ -7104,7 +7347,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>45339</v>
       </c>
@@ -7137,7 +7380,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>45340</v>
       </c>
@@ -7172,7 +7415,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>45340</v>
       </c>
@@ -7205,7 +7448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>45341</v>
       </c>
@@ -7240,7 +7483,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>45341</v>
       </c>
@@ -7273,7 +7516,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>45342</v>
       </c>
@@ -7308,7 +7551,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>45342</v>
       </c>
@@ -7341,7 +7584,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>45343</v>
       </c>
@@ -7376,7 +7619,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>45343</v>
       </c>
@@ -7409,7 +7652,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>45344</v>
       </c>
@@ -7442,7 +7685,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>45344</v>
       </c>
@@ -7475,7 +7718,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>45345</v>
       </c>
@@ -7516,7 +7759,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>45345</v>
       </c>
@@ -7549,7 +7792,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>45346</v>
       </c>
@@ -7594,7 +7837,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>45346</v>
       </c>
@@ -7627,7 +7870,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>45347</v>
       </c>
@@ -7672,7 +7915,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>45347</v>
       </c>
@@ -7705,7 +7948,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>45348</v>
       </c>
@@ -7744,7 +7987,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>45348</v>
       </c>
@@ -7777,7 +8020,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>45349</v>
       </c>
@@ -7818,7 +8061,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>45349</v>
       </c>
@@ -7856,7 +8099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>45350</v>
       </c>
@@ -7895,7 +8138,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>45350</v>
       </c>
@@ -7928,7 +8171,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>45351</v>
       </c>
@@ -7967,7 +8210,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>45351</v>
       </c>
@@ -8000,7 +8243,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>45352</v>
       </c>
@@ -8045,7 +8288,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>45352</v>
       </c>
@@ -8078,7 +8321,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>45353</v>
       </c>
@@ -8123,7 +8366,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>45353</v>
       </c>
@@ -8156,7 +8399,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>45354</v>
       </c>
@@ -8189,7 +8432,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>45354</v>
       </c>
@@ -8223,7 +8466,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>45355</v>
       </c>
@@ -8256,7 +8499,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>45355</v>
       </c>
@@ -8289,7 +8532,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>45356</v>
       </c>
@@ -8330,7 +8573,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>45356</v>
       </c>
@@ -8363,7 +8606,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>45357</v>
       </c>
@@ -8402,7 +8645,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>45357</v>
       </c>
@@ -8435,7 +8678,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>45358</v>
       </c>
@@ -8474,7 +8717,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>45358</v>
       </c>
@@ -8507,7 +8750,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>45359</v>
       </c>
@@ -8542,7 +8785,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>45359</v>
       </c>
@@ -8575,7 +8818,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>45360</v>
       </c>
@@ -8614,7 +8857,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>45361</v>
       </c>
@@ -8653,7 +8896,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>45362</v>
       </c>
@@ -8692,7 +8935,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>45362</v>
       </c>
@@ -8729,7 +8972,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>45363</v>
       </c>
@@ -8772,7 +9015,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>45363</v>
       </c>
@@ -8805,7 +9048,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>45364</v>
       </c>
@@ -8846,7 +9089,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>45365</v>
       </c>
@@ -8885,7 +9128,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>45366</v>
       </c>
@@ -8922,7 +9165,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>45366</v>
       </c>
@@ -8955,7 +9198,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>45367</v>
       </c>
@@ -8992,7 +9235,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>45368</v>
       </c>
@@ -9033,7 +9276,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>45369</v>
       </c>
@@ -9066,7 +9309,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>45369</v>
       </c>
@@ -9099,7 +9342,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>45370</v>
       </c>
@@ -9142,7 +9385,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>45370</v>
       </c>
@@ -9175,7 +9418,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>45371</v>
       </c>
@@ -9208,7 +9451,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>45371</v>
       </c>
@@ -9241,7 +9484,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>45372</v>
       </c>
@@ -9274,7 +9517,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>45372</v>
       </c>
@@ -9307,7 +9550,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>45373</v>
       </c>
@@ -9340,7 +9583,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>45373</v>
       </c>
@@ -9373,7 +9616,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>45373</v>
       </c>
@@ -9406,7 +9649,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>45375</v>
       </c>
@@ -9439,7 +9682,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>45376</v>
       </c>
@@ -9472,7 +9715,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>45377</v>
       </c>
@@ -9513,7 +9756,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>45377</v>
       </c>
@@ -9546,7 +9789,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>45378</v>
       </c>
@@ -9583,7 +9826,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>45383</v>
       </c>
@@ -9618,7 +9861,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>45383</v>
       </c>
@@ -9651,7 +9894,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>45384</v>
       </c>
@@ -9688,7 +9931,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>45384</v>
       </c>
@@ -9721,7 +9964,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>45385</v>
       </c>
@@ -9758,7 +10001,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>45385</v>
       </c>
@@ -9791,7 +10034,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>45386</v>
       </c>
@@ -9828,7 +10071,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>45386</v>
       </c>
@@ -9861,7 +10104,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>45387</v>
       </c>
@@ -9904,7 +10147,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>45387</v>
       </c>
@@ -9937,7 +10180,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>45390</v>
       </c>
@@ -9970,7 +10213,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>45391</v>
       </c>
@@ -10003,7 +10246,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>45392</v>
       </c>
@@ -10036,7 +10279,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>45393</v>
       </c>
@@ -10069,7 +10312,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>45394</v>
       </c>
@@ -10102,7 +10345,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>45394</v>
       </c>
@@ -10135,7 +10378,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>45395</v>
       </c>
@@ -10170,7 +10413,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>45396</v>
       </c>
@@ -10205,7 +10448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>45397</v>
       </c>
@@ -10238,7 +10481,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>45398</v>
       </c>
@@ -10271,7 +10514,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>45399</v>
       </c>
@@ -10306,7 +10549,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>45400</v>
       </c>
@@ -10343,7 +10586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>45401</v>
       </c>
@@ -10376,7 +10619,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>45404</v>
       </c>
@@ -10413,7 +10656,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>45405</v>
       </c>
@@ -10454,7 +10697,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>45406</v>
       </c>
@@ -10495,7 +10738,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>45407</v>
       </c>
@@ -10530,7 +10773,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>45408</v>
       </c>
@@ -10567,7 +10810,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>45410</v>
       </c>
@@ -10602,7 +10845,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>45411</v>
       </c>
@@ -10641,7 +10884,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>45412</v>
       </c>
@@ -10678,7 +10921,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="255" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>45414</v>
       </c>
@@ -10719,7 +10962,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>45415</v>
       </c>
@@ -10752,7 +10995,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>45418</v>
       </c>
@@ -10787,7 +11030,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>45419</v>
       </c>
@@ -10832,7 +11075,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>45420</v>
       </c>
@@ -10867,7 +11110,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="260" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>45421</v>
       </c>
@@ -10906,7 +11149,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>45422</v>
       </c>
@@ -10949,7 +11192,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>45423</v>
       </c>
@@ -10982,7 +11225,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>45424</v>
       </c>
@@ -11017,7 +11260,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>45425</v>
       </c>
@@ -11060,7 +11303,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>45425</v>
       </c>
@@ -11097,7 +11340,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>45426</v>
       </c>
@@ -11134,7 +11377,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>45426</v>
       </c>
@@ -11167,7 +11410,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>45427</v>
       </c>
@@ -11206,7 +11449,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="269" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>45427</v>
       </c>
@@ -11239,7 +11482,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>45428</v>
       </c>
@@ -11272,7 +11515,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="271" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>45429</v>
       </c>
@@ -11309,7 +11552,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>45429</v>
       </c>
@@ -11344,7 +11587,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>45430</v>
       </c>
@@ -11381,7 +11624,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>45432</v>
       </c>
@@ -11414,7 +11657,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>45433</v>
       </c>
@@ -11447,7 +11690,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>45434</v>
       </c>
@@ -11480,7 +11723,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>45435</v>
       </c>
@@ -11513,7 +11756,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>45436</v>
       </c>
@@ -11554,7 +11797,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>45439</v>
       </c>
@@ -11595,7 +11838,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>45440</v>
       </c>
@@ -11628,7 +11871,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>45441</v>
       </c>
@@ -11661,7 +11904,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>45442</v>
       </c>
@@ -11694,7 +11937,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>45442</v>
       </c>
@@ -11727,7 +11970,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>45443</v>
       </c>
@@ -11760,7 +12003,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>45443</v>
       </c>
@@ -11793,7 +12036,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>45446</v>
       </c>
@@ -11826,7 +12069,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>45447</v>
       </c>
@@ -11859,7 +12102,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>45452</v>
       </c>
@@ -11892,7 +12135,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>45453</v>
       </c>
@@ -11927,7 +12170,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>45454</v>
       </c>
@@ -11976,7 +12219,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>45455</v>
       </c>
@@ -12027,7 +12270,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="292" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>45456</v>
       </c>
@@ -12068,7 +12311,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>45457</v>
       </c>
@@ -12113,7 +12356,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="294" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>45460</v>
       </c>
@@ -12146,7 +12389,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>45461</v>
       </c>
@@ -12179,7 +12422,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>45462</v>
       </c>
@@ -12212,7 +12455,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="297" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>45463</v>
       </c>
@@ -12245,7 +12488,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="298" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>45464</v>
       </c>
@@ -12278,7 +12521,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>45467</v>
       </c>
@@ -12311,7 +12554,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>45467</v>
       </c>
@@ -12344,7 +12587,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>45468</v>
       </c>
@@ -12377,7 +12620,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>45468</v>
       </c>
@@ -12410,7 +12653,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>45469</v>
       </c>
@@ -12443,7 +12686,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>45471</v>
       </c>
@@ -12476,7 +12719,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>45472</v>
       </c>
@@ -12510,7 +12753,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>45472</v>
       </c>
@@ -12543,7 +12786,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>45473</v>
       </c>
@@ -12576,7 +12819,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>45475</v>
       </c>
@@ -12609,7 +12852,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>45476</v>
       </c>
@@ -12642,7 +12885,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>45477</v>
       </c>
@@ -12675,7 +12918,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>45477</v>
       </c>
@@ -12708,7 +12951,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>45478</v>
       </c>
@@ -12741,7 +12984,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>45478</v>
       </c>
@@ -12774,7 +13017,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>45479</v>
       </c>
@@ -12807,7 +13050,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="315" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>45479</v>
       </c>
@@ -12840,7 +13083,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="316" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>45479</v>
       </c>
@@ -12873,7 +13116,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>45479</v>
       </c>
@@ -12906,7 +13149,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="318" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>45480</v>
       </c>
@@ -12943,7 +13186,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>45481</v>
       </c>
@@ -12976,7 +13219,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>45481</v>
       </c>
@@ -13009,7 +13252,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>45481</v>
       </c>
@@ -13042,7 +13285,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>45482</v>
       </c>
@@ -13075,7 +13318,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>45482</v>
       </c>
@@ -13110,7 +13353,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>45482</v>
       </c>
@@ -13148,7 +13391,7 @@
         <v>45482</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C325" s="4">
         <f t="shared" ref="C325:C330" si="52">SUM(D325:R325)</f>
@@ -13205,7 +13448,7 @@
         <v>45483</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C326" s="4">
         <f t="shared" si="52"/>
@@ -13266,7 +13509,7 @@
         <v>45483</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C327" s="4">
         <f t="shared" si="52"/>
@@ -13299,7 +13542,7 @@
         <v>45484</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C328" s="4">
         <f t="shared" si="52"/>
@@ -13343,7 +13586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>45484</v>
       </c>
@@ -13381,7 +13624,7 @@
         <v>45485</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C330" s="4">
         <f t="shared" si="52"/>
@@ -13422,10 +13665,10 @@
         <v>45487</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C331" s="4">
-        <f>SUM(D331:R331)</f>
+        <f t="shared" ref="C331:C336" si="53">SUM(D331:R331)</f>
         <v>102</v>
       </c>
       <c r="D331" s="3">
@@ -13463,10 +13706,10 @@
         <v>45488</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C332" s="4">
-        <f>SUM(D332:R332)</f>
+        <f t="shared" si="53"/>
         <v>52</v>
       </c>
       <c r="D332" s="3">
@@ -13497,8 +13740,664 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C338" s="4"/>
+    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C333" s="4">
+        <f t="shared" si="53"/>
+        <v>47</v>
+      </c>
+      <c r="D333" s="3">
+        <v>47</v>
+      </c>
+      <c r="E333" s="3"/>
+      <c r="F333" s="3"/>
+      <c r="G333" s="3"/>
+      <c r="H333" s="3"/>
+      <c r="I333" s="3"/>
+      <c r="J333" s="3"/>
+      <c r="K333" s="3"/>
+      <c r="L333" s="3"/>
+      <c r="M333" s="3"/>
+      <c r="N333" s="3"/>
+      <c r="O333" s="3"/>
+      <c r="P333" s="3"/>
+      <c r="Q333" s="3"/>
+      <c r="R333" s="3"/>
+      <c r="S333" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" s="4">
+        <f t="shared" si="53"/>
+        <v>38</v>
+      </c>
+      <c r="D334" s="3">
+        <v>38</v>
+      </c>
+      <c r="E334" s="3"/>
+      <c r="F334" s="3"/>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="3"/>
+      <c r="J334" s="3"/>
+      <c r="K334" s="3"/>
+      <c r="L334" s="3"/>
+      <c r="M334" s="3"/>
+      <c r="N334" s="3"/>
+      <c r="O334" s="3"/>
+      <c r="P334" s="3"/>
+      <c r="Q334" s="3"/>
+      <c r="R334" s="3"/>
+      <c r="S334" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C335" s="4">
+        <f t="shared" si="53"/>
+        <v>50</v>
+      </c>
+      <c r="D335" s="3">
+        <v>50</v>
+      </c>
+      <c r="E335" s="3"/>
+      <c r="F335" s="3"/>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+      <c r="I335" s="3"/>
+      <c r="J335" s="3"/>
+      <c r="K335" s="3"/>
+      <c r="L335" s="3"/>
+      <c r="M335" s="3"/>
+      <c r="N335" s="3"/>
+      <c r="O335" s="3"/>
+      <c r="P335" s="3"/>
+      <c r="Q335" s="3"/>
+      <c r="R335" s="3"/>
+      <c r="S335" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C336" s="4">
+        <f t="shared" si="53"/>
+        <v>59</v>
+      </c>
+      <c r="D336" s="3">
+        <v>59</v>
+      </c>
+      <c r="E336" s="3"/>
+      <c r="F336" s="3"/>
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="3"/>
+      <c r="J336" s="3"/>
+      <c r="K336" s="3"/>
+      <c r="L336" s="3"/>
+      <c r="M336" s="3"/>
+      <c r="N336" s="3"/>
+      <c r="O336" s="3"/>
+      <c r="P336" s="3"/>
+      <c r="Q336" s="3"/>
+      <c r="R336" s="3"/>
+      <c r="S336" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" s="4">
+        <f t="shared" ref="C337:C342" si="54">SUM(D337:R337)</f>
+        <v>11</v>
+      </c>
+      <c r="D337" s="3">
+        <v>11</v>
+      </c>
+      <c r="E337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="J337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="3"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="O337" s="3"/>
+      <c r="P337" s="3"/>
+      <c r="Q337" s="3"/>
+      <c r="R337" s="3"/>
+      <c r="S337" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="4">
+        <f t="shared" si="54"/>
+        <v>34</v>
+      </c>
+      <c r="D338" s="3">
+        <v>11</v>
+      </c>
+      <c r="E338" s="3">
+        <v>23</v>
+      </c>
+      <c r="F338" s="3"/>
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="3"/>
+      <c r="J338" s="3"/>
+      <c r="K338" s="3"/>
+      <c r="L338" s="3"/>
+      <c r="M338" s="3"/>
+      <c r="N338" s="3"/>
+      <c r="O338" s="3"/>
+      <c r="P338" s="3"/>
+      <c r="Q338" s="3"/>
+      <c r="R338" s="3"/>
+      <c r="S338" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="4">
+        <f t="shared" si="54"/>
+        <v>53</v>
+      </c>
+      <c r="D339" s="3">
+        <v>53</v>
+      </c>
+      <c r="E339" s="3"/>
+      <c r="F339" s="3"/>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="3"/>
+      <c r="J339" s="3"/>
+      <c r="K339" s="3"/>
+      <c r="L339" s="3"/>
+      <c r="M339" s="3"/>
+      <c r="N339" s="3"/>
+      <c r="O339" s="3"/>
+      <c r="P339" s="3"/>
+      <c r="Q339" s="3"/>
+      <c r="R339" s="3"/>
+      <c r="S339" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="4">
+        <f t="shared" si="54"/>
+        <v>44</v>
+      </c>
+      <c r="D340" s="3">
+        <v>44</v>
+      </c>
+      <c r="E340" s="3"/>
+      <c r="F340" s="3"/>
+      <c r="G340" s="3"/>
+      <c r="H340" s="3"/>
+      <c r="I340" s="3"/>
+      <c r="J340" s="3"/>
+      <c r="K340" s="3"/>
+      <c r="L340" s="3"/>
+      <c r="M340" s="3"/>
+      <c r="N340" s="3"/>
+      <c r="O340" s="3"/>
+      <c r="P340" s="3"/>
+      <c r="Q340" s="3"/>
+      <c r="R340" s="3"/>
+      <c r="S340" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="4">
+        <f t="shared" si="54"/>
+        <v>43</v>
+      </c>
+      <c r="D341" s="3">
+        <v>16</v>
+      </c>
+      <c r="E341" s="3">
+        <v>27</v>
+      </c>
+      <c r="F341" s="3"/>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="J341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="O341" s="3"/>
+      <c r="P341" s="3"/>
+      <c r="Q341" s="3"/>
+      <c r="R341" s="3"/>
+      <c r="S341" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="4">
+        <f t="shared" si="54"/>
+        <v>55</v>
+      </c>
+      <c r="D342" s="3">
+        <v>12</v>
+      </c>
+      <c r="E342" s="3">
+        <v>9</v>
+      </c>
+      <c r="F342" s="3">
+        <v>34</v>
+      </c>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="3"/>
+      <c r="J342" s="3"/>
+      <c r="K342" s="3"/>
+      <c r="L342" s="3"/>
+      <c r="M342" s="3"/>
+      <c r="N342" s="3"/>
+      <c r="O342" s="3"/>
+      <c r="P342" s="3"/>
+      <c r="Q342" s="3"/>
+      <c r="R342" s="3"/>
+      <c r="S342" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="4">
+        <f t="shared" ref="C343:C348" si="55">SUM(D343:R343)</f>
+        <v>57</v>
+      </c>
+      <c r="D343" s="3">
+        <v>23</v>
+      </c>
+      <c r="E343" s="3">
+        <v>7</v>
+      </c>
+      <c r="F343" s="3">
+        <v>13</v>
+      </c>
+      <c r="G343" s="3">
+        <v>14</v>
+      </c>
+      <c r="H343" s="3"/>
+      <c r="I343" s="3"/>
+      <c r="J343" s="3"/>
+      <c r="K343" s="3"/>
+      <c r="L343" s="3"/>
+      <c r="M343" s="3"/>
+      <c r="N343" s="3"/>
+      <c r="O343" s="3"/>
+      <c r="P343" s="3"/>
+      <c r="Q343" s="3"/>
+      <c r="R343" s="3"/>
+      <c r="S343" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="4">
+        <f t="shared" si="55"/>
+        <v>60</v>
+      </c>
+      <c r="D344" s="3">
+        <v>14</v>
+      </c>
+      <c r="E344" s="3">
+        <v>46</v>
+      </c>
+      <c r="F344" s="3"/>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="3"/>
+      <c r="J344" s="3"/>
+      <c r="K344" s="3"/>
+      <c r="L344" s="3"/>
+      <c r="M344" s="3"/>
+      <c r="N344" s="3"/>
+      <c r="O344" s="3"/>
+      <c r="P344" s="3"/>
+      <c r="Q344" s="3"/>
+      <c r="R344" s="3"/>
+      <c r="S344" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="4">
+        <f t="shared" si="55"/>
+        <v>44</v>
+      </c>
+      <c r="D345" s="3">
+        <v>9</v>
+      </c>
+      <c r="E345" s="3">
+        <v>11</v>
+      </c>
+      <c r="F345" s="3">
+        <v>10</v>
+      </c>
+      <c r="G345" s="3">
+        <v>14</v>
+      </c>
+      <c r="H345" s="3"/>
+      <c r="I345" s="3"/>
+      <c r="J345" s="3"/>
+      <c r="K345" s="3"/>
+      <c r="L345" s="3"/>
+      <c r="M345" s="3"/>
+      <c r="N345" s="3"/>
+      <c r="O345" s="3"/>
+      <c r="P345" s="3"/>
+      <c r="Q345" s="3"/>
+      <c r="R345" s="3"/>
+      <c r="S345" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="4">
+        <f t="shared" si="55"/>
+        <v>49</v>
+      </c>
+      <c r="D346" s="3">
+        <v>12</v>
+      </c>
+      <c r="E346" s="3">
+        <v>26</v>
+      </c>
+      <c r="F346" s="3">
+        <v>11</v>
+      </c>
+      <c r="G346" s="3"/>
+      <c r="H346" s="3"/>
+      <c r="I346" s="3"/>
+      <c r="J346" s="3"/>
+      <c r="K346" s="3"/>
+      <c r="L346" s="3"/>
+      <c r="M346" s="3"/>
+      <c r="N346" s="3"/>
+      <c r="O346" s="3"/>
+      <c r="P346" s="3"/>
+      <c r="Q346" s="3"/>
+      <c r="R346" s="3"/>
+      <c r="S346" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="4">
+        <f t="shared" si="55"/>
+        <v>34</v>
+      </c>
+      <c r="D347" s="3">
+        <v>16</v>
+      </c>
+      <c r="E347" s="3">
+        <v>18</v>
+      </c>
+      <c r="F347" s="3"/>
+      <c r="G347" s="3"/>
+      <c r="H347" s="3"/>
+      <c r="I347" s="3"/>
+      <c r="J347" s="3"/>
+      <c r="K347" s="3"/>
+      <c r="L347" s="3"/>
+      <c r="M347" s="3"/>
+      <c r="N347" s="3"/>
+      <c r="O347" s="3"/>
+      <c r="P347" s="3"/>
+      <c r="Q347" s="3"/>
+      <c r="R347" s="3"/>
+      <c r="S347" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="4">
+        <f t="shared" si="55"/>
+        <v>12</v>
+      </c>
+      <c r="D348" s="3">
+        <v>12</v>
+      </c>
+      <c r="E348" s="3"/>
+      <c r="F348" s="3"/>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="3"/>
+      <c r="J348" s="3"/>
+      <c r="K348" s="3"/>
+      <c r="L348" s="3"/>
+      <c r="M348" s="3"/>
+      <c r="N348" s="3"/>
+      <c r="O348" s="3"/>
+      <c r="P348" s="3"/>
+      <c r="Q348" s="3"/>
+      <c r="R348" s="3"/>
+      <c r="S348" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="4">
+        <f>SUM(D349:R349)</f>
+        <v>18</v>
+      </c>
+      <c r="D349" s="3">
+        <v>18</v>
+      </c>
+      <c r="E349" s="3"/>
+      <c r="F349" s="3"/>
+      <c r="G349" s="3"/>
+      <c r="H349" s="3"/>
+      <c r="I349" s="3"/>
+      <c r="J349" s="3"/>
+      <c r="K349" s="3"/>
+      <c r="L349" s="3"/>
+      <c r="M349" s="3"/>
+      <c r="N349" s="3"/>
+      <c r="O349" s="3"/>
+      <c r="P349" s="3"/>
+      <c r="Q349" s="3"/>
+      <c r="R349" s="3"/>
+      <c r="S349" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="4">
+        <f>SUM(D350:R350)</f>
+        <v>31</v>
+      </c>
+      <c r="D350" s="3">
+        <v>12</v>
+      </c>
+      <c r="E350" s="3">
+        <v>19</v>
+      </c>
+      <c r="F350" s="3"/>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="3"/>
+      <c r="J350" s="3"/>
+      <c r="K350" s="3"/>
+      <c r="L350" s="3"/>
+      <c r="M350" s="3"/>
+      <c r="N350" s="3"/>
+      <c r="O350" s="3"/>
+      <c r="P350" s="3"/>
+      <c r="Q350" s="3"/>
+      <c r="R350" s="3"/>
+      <c r="S350" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="4">
+        <f>SUM(D351:R351)</f>
+        <v>40</v>
+      </c>
+      <c r="D351" s="3">
+        <v>12</v>
+      </c>
+      <c r="E351" s="3">
+        <v>28</v>
+      </c>
+      <c r="F351" s="3"/>
+      <c r="G351" s="3"/>
+      <c r="H351" s="3"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3"/>
+      <c r="K351" s="3"/>
+      <c r="L351" s="3"/>
+      <c r="M351" s="3"/>
+      <c r="N351" s="3"/>
+      <c r="O351" s="3"/>
+      <c r="P351" s="3"/>
+      <c r="Q351" s="3"/>
+      <c r="R351" s="3"/>
+      <c r="S351" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13520,7 +14419,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13548,7 +14447,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>26.642570281124499</v>
+        <v>25.633211678832115</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -13556,7 +14455,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>44.126903553299492</v>
+        <v>38.348178137651821</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -13581,14 +14480,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45488</v>
+        <v>45538</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45488</v>
+        <v>45538</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -13628,11 +14527,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>8693</v>
+        <v>9472</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -13641,7 +14540,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.79171220400728592</v>
+        <v>0.86265938069216763</v>
       </c>
     </row>
   </sheetData>
@@ -13720,7 +14619,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
@@ -13758,10 +14657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BE33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13774,7 +14673,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
@@ -13782,7 +14681,7 @@
         <v>29</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
@@ -13796,13 +14695,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f>58-41</f>
@@ -14157,82 +15056,91 @@
       </c>
       <c r="B8" s="5"/>
       <c r="F8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="AF8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG8" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH8" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
@@ -14240,7 +15148,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>96</v>
@@ -14256,11 +15164,11 @@
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="F10">
         <f>SUMIF(F8:BE8,"X",F7:BE7)</f>
-        <v>1504</v>
+        <v>1698</v>
       </c>
       <c r="G10" s="16">
         <f>F10/F9</f>
-        <v>0.52240361236540467</v>
+        <v>0.58978812087530397</v>
       </c>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
@@ -14268,11 +15176,11 @@
         <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
-        <v>1375</v>
+        <v>1181</v>
       </c>
       <c r="K11" s="20">
         <v>5439.6</v>
@@ -14283,7 +15191,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -14366,14 +15274,42 @@
         <v>1</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{BA537151-032D-4A4D-8416-22A3FFA96B52}"/>
-    <hyperlink ref="B12" r:id="rId3" xr:uid="{515B037E-D8F3-42E7-B49E-6C280582AED8}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{515B037E-D8F3-42E7-B49E-6C280582AED8}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{02B8CB55-9E70-4ECE-85DB-AF2AFBEEF296}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{155527DA-0C2D-4F91-92D9-0D848ECAA576}"/>
+    <hyperlink ref="B30" r:id="rId5" xr:uid="{63EF471E-B10E-4088-9D65-D8CBDFAAC055}"/>
+    <hyperlink ref="B33" r:id="rId6" xr:uid="{CE0E92E8-826F-4774-BD4B-56BE6C6B8247}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -14705,4 +15641,621 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE879A5-F80B-4599-9015-34F4E21F7659}">
+  <dimension ref="A1:D70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="115.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="2">
+        <f>SUM(B2:B5000)</f>
+        <v>332</v>
+      </c>
+      <c r="D1" s="2">
+        <f>B1/60</f>
+        <v>5.5333333333333332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{B24291AE-C237-4186-B7B3-8131863782F0}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{22F47286-001D-4775-93C1-1C032480A773}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.cursosdesarrolloweb.es/lecciones/laravel-value-objects-que-vamos-a-hacer" xr:uid="{0449A756-080D-45F3-A8BB-9F60417D8C9C}"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{BC5E08C2-8A37-4249-B340-264EC557D9FA}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{DAEFB152-DF7A-4E5E-B711-83E96BA33572}"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{5872E614-BE0E-45FB-AB55-FEEC1A25A57D}"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{99FC9A87-FB12-45D2-9B2B-06230B77315A}"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{C13039FF-7F0C-4307-BB19-A16B4C9ADCBA}"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{3CABF995-0000-4BAF-89A4-CEF5F30C24BD}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{30FCC9B8-7FFD-4F86-970B-7D468A743091}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{5CDF23D1-B528-46BD-BF95-0A313FC4C57E}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{2016667F-48E3-4C67-AF40-ADB7D5158129}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{757AD2D5-B309-40DC-8E5A-D06F043D6F0F}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{23A30917-F6C5-4A76-BD62-8E8C31BDF10D}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{4F986D42-ED20-4EEB-AEBD-C727B0C769CE}"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{860E5697-2CD2-48CA-B64C-99768BAF25D0}"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{59F21162-B475-4FE6-AE2F-A1A311EF75D3}"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{D5F86EB3-1777-4CC9-9E80-02F4CA95557D}"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://www.cursosdesarrolloweb.es/course/laravel-value-objects" xr:uid="{7DBD1CFC-C1EF-4E5D-A3D0-A3664AEFDA5E}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{CEC8BA27-F463-4801-917A-44230441E2FA}"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{683EC4DB-C6AA-4FD1-B29A-151FF88DE558}"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.cursosdesarrolloweb.es/lecciones/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables-que-vamos-a-hacer" xr:uid="{8B21AA61-FF91-45FA-BA8B-4053F5743AE6}"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{12E96068-948F-4A5C-A0A2-5D205447183D}"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{D26338E2-670D-4B92-9418-E4B9940D21BF}"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{CBDCB54F-D830-417E-BA5A-C17CF1D104B5}"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{492E6E1C-E332-4994-B143-DE170BAAFE0D}"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{15764C46-06E5-4C94-AF6D-5116D16D1CAC}"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{2B216815-122C-463D-8E3C-641DF21790A2}"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{A17923CB-761F-4029-880C-B82858DAD106}"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{1D17CFC5-5C88-4CF4-9CD1-CCD1828A2FD7}"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{478C3010-967C-4A82-8A1E-32978631659D}"/>
+    <hyperlink ref="A34" r:id="rId32" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{46CB4DFA-7309-43AA-AE2F-6845A98D828A}"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{5FED43BC-6B9A-4AE6-B355-8D1356BFE2CB}"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{217BCD54-FC77-4B4E-9508-6A5F6AF8B3F9}"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{70603531-8E5C-4957-996D-ADC34F9879EB}"/>
+    <hyperlink ref="A38" r:id="rId36" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{59011C15-9328-4275-951C-8B2B2EEFA3E1}"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{F28AE7A3-E6D1-4D52-84A8-FABF32F91913}"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{B96EC377-F78A-469C-AC1D-6165DA1665BF}"/>
+    <hyperlink ref="A41" r:id="rId39" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{2FF3364F-AFC5-40E6-AFC7-657CF82E27B4}"/>
+    <hyperlink ref="A42" r:id="rId40" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{5C545F62-425C-4046-8501-ACB120FA4362}"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{F248046D-DB49-4F04-A570-55B6908C3029}"/>
+    <hyperlink ref="A44" r:id="rId42" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{2C20DEDC-E205-48F6-9D76-565B70BA3BB1}"/>
+    <hyperlink ref="A45" r:id="rId43" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{7823253D-7EED-4751-9468-8CCE2CBC95CA}"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{81CAD90C-0618-4D39-92D2-A424231DCC29}"/>
+    <hyperlink ref="A47" r:id="rId45" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{D670E683-F3A6-4EBC-80D1-D4CBEC6D9CE5}"/>
+    <hyperlink ref="A48" r:id="rId46" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{8477651F-DC4B-47EA-9F8B-12900BB36C07}"/>
+    <hyperlink ref="A49" r:id="rId47" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{8698DC9B-954F-4D4A-8806-BBDC2996C0CA}"/>
+    <hyperlink ref="A50" r:id="rId48" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{FE8887E9-3385-4783-B60C-D6FD7B686CE0}"/>
+    <hyperlink ref="A51" r:id="rId49" display="https://www.cursosdesarrolloweb.es/course/arquitectura-avanzada-en-laravel-con-ddd-para-proyectos-escalables" xr:uid="{90C1DDB4-55C7-42C2-B627-F560552928BE}"/>
+    <hyperlink ref="A53" r:id="rId50" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{2DCBD293-B2CC-4099-955E-ACD457F78721}"/>
+    <hyperlink ref="A54" r:id="rId51" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{7A033AD6-398B-4B7F-BFCF-5127CACC03AE}"/>
+    <hyperlink ref="A55" r:id="rId52" display="https://www.cursosdesarrolloweb.es/lecciones/desarrolla-un-acortador-de-url-con-laravel-que-vamos-a-hacer" xr:uid="{B78C66B8-016F-4C1A-B349-88AF7818D16D}"/>
+    <hyperlink ref="A56" r:id="rId53" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{73985221-FD16-4BDB-9897-6205AB1F6C88}"/>
+    <hyperlink ref="A57" r:id="rId54" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{1E247A64-D3A8-405D-A690-112FB82F8C7C}"/>
+    <hyperlink ref="A58" r:id="rId55" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{D7DF1537-3FBF-4142-90EA-94A244953294}"/>
+    <hyperlink ref="A59" r:id="rId56" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{47002356-E51C-4DC9-A836-34D173D30E59}"/>
+    <hyperlink ref="A60" r:id="rId57" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{890037AC-C0FF-4F9B-8C0B-6A92B2798583}"/>
+    <hyperlink ref="A61" r:id="rId58" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{2F9BC5EB-F926-4174-B927-DE837F69DB46}"/>
+    <hyperlink ref="A62" r:id="rId59" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{F761A1C8-8DF8-45F8-8A32-6D499CA2922F}"/>
+    <hyperlink ref="A63" r:id="rId60" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{F80093D1-5852-4E15-BEBA-9C61082DDF7A}"/>
+    <hyperlink ref="A64" r:id="rId61" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{FC2F5CF6-7235-4C3A-AC92-5F1893A10B16}"/>
+    <hyperlink ref="A65" r:id="rId62" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{1110BCE6-59AA-40D1-AE18-2C4548C09B13}"/>
+    <hyperlink ref="A66" r:id="rId63" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{5E850DFF-4FAC-45A0-B743-59B23D2A233D}"/>
+    <hyperlink ref="A67" r:id="rId64" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{68E7B019-5944-47A5-97C8-941F2EA7ABE3}"/>
+    <hyperlink ref="A68" r:id="rId65" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{5DD044A9-EFCB-4903-AD12-4B1177553F70}"/>
+    <hyperlink ref="A69" r:id="rId66" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{811C5C65-4544-4D87-A54E-4F06952498AE}"/>
+    <hyperlink ref="A70" r:id="rId67" display="https://www.cursosdesarrolloweb.es/course/desarrolla-un-acortador-de-url-con-laravel" xr:uid="{BA7507BA-ED4D-4E40-B251-D24EED3497C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+</worksheet>
 </file>
--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B0601-7026-4C15-803A-EDC59FD0D6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F41E3-2F05-4BE7-9DBD-D63B73BFB752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E9525E9-3A51-4A38-A83E-5673FF3CE17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="187">
   <si>
     <t>Fecha</t>
   </si>
@@ -389,12 +389,6 @@
     <t>PHP</t>
   </si>
   <si>
-    <t>Curso Laravel 11 desde cero</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/playlist?list=PLZ2ovOgdI-kVtF2yQ2kiZetWWTmOQoUSG</t>
-  </si>
-  <si>
     <t>Cursos de laravel 11</t>
   </si>
   <si>
@@ -606,6 +600,12 @@
   </si>
   <si>
     <t>play_circle_outlineDespedida1 minutos</t>
+  </si>
+  <si>
+    <t>Curso Completo Laravel 11 [2024]</t>
+  </si>
+  <si>
+    <t>https://www.cursosdesarrolloweb.es/course/curso-laravel-11/visor#</t>
   </si>
 </sst>
 </file>
@@ -878,8 +878,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S351" totalsRowShown="0" headerRowDxfId="20">
-  <autoFilter ref="A1:S351" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}" name="Tabla2" displayName="Tabla2" ref="A1:S353" totalsRowShown="0" headerRowDxfId="20">
+  <autoFilter ref="A1:S353" xr:uid="{D41BB900-8286-45A6-904E-18FDD4B4DC1E}">
     <filterColumn colId="18">
       <filters>
         <filter val="2024"/>
@@ -1225,13 +1225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D3FF4A-8960-4190-B595-1BF8B3DB0A5F}">
-  <dimension ref="A1:X351"/>
+  <dimension ref="A1:X353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D346" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E352" sqref="E352"/>
+      <selection pane="bottomRight" activeCell="F354" sqref="F354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1309,15 +1309,15 @@
       </c>
       <c r="V1" s="15">
         <f>Resumen!D2</f>
-        <v>38.348178137651821</v>
+        <v>38.08</v>
       </c>
       <c r="W1" s="17">
         <f>Resumen!D11</f>
-        <v>0.86265938069216763</v>
+        <v>0.86703096539162117</v>
       </c>
       <c r="X1" s="19">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45607</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.3">
@@ -14395,6 +14395,78 @@
       <c r="Q351" s="3"/>
       <c r="R351" s="3"/>
       <c r="S351" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="4">
+        <f>SUM(D352:R352)</f>
+        <v>33</v>
+      </c>
+      <c r="D352" s="3">
+        <v>15</v>
+      </c>
+      <c r="E352" s="3">
+        <v>18</v>
+      </c>
+      <c r="F352" s="3"/>
+      <c r="G352" s="3"/>
+      <c r="H352" s="3"/>
+      <c r="I352" s="3"/>
+      <c r="J352" s="3"/>
+      <c r="K352" s="3"/>
+      <c r="L352" s="3"/>
+      <c r="M352" s="3"/>
+      <c r="N352" s="3"/>
+      <c r="O352" s="3"/>
+      <c r="P352" s="3"/>
+      <c r="Q352" s="3"/>
+      <c r="R352" s="3"/>
+      <c r="S352" s="13">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="4">
+        <f>SUM(D353:R353)</f>
+        <v>15</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2</v>
+      </c>
+      <c r="E353" s="3">
+        <v>4</v>
+      </c>
+      <c r="F353" s="3">
+        <v>9</v>
+      </c>
+      <c r="G353" s="3"/>
+      <c r="H353" s="3"/>
+      <c r="I353" s="3"/>
+      <c r="J353" s="3"/>
+      <c r="K353" s="3"/>
+      <c r="L353" s="3"/>
+      <c r="M353" s="3"/>
+      <c r="N353" s="3"/>
+      <c r="O353" s="3"/>
+      <c r="P353" s="3"/>
+      <c r="Q353" s="3"/>
+      <c r="R353" s="3"/>
+      <c r="S353" s="13">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2024</v>
       </c>
@@ -14447,7 +14519,7 @@
       </c>
       <c r="B2" s="10">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.633211678832115</v>
+        <v>25.58076225045372</v>
       </c>
       <c r="C2" s="10">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -14455,7 +14527,7 @@
       </c>
       <c r="D2" s="10">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>38.348178137651821</v>
+        <v>38.08</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -14480,14 +14552,14 @@
       </c>
       <c r="B4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="C4" s="11">
         <v>45291</v>
       </c>
       <c r="D4" s="11">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45538</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -14527,11 +14599,11 @@
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>9472</v>
+        <v>9520</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -14540,7 +14612,7 @@
       </c>
       <c r="D11" s="16">
         <f>D10/D9</f>
-        <v>0.86265938069216763</v>
+        <v>0.86703096539162117</v>
       </c>
     </row>
   </sheetData>
@@ -14659,8 +14731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEF4885-2EF3-4D94-ACF6-BAA9EB33241A}">
   <dimension ref="A1:BE33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14673,14 +14745,14 @@
         <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>115</v>
       </c>
     </row>
@@ -14695,13 +14767,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="5">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <f>58-41</f>
@@ -15218,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -15232,7 +15304,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -15246,7 +15318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -15260,7 +15332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -15274,42 +15346,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{E6B9C772-CFC6-4625-95DB-9816720157D3}"/>
     <hyperlink ref="B12" r:id="rId2" xr:uid="{515B037E-D8F3-42E7-B49E-6C280582AED8}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{02B8CB55-9E70-4ECE-85DB-AF2AFBEEF296}"/>
-    <hyperlink ref="B29" r:id="rId4" xr:uid="{155527DA-0C2D-4F91-92D9-0D848ECAA576}"/>
-    <hyperlink ref="B30" r:id="rId5" xr:uid="{63EF471E-B10E-4088-9D65-D8CBDFAAC055}"/>
-    <hyperlink ref="B33" r:id="rId6" xr:uid="{CE0E92E8-826F-4774-BD4B-56BE6C6B8247}"/>
+    <hyperlink ref="B29" r:id="rId3" xr:uid="{155527DA-0C2D-4F91-92D9-0D848ECAA576}"/>
+    <hyperlink ref="B30" r:id="rId4" xr:uid="{63EF471E-B10E-4088-9D65-D8CBDFAAC055}"/>
+    <hyperlink ref="B33" r:id="rId5" xr:uid="{CE0E92E8-826F-4774-BD4B-56BE6C6B8247}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{5661BCE3-7EE1-49BA-9983-C90228D8E0CB}"/>
+    <hyperlink ref="I29" r:id="rId7" xr:uid="{1916BAB9-DCB3-4514-A6B6-0CB759311B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -15647,7 +15723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE879A5-F80B-4599-9015-34F4E21F7659}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -15658,7 +15734,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="2">
         <f>SUM(B2:B5000)</f>
@@ -15671,17 +15747,17 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -15689,7 +15765,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -15697,12 +15773,12 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -15710,7 +15786,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -15718,7 +15794,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -15726,7 +15802,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -15734,7 +15810,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -15742,7 +15818,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -15750,7 +15826,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -15758,7 +15834,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -15766,7 +15842,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -15774,7 +15850,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -15782,7 +15858,7 @@
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -15790,7 +15866,7 @@
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -15798,7 +15874,7 @@
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -15806,7 +15882,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -15814,22 +15890,22 @@
     </row>
     <row r="21" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -15837,12 +15913,12 @@
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -15850,7 +15926,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -15858,7 +15934,7 @@
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -15866,7 +15942,7 @@
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -15874,7 +15950,7 @@
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -15882,12 +15958,12 @@
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="22" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -15895,7 +15971,7 @@
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -15903,7 +15979,7 @@
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -15911,7 +15987,7 @@
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -15919,12 +15995,12 @@
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -15932,7 +16008,7 @@
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -15940,7 +16016,7 @@
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -15948,7 +16024,7 @@
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -15956,7 +16032,7 @@
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -15964,7 +16040,7 @@
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -15972,7 +16048,7 @@
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -15980,7 +16056,7 @@
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -15988,7 +16064,7 @@
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -15996,7 +16072,7 @@
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -16004,7 +16080,7 @@
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -16012,7 +16088,7 @@
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -16020,7 +16096,7 @@
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -16028,7 +16104,7 @@
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -16036,7 +16112,7 @@
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -16044,22 +16120,22 @@
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -16067,7 +16143,7 @@
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -16075,7 +16151,7 @@
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -16083,7 +16159,7 @@
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -16091,7 +16167,7 @@
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -16099,7 +16175,7 @@
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -16107,7 +16183,7 @@
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -16115,7 +16191,7 @@
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -16123,7 +16199,7 @@
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -16131,7 +16207,7 @@
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -16139,7 +16215,7 @@
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -16147,7 +16223,7 @@
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -16155,7 +16231,7 @@
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -16163,7 +16239,7 @@
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -16171,7 +16247,7 @@
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -16179,7 +16255,7 @@
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400" activeTab="3"/>
+    <workbookView windowWidth="25600" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="193">
   <si>
     <t>Fecha</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Herramientas</t>
+  </si>
+  <si>
+    <t>Postman</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1462,8 +1465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S374" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S374" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S377" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S377" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2024"/>
@@ -1500,9 +1503,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A19" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A19" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:A19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A20" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A20" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:A20">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="1">
@@ -1770,14 +1773,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X374"/>
+  <dimension ref="A1:X377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D357" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D366" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K379" sqref="K379"/>
+      <selection pane="bottomRight" activeCell="J378" sqref="J378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -1855,15 +1858,15 @@
       </c>
       <c r="V1" s="21">
         <f>Resumen!D2</f>
-        <v>36.8021582733813</v>
+        <v>36.4755244755245</v>
       </c>
       <c r="W1" s="22">
         <f>Resumen!D11</f>
-        <v>0.931785063752277</v>
+        <v>0.950091074681239</v>
       </c>
       <c r="X1" s="23">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45632</v>
+        <v>45639</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -15469,7 +15472,7 @@
     </row>
     <row r="366" spans="1:19">
       <c r="A366" s="16">
-        <v>45438</v>
+        <v>45561</v>
       </c>
       <c r="B366" s="16" t="s">
         <v>21</v>
@@ -15514,7 +15517,7 @@
     </row>
     <row r="367" spans="1:19">
       <c r="A367" s="16">
-        <v>45439</v>
+        <v>45562</v>
       </c>
       <c r="B367" s="16" t="s">
         <v>21</v>
@@ -15721,7 +15724,7 @@
     </row>
     <row r="372" spans="1:19">
       <c r="A372" s="16">
-        <v>45387</v>
+        <v>45570</v>
       </c>
       <c r="B372" s="16" t="s">
         <v>36</v>
@@ -15756,7 +15759,7 @@
     </row>
     <row r="373" spans="1:19">
       <c r="A373" s="16">
-        <v>45481</v>
+        <v>45573</v>
       </c>
       <c r="B373" s="16" t="s">
         <v>21</v>
@@ -15799,12 +15802,12 @@
     </row>
     <row r="374" spans="1:19">
       <c r="A374" s="16">
-        <v>45482</v>
+        <v>45574</v>
       </c>
       <c r="B374" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C374" s="27">
+      <c r="C374" s="26">
         <f>SUM(D374:R374)</f>
         <v>42</v>
       </c>
@@ -15838,9 +15841,146 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="375" spans="1:19">
+      <c r="A375" s="16">
+        <v>45575</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C375" s="26">
+        <f>SUM(D375:R375)</f>
+        <v>82</v>
+      </c>
+      <c r="D375" s="19">
+        <v>5</v>
+      </c>
+      <c r="E375" s="19">
+        <v>11</v>
+      </c>
+      <c r="F375" s="19">
+        <v>17</v>
+      </c>
+      <c r="G375" s="19">
+        <v>16</v>
+      </c>
+      <c r="H375" s="19">
+        <v>14</v>
+      </c>
+      <c r="I375" s="19">
+        <v>19</v>
+      </c>
+      <c r="J375" s="19"/>
+      <c r="K375" s="19"/>
+      <c r="L375" s="19"/>
+      <c r="M375" s="19"/>
+      <c r="N375" s="19"/>
+      <c r="O375" s="19"/>
+      <c r="P375" s="19"/>
+      <c r="Q375" s="19"/>
+      <c r="R375" s="19"/>
+      <c r="S375" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="376" spans="1:19">
+      <c r="A376" s="16">
+        <v>45576</v>
+      </c>
+      <c r="B376" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C376" s="26">
+        <f>SUM(D376:R376)</f>
+        <v>65</v>
+      </c>
+      <c r="D376" s="19">
+        <v>6</v>
+      </c>
+      <c r="E376" s="19">
+        <v>10</v>
+      </c>
+      <c r="F376" s="19">
+        <v>7</v>
+      </c>
+      <c r="G376" s="19">
+        <v>7</v>
+      </c>
+      <c r="H376" s="19">
+        <v>8</v>
+      </c>
+      <c r="I376" s="19">
+        <v>6</v>
+      </c>
+      <c r="J376" s="19">
+        <v>8</v>
+      </c>
+      <c r="K376" s="19">
+        <v>7</v>
+      </c>
+      <c r="L376" s="19">
+        <v>6</v>
+      </c>
+      <c r="M376" s="19"/>
+      <c r="N376" s="19"/>
+      <c r="O376" s="19"/>
+      <c r="P376" s="19"/>
+      <c r="Q376" s="19"/>
+      <c r="R376" s="19"/>
+      <c r="S376" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="377" spans="1:19">
+      <c r="A377" s="16">
+        <v>45577</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C377" s="27">
+        <f>SUM(D377:R377)</f>
+        <v>54</v>
+      </c>
+      <c r="D377" s="19">
+        <v>11</v>
+      </c>
+      <c r="E377" s="19">
+        <v>4</v>
+      </c>
+      <c r="F377" s="19">
+        <v>5</v>
+      </c>
+      <c r="G377" s="19">
+        <v>6</v>
+      </c>
+      <c r="H377" s="19">
+        <v>19</v>
+      </c>
+      <c r="I377" s="19">
+        <v>8</v>
+      </c>
+      <c r="J377" s="19">
+        <v>1</v>
+      </c>
+      <c r="K377" s="19"/>
+      <c r="L377" s="19"/>
+      <c r="M377" s="19"/>
+      <c r="N377" s="19"/>
+      <c r="O377" s="19"/>
+      <c r="P377" s="19"/>
+      <c r="Q377" s="19"/>
+      <c r="R377" s="19"/>
+      <c r="S377" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B374;B2:B373;B375:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B377;B2:B376;B378:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -15883,11 +16023,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.5716753022453</v>
+        <v>25.5655877342419</v>
       </c>
       <c r="C2" s="14">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -15895,12 +16035,12 @@
       </c>
       <c r="D2" s="14">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>36.8021582733813</v>
+        <v>36.4755244755245</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="15">
         <f>MIN(Tabla2[Fecha])</f>
@@ -15916,23 +16056,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45569</v>
+        <v>45577</v>
       </c>
       <c r="C4" s="15">
         <v>45291</v>
       </c>
       <c r="D4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45569</v>
+        <v>45577</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" s="16">
         <f>D3</f>
@@ -15941,7 +16081,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="16">
         <f>DATE(D1,12,31)</f>
@@ -15950,7 +16090,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -15963,24 +16103,24 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>10231</v>
+        <v>10432</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="9">
         <f>D10/D9</f>
-        <v>0.931785063752277</v>
+        <v>0.950091074681239</v>
       </c>
     </row>
   </sheetData>
@@ -15993,10 +16133,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -16076,26 +16216,31 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16113,7 +16258,7 @@
   <sheetPr/>
   <dimension ref="A1:BE41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21:J24"/>
     </sheetView>
   </sheetViews>
@@ -16124,35 +16269,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -16164,10 +16309,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -16328,10 +16473,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <f>60+12</f>
@@ -16506,106 +16651,106 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -16627,10 +16772,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
@@ -16642,10 +16787,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -16654,19 +16799,19 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -16674,16 +16819,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16691,10 +16836,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -16705,10 +16850,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16719,10 +16864,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -16730,28 +16875,28 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -16761,7 +16906,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -16797,27 +16942,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -16840,57 +16985,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -16914,122 +17059,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -17053,62 +17198,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -17134,7 +17279,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(B2:B5000)</f>
@@ -17150,10 +17295,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2">
         <v>576</v>
@@ -17161,10 +17306,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J3">
         <v>124</v>
@@ -17172,7 +17317,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -17180,7 +17325,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -17192,12 +17337,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -17205,7 +17350,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -17213,7 +17358,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -17221,7 +17366,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -17229,7 +17374,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -17237,7 +17382,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17245,7 +17390,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -17253,7 +17398,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -17261,7 +17406,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -17269,7 +17414,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -17277,7 +17422,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -17285,7 +17430,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -17293,7 +17438,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -17301,7 +17446,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -17309,22 +17454,22 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -17332,12 +17477,12 @@
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -17345,7 +17490,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -17353,7 +17498,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -17361,7 +17506,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -17369,7 +17514,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -17377,12 +17522,12 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -17390,7 +17535,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -17398,7 +17543,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -17406,7 +17551,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -17414,12 +17559,12 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -17427,7 +17572,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -17435,7 +17580,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -17443,7 +17588,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -17451,7 +17596,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -17459,7 +17604,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -17467,7 +17612,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -17475,7 +17620,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -17483,7 +17628,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -17491,7 +17636,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -17499,7 +17644,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -17507,7 +17652,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -17515,7 +17660,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -17523,7 +17668,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -17531,7 +17676,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -17539,22 +17684,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -17562,7 +17707,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -17570,7 +17715,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -17578,7 +17723,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -17586,7 +17731,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -17594,7 +17739,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -17602,7 +17747,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -17610,7 +17755,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -17618,7 +17763,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -17626,7 +17771,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -17634,7 +17779,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -17642,7 +17787,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -17650,7 +17795,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -17658,7 +17803,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -17666,7 +17811,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -17674,7 +17819,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
   <si>
     <t>Fecha</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Postman</t>
+  </si>
+  <si>
+    <t>HTML</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1465,8 +1468,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S377" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S377" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S379" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S379" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2024"/>
@@ -1503,9 +1506,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A20" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A20" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:A20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A21" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A21" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A2:A21">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="1">
@@ -1773,14 +1776,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X377"/>
+  <dimension ref="A1:X379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D369" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J378" sqref="J378"/>
+      <selection pane="bottomRight" activeCell="P389" sqref="P389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -1858,15 +1861,15 @@
       </c>
       <c r="V1" s="21">
         <f>Resumen!D2</f>
-        <v>36.4755244755245</v>
+        <v>36.8680555555556</v>
       </c>
       <c r="W1" s="22">
         <f>Resumen!D11</f>
-        <v>0.950091074681239</v>
+        <v>0.967030965391621</v>
       </c>
       <c r="X1" s="23">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45639</v>
+        <v>45645</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -15940,7 +15943,7 @@
       <c r="B377" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C377" s="27">
+      <c r="C377" s="26">
         <f>SUM(D377:R377)</f>
         <v>54</v>
       </c>
@@ -15978,9 +15981,81 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="378" spans="1:19">
+      <c r="A378" s="16">
+        <v>45578</v>
+      </c>
+      <c r="B378" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C378" s="27">
+        <f>SUM(D378:R378)</f>
+        <v>50</v>
+      </c>
+      <c r="D378" s="19">
+        <v>50</v>
+      </c>
+      <c r="E378" s="19"/>
+      <c r="F378" s="19"/>
+      <c r="G378" s="19"/>
+      <c r="H378" s="19"/>
+      <c r="I378" s="19"/>
+      <c r="J378" s="19"/>
+      <c r="K378" s="19"/>
+      <c r="L378" s="19"/>
+      <c r="M378" s="19"/>
+      <c r="N378" s="19"/>
+      <c r="O378" s="19"/>
+      <c r="P378" s="19"/>
+      <c r="Q378" s="19"/>
+      <c r="R378" s="19"/>
+      <c r="S378" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="379" spans="1:19">
+      <c r="A379" s="16">
+        <v>45579</v>
+      </c>
+      <c r="B379" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C379" s="27">
+        <f>SUM(D379:R379)</f>
+        <v>136</v>
+      </c>
+      <c r="D379" s="19">
+        <v>37</v>
+      </c>
+      <c r="E379" s="19">
+        <v>37</v>
+      </c>
+      <c r="F379" s="19">
+        <v>38</v>
+      </c>
+      <c r="G379" s="19">
+        <v>24</v>
+      </c>
+      <c r="H379" s="19"/>
+      <c r="I379" s="19"/>
+      <c r="J379" s="19"/>
+      <c r="K379" s="19"/>
+      <c r="L379" s="19"/>
+      <c r="M379" s="19"/>
+      <c r="N379" s="19"/>
+      <c r="O379" s="19"/>
+      <c r="P379" s="19"/>
+      <c r="Q379" s="19"/>
+      <c r="R379" s="19"/>
+      <c r="S379" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B377;B2:B376;B378:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B378;B379;B2:B377;B380:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -16023,11 +16098,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.5655877342419</v>
+        <v>25.7945670628183</v>
       </c>
       <c r="C2" s="14">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -16035,12 +16110,12 @@
       </c>
       <c r="D2" s="14">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>36.4755244755245</v>
+        <v>36.8680555555556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="15">
         <f>MIN(Tabla2[Fecha])</f>
@@ -16056,23 +16131,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45577</v>
+        <v>45579</v>
       </c>
       <c r="C4" s="15">
         <v>45291</v>
       </c>
       <c r="D4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45577</v>
+        <v>45579</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="16">
         <f>D3</f>
@@ -16081,7 +16156,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="16">
         <f>DATE(D1,12,31)</f>
@@ -16090,7 +16165,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -16103,24 +16178,24 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>10432</v>
+        <v>10618</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="9">
         <f>D10/D9</f>
-        <v>0.950091074681239</v>
+        <v>0.967030965391621</v>
       </c>
     </row>
   </sheetData>
@@ -16133,10 +16208,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -16186,61 +16261,66 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16269,35 +16349,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -16309,10 +16389,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -16473,10 +16553,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <f>60+12</f>
@@ -16651,106 +16731,106 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -16772,10 +16852,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
@@ -16787,10 +16867,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -16799,19 +16879,19 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -16819,16 +16899,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16836,10 +16916,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -16850,10 +16930,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16864,10 +16944,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -16875,28 +16955,28 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -16906,7 +16986,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -16942,27 +17022,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -16985,57 +17065,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -17059,122 +17139,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -17198,62 +17278,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -17279,7 +17359,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(B2:B5000)</f>
@@ -17295,10 +17375,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J2">
         <v>576</v>
@@ -17306,10 +17386,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J3">
         <v>124</v>
@@ -17317,7 +17397,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -17325,7 +17405,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -17337,12 +17417,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -17350,7 +17430,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -17358,7 +17438,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -17366,7 +17446,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -17374,7 +17454,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -17382,7 +17462,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17390,7 +17470,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -17398,7 +17478,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -17406,7 +17486,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -17414,7 +17494,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -17422,7 +17502,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -17430,7 +17510,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -17438,7 +17518,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -17446,7 +17526,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -17454,22 +17534,22 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -17477,12 +17557,12 @@
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -17490,7 +17570,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -17498,7 +17578,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -17506,7 +17586,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -17514,7 +17594,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -17522,12 +17602,12 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -17535,7 +17615,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -17543,7 +17623,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -17551,7 +17631,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -17559,12 +17639,12 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -17572,7 +17652,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -17580,7 +17660,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -17588,7 +17668,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -17596,7 +17676,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -17604,7 +17684,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -17612,7 +17692,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -17620,7 +17700,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -17628,7 +17708,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -17636,7 +17716,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -17644,7 +17724,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -17652,7 +17732,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -17660,7 +17740,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -17668,7 +17748,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -17676,7 +17756,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -17684,22 +17764,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -17707,7 +17787,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -17715,7 +17795,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -17723,7 +17803,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -17731,7 +17811,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -17739,7 +17819,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -17747,7 +17827,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -17755,7 +17835,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -17763,7 +17843,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -17771,7 +17851,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -17779,7 +17859,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -17787,7 +17867,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -17795,7 +17875,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -17803,7 +17883,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -17811,7 +17891,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -17819,7 +17899,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="195">
   <si>
     <t>Fecha</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>HTML</t>
+  </si>
+  <si>
+    <t>CSS</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1468,8 +1471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S379" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S379" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S384" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S384" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2024"/>
@@ -1506,9 +1509,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A21" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A21" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A2:A21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A22" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A22" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:A22">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="1">
@@ -1776,14 +1779,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X379"/>
+  <dimension ref="A1:X384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D369" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P389" sqref="P389"/>
+      <selection pane="bottomRight" activeCell="E391" sqref="E391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -1861,15 +1864,15 @@
       </c>
       <c r="V1" s="21">
         <f>Resumen!D2</f>
-        <v>36.8680555555556</v>
+        <v>37.3242320819113</v>
       </c>
       <c r="W1" s="22">
         <f>Resumen!D11</f>
-        <v>0.967030965391621</v>
+        <v>0.995992714025501</v>
       </c>
       <c r="X1" s="23">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45645</v>
+        <v>45656</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -15988,7 +15991,7 @@
       <c r="B378" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C378" s="27">
+      <c r="C378" s="26">
         <f>SUM(D378:R378)</f>
         <v>50</v>
       </c>
@@ -16021,7 +16024,7 @@
       <c r="B379" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C379" s="27">
+      <c r="C379" s="26">
         <f>SUM(D379:R379)</f>
         <v>136</v>
       </c>
@@ -16053,9 +16056,195 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="380" spans="1:19">
+      <c r="A380" s="16">
+        <v>45580</v>
+      </c>
+      <c r="B380" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C380" s="26">
+        <f>SUM(D380:R380)</f>
+        <v>66</v>
+      </c>
+      <c r="D380" s="19">
+        <f>60+6</f>
+        <v>66</v>
+      </c>
+      <c r="E380" s="19"/>
+      <c r="F380" s="19"/>
+      <c r="G380" s="19"/>
+      <c r="H380" s="19"/>
+      <c r="I380" s="19"/>
+      <c r="J380" s="19"/>
+      <c r="K380" s="19"/>
+      <c r="L380" s="19"/>
+      <c r="M380" s="19"/>
+      <c r="N380" s="19"/>
+      <c r="O380" s="19"/>
+      <c r="P380" s="19"/>
+      <c r="Q380" s="19"/>
+      <c r="R380" s="19"/>
+      <c r="S380" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="381" spans="1:19">
+      <c r="A381" s="16">
+        <v>45581</v>
+      </c>
+      <c r="B381" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C381" s="26">
+        <f>SUM(D381:R381)</f>
+        <v>77</v>
+      </c>
+      <c r="D381" s="19">
+        <v>31</v>
+      </c>
+      <c r="E381" s="19">
+        <v>46</v>
+      </c>
+      <c r="F381" s="19"/>
+      <c r="G381" s="19"/>
+      <c r="H381" s="19"/>
+      <c r="I381" s="19"/>
+      <c r="J381" s="19"/>
+      <c r="K381" s="19"/>
+      <c r="L381" s="19"/>
+      <c r="M381" s="19"/>
+      <c r="N381" s="19"/>
+      <c r="O381" s="19"/>
+      <c r="P381" s="19"/>
+      <c r="Q381" s="19"/>
+      <c r="R381" s="19"/>
+      <c r="S381" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="382" spans="1:19">
+      <c r="A382" s="16">
+        <v>45582</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C382" s="26">
+        <f>SUM(D382:R382)</f>
+        <v>89</v>
+      </c>
+      <c r="D382" s="19">
+        <v>30</v>
+      </c>
+      <c r="E382" s="19">
+        <v>19</v>
+      </c>
+      <c r="F382" s="19">
+        <v>23</v>
+      </c>
+      <c r="G382" s="19">
+        <v>6</v>
+      </c>
+      <c r="H382" s="19">
+        <v>11</v>
+      </c>
+      <c r="I382" s="19"/>
+      <c r="J382" s="19"/>
+      <c r="K382" s="19"/>
+      <c r="L382" s="19"/>
+      <c r="M382" s="19"/>
+      <c r="N382" s="19"/>
+      <c r="O382" s="19"/>
+      <c r="P382" s="19"/>
+      <c r="Q382" s="19"/>
+      <c r="R382" s="19"/>
+      <c r="S382" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="383" spans="1:19">
+      <c r="A383" s="16">
+        <v>45583</v>
+      </c>
+      <c r="B383" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C383" s="26">
+        <f>SUM(D383:R383)</f>
+        <v>35</v>
+      </c>
+      <c r="D383" s="19">
+        <v>20</v>
+      </c>
+      <c r="E383" s="19">
+        <v>15</v>
+      </c>
+      <c r="F383" s="19"/>
+      <c r="G383" s="19"/>
+      <c r="H383" s="19"/>
+      <c r="I383" s="19"/>
+      <c r="J383" s="19"/>
+      <c r="K383" s="19"/>
+      <c r="L383" s="19"/>
+      <c r="M383" s="19"/>
+      <c r="N383" s="19"/>
+      <c r="O383" s="19"/>
+      <c r="P383" s="19"/>
+      <c r="Q383" s="19"/>
+      <c r="R383" s="19"/>
+      <c r="S383" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="384" spans="1:19">
+      <c r="A384" s="16">
+        <v>45584</v>
+      </c>
+      <c r="B384" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C384" s="27">
+        <f>SUM(D384:R384)</f>
+        <v>51</v>
+      </c>
+      <c r="D384" s="19">
+        <v>18</v>
+      </c>
+      <c r="E384" s="19">
+        <v>4</v>
+      </c>
+      <c r="F384" s="19">
+        <v>11</v>
+      </c>
+      <c r="G384" s="19">
+        <v>13</v>
+      </c>
+      <c r="H384" s="19">
+        <v>5</v>
+      </c>
+      <c r="I384" s="19"/>
+      <c r="J384" s="19"/>
+      <c r="K384" s="19"/>
+      <c r="L384" s="19"/>
+      <c r="M384" s="19"/>
+      <c r="N384" s="19"/>
+      <c r="O384" s="19"/>
+      <c r="P384" s="19"/>
+      <c r="Q384" s="19"/>
+      <c r="R384" s="19"/>
+      <c r="S384" s="17">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B378;B379;B2:B377;B380:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B382;B383:B384;B385:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -16098,11 +16287,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>25.7945670628183</v>
+        <v>26.1127946127946</v>
       </c>
       <c r="C2" s="14">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -16110,12 +16299,12 @@
       </c>
       <c r="D2" s="14">
         <f>SUMIF(Tiempos!$S:$S,D1,Tiempos!$C:$C)/(D4-D3+1)</f>
-        <v>36.8680555555556</v>
+        <v>37.3242320819113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="15">
         <f>MIN(Tabla2[Fecha])</f>
@@ -16131,23 +16320,23 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45579</v>
+        <v>45584</v>
       </c>
       <c r="C4" s="15">
         <v>45291</v>
       </c>
       <c r="D4" s="15">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45579</v>
+        <v>45584</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="16">
         <f>D3</f>
@@ -16156,7 +16345,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="16">
         <f>DATE(D1,12,31)</f>
@@ -16165,7 +16354,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -16178,24 +16367,24 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <f>(D4-D3+1)*D2</f>
-        <v>10618</v>
+        <v>10936</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9">
         <f>D10/D9</f>
-        <v>0.967030965391621</v>
+        <v>0.995992714025501</v>
       </c>
     </row>
   </sheetData>
@@ -16208,10 +16397,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -16246,81 +16435,86 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -16349,35 +16543,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -16389,10 +16583,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -16553,10 +16747,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7">
         <f>60+12</f>
@@ -16731,106 +16925,106 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AH8" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -16852,10 +17046,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
@@ -16867,10 +17061,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -16879,19 +17073,19 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -16899,16 +17093,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -16916,10 +17110,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -16930,10 +17124,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16944,10 +17138,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -16955,28 +17149,28 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -16986,7 +17180,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -17022,27 +17216,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -17065,57 +17259,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -17139,122 +17333,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -17278,62 +17472,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -17359,7 +17553,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(B2:B5000)</f>
@@ -17375,10 +17569,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J2">
         <v>576</v>
@@ -17386,10 +17580,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J3">
         <v>124</v>
@@ -17397,7 +17591,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -17405,7 +17599,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -17417,12 +17611,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -17430,7 +17624,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -17438,7 +17632,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -17446,7 +17640,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -17454,7 +17648,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -17462,7 +17656,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -17470,7 +17664,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -17478,7 +17672,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -17486,7 +17680,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -17494,7 +17688,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -17502,7 +17696,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -17510,7 +17704,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -17518,7 +17712,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -17526,7 +17720,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -17534,22 +17728,22 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -17557,12 +17751,12 @@
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -17570,7 +17764,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -17578,7 +17772,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -17586,7 +17780,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -17594,7 +17788,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -17602,12 +17796,12 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -17615,7 +17809,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -17623,7 +17817,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -17631,7 +17825,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -17639,12 +17833,12 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -17652,7 +17846,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -17660,7 +17854,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -17668,7 +17862,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -17676,7 +17870,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -17684,7 +17878,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -17692,7 +17886,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -17700,7 +17894,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -17708,7 +17902,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -17716,7 +17910,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -17724,7 +17918,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -17732,7 +17926,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -17740,7 +17934,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -17748,7 +17942,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -17756,7 +17950,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -17764,22 +17958,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -17787,7 +17981,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -17795,7 +17989,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -17803,7 +17997,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -17811,7 +18005,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -17819,7 +18013,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -17827,7 +18021,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -17835,7 +18029,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -17843,7 +18037,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -17851,7 +18045,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -17859,7 +18053,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -17867,7 +18061,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -17875,7 +18069,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -17883,7 +18077,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -17891,7 +18085,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -17899,7 +18093,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
   <si>
     <t>Fecha</t>
   </si>
@@ -210,7 +210,7 @@
     <t>WebAssembly</t>
   </si>
   <si>
-    <t>9. Programación en Assembler | Sentencias ciclicas y de control en assembler</t>
+    <t>Sergie Daniel Arizandieta</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1724,15 +1724,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S553" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S553" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S562" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S562" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2025"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1:S553">
+  <sortState ref="A1:S562">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="19">
@@ -2035,14 +2035,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X553"/>
+  <dimension ref="A1:X565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D536" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D548" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B556" sqref="B556"/>
+      <selection pane="bottomRight" activeCell="M568" sqref="M568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -2120,15 +2120,15 @@
       </c>
       <c r="V1" s="32">
         <f>Resumen!H2</f>
-        <v>71.6190476190476</v>
+        <v>72.48</v>
       </c>
       <c r="W1" s="33">
         <f>Resumen!D11</f>
-        <v>0.137351598173516</v>
+        <v>0.165479452054795</v>
       </c>
       <c r="X1" s="34">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45708</v>
+        <v>45718</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -22416,7 +22416,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="552" spans="1:22">
+    <row r="552" spans="1:19">
       <c r="A552" s="26">
         <v>45678</v>
       </c>
@@ -22462,23 +22462,20 @@
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2025</v>
       </c>
-      <c r="V552" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="553" spans="1:22">
+    </row>
+    <row r="553" spans="1:19">
       <c r="A553" s="26">
         <v>45678</v>
       </c>
       <c r="B553" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C553" s="39">
+      <c r="C553" s="29">
         <f>SUM(D553:R553)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D553" s="30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E553" s="30"/>
       <c r="F553" s="30"/>
@@ -22498,13 +22495,350 @@
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2025</v>
       </c>
-      <c r="V553">
+    </row>
+    <row r="554" spans="1:19">
+      <c r="A554" s="26">
+        <v>45679</v>
+      </c>
+      <c r="B554" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C554" s="29">
+        <f>SUM(D554:R554)</f>
+        <v>35</v>
+      </c>
+      <c r="D554" s="30">
+        <v>19</v>
+      </c>
+      <c r="E554" s="30">
+        <v>16</v>
+      </c>
+      <c r="F554" s="30"/>
+      <c r="G554" s="30"/>
+      <c r="H554" s="30"/>
+      <c r="I554" s="30"/>
+      <c r="J554" s="30"/>
+      <c r="K554" s="30"/>
+      <c r="L554" s="30"/>
+      <c r="M554" s="30"/>
+      <c r="N554" s="30"/>
+      <c r="O554" s="30"/>
+      <c r="P554" s="30"/>
+      <c r="Q554" s="30"/>
+      <c r="R554" s="30"/>
+      <c r="S554" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="555" spans="1:19">
+      <c r="A555" s="26">
+        <v>45679</v>
+      </c>
+      <c r="B555" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C555" s="29">
+        <f>SUM(D555:R555)</f>
+        <v>3</v>
+      </c>
+      <c r="D555" s="30">
+        <v>3</v>
+      </c>
+      <c r="E555" s="30"/>
+      <c r="F555" s="30"/>
+      <c r="G555" s="30"/>
+      <c r="H555" s="30"/>
+      <c r="I555" s="30"/>
+      <c r="J555" s="30"/>
+      <c r="K555" s="30"/>
+      <c r="L555" s="30"/>
+      <c r="M555" s="30"/>
+      <c r="N555" s="30"/>
+      <c r="O555" s="30"/>
+      <c r="P555" s="30"/>
+      <c r="Q555" s="30"/>
+      <c r="R555" s="30"/>
+      <c r="S555" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="556" spans="1:19">
+      <c r="A556" s="26">
+        <v>45679</v>
+      </c>
+      <c r="B556" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C556" s="29">
+        <f>SUM(D556:R556)</f>
+        <v>37</v>
+      </c>
+      <c r="D556" s="30">
+        <v>5</v>
+      </c>
+      <c r="E556" s="30">
+        <v>11</v>
+      </c>
+      <c r="F556" s="30">
+        <v>6</v>
+      </c>
+      <c r="G556" s="30">
+        <v>8</v>
+      </c>
+      <c r="H556" s="30">
+        <v>7</v>
+      </c>
+      <c r="I556" s="30"/>
+      <c r="J556" s="30"/>
+      <c r="K556" s="30"/>
+      <c r="L556" s="30"/>
+      <c r="M556" s="30"/>
+      <c r="N556" s="30"/>
+      <c r="O556" s="30"/>
+      <c r="P556" s="30"/>
+      <c r="Q556" s="30"/>
+      <c r="R556" s="30"/>
+      <c r="S556" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="557" spans="1:19">
+      <c r="A557" s="26">
+        <v>45679</v>
+      </c>
+      <c r="B557" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C557" s="29">
+        <f>SUM(D557:R557)</f>
+        <v>15</v>
+      </c>
+      <c r="D557" s="30">
+        <v>9</v>
+      </c>
+      <c r="E557" s="30">
+        <v>6</v>
+      </c>
+      <c r="F557" s="30"/>
+      <c r="G557" s="30"/>
+      <c r="H557" s="30"/>
+      <c r="I557" s="30"/>
+      <c r="J557" s="30"/>
+      <c r="K557" s="30"/>
+      <c r="L557" s="30"/>
+      <c r="M557" s="30"/>
+      <c r="N557" s="30"/>
+      <c r="O557" s="30"/>
+      <c r="P557" s="30"/>
+      <c r="Q557" s="30"/>
+      <c r="R557" s="30"/>
+      <c r="S557" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="558" spans="1:19">
+      <c r="A558" s="26">
+        <v>45680</v>
+      </c>
+      <c r="B558" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C558" s="29">
+        <f>SUM(D558:R558)</f>
+        <v>46</v>
+      </c>
+      <c r="D558" s="30">
+        <v>8</v>
+      </c>
+      <c r="E558" s="30">
+        <v>3</v>
+      </c>
+      <c r="F558" s="30">
+        <v>12</v>
+      </c>
+      <c r="G558" s="30">
+        <v>7</v>
+      </c>
+      <c r="H558" s="30">
+        <v>3</v>
+      </c>
+      <c r="I558" s="30">
+        <v>8</v>
+      </c>
+      <c r="J558" s="30">
+        <v>5</v>
+      </c>
+      <c r="K558" s="30"/>
+      <c r="L558" s="30"/>
+      <c r="M558" s="30"/>
+      <c r="N558" s="30"/>
+      <c r="O558" s="30"/>
+      <c r="P558" s="30"/>
+      <c r="Q558" s="30"/>
+      <c r="R558" s="30"/>
+      <c r="S558" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="559" spans="1:19">
+      <c r="A559" s="26">
+        <v>45680</v>
+      </c>
+      <c r="B559" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C559" s="29">
+        <f>SUM(D559:R559)</f>
+        <v>50</v>
+      </c>
+      <c r="D559" s="30">
+        <v>25</v>
+      </c>
+      <c r="E559" s="30">
+        <v>25</v>
+      </c>
+      <c r="F559" s="30"/>
+      <c r="G559" s="30"/>
+      <c r="H559" s="30"/>
+      <c r="I559" s="30"/>
+      <c r="J559" s="30"/>
+      <c r="K559" s="30"/>
+      <c r="L559" s="30"/>
+      <c r="M559" s="30"/>
+      <c r="N559" s="30"/>
+      <c r="O559" s="30"/>
+      <c r="P559" s="30"/>
+      <c r="Q559" s="30"/>
+      <c r="R559" s="30"/>
+      <c r="S559" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="560" spans="1:19">
+      <c r="A560" s="26">
+        <v>45681</v>
+      </c>
+      <c r="B560" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C560" s="39">
+        <f>SUM(D560:R560)</f>
+        <v>33</v>
+      </c>
+      <c r="D560" s="30">
+        <v>6</v>
+      </c>
+      <c r="E560" s="30">
+        <v>5</v>
+      </c>
+      <c r="F560" s="30">
+        <v>3</v>
+      </c>
+      <c r="G560" s="30">
+        <v>9</v>
+      </c>
+      <c r="H560" s="30">
+        <v>6</v>
+      </c>
+      <c r="I560" s="30">
+        <v>4</v>
+      </c>
+      <c r="J560" s="30"/>
+      <c r="K560" s="30"/>
+      <c r="L560" s="30"/>
+      <c r="M560" s="30"/>
+      <c r="N560" s="30"/>
+      <c r="O560" s="30"/>
+      <c r="P560" s="30"/>
+      <c r="Q560" s="30"/>
+      <c r="R560" s="30"/>
+      <c r="S560" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="561" spans="1:19">
+      <c r="A561" s="26">
+        <v>45681</v>
+      </c>
+      <c r="B561" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C561" s="39">
+        <f>SUM(D561:R561)</f>
+        <v>78</v>
+      </c>
+      <c r="D561" s="30">
+        <v>50</v>
+      </c>
+      <c r="E561" s="30">
         <v>28</v>
+      </c>
+      <c r="F561" s="30"/>
+      <c r="G561" s="30"/>
+      <c r="H561" s="30"/>
+      <c r="I561" s="30"/>
+      <c r="J561" s="30"/>
+      <c r="K561" s="30"/>
+      <c r="L561" s="30"/>
+      <c r="M561" s="30"/>
+      <c r="N561" s="30"/>
+      <c r="O561" s="30"/>
+      <c r="P561" s="30"/>
+      <c r="Q561" s="30"/>
+      <c r="R561" s="30"/>
+      <c r="S561" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="562" spans="1:19">
+      <c r="A562" s="26">
+        <v>45682</v>
+      </c>
+      <c r="B562" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C562" s="39">
+        <f>SUM(D562:R562)</f>
+        <v>9</v>
+      </c>
+      <c r="D562" s="30">
+        <v>9</v>
+      </c>
+      <c r="E562" s="30"/>
+      <c r="F562" s="30"/>
+      <c r="G562" s="30"/>
+      <c r="H562" s="30"/>
+      <c r="I562" s="30"/>
+      <c r="J562" s="30"/>
+      <c r="K562" s="30"/>
+      <c r="L562" s="30"/>
+      <c r="M562" s="30"/>
+      <c r="N562" s="30"/>
+      <c r="O562" s="30"/>
+      <c r="P562" s="30"/>
+      <c r="Q562" s="30"/>
+      <c r="R562" s="30"/>
+      <c r="S562" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="565" spans="22:22">
+      <c r="V565" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B553 B2:B552 B554:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B560 B561 B562 B2:B559 B563:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -22851,7 +23185,7 @@
       </c>
       <c r="B2" s="24">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>47.107476635514</v>
+        <v>47.1771561771562</v>
       </c>
       <c r="C2" s="24">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -22875,7 +23209,7 @@
       </c>
       <c r="H2" s="24">
         <f>SUMIF(Tiempos!$S:$S,H1,Tiempos!$C:$C)/(H4-H3+1)</f>
-        <v>71.6190476190476</v>
+        <v>72.48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -22911,7 +23245,7 @@
       </c>
       <c r="B4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45678</v>
+        <v>45682</v>
       </c>
       <c r="C4" s="25">
         <v>44196</v>
@@ -22930,7 +23264,7 @@
       </c>
       <c r="H4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45678</v>
+        <v>45682</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -22970,11 +23304,11 @@
       </c>
       <c r="D10" s="27">
         <f>(H4-H3+1)*H2</f>
-        <v>1504</v>
+        <v>1812</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -22983,7 +23317,7 @@
       </c>
       <c r="D11" s="19">
         <f>D10/D9</f>
-        <v>0.137351598173516</v>
+        <v>0.165479452054795</v>
       </c>
     </row>
   </sheetData>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10400"/>
+    <workbookView windowWidth="23040" windowHeight="8960"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="240">
   <si>
     <t>Fecha</t>
   </si>
@@ -210,7 +210,16 @@
     <t>WebAssembly</t>
   </si>
   <si>
-    <t>Sergie Daniel Arizandieta</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>COBOL</t>
+  </si>
+  <si>
+    <t>Historia</t>
+  </si>
+  <si>
+    <t>Symfony</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1724,15 +1733,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S562" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S562" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S609" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S609" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2025"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1:S562">
+  <sortState ref="A1:S609">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="19">
@@ -1765,9 +1774,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A38" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A38" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:A38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A42" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A42" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:A42">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="1">
@@ -2035,14 +2044,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X565"/>
+  <dimension ref="A1:Y611"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D548" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D595" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M568" sqref="M568"/>
+      <selection pane="bottomRight" activeCell="O613" sqref="O613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -2120,15 +2129,15 @@
       </c>
       <c r="V1" s="32">
         <f>Resumen!H2</f>
-        <v>72.48</v>
+        <v>54.625</v>
       </c>
       <c r="W1" s="33">
         <f>Resumen!D11</f>
-        <v>0.165479452054795</v>
+        <v>0.279360730593607</v>
       </c>
       <c r="X1" s="34">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45718</v>
+        <v>45760</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -22727,7 +22736,7 @@
       <c r="B560" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C560" s="39">
+      <c r="C560" s="29">
         <f>SUM(D560:R560)</f>
         <v>33</v>
       </c>
@@ -22770,7 +22779,7 @@
       <c r="B561" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C561" s="39">
+      <c r="C561" s="29">
         <f>SUM(D561:R561)</f>
         <v>78</v>
       </c>
@@ -22805,7 +22814,7 @@
       <c r="B562" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C562" s="39">
+      <c r="C562" s="29">
         <f>SUM(D562:R562)</f>
         <v>9</v>
       </c>
@@ -22831,14 +22840,1731 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="565" spans="22:22">
-      <c r="V565" t="s">
+    <row r="563" spans="1:19">
+      <c r="A563" s="26">
+        <v>45684</v>
+      </c>
+      <c r="B563" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C563" s="29">
+        <f>SUM(D563:R563)</f>
+        <v>49</v>
+      </c>
+      <c r="D563" s="30">
+        <v>4</v>
+      </c>
+      <c r="E563" s="30">
+        <v>2</v>
+      </c>
+      <c r="F563" s="30">
+        <v>8</v>
+      </c>
+      <c r="G563" s="30">
+        <v>2</v>
+      </c>
+      <c r="H563" s="30">
+        <v>13</v>
+      </c>
+      <c r="I563" s="30">
+        <v>1</v>
+      </c>
+      <c r="J563" s="30">
+        <v>7</v>
+      </c>
+      <c r="K563" s="30">
+        <v>4</v>
+      </c>
+      <c r="L563" s="30">
+        <v>3</v>
+      </c>
+      <c r="M563" s="30">
+        <v>5</v>
+      </c>
+      <c r="N563" s="30"/>
+      <c r="O563" s="30"/>
+      <c r="P563" s="30"/>
+      <c r="Q563" s="30"/>
+      <c r="R563" s="30"/>
+      <c r="S563" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="564" spans="1:19">
+      <c r="A564" s="26">
+        <v>45684</v>
+      </c>
+      <c r="B564" s="26" t="s">
         <v>56</v>
       </c>
+      <c r="C564" s="29">
+        <f>SUM(D564:R564)</f>
+        <v>32</v>
+      </c>
+      <c r="D564" s="30">
+        <v>2</v>
+      </c>
+      <c r="E564" s="30">
+        <v>2</v>
+      </c>
+      <c r="F564" s="30">
+        <v>6</v>
+      </c>
+      <c r="G564" s="30">
+        <v>10</v>
+      </c>
+      <c r="H564" s="30">
+        <v>5</v>
+      </c>
+      <c r="I564" s="30">
+        <v>7</v>
+      </c>
+      <c r="J564" s="30"/>
+      <c r="K564" s="30"/>
+      <c r="L564" s="30"/>
+      <c r="M564" s="30"/>
+      <c r="N564" s="30"/>
+      <c r="O564" s="30"/>
+      <c r="P564" s="30"/>
+      <c r="Q564" s="30"/>
+      <c r="R564" s="30"/>
+      <c r="S564" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="565" spans="1:19">
+      <c r="A565" s="26">
+        <v>45685</v>
+      </c>
+      <c r="B565" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C565" s="29">
+        <f>SUM(D565:R565)</f>
+        <v>80</v>
+      </c>
+      <c r="D565" s="30">
+        <v>4</v>
+      </c>
+      <c r="E565" s="30">
+        <v>6</v>
+      </c>
+      <c r="F565" s="30">
+        <v>10</v>
+      </c>
+      <c r="G565" s="30">
+        <v>5</v>
+      </c>
+      <c r="H565" s="30">
+        <v>5</v>
+      </c>
+      <c r="I565" s="30">
+        <v>10</v>
+      </c>
+      <c r="J565" s="30">
+        <v>11</v>
+      </c>
+      <c r="K565" s="30">
+        <v>8</v>
+      </c>
+      <c r="L565" s="30">
+        <v>10</v>
+      </c>
+      <c r="M565" s="30">
+        <v>11</v>
+      </c>
+      <c r="N565" s="30"/>
+      <c r="O565" s="30"/>
+      <c r="P565" s="30"/>
+      <c r="Q565" s="30"/>
+      <c r="R565" s="30"/>
+      <c r="S565" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="566" spans="1:19">
+      <c r="A566" s="26">
+        <v>45685</v>
+      </c>
+      <c r="B566" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C566" s="29">
+        <f>SUM(D566:R566)</f>
+        <v>10</v>
+      </c>
+      <c r="D566" s="30">
+        <v>3</v>
+      </c>
+      <c r="E566" s="30">
+        <v>5</v>
+      </c>
+      <c r="F566" s="30">
+        <v>2</v>
+      </c>
+      <c r="G566" s="30"/>
+      <c r="H566" s="30"/>
+      <c r="I566" s="30"/>
+      <c r="J566" s="30"/>
+      <c r="K566" s="30"/>
+      <c r="L566" s="30"/>
+      <c r="M566" s="30"/>
+      <c r="N566" s="30"/>
+      <c r="O566" s="30"/>
+      <c r="P566" s="30"/>
+      <c r="Q566" s="30"/>
+      <c r="R566" s="30"/>
+      <c r="S566" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="567" spans="1:19">
+      <c r="A567" s="26">
+        <v>45685</v>
+      </c>
+      <c r="B567" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C567" s="29">
+        <f>SUM(D567:R567)</f>
+        <v>38</v>
+      </c>
+      <c r="D567" s="30">
+        <v>13</v>
+      </c>
+      <c r="E567" s="30">
+        <v>12</v>
+      </c>
+      <c r="F567" s="30">
+        <v>13</v>
+      </c>
+      <c r="G567" s="30"/>
+      <c r="H567" s="30"/>
+      <c r="I567" s="30"/>
+      <c r="J567" s="30"/>
+      <c r="K567" s="30"/>
+      <c r="L567" s="30"/>
+      <c r="M567" s="30"/>
+      <c r="N567" s="30"/>
+      <c r="O567" s="30"/>
+      <c r="P567" s="30"/>
+      <c r="Q567" s="30"/>
+      <c r="R567" s="30"/>
+      <c r="S567" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="568" spans="1:19">
+      <c r="A568" s="26">
+        <v>45686</v>
+      </c>
+      <c r="B568" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C568" s="29">
+        <f>SUM(D568:R568)</f>
+        <v>20</v>
+      </c>
+      <c r="D568" s="30">
+        <v>1</v>
+      </c>
+      <c r="E568" s="30">
+        <v>19</v>
+      </c>
+      <c r="F568" s="30"/>
+      <c r="G568" s="30"/>
+      <c r="H568" s="30"/>
+      <c r="I568" s="30"/>
+      <c r="J568" s="30"/>
+      <c r="K568" s="30"/>
+      <c r="L568" s="30"/>
+      <c r="M568" s="30"/>
+      <c r="N568" s="30"/>
+      <c r="O568" s="30"/>
+      <c r="P568" s="30"/>
+      <c r="Q568" s="30"/>
+      <c r="R568" s="30"/>
+      <c r="S568" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="569" spans="1:19">
+      <c r="A569" s="26">
+        <v>45686</v>
+      </c>
+      <c r="B569" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C569" s="29">
+        <f>SUM(D569:R569)</f>
+        <v>36</v>
+      </c>
+      <c r="D569" s="30">
+        <v>11</v>
+      </c>
+      <c r="E569" s="30">
+        <v>8</v>
+      </c>
+      <c r="F569" s="30">
+        <v>9</v>
+      </c>
+      <c r="G569" s="30">
+        <v>8</v>
+      </c>
+      <c r="H569" s="30"/>
+      <c r="I569" s="30"/>
+      <c r="J569" s="30"/>
+      <c r="K569" s="30"/>
+      <c r="L569" s="30"/>
+      <c r="M569" s="30"/>
+      <c r="N569" s="30"/>
+      <c r="O569" s="30"/>
+      <c r="P569" s="30"/>
+      <c r="Q569" s="30"/>
+      <c r="R569" s="30"/>
+      <c r="S569" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="570" spans="1:19">
+      <c r="A570" s="26">
+        <v>45687</v>
+      </c>
+      <c r="B570" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C570" s="29">
+        <f>SUM(D570:R570)</f>
+        <v>46</v>
+      </c>
+      <c r="D570" s="30">
+        <v>8</v>
+      </c>
+      <c r="E570" s="30">
+        <v>6</v>
+      </c>
+      <c r="F570" s="30">
+        <v>10</v>
+      </c>
+      <c r="G570" s="30">
+        <v>4</v>
+      </c>
+      <c r="H570" s="30">
+        <v>7</v>
+      </c>
+      <c r="I570" s="30">
+        <v>5</v>
+      </c>
+      <c r="J570" s="30">
+        <v>6</v>
+      </c>
+      <c r="K570" s="30"/>
+      <c r="L570" s="30"/>
+      <c r="M570" s="30"/>
+      <c r="N570" s="30"/>
+      <c r="O570" s="30"/>
+      <c r="P570" s="30"/>
+      <c r="Q570" s="30"/>
+      <c r="R570" s="30"/>
+      <c r="S570" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="571" spans="1:19">
+      <c r="A571" s="26">
+        <v>45687</v>
+      </c>
+      <c r="B571" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C571" s="29">
+        <f>SUM(D571:R571)</f>
+        <v>17</v>
+      </c>
+      <c r="D571" s="30">
+        <v>17</v>
+      </c>
+      <c r="E571" s="30"/>
+      <c r="F571" s="30"/>
+      <c r="G571" s="30"/>
+      <c r="H571" s="30"/>
+      <c r="I571" s="30"/>
+      <c r="J571" s="30"/>
+      <c r="K571" s="30"/>
+      <c r="L571" s="30"/>
+      <c r="M571" s="30"/>
+      <c r="N571" s="30"/>
+      <c r="O571" s="30"/>
+      <c r="P571" s="30"/>
+      <c r="Q571" s="30"/>
+      <c r="R571" s="30"/>
+      <c r="S571" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="572" spans="1:19">
+      <c r="A572" s="26">
+        <v>45688</v>
+      </c>
+      <c r="B572" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C572" s="29">
+        <f>SUM(D572:R572)</f>
+        <v>33</v>
+      </c>
+      <c r="D572" s="30">
+        <v>8</v>
+      </c>
+      <c r="E572" s="30">
+        <v>12</v>
+      </c>
+      <c r="F572" s="30">
+        <v>13</v>
+      </c>
+      <c r="G572" s="30"/>
+      <c r="H572" s="30"/>
+      <c r="I572" s="30"/>
+      <c r="J572" s="30"/>
+      <c r="K572" s="30"/>
+      <c r="L572" s="30"/>
+      <c r="M572" s="30"/>
+      <c r="N572" s="30"/>
+      <c r="O572" s="30"/>
+      <c r="P572" s="30"/>
+      <c r="Q572" s="30"/>
+      <c r="R572" s="30"/>
+      <c r="S572" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="573" spans="1:25">
+      <c r="A573" s="26">
+        <v>45688</v>
+      </c>
+      <c r="B573" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C573" s="29">
+        <f>SUM(D573:R573)</f>
+        <v>21</v>
+      </c>
+      <c r="D573" s="30">
+        <v>19</v>
+      </c>
+      <c r="E573" s="30">
+        <v>1</v>
+      </c>
+      <c r="F573" s="30">
+        <v>1</v>
+      </c>
+      <c r="G573" s="30"/>
+      <c r="H573" s="30"/>
+      <c r="I573" s="30"/>
+      <c r="J573" s="30"/>
+      <c r="K573" s="30"/>
+      <c r="L573" s="30"/>
+      <c r="M573" s="30"/>
+      <c r="N573" s="30"/>
+      <c r="O573" s="30"/>
+      <c r="P573" s="30"/>
+      <c r="Q573" s="30"/>
+      <c r="R573" s="30"/>
+      <c r="S573" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+      <c r="Y573">
+        <v>327.87</v>
+      </c>
+    </row>
+    <row r="574" spans="1:25">
+      <c r="A574" s="26">
+        <v>45688</v>
+      </c>
+      <c r="B574" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C574" s="29">
+        <f>SUM(D574:R574)</f>
+        <v>9</v>
+      </c>
+      <c r="D574" s="30">
+        <v>9</v>
+      </c>
+      <c r="E574" s="30"/>
+      <c r="F574" s="30"/>
+      <c r="G574" s="30"/>
+      <c r="H574" s="30"/>
+      <c r="I574" s="30"/>
+      <c r="J574" s="30"/>
+      <c r="K574" s="30"/>
+      <c r="L574" s="30"/>
+      <c r="M574" s="30"/>
+      <c r="N574" s="30"/>
+      <c r="O574" s="30"/>
+      <c r="P574" s="30"/>
+      <c r="Q574" s="30"/>
+      <c r="R574" s="30"/>
+      <c r="S574" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+      <c r="Y574">
+        <v>483.8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:25">
+      <c r="A575" s="26">
+        <v>45689</v>
+      </c>
+      <c r="B575" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C575" s="29">
+        <f>SUM(D575:R575)</f>
+        <v>33</v>
+      </c>
+      <c r="D575" s="30">
+        <v>33</v>
+      </c>
+      <c r="E575" s="30"/>
+      <c r="F575" s="30"/>
+      <c r="G575" s="30"/>
+      <c r="H575" s="30"/>
+      <c r="I575" s="30"/>
+      <c r="J575" s="30"/>
+      <c r="K575" s="30"/>
+      <c r="L575" s="30"/>
+      <c r="M575" s="30"/>
+      <c r="N575" s="30"/>
+      <c r="O575" s="30"/>
+      <c r="P575" s="30"/>
+      <c r="Q575" s="30"/>
+      <c r="R575" s="30"/>
+      <c r="S575" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+      <c r="Y575">
+        <f>+Y574-Y573</f>
+        <v>155.93</v>
+      </c>
+    </row>
+    <row r="576" spans="1:19">
+      <c r="A576" s="26">
+        <v>45689</v>
+      </c>
+      <c r="B576" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C576" s="29">
+        <f>SUM(D576:R576)</f>
+        <v>17</v>
+      </c>
+      <c r="D576" s="30">
+        <v>8</v>
+      </c>
+      <c r="E576" s="30">
+        <v>9</v>
+      </c>
+      <c r="F576" s="30"/>
+      <c r="G576" s="30"/>
+      <c r="H576" s="30"/>
+      <c r="I576" s="30"/>
+      <c r="J576" s="30"/>
+      <c r="K576" s="30"/>
+      <c r="L576" s="30"/>
+      <c r="M576" s="30"/>
+      <c r="N576" s="30"/>
+      <c r="O576" s="30"/>
+      <c r="P576" s="30"/>
+      <c r="Q576" s="30"/>
+      <c r="R576" s="30"/>
+      <c r="S576" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="577" spans="1:19">
+      <c r="A577" s="26">
+        <v>45690</v>
+      </c>
+      <c r="B577" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C577" s="29">
+        <f>SUM(D577:R577)</f>
+        <v>19</v>
+      </c>
+      <c r="D577" s="30">
+        <v>10</v>
+      </c>
+      <c r="E577" s="30">
+        <v>1</v>
+      </c>
+      <c r="F577" s="30">
+        <v>1</v>
+      </c>
+      <c r="G577" s="30">
+        <v>7</v>
+      </c>
+      <c r="H577" s="30"/>
+      <c r="I577" s="30"/>
+      <c r="J577" s="30"/>
+      <c r="K577" s="30"/>
+      <c r="L577" s="30"/>
+      <c r="M577" s="30"/>
+      <c r="N577" s="30"/>
+      <c r="O577" s="30"/>
+      <c r="P577" s="30"/>
+      <c r="Q577" s="30"/>
+      <c r="R577" s="30"/>
+      <c r="S577" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="578" spans="1:19">
+      <c r="A578" s="26">
+        <v>45690</v>
+      </c>
+      <c r="B578" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C578" s="29">
+        <f>SUM(D578:R578)</f>
+        <v>18</v>
+      </c>
+      <c r="D578" s="30">
+        <v>9</v>
+      </c>
+      <c r="E578" s="30">
+        <v>9</v>
+      </c>
+      <c r="F578" s="30"/>
+      <c r="G578" s="30"/>
+      <c r="H578" s="30"/>
+      <c r="I578" s="30"/>
+      <c r="J578" s="30"/>
+      <c r="K578" s="30"/>
+      <c r="L578" s="30"/>
+      <c r="M578" s="30"/>
+      <c r="N578" s="30"/>
+      <c r="O578" s="30"/>
+      <c r="P578" s="30"/>
+      <c r="Q578" s="30"/>
+      <c r="R578" s="30"/>
+      <c r="S578" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="579" spans="1:19">
+      <c r="A579" s="26">
+        <v>45691</v>
+      </c>
+      <c r="B579" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C579" s="29">
+        <f>SUM(D579:R579)</f>
+        <v>88</v>
+      </c>
+      <c r="D579" s="30">
+        <v>9</v>
+      </c>
+      <c r="E579" s="30">
+        <v>3</v>
+      </c>
+      <c r="F579" s="30">
+        <v>4</v>
+      </c>
+      <c r="G579" s="30">
+        <v>9</v>
+      </c>
+      <c r="H579" s="30">
+        <v>5</v>
+      </c>
+      <c r="I579" s="30">
+        <v>8</v>
+      </c>
+      <c r="J579" s="30">
+        <v>8</v>
+      </c>
+      <c r="K579" s="30">
+        <v>10</v>
+      </c>
+      <c r="L579" s="30">
+        <v>9</v>
+      </c>
+      <c r="M579" s="30">
+        <v>23</v>
+      </c>
+      <c r="N579" s="30"/>
+      <c r="O579" s="30"/>
+      <c r="P579" s="30"/>
+      <c r="Q579" s="30"/>
+      <c r="R579" s="30"/>
+      <c r="S579" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="580" spans="1:19">
+      <c r="A580" s="26">
+        <v>45691</v>
+      </c>
+      <c r="B580" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C580" s="29">
+        <f>SUM(D580:R580)</f>
+        <v>16</v>
+      </c>
+      <c r="D580" s="30">
+        <v>16</v>
+      </c>
+      <c r="E580" s="30"/>
+      <c r="F580" s="30"/>
+      <c r="G580" s="30"/>
+      <c r="H580" s="30"/>
+      <c r="I580" s="30"/>
+      <c r="J580" s="30"/>
+      <c r="K580" s="30"/>
+      <c r="L580" s="30"/>
+      <c r="M580" s="30"/>
+      <c r="N580" s="30"/>
+      <c r="O580" s="30"/>
+      <c r="P580" s="30"/>
+      <c r="Q580" s="30"/>
+      <c r="R580" s="30"/>
+      <c r="S580" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="581" spans="1:19">
+      <c r="A581" s="26">
+        <v>45692</v>
+      </c>
+      <c r="B581" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C581" s="29">
+        <f>SUM(D581:R581)</f>
+        <v>45</v>
+      </c>
+      <c r="D581" s="30">
+        <v>18</v>
+      </c>
+      <c r="E581" s="30">
+        <v>1</v>
+      </c>
+      <c r="F581" s="30">
+        <v>1</v>
+      </c>
+      <c r="G581" s="30">
+        <v>9</v>
+      </c>
+      <c r="H581" s="30">
+        <v>11</v>
+      </c>
+      <c r="I581" s="30">
+        <v>1</v>
+      </c>
+      <c r="J581" s="30">
+        <v>4</v>
+      </c>
+      <c r="K581" s="30"/>
+      <c r="L581" s="30"/>
+      <c r="M581" s="30"/>
+      <c r="N581" s="30"/>
+      <c r="O581" s="30"/>
+      <c r="P581" s="30"/>
+      <c r="Q581" s="30"/>
+      <c r="R581" s="30"/>
+      <c r="S581" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="582" spans="1:19">
+      <c r="A582" s="26">
+        <v>45693</v>
+      </c>
+      <c r="B582" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C582" s="29">
+        <f>SUM(D582:R582)</f>
+        <v>17</v>
+      </c>
+      <c r="D582" s="30">
+        <v>17</v>
+      </c>
+      <c r="E582" s="30"/>
+      <c r="F582" s="30"/>
+      <c r="G582" s="30"/>
+      <c r="H582" s="30"/>
+      <c r="I582" s="30"/>
+      <c r="J582" s="30"/>
+      <c r="K582" s="30"/>
+      <c r="L582" s="30"/>
+      <c r="M582" s="30"/>
+      <c r="N582" s="30"/>
+      <c r="O582" s="30"/>
+      <c r="P582" s="30"/>
+      <c r="Q582" s="30"/>
+      <c r="R582" s="30"/>
+      <c r="S582" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="583" spans="1:19">
+      <c r="A583" s="26">
+        <v>45693</v>
+      </c>
+      <c r="B583" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C583" s="29">
+        <f>SUM(D583:R583)</f>
+        <v>8</v>
+      </c>
+      <c r="D583" s="30">
+        <v>8</v>
+      </c>
+      <c r="E583" s="30"/>
+      <c r="F583" s="30"/>
+      <c r="G583" s="30"/>
+      <c r="H583" s="30"/>
+      <c r="I583" s="30"/>
+      <c r="J583" s="30"/>
+      <c r="K583" s="30"/>
+      <c r="L583" s="30"/>
+      <c r="M583" s="30"/>
+      <c r="N583" s="30"/>
+      <c r="O583" s="30"/>
+      <c r="P583" s="30"/>
+      <c r="Q583" s="30"/>
+      <c r="R583" s="30"/>
+      <c r="S583" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="584" spans="1:19">
+      <c r="A584" s="26">
+        <v>45696</v>
+      </c>
+      <c r="B584" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C584" s="29">
+        <f>SUM(D584:R584)</f>
+        <v>19</v>
+      </c>
+      <c r="D584" s="30">
+        <v>19</v>
+      </c>
+      <c r="E584" s="30"/>
+      <c r="F584" s="30"/>
+      <c r="G584" s="30"/>
+      <c r="H584" s="30"/>
+      <c r="I584" s="30"/>
+      <c r="J584" s="30"/>
+      <c r="K584" s="30"/>
+      <c r="L584" s="30"/>
+      <c r="M584" s="30"/>
+      <c r="N584" s="30"/>
+      <c r="O584" s="30"/>
+      <c r="P584" s="30"/>
+      <c r="Q584" s="30"/>
+      <c r="R584" s="30"/>
+      <c r="S584" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="585" spans="1:19">
+      <c r="A585" s="26">
+        <v>45696</v>
+      </c>
+      <c r="B585" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C585" s="29">
+        <f>SUM(D585:R585)</f>
+        <v>22</v>
+      </c>
+      <c r="D585" s="30">
+        <v>12</v>
+      </c>
+      <c r="E585" s="30">
+        <v>10</v>
+      </c>
+      <c r="F585" s="30"/>
+      <c r="G585" s="30"/>
+      <c r="H585" s="30"/>
+      <c r="I585" s="30"/>
+      <c r="J585" s="30"/>
+      <c r="K585" s="30"/>
+      <c r="L585" s="30"/>
+      <c r="M585" s="30"/>
+      <c r="N585" s="30"/>
+      <c r="O585" s="30"/>
+      <c r="P585" s="30"/>
+      <c r="Q585" s="30"/>
+      <c r="R585" s="30"/>
+      <c r="S585" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="586" spans="1:19">
+      <c r="A586" s="26">
+        <v>45701</v>
+      </c>
+      <c r="B586" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C586" s="29">
+        <f>SUM(D586:R586)</f>
+        <v>31</v>
+      </c>
+      <c r="D586" s="30">
+        <v>31</v>
+      </c>
+      <c r="E586" s="30"/>
+      <c r="F586" s="30"/>
+      <c r="G586" s="30"/>
+      <c r="H586" s="30"/>
+      <c r="I586" s="30"/>
+      <c r="J586" s="30"/>
+      <c r="K586" s="30"/>
+      <c r="L586" s="30"/>
+      <c r="M586" s="30"/>
+      <c r="N586" s="30"/>
+      <c r="O586" s="30"/>
+      <c r="P586" s="30"/>
+      <c r="Q586" s="30"/>
+      <c r="R586" s="30"/>
+      <c r="S586" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="587" spans="1:19">
+      <c r="A587" s="26">
+        <v>45701</v>
+      </c>
+      <c r="B587" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C587" s="29">
+        <f>SUM(D587:R587)</f>
+        <v>44</v>
+      </c>
+      <c r="D587" s="30">
+        <v>8</v>
+      </c>
+      <c r="E587" s="30">
+        <v>20</v>
+      </c>
+      <c r="F587" s="30">
+        <v>1</v>
+      </c>
+      <c r="G587" s="30">
+        <v>9</v>
+      </c>
+      <c r="H587" s="30">
+        <v>6</v>
+      </c>
+      <c r="I587" s="30"/>
+      <c r="J587" s="30"/>
+      <c r="K587" s="30"/>
+      <c r="L587" s="30"/>
+      <c r="M587" s="30"/>
+      <c r="N587" s="30"/>
+      <c r="O587" s="30"/>
+      <c r="P587" s="30"/>
+      <c r="Q587" s="30"/>
+      <c r="R587" s="30"/>
+      <c r="S587" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="588" spans="1:19">
+      <c r="A588" s="26">
+        <v>45702</v>
+      </c>
+      <c r="B588" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C588" s="29">
+        <f>SUM(D588:R588)</f>
+        <v>12</v>
+      </c>
+      <c r="D588" s="30">
+        <v>12</v>
+      </c>
+      <c r="E588" s="30"/>
+      <c r="F588" s="30"/>
+      <c r="G588" s="30"/>
+      <c r="H588" s="30"/>
+      <c r="I588" s="30"/>
+      <c r="J588" s="30"/>
+      <c r="K588" s="30"/>
+      <c r="L588" s="30"/>
+      <c r="M588" s="30"/>
+      <c r="N588" s="30"/>
+      <c r="O588" s="30"/>
+      <c r="P588" s="30"/>
+      <c r="Q588" s="30"/>
+      <c r="R588" s="30"/>
+      <c r="S588" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="589" spans="1:19">
+      <c r="A589" s="26">
+        <v>45702</v>
+      </c>
+      <c r="B589" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C589" s="29">
+        <f>SUM(D589:R589)</f>
+        <v>24</v>
+      </c>
+      <c r="D589" s="30">
+        <v>24</v>
+      </c>
+      <c r="E589" s="30"/>
+      <c r="F589" s="30"/>
+      <c r="G589" s="30"/>
+      <c r="H589" s="30"/>
+      <c r="I589" s="30"/>
+      <c r="J589" s="30"/>
+      <c r="K589" s="30"/>
+      <c r="L589" s="30"/>
+      <c r="M589" s="30"/>
+      <c r="N589" s="30"/>
+      <c r="O589" s="30"/>
+      <c r="P589" s="30"/>
+      <c r="Q589" s="30"/>
+      <c r="R589" s="30"/>
+      <c r="S589" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="590" spans="1:19">
+      <c r="A590" s="26">
+        <v>45702</v>
+      </c>
+      <c r="B590" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C590" s="29">
+        <f>SUM(D590:R590)</f>
+        <v>52</v>
+      </c>
+      <c r="D590" s="30">
+        <v>17</v>
+      </c>
+      <c r="E590" s="30">
+        <v>9</v>
+      </c>
+      <c r="F590" s="30">
+        <v>11</v>
+      </c>
+      <c r="G590" s="30">
+        <v>15</v>
+      </c>
+      <c r="H590" s="30"/>
+      <c r="I590" s="30"/>
+      <c r="J590" s="30"/>
+      <c r="K590" s="30"/>
+      <c r="L590" s="30"/>
+      <c r="M590" s="30"/>
+      <c r="N590" s="30"/>
+      <c r="O590" s="30"/>
+      <c r="P590" s="30"/>
+      <c r="Q590" s="30"/>
+      <c r="R590" s="30"/>
+      <c r="S590" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="591" spans="1:19">
+      <c r="A591" s="26">
+        <v>45703</v>
+      </c>
+      <c r="B591" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C591" s="29">
+        <f>SUM(D591:R591)</f>
+        <v>14</v>
+      </c>
+      <c r="D591" s="30">
+        <v>14</v>
+      </c>
+      <c r="E591" s="30"/>
+      <c r="F591" s="30"/>
+      <c r="G591" s="30"/>
+      <c r="H591" s="30"/>
+      <c r="I591" s="30"/>
+      <c r="J591" s="30"/>
+      <c r="K591" s="30"/>
+      <c r="L591" s="30"/>
+      <c r="M591" s="30"/>
+      <c r="N591" s="30"/>
+      <c r="O591" s="30"/>
+      <c r="P591" s="30"/>
+      <c r="Q591" s="30"/>
+      <c r="R591" s="30"/>
+      <c r="S591" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="592" spans="1:19">
+      <c r="A592" s="26">
+        <v>45703</v>
+      </c>
+      <c r="B592" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C592" s="29">
+        <f>SUM(D592:R592)</f>
+        <v>18</v>
+      </c>
+      <c r="D592" s="30">
+        <v>18</v>
+      </c>
+      <c r="E592" s="30"/>
+      <c r="F592" s="30"/>
+      <c r="G592" s="30"/>
+      <c r="H592" s="30"/>
+      <c r="I592" s="30"/>
+      <c r="J592" s="30"/>
+      <c r="K592" s="30"/>
+      <c r="L592" s="30"/>
+      <c r="M592" s="30"/>
+      <c r="N592" s="30"/>
+      <c r="O592" s="30"/>
+      <c r="P592" s="30"/>
+      <c r="Q592" s="30"/>
+      <c r="R592" s="30"/>
+      <c r="S592" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="593" spans="1:19">
+      <c r="A593" s="26">
+        <v>45703</v>
+      </c>
+      <c r="B593" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C593" s="29">
+        <f>SUM(D593:R593)</f>
+        <v>36</v>
+      </c>
+      <c r="D593" s="30">
+        <v>9</v>
+      </c>
+      <c r="E593" s="30">
+        <v>12</v>
+      </c>
+      <c r="F593" s="30">
+        <v>15</v>
+      </c>
+      <c r="G593" s="30"/>
+      <c r="H593" s="30"/>
+      <c r="I593" s="30"/>
+      <c r="J593" s="30"/>
+      <c r="K593" s="30"/>
+      <c r="L593" s="30"/>
+      <c r="M593" s="30"/>
+      <c r="N593" s="30"/>
+      <c r="O593" s="30"/>
+      <c r="P593" s="30"/>
+      <c r="Q593" s="30"/>
+      <c r="R593" s="30"/>
+      <c r="S593" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="594" spans="1:19">
+      <c r="A594" s="26">
+        <v>45706</v>
+      </c>
+      <c r="B594" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C594" s="29">
+        <f>SUM(D594:R594)</f>
+        <v>9</v>
+      </c>
+      <c r="D594" s="30">
+        <v>9</v>
+      </c>
+      <c r="E594" s="30"/>
+      <c r="F594" s="30"/>
+      <c r="G594" s="30"/>
+      <c r="H594" s="30"/>
+      <c r="I594" s="30"/>
+      <c r="J594" s="30"/>
+      <c r="K594" s="30"/>
+      <c r="L594" s="30"/>
+      <c r="M594" s="30"/>
+      <c r="N594" s="30"/>
+      <c r="O594" s="30"/>
+      <c r="P594" s="30"/>
+      <c r="Q594" s="30"/>
+      <c r="R594" s="30"/>
+      <c r="S594" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="595" spans="1:19">
+      <c r="A595" s="26">
+        <v>45706</v>
+      </c>
+      <c r="B595" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C595" s="29">
+        <f>SUM(D595:R595)</f>
+        <v>17</v>
+      </c>
+      <c r="D595" s="30">
+        <v>17</v>
+      </c>
+      <c r="E595" s="30"/>
+      <c r="F595" s="30"/>
+      <c r="G595" s="30"/>
+      <c r="H595" s="30"/>
+      <c r="I595" s="30"/>
+      <c r="J595" s="30"/>
+      <c r="K595" s="30"/>
+      <c r="L595" s="30"/>
+      <c r="M595" s="30"/>
+      <c r="N595" s="30"/>
+      <c r="O595" s="30"/>
+      <c r="P595" s="30"/>
+      <c r="Q595" s="30"/>
+      <c r="R595" s="30"/>
+      <c r="S595" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="596" spans="1:19">
+      <c r="A596" s="26">
+        <v>45706</v>
+      </c>
+      <c r="B596" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C596" s="29">
+        <f>SUM(D596:R596)</f>
+        <v>31</v>
+      </c>
+      <c r="D596" s="30">
+        <v>15</v>
+      </c>
+      <c r="E596" s="30">
+        <v>16</v>
+      </c>
+      <c r="F596" s="30"/>
+      <c r="G596" s="30"/>
+      <c r="H596" s="30"/>
+      <c r="I596" s="30"/>
+      <c r="J596" s="30"/>
+      <c r="K596" s="30"/>
+      <c r="L596" s="30"/>
+      <c r="M596" s="30"/>
+      <c r="N596" s="30"/>
+      <c r="O596" s="30"/>
+      <c r="P596" s="30"/>
+      <c r="Q596" s="30"/>
+      <c r="R596" s="30"/>
+      <c r="S596" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="597" spans="1:19">
+      <c r="A597" s="26">
+        <v>45707</v>
+      </c>
+      <c r="B597" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C597" s="29">
+        <f>SUM(D597:R597)</f>
+        <v>13</v>
+      </c>
+      <c r="D597" s="30">
+        <v>13</v>
+      </c>
+      <c r="E597" s="30"/>
+      <c r="F597" s="30"/>
+      <c r="G597" s="30"/>
+      <c r="H597" s="30"/>
+      <c r="I597" s="30"/>
+      <c r="J597" s="30"/>
+      <c r="K597" s="30"/>
+      <c r="L597" s="30"/>
+      <c r="M597" s="30"/>
+      <c r="N597" s="30"/>
+      <c r="O597" s="30"/>
+      <c r="P597" s="30"/>
+      <c r="Q597" s="30"/>
+      <c r="R597" s="30"/>
+      <c r="S597" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="598" spans="1:19">
+      <c r="A598" s="26">
+        <v>45707</v>
+      </c>
+      <c r="B598" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C598" s="29">
+        <f>SUM(D598:R598)</f>
+        <v>24</v>
+      </c>
+      <c r="D598" s="30">
+        <v>16</v>
+      </c>
+      <c r="E598" s="30">
+        <v>8</v>
+      </c>
+      <c r="F598" s="30"/>
+      <c r="G598" s="30"/>
+      <c r="H598" s="30"/>
+      <c r="I598" s="30"/>
+      <c r="J598" s="30"/>
+      <c r="K598" s="30"/>
+      <c r="L598" s="30"/>
+      <c r="M598" s="30"/>
+      <c r="N598" s="30"/>
+      <c r="O598" s="30"/>
+      <c r="P598" s="30"/>
+      <c r="Q598" s="30"/>
+      <c r="R598" s="30"/>
+      <c r="S598" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="599" spans="1:19">
+      <c r="A599" s="26">
+        <v>45707</v>
+      </c>
+      <c r="B599" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C599" s="29">
+        <f>SUM(D599:R599)</f>
+        <v>42</v>
+      </c>
+      <c r="D599" s="30">
+        <v>16</v>
+      </c>
+      <c r="E599" s="30">
+        <v>9</v>
+      </c>
+      <c r="F599" s="30">
+        <v>17</v>
+      </c>
+      <c r="G599" s="30"/>
+      <c r="H599" s="30"/>
+      <c r="I599" s="30"/>
+      <c r="J599" s="30"/>
+      <c r="K599" s="30"/>
+      <c r="L599" s="30"/>
+      <c r="M599" s="30"/>
+      <c r="N599" s="30"/>
+      <c r="O599" s="30"/>
+      <c r="P599" s="30"/>
+      <c r="Q599" s="30"/>
+      <c r="R599" s="30"/>
+      <c r="S599" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="600" spans="1:19">
+      <c r="A600" s="26">
+        <v>45708</v>
+      </c>
+      <c r="B600" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C600" s="29">
+        <f>SUM(D600:R600)</f>
+        <v>13</v>
+      </c>
+      <c r="D600" s="30">
+        <v>13</v>
+      </c>
+      <c r="E600" s="30"/>
+      <c r="F600" s="30"/>
+      <c r="G600" s="30"/>
+      <c r="H600" s="30"/>
+      <c r="I600" s="30"/>
+      <c r="J600" s="30"/>
+      <c r="K600" s="30"/>
+      <c r="L600" s="30"/>
+      <c r="M600" s="30"/>
+      <c r="N600" s="30"/>
+      <c r="O600" s="30"/>
+      <c r="P600" s="30"/>
+      <c r="Q600" s="30"/>
+      <c r="R600" s="30"/>
+      <c r="S600" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="601" spans="1:19">
+      <c r="A601" s="26">
+        <v>45708</v>
+      </c>
+      <c r="B601" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C601" s="29">
+        <f>SUM(D601:R601)</f>
+        <v>7</v>
+      </c>
+      <c r="D601" s="30">
+        <v>7</v>
+      </c>
+      <c r="E601" s="30"/>
+      <c r="F601" s="30"/>
+      <c r="G601" s="30"/>
+      <c r="H601" s="30"/>
+      <c r="I601" s="30"/>
+      <c r="J601" s="30"/>
+      <c r="K601" s="30"/>
+      <c r="L601" s="30"/>
+      <c r="M601" s="30"/>
+      <c r="N601" s="30"/>
+      <c r="O601" s="30"/>
+      <c r="P601" s="30"/>
+      <c r="Q601" s="30"/>
+      <c r="R601" s="30"/>
+      <c r="S601" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="602" spans="1:19">
+      <c r="A602" s="26">
+        <v>45711</v>
+      </c>
+      <c r="B602" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C602" s="29">
+        <f>SUM(D602:R602)</f>
+        <v>43</v>
+      </c>
+      <c r="D602" s="30">
+        <v>25</v>
+      </c>
+      <c r="E602" s="30">
+        <v>18</v>
+      </c>
+      <c r="F602" s="30"/>
+      <c r="G602" s="30"/>
+      <c r="H602" s="30"/>
+      <c r="I602" s="30"/>
+      <c r="J602" s="30"/>
+      <c r="K602" s="30"/>
+      <c r="L602" s="30"/>
+      <c r="M602" s="30"/>
+      <c r="N602" s="30"/>
+      <c r="O602" s="30"/>
+      <c r="P602" s="30"/>
+      <c r="Q602" s="30"/>
+      <c r="R602" s="30"/>
+      <c r="S602" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="603" spans="1:19">
+      <c r="A603" s="26">
+        <v>45711</v>
+      </c>
+      <c r="B603" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C603" s="29">
+        <f>SUM(D603:R603)</f>
+        <v>15</v>
+      </c>
+      <c r="D603" s="30">
+        <v>15</v>
+      </c>
+      <c r="E603" s="30"/>
+      <c r="F603" s="30"/>
+      <c r="G603" s="30"/>
+      <c r="H603" s="30"/>
+      <c r="I603" s="30"/>
+      <c r="J603" s="30"/>
+      <c r="K603" s="30"/>
+      <c r="L603" s="30"/>
+      <c r="M603" s="30"/>
+      <c r="N603" s="30"/>
+      <c r="O603" s="30"/>
+      <c r="P603" s="30"/>
+      <c r="Q603" s="30"/>
+      <c r="R603" s="30"/>
+      <c r="S603" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="604" spans="1:19">
+      <c r="A604" s="26">
+        <v>45712</v>
+      </c>
+      <c r="B604" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C604" s="29">
+        <f>SUM(D604:R604)</f>
+        <v>16</v>
+      </c>
+      <c r="D604" s="30">
+        <v>16</v>
+      </c>
+      <c r="E604" s="30"/>
+      <c r="F604" s="30"/>
+      <c r="G604" s="30"/>
+      <c r="H604" s="30"/>
+      <c r="I604" s="30"/>
+      <c r="J604" s="30"/>
+      <c r="K604" s="30"/>
+      <c r="L604" s="30"/>
+      <c r="M604" s="30"/>
+      <c r="N604" s="30"/>
+      <c r="O604" s="30"/>
+      <c r="P604" s="30"/>
+      <c r="Q604" s="30"/>
+      <c r="R604" s="30"/>
+      <c r="S604" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="605" spans="1:19">
+      <c r="A605" s="26">
+        <v>45712</v>
+      </c>
+      <c r="B605" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C605" s="29">
+        <f>SUM(D605:R605)</f>
+        <v>17</v>
+      </c>
+      <c r="D605" s="30">
+        <v>17</v>
+      </c>
+      <c r="E605" s="30"/>
+      <c r="F605" s="30"/>
+      <c r="G605" s="30"/>
+      <c r="H605" s="30"/>
+      <c r="I605" s="30"/>
+      <c r="J605" s="30"/>
+      <c r="K605" s="30"/>
+      <c r="L605" s="30"/>
+      <c r="M605" s="30"/>
+      <c r="N605" s="30"/>
+      <c r="O605" s="30"/>
+      <c r="P605" s="30"/>
+      <c r="Q605" s="30"/>
+      <c r="R605" s="30"/>
+      <c r="S605" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="606" spans="1:19">
+      <c r="A606" s="26">
+        <v>45712</v>
+      </c>
+      <c r="B606" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C606" s="29">
+        <f>SUM(D606:R606)</f>
+        <v>29</v>
+      </c>
+      <c r="D606" s="30">
+        <v>10</v>
+      </c>
+      <c r="E606" s="30">
+        <v>19</v>
+      </c>
+      <c r="F606" s="30"/>
+      <c r="G606" s="30"/>
+      <c r="H606" s="30"/>
+      <c r="I606" s="30"/>
+      <c r="J606" s="30"/>
+      <c r="K606" s="30"/>
+      <c r="L606" s="30"/>
+      <c r="M606" s="30"/>
+      <c r="N606" s="30"/>
+      <c r="O606" s="30"/>
+      <c r="P606" s="30"/>
+      <c r="Q606" s="30"/>
+      <c r="R606" s="30"/>
+      <c r="S606" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="607" spans="1:19">
+      <c r="A607" s="26">
+        <v>45713</v>
+      </c>
+      <c r="B607" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C607" s="39">
+        <f>SUM(D607:R607)</f>
+        <v>12</v>
+      </c>
+      <c r="D607" s="30">
+        <v>12</v>
+      </c>
+      <c r="E607" s="30"/>
+      <c r="F607" s="30"/>
+      <c r="G607" s="30"/>
+      <c r="H607" s="30"/>
+      <c r="I607" s="30"/>
+      <c r="J607" s="30"/>
+      <c r="K607" s="30"/>
+      <c r="L607" s="30"/>
+      <c r="M607" s="30"/>
+      <c r="N607" s="30"/>
+      <c r="O607" s="30"/>
+      <c r="P607" s="30"/>
+      <c r="Q607" s="30"/>
+      <c r="R607" s="30"/>
+      <c r="S607" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="608" spans="1:19">
+      <c r="A608" s="26">
+        <v>45713</v>
+      </c>
+      <c r="B608" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C608" s="39">
+        <f>SUM(D608:R608)</f>
+        <v>16</v>
+      </c>
+      <c r="D608" s="30">
+        <v>1</v>
+      </c>
+      <c r="E608" s="30">
+        <v>1</v>
+      </c>
+      <c r="F608" s="30">
+        <v>14</v>
+      </c>
+      <c r="G608" s="30"/>
+      <c r="H608" s="30"/>
+      <c r="I608" s="30"/>
+      <c r="J608" s="30"/>
+      <c r="K608" s="30"/>
+      <c r="L608" s="30"/>
+      <c r="M608" s="30"/>
+      <c r="N608" s="30"/>
+      <c r="O608" s="30"/>
+      <c r="P608" s="30"/>
+      <c r="Q608" s="30"/>
+      <c r="R608" s="30"/>
+      <c r="S608" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="609" spans="1:19">
+      <c r="A609" s="26">
+        <v>45713</v>
+      </c>
+      <c r="B609" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C609" s="39">
+        <f>SUM(D609:R609)</f>
+        <v>19</v>
+      </c>
+      <c r="D609" s="30">
+        <v>19</v>
+      </c>
+      <c r="E609" s="30"/>
+      <c r="F609" s="30"/>
+      <c r="G609" s="30"/>
+      <c r="H609" s="30"/>
+      <c r="I609" s="30"/>
+      <c r="J609" s="30"/>
+      <c r="K609" s="30"/>
+      <c r="L609" s="30"/>
+      <c r="M609" s="30"/>
+      <c r="N609" s="30"/>
+      <c r="O609" s="30"/>
+      <c r="P609" s="30"/>
+      <c r="Q609" s="30"/>
+      <c r="R609" s="30"/>
+      <c r="S609" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B560 B561 B562 B2:B559 B563:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B607 B608 B609 B2:B606 B610:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -22869,123 +24595,123 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B2" s="6">
         <v>0.666666666666667</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B3" s="6">
         <v>2.29166666666667</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B4" s="6">
         <v>1.85416666666667</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B5" s="6">
         <v>0.025</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B6" s="6">
         <v>1.27083333333333</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B7" s="6">
         <v>2.29166666666667</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B8" s="6">
         <v>0.0819444444444444</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B9" s="6">
         <v>2.33333333333333</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B10" s="6">
         <v>0.144444444444444</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B11" s="10">
         <v>0.6875</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -23097,16 +24823,16 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -23181,11 +24907,11 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="24">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>47.1771561771562</v>
+        <v>47.0538065254722</v>
       </c>
       <c r="C2" s="24">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -23209,12 +24935,12 @@
       </c>
       <c r="H2" s="24">
         <f>SUMIF(Tiempos!$S:$S,H1,Tiempos!$C:$C)/(H4-H3+1)</f>
-        <v>72.48</v>
+        <v>54.625</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="25">
         <f>MIN(Tabla2[Fecha])</f>
@@ -23241,11 +24967,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45682</v>
+        <v>45713</v>
       </c>
       <c r="C4" s="25">
         <v>44196</v>
@@ -23264,12 +24990,12 @@
       </c>
       <c r="H4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45682</v>
+        <v>45713</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D7" s="26">
         <f>H3</f>
@@ -23278,7 +25004,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="26">
         <f>DATE(H1,12,31)</f>
@@ -23287,7 +25013,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="18" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -23300,24 +25026,24 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="27">
         <f>(H4-H3+1)*H2</f>
-        <v>1812</v>
+        <v>3059</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="18" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D11" s="19">
         <f>D10/D9</f>
-        <v>0.165479452054795</v>
+        <v>0.279360730593607</v>
       </c>
     </row>
   </sheetData>
@@ -23330,10 +25056,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
@@ -23378,156 +25104,176 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
     </row>
@@ -23556,35 +25302,35 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -23596,10 +25342,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -23760,10 +25506,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <f>60+12</f>
@@ -23938,106 +25684,106 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="16"/>
       <c r="F8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B9" s="16">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -24059,10 +25805,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
@@ -24074,10 +25820,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -24086,19 +25832,19 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -24106,16 +25852,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -24123,10 +25869,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -24137,10 +25883,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -24151,10 +25897,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -24162,28 +25908,28 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -24193,7 +25939,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -24229,27 +25975,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -24272,57 +26018,57 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -24346,122 +26092,122 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -24485,62 +26231,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -24566,7 +26312,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(B2:B5000)</f>
@@ -24582,10 +26328,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J2">
         <v>576</v>
@@ -24593,10 +26339,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J3">
         <v>124</v>
@@ -24604,7 +26350,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -24612,7 +26358,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -24624,12 +26370,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -24637,7 +26383,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -24645,7 +26391,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -24653,7 +26399,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -24661,7 +26407,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -24669,7 +26415,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -24677,7 +26423,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -24685,7 +26431,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -24693,7 +26439,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -24701,7 +26447,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -24709,7 +26455,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -24717,7 +26463,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -24725,7 +26471,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -24733,7 +26479,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -24741,22 +26487,22 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="12" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -24764,12 +26510,12 @@
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -24777,7 +26523,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -24785,7 +26531,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -24793,7 +26539,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -24801,7 +26547,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -24809,12 +26555,12 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -24822,7 +26568,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -24830,7 +26576,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -24838,7 +26584,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="14" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -24846,12 +26592,12 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="13" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -24859,7 +26605,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -24867,7 +26613,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -24875,7 +26621,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -24883,7 +26629,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -24891,7 +26637,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -24899,7 +26645,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -24907,7 +26653,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -24915,7 +26661,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -24923,7 +26669,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -24931,7 +26677,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -24939,7 +26685,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -24947,7 +26693,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -24955,7 +26701,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -24963,7 +26709,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -24971,22 +26717,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -24994,7 +26740,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -25002,7 +26748,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -25010,7 +26756,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -25018,7 +26764,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="13" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -25026,7 +26772,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -25034,7 +26780,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -25042,7 +26788,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -25050,7 +26796,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -25058,7 +26804,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="13" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -25066,7 +26812,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -25074,7 +26820,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -25082,7 +26828,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -25090,7 +26836,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="13" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -25098,7 +26844,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="13" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -25106,7 +26852,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="14" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8960"/>
+    <workbookView windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="241">
   <si>
     <t>Fecha</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Symfony</t>
+  </si>
+  <si>
+    <t>Mautic</t>
   </si>
   <si>
     <t>T. diario:</t>
@@ -1733,15 +1736,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S609" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S609" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S615" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S615" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2025"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1:S609">
+  <sortState ref="A1:S615">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="19">
@@ -1774,9 +1777,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A42" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A42" etc:filterBottomFollowUsedRange="0"/>
-  <sortState ref="A1:A42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:A43" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A43" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:A43">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="1">
@@ -2044,25 +2047,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y611"/>
+  <dimension ref="A1:Y615"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D595" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D598" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O613" sqref="O613"/>
+      <selection pane="bottomRight" activeCell="K616" sqref="K616"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="11.5545454545455" style="1"/>
-    <col min="4" max="18" width="7.10909090909091" customWidth="1"/>
-    <col min="19" max="19" width="11.5545454545455" style="28"/>
-    <col min="20" max="20" width="4.66363636363636" customWidth="1"/>
-    <col min="21" max="21" width="7.66363636363636" customWidth="1"/>
-    <col min="22" max="22" width="8.33636363636364" customWidth="1"/>
+    <col min="2" max="2" width="12.7809523809524" customWidth="1"/>
+    <col min="3" max="3" width="11.552380952381" style="1"/>
+    <col min="4" max="18" width="7.1047619047619" customWidth="1"/>
+    <col min="19" max="19" width="11.552380952381" style="28"/>
+    <col min="20" max="20" width="4.66666666666667" customWidth="1"/>
+    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
+    <col min="22" max="22" width="8.33333333333333" customWidth="1"/>
     <col min="23" max="23" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2129,15 +2132,15 @@
       </c>
       <c r="V1" s="32">
         <f>Resumen!H2</f>
-        <v>54.625</v>
+        <v>46.5277777777778</v>
       </c>
       <c r="W1" s="33">
         <f>Resumen!D11</f>
-        <v>0.279360730593607</v>
+        <v>0.305936073059361</v>
       </c>
       <c r="X1" s="34">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45760</v>
+        <v>45769</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -24463,7 +24466,7 @@
       <c r="B607" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C607" s="39">
+      <c r="C607" s="29">
         <f>SUM(D607:R607)</f>
         <v>12</v>
       </c>
@@ -24496,7 +24499,7 @@
       <c r="B608" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C608" s="39">
+      <c r="C608" s="29">
         <f>SUM(D608:R608)</f>
         <v>16</v>
       </c>
@@ -24533,7 +24536,7 @@
       <c r="B609" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C609" s="39">
+      <c r="C609" s="29">
         <f>SUM(D609:R609)</f>
         <v>19</v>
       </c>
@@ -24559,12 +24562,279 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
-      <c r="A611" s="26"/>
+    <row r="610" spans="1:19">
+      <c r="A610" s="26">
+        <v>45721</v>
+      </c>
+      <c r="B610" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C610" s="29">
+        <f>SUM(D610:R610)</f>
+        <v>72</v>
+      </c>
+      <c r="D610" s="30">
+        <v>22</v>
+      </c>
+      <c r="E610" s="30">
+        <v>24</v>
+      </c>
+      <c r="F610" s="30">
+        <v>6</v>
+      </c>
+      <c r="G610" s="30">
+        <v>5</v>
+      </c>
+      <c r="H610" s="30">
+        <v>6</v>
+      </c>
+      <c r="I610" s="30">
+        <v>4</v>
+      </c>
+      <c r="J610" s="30">
+        <v>3</v>
+      </c>
+      <c r="K610" s="30">
+        <v>2</v>
+      </c>
+      <c r="L610" s="30"/>
+      <c r="M610" s="30"/>
+      <c r="N610" s="30"/>
+      <c r="O610" s="30"/>
+      <c r="P610" s="30"/>
+      <c r="Q610" s="30"/>
+      <c r="R610" s="30"/>
+      <c r="S610" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="611" spans="1:19">
+      <c r="A611" s="26">
+        <v>45722</v>
+      </c>
+      <c r="B611" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C611" s="29">
+        <f>SUM(D611:R611)</f>
+        <v>34</v>
+      </c>
+      <c r="D611" s="30">
+        <v>3</v>
+      </c>
+      <c r="E611" s="30">
+        <v>2</v>
+      </c>
+      <c r="F611" s="30">
+        <v>10</v>
+      </c>
+      <c r="G611" s="30">
+        <v>11</v>
+      </c>
+      <c r="H611" s="30">
+        <v>8</v>
+      </c>
+      <c r="I611" s="30"/>
+      <c r="J611" s="30"/>
+      <c r="K611" s="30"/>
+      <c r="L611" s="30"/>
+      <c r="M611" s="30"/>
+      <c r="N611" s="30"/>
+      <c r="O611" s="30"/>
+      <c r="P611" s="30"/>
+      <c r="Q611" s="30"/>
+      <c r="R611" s="30"/>
+      <c r="S611" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="612" spans="1:19">
+      <c r="A612" s="26">
+        <v>45727</v>
+      </c>
+      <c r="B612" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C612" s="29">
+        <f>SUM(D612:R612)</f>
+        <v>49</v>
+      </c>
+      <c r="D612" s="30">
+        <v>6</v>
+      </c>
+      <c r="E612" s="30">
+        <v>5</v>
+      </c>
+      <c r="F612" s="30">
+        <v>5</v>
+      </c>
+      <c r="G612" s="30">
+        <v>4</v>
+      </c>
+      <c r="H612" s="30">
+        <v>5</v>
+      </c>
+      <c r="I612" s="30">
+        <v>7</v>
+      </c>
+      <c r="J612" s="30">
+        <v>3</v>
+      </c>
+      <c r="K612" s="30">
+        <v>14</v>
+      </c>
+      <c r="L612" s="30"/>
+      <c r="M612" s="30"/>
+      <c r="N612" s="30"/>
+      <c r="O612" s="30"/>
+      <c r="P612" s="30"/>
+      <c r="Q612" s="30"/>
+      <c r="R612" s="30"/>
+      <c r="S612" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="613" spans="1:19">
+      <c r="A613" s="26">
+        <v>45727</v>
+      </c>
+      <c r="B613" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C613" s="29">
+        <f>SUM(D613:R613)</f>
+        <v>34</v>
+      </c>
+      <c r="D613" s="30">
+        <v>9</v>
+      </c>
+      <c r="E613" s="30">
+        <v>1</v>
+      </c>
+      <c r="F613" s="30">
+        <v>23</v>
+      </c>
+      <c r="G613" s="30">
+        <v>1</v>
+      </c>
+      <c r="H613" s="30"/>
+      <c r="I613" s="30"/>
+      <c r="J613" s="30"/>
+      <c r="K613" s="30"/>
+      <c r="L613" s="30"/>
+      <c r="M613" s="30"/>
+      <c r="N613" s="30"/>
+      <c r="O613" s="30"/>
+      <c r="P613" s="30"/>
+      <c r="Q613" s="30"/>
+      <c r="R613" s="30"/>
+      <c r="S613" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="614" spans="1:19">
+      <c r="A614" s="26">
+        <v>45729</v>
+      </c>
+      <c r="B614" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C614" s="29">
+        <f>SUM(D614:R614)</f>
+        <v>36</v>
+      </c>
+      <c r="D614" s="30">
+        <v>3</v>
+      </c>
+      <c r="E614" s="30">
+        <v>6</v>
+      </c>
+      <c r="F614" s="30">
+        <v>2</v>
+      </c>
+      <c r="G614" s="30">
+        <v>6</v>
+      </c>
+      <c r="H614" s="30">
+        <v>3</v>
+      </c>
+      <c r="I614" s="30">
+        <v>5</v>
+      </c>
+      <c r="J614" s="30">
+        <v>4</v>
+      </c>
+      <c r="K614" s="30">
+        <v>3</v>
+      </c>
+      <c r="L614" s="30">
+        <v>4</v>
+      </c>
+      <c r="M614" s="30"/>
+      <c r="N614" s="30"/>
+      <c r="O614" s="30"/>
+      <c r="P614" s="30"/>
+      <c r="Q614" s="30"/>
+      <c r="R614" s="30"/>
+      <c r="S614" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="615" spans="1:19">
+      <c r="A615" s="26">
+        <v>45729</v>
+      </c>
+      <c r="B615" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C615" s="39">
+        <f>SUM(D615:R615)</f>
+        <v>66</v>
+      </c>
+      <c r="D615" s="30">
+        <v>12</v>
+      </c>
+      <c r="E615" s="30">
+        <v>1</v>
+      </c>
+      <c r="F615" s="30">
+        <v>13</v>
+      </c>
+      <c r="G615" s="30">
+        <v>1</v>
+      </c>
+      <c r="H615" s="30">
+        <v>9</v>
+      </c>
+      <c r="I615" s="30">
+        <v>7</v>
+      </c>
+      <c r="J615" s="30">
+        <v>22</v>
+      </c>
+      <c r="K615" s="30">
+        <v>1</v>
+      </c>
+      <c r="L615" s="30"/>
+      <c r="M615" s="30"/>
+      <c r="N615" s="30"/>
+      <c r="O615" s="30"/>
+      <c r="P615" s="30"/>
+      <c r="Q615" s="30"/>
+      <c r="R615" s="30"/>
+      <c r="S615" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B607 B608 B609 B2:B606 B610:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B615 B2:B614 B616:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -24586,132 +24856,132 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="59.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="9.09090909090909" customWidth="1"/>
-    <col min="3" max="3" width="128.090909090909" customWidth="1"/>
+    <col min="1" max="1" width="59.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="9.09523809523809" customWidth="1"/>
+    <col min="3" max="3" width="128.095238095238" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="6">
         <v>0.666666666666667</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B3" s="6">
         <v>2.29166666666667</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" s="6">
         <v>1.85416666666667</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B5" s="6">
         <v>0.025</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B6" s="6">
         <v>1.27083333333333</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B7" s="6">
         <v>2.29166666666667</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B8" s="6">
         <v>0.0819444444444444</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B9" s="6">
         <v>2.33333333333333</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B10" s="6">
         <v>0.144444444444444</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B11" s="10">
         <v>0.6875</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -24741,7 +25011,7 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2">
@@ -24823,16 +25093,16 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -24873,13 +25143,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.4454545454545" customWidth="1"/>
-    <col min="2" max="2" width="13.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="10.5545454545455" customWidth="1"/>
-    <col min="4" max="4" width="10.7818181818182" customWidth="1"/>
-    <col min="5" max="8" width="11.3636363636364"/>
+    <col min="1" max="1" width="10.447619047619" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.552380952381" customWidth="1"/>
+    <col min="4" max="4" width="10.7809523809524" customWidth="1"/>
+    <col min="5" max="8" width="11.3619047619048"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -24907,11 +25177,11 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="24">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>47.0538065254722</v>
+        <v>46.7918321043676</v>
       </c>
       <c r="C2" s="24">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -24935,12 +25205,12 @@
       </c>
       <c r="H2" s="24">
         <f>SUMIF(Tiempos!$S:$S,H1,Tiempos!$C:$C)/(H4-H3+1)</f>
-        <v>54.625</v>
+        <v>46.5277777777778</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" s="25">
         <f>MIN(Tabla2[Fecha])</f>
@@ -24967,11 +25237,11 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45713</v>
+        <v>45729</v>
       </c>
       <c r="C4" s="25">
         <v>44196</v>
@@ -24990,12 +25260,12 @@
       </c>
       <c r="H4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45713</v>
+        <v>45729</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7" s="26">
         <f>H3</f>
@@ -25004,7 +25274,7 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="26">
         <f>DATE(H1,12,31)</f>
@@ -25013,7 +25283,7 @@
     </row>
     <row r="9" spans="3:6">
       <c r="C9" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <f>(D8-D7+1)*30</f>
@@ -25026,24 +25296,24 @@
     </row>
     <row r="10" spans="3:6">
       <c r="C10" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="27">
         <f>(H4-H3+1)*H2</f>
-        <v>3059</v>
+        <v>3350</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="19">
         <f>D10/D9</f>
-        <v>0.279360730593607</v>
+        <v>0.305936073059361</v>
       </c>
     </row>
   </sheetData>
@@ -25056,15 +25326,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -25209,7 +25479,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -25219,22 +25489,22 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -25244,36 +25514,41 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
     </row>
@@ -25295,42 +25570,42 @@
       <selection activeCell="J21" sqref="J21:J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="16">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>18</v>
@@ -25342,10 +25617,10 @@
     </row>
     <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -25506,10 +25781,10 @@
     </row>
     <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <f>60+12</f>
@@ -25684,106 +25959,106 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="16"/>
       <c r="F8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="16">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -25805,10 +26080,10 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <f>SUMIF(F8:BE8,"",F7:BE7)</f>
@@ -25820,10 +26095,10 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K12">
         <f>+K11/12</f>
@@ -25832,19 +26107,19 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -25852,16 +26127,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -25869,10 +26144,10 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -25883,10 +26158,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -25897,10 +26172,10 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -25908,28 +26183,28 @@
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="2:2">
@@ -25939,7 +26214,7 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -25968,34 +26243,34 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.7818181818182" customWidth="1"/>
+    <col min="1" max="1" width="15.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -26014,61 +26289,61 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -26088,126 +26363,126 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -26227,66 +26502,66 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5545454545455" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -26306,13 +26581,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="115.663636363636" customWidth="1"/>
-    <col min="9" max="9" width="13.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="115.666666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1">
         <f>SUM(B2:B5000)</f>
@@ -26328,10 +26603,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J2">
         <v>576</v>
@@ -26339,10 +26614,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J3">
         <v>124</v>
@@ -26350,7 +26625,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="13" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -26358,7 +26633,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -26370,12 +26645,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -26383,7 +26658,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -26391,7 +26666,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -26399,7 +26674,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -26407,7 +26682,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -26415,7 +26690,7 @@
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -26423,7 +26698,7 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -26431,7 +26706,7 @@
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -26439,7 +26714,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -26447,7 +26722,7 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -26455,7 +26730,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -26463,7 +26738,7 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -26471,7 +26746,7 @@
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -26479,7 +26754,7 @@
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -26487,22 +26762,22 @@
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
       <c r="A22" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:1">
       <c r="A23" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:2">
       <c r="A24" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24">
         <v>14</v>
@@ -26510,12 +26785,12 @@
     </row>
     <row r="25" customHeight="1" spans="1:1">
       <c r="A25" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:2">
       <c r="A26" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -26523,7 +26798,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:2">
       <c r="A27" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B27">
         <v>9</v>
@@ -26531,7 +26806,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:2">
       <c r="A28" s="13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -26539,7 +26814,7 @@
     </row>
     <row r="29" customHeight="1" spans="1:2">
       <c r="A29" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -26547,7 +26822,7 @@
     </row>
     <row r="30" customHeight="1" spans="1:2">
       <c r="A30" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B30">
         <v>12</v>
@@ -26555,12 +26830,12 @@
     </row>
     <row r="31" customHeight="1" spans="1:1">
       <c r="A31" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:2">
       <c r="A32" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -26568,7 +26843,7 @@
     </row>
     <row r="33" customHeight="1" spans="1:2">
       <c r="A33" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -26576,7 +26851,7 @@
     </row>
     <row r="34" customHeight="1" spans="1:2">
       <c r="A34" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -26584,7 +26859,7 @@
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -26592,12 +26867,12 @@
     </row>
     <row r="36" customHeight="1" spans="1:1">
       <c r="A36" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:2">
       <c r="A37" s="13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -26605,7 +26880,7 @@
     </row>
     <row r="38" customHeight="1" spans="1:2">
       <c r="A38" s="13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -26613,7 +26888,7 @@
     </row>
     <row r="39" customHeight="1" spans="1:2">
       <c r="A39" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -26621,7 +26896,7 @@
     </row>
     <row r="40" customHeight="1" spans="1:2">
       <c r="A40" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -26629,7 +26904,7 @@
     </row>
     <row r="41" customHeight="1" spans="1:2">
       <c r="A41" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -26637,7 +26912,7 @@
     </row>
     <row r="42" customHeight="1" spans="1:2">
       <c r="A42" s="13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B42">
         <v>11</v>
@@ -26645,7 +26920,7 @@
     </row>
     <row r="43" customHeight="1" spans="1:2">
       <c r="A43" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -26653,7 +26928,7 @@
     </row>
     <row r="44" customHeight="1" spans="1:2">
       <c r="A44" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -26661,7 +26936,7 @@
     </row>
     <row r="45" customHeight="1" spans="1:2">
       <c r="A45" s="13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -26669,7 +26944,7 @@
     </row>
     <row r="46" customHeight="1" spans="1:2">
       <c r="A46" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -26677,7 +26952,7 @@
     </row>
     <row r="47" customHeight="1" spans="1:2">
       <c r="A47" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -26685,7 +26960,7 @@
     </row>
     <row r="48" customHeight="1" spans="1:2">
       <c r="A48" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -26693,7 +26968,7 @@
     </row>
     <row r="49" customHeight="1" spans="1:2">
       <c r="A49" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -26701,7 +26976,7 @@
     </row>
     <row r="50" customHeight="1" spans="1:2">
       <c r="A50" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -26709,7 +26984,7 @@
     </row>
     <row r="51" customHeight="1" spans="1:2">
       <c r="A51" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -26717,22 +26992,22 @@
     </row>
     <row r="52" customHeight="1" spans="1:1">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:1">
       <c r="A53" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:1">
       <c r="A54" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:2">
       <c r="A55" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -26740,7 +27015,7 @@
     </row>
     <row r="56" customHeight="1" spans="1:2">
       <c r="A56" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -26748,7 +27023,7 @@
     </row>
     <row r="57" customHeight="1" spans="1:2">
       <c r="A57" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B57">
         <v>4</v>
@@ -26756,7 +27031,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:2">
       <c r="A58" s="13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -26764,7 +27039,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:2">
       <c r="A59" s="13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -26772,7 +27047,7 @@
     </row>
     <row r="60" customHeight="1" spans="1:2">
       <c r="A60" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -26780,7 +27055,7 @@
     </row>
     <row r="61" customHeight="1" spans="1:2">
       <c r="A61" s="13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -26788,7 +27063,7 @@
     </row>
     <row r="62" customHeight="1" spans="1:2">
       <c r="A62" s="13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -26796,7 +27071,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:2">
       <c r="A63" s="13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -26804,7 +27079,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:2">
       <c r="A64" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -26812,7 +27087,7 @@
     </row>
     <row r="65" customHeight="1" spans="1:2">
       <c r="A65" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -26820,7 +27095,7 @@
     </row>
     <row r="66" customHeight="1" spans="1:2">
       <c r="A66" s="13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -26828,7 +27103,7 @@
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -26836,7 +27111,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:2">
       <c r="A68" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B68">
         <v>7</v>
@@ -26844,7 +27119,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:2">
       <c r="A69" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -26852,7 +27127,7 @@
     </row>
     <row r="70" customHeight="1" spans="1:2">
       <c r="A70" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B70">
         <v>1</v>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8940"/>
+    <workbookView windowHeight="17130"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="241">
   <si>
     <t>Fecha</t>
   </si>
@@ -777,7 +777,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,13 +830,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1414,10 +1407,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,122 +1422,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1603,7 +1596,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,15 +1728,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S615" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S615" etc:filterBottomFollowUsedRange="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:S622" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:S622" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="18">
       <customFilters>
         <customFilter operator="equal" val="2025"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A1:S615">
+  <sortState ref="A1:S622">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="19">
@@ -2047,14 +2039,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y615"/>
+  <dimension ref="A1:Y622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D598" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D604" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K616" sqref="K616"/>
+      <selection pane="bottomRight" activeCell="G626" sqref="G626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.552380952381" defaultRowHeight="15"/>
@@ -2132,15 +2124,15 @@
       </c>
       <c r="V1" s="32">
         <f>Resumen!H2</f>
-        <v>46.5277777777778</v>
+        <v>46.8051948051948</v>
       </c>
       <c r="W1" s="33">
         <f>Resumen!D11</f>
-        <v>0.305936073059361</v>
+        <v>0.329132420091324</v>
       </c>
       <c r="X1" s="34">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45769</v>
+        <v>45778</v>
       </c>
     </row>
     <row r="2" hidden="1" spans="1:22">
@@ -2151,7 +2143,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="29">
-        <f>SUM(D2:R2)</f>
+        <f t="shared" ref="C2:C65" si="0">SUM(D2:R2)</f>
         <v>6000</v>
       </c>
       <c r="D2" s="30">
@@ -2185,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="29">
-        <f>SUM(D3:R3)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D3" s="30">
@@ -2218,7 +2210,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="29">
-        <f>SUM(D4:R4)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D4" s="30">
@@ -2251,7 +2243,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="29">
-        <f>SUM(D5:R5)</f>
+        <f t="shared" si="0"/>
         <v>1440</v>
       </c>
       <c r="D5" s="30">
@@ -2284,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="29">
-        <f>SUM(D6:R6)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D6" s="30">
@@ -2317,7 +2309,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="29">
-        <f>SUM(D7:R7)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D7" s="30">
@@ -2350,7 +2342,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="29">
-        <f>SUM(D8:R8)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D8" s="30">
@@ -2383,7 +2375,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="29">
-        <f>SUM(D9:R9)</f>
+        <f t="shared" si="0"/>
         <v>1920</v>
       </c>
       <c r="D9" s="30">
@@ -2416,7 +2408,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="29">
-        <f>SUM(D10:R10)</f>
+        <f t="shared" si="0"/>
         <v>1920</v>
       </c>
       <c r="D10" s="30">
@@ -2449,7 +2441,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="29">
-        <f>SUM(D11:R11)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D11" s="30">
@@ -2482,7 +2474,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="29">
-        <f>SUM(D12:R12)</f>
+        <f t="shared" si="0"/>
         <v>362</v>
       </c>
       <c r="D12" s="30">
@@ -2515,7 +2507,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="29">
-        <f>SUM(D13:R13)</f>
+        <f t="shared" si="0"/>
         <v>1920</v>
       </c>
       <c r="D13" s="30">
@@ -2548,7 +2540,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="29">
-        <f>SUM(D14:R14)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D14" s="30">
@@ -2581,7 +2573,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="29">
-        <f>SUM(D15:R15)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="D15" s="30">
@@ -2614,7 +2606,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="29">
-        <f>SUM(D16:R16)</f>
+        <f t="shared" si="0"/>
         <v>720</v>
       </c>
       <c r="D16" s="30">
@@ -2647,7 +2639,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="29">
-        <f>SUM(D17:R17)</f>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="D17" s="30">
@@ -2680,7 +2672,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="29">
-        <f>SUM(D18:R18)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="D18" s="30">
@@ -2713,7 +2705,7 @@
         <v>27</v>
       </c>
       <c r="C19" s="29">
-        <f>SUM(D19:R19)</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="D19" s="30">
@@ -2746,7 +2738,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="29">
-        <f>SUM(D20:R20)</f>
+        <f t="shared" si="0"/>
         <v>327</v>
       </c>
       <c r="D20" s="30">
@@ -2779,7 +2771,7 @@
         <v>26</v>
       </c>
       <c r="C21" s="29">
-        <f>SUM(D21:R21)</f>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="D21" s="30">
@@ -2812,7 +2804,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="29">
-        <f>SUM(D22:R22)</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
       <c r="D22" s="30">
@@ -2845,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="29">
-        <f>SUM(D23:R23)</f>
+        <f t="shared" si="0"/>
         <v>222</v>
       </c>
       <c r="D23" s="30">
@@ -2878,7 +2870,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="29">
-        <f>SUM(D24:R24)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="D24" s="30">
@@ -2911,7 +2903,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="29">
-        <f>SUM(D25:R25)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="D25" s="30">
@@ -2944,7 +2936,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="29">
-        <f>SUM(D26:R26)</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="D26" s="30">
@@ -2977,7 +2969,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="29">
-        <f>SUM(D27:R27)</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="D27" s="30">
@@ -3010,7 +3002,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="29">
-        <f>SUM(D28:R28)</f>
+        <f t="shared" si="0"/>
         <v>174</v>
       </c>
       <c r="D28" s="30">
@@ -3043,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="29">
-        <f>SUM(D29:R29)</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D29" s="30">
@@ -3076,7 +3068,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="29">
-        <f>SUM(D30:R30)</f>
+        <f t="shared" si="0"/>
         <v>86</v>
       </c>
       <c r="D30" s="30">
@@ -3109,7 +3101,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="29">
-        <f>SUM(D31:R31)</f>
+        <f t="shared" si="0"/>
         <v>265</v>
       </c>
       <c r="D31" s="30">
@@ -3142,7 +3134,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="29">
-        <f>SUM(D32:R32)</f>
+        <f t="shared" si="0"/>
         <v>92</v>
       </c>
       <c r="D32" s="30">
@@ -3175,7 +3167,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="29">
-        <f>SUM(D33:R33)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="D33" s="30">
@@ -3208,7 +3200,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="29">
-        <f>SUM(D34:R34)</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="D34" s="30">
@@ -3241,7 +3233,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="29">
-        <f>SUM(D35:R35)</f>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="D35" s="30">
@@ -3274,7 +3266,7 @@
         <v>19</v>
       </c>
       <c r="C36" s="29">
-        <f>SUM(D36:R36)</f>
+        <f t="shared" si="0"/>
         <v>375</v>
       </c>
       <c r="D36" s="30">
@@ -3307,7 +3299,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="29">
-        <f>SUM(D37:R37)</f>
+        <f t="shared" si="0"/>
         <v>348</v>
       </c>
       <c r="D37" s="30">
@@ -3340,7 +3332,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="29">
-        <f>SUM(D38:R38)</f>
+        <f t="shared" si="0"/>
         <v>84</v>
       </c>
       <c r="D38" s="30">
@@ -3373,7 +3365,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="29">
-        <f>SUM(D39:R39)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="D39" s="30">
@@ -3406,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="29">
-        <f>SUM(D40:R40)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="D40" s="30">
@@ -3439,7 +3431,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="29">
-        <f>SUM(D41:R41)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="D41" s="30">
@@ -3472,7 +3464,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="29">
-        <f>SUM(D42:R42)</f>
+        <f t="shared" si="0"/>
         <v>89</v>
       </c>
       <c r="D42" s="30">
@@ -3505,7 +3497,7 @@
         <v>22</v>
       </c>
       <c r="C43" s="29">
-        <f>SUM(D43:R43)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="D43" s="30">
@@ -3538,7 +3530,7 @@
         <v>31</v>
       </c>
       <c r="C44" s="29">
-        <f>SUM(D44:R44)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D44" s="30">
@@ -3571,7 +3563,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="29">
-        <f>SUM(D45:R45)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="D45" s="30">
@@ -3604,7 +3596,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="29">
-        <f>SUM(D46:R46)</f>
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
       <c r="D46" s="30">
@@ -3637,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="C47" s="29">
-        <f>SUM(D47:R47)</f>
+        <f t="shared" si="0"/>
         <v>806</v>
       </c>
       <c r="D47" s="30">
@@ -3670,7 +3662,7 @@
         <v>31</v>
       </c>
       <c r="C48" s="29">
-        <f>SUM(D48:R48)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D48" s="30">
@@ -3703,7 +3695,7 @@
         <v>31</v>
       </c>
       <c r="C49" s="29">
-        <f>SUM(D49:R49)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D49" s="30">
@@ -3736,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="C50" s="29">
-        <f>SUM(D50:R50)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D50" s="30">
@@ -3769,7 +3761,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="29">
-        <f>SUM(D51:R51)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D51" s="30">
@@ -3802,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="29">
-        <f>SUM(D52:R52)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D52" s="30">
@@ -3835,7 +3827,7 @@
         <v>31</v>
       </c>
       <c r="C53" s="29">
-        <f>SUM(D53:R53)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="D53" s="30">
@@ -3868,7 +3860,7 @@
         <v>31</v>
       </c>
       <c r="C54" s="29">
-        <f>SUM(D54:R54)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="D54" s="30">
@@ -3901,7 +3893,7 @@
         <v>31</v>
       </c>
       <c r="C55" s="29">
-        <f>SUM(D55:R55)</f>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="D55" s="30">
@@ -3934,7 +3926,7 @@
         <v>31</v>
       </c>
       <c r="C56" s="29">
-        <f>SUM(D56:R56)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D56" s="30">
@@ -3967,7 +3959,7 @@
         <v>31</v>
       </c>
       <c r="C57" s="29">
-        <f>SUM(D57:R57)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D57" s="30">
@@ -4000,7 +3992,7 @@
         <v>31</v>
       </c>
       <c r="C58" s="29">
-        <f>SUM(D58:R58)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D58" s="30">
@@ -4033,7 +4025,7 @@
         <v>33</v>
       </c>
       <c r="C59" s="29">
-        <f>SUM(D59:R59)</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="D59" s="30">
@@ -4066,7 +4058,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="29">
-        <f>SUM(D60:R60)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="D60" s="30">
@@ -4099,7 +4091,7 @@
         <v>35</v>
       </c>
       <c r="C61" s="29">
-        <f>SUM(D61:R61)</f>
+        <f t="shared" si="0"/>
         <v>390</v>
       </c>
       <c r="D61" s="30">
@@ -4132,7 +4124,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="29">
-        <f>SUM(D62:R62)</f>
+        <f t="shared" si="0"/>
         <v>1320</v>
       </c>
       <c r="D62" s="30">
@@ -4165,7 +4157,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="29">
-        <f>SUM(D63:R63)</f>
+        <f t="shared" si="0"/>
         <v>649</v>
       </c>
       <c r="D63" s="30">
@@ -4198,7 +4190,7 @@
         <v>35</v>
       </c>
       <c r="C64" s="29">
-        <f>SUM(D64:R64)</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="D64" s="30">
@@ -4231,7 +4223,7 @@
         <v>31</v>
       </c>
       <c r="C65" s="29">
-        <f>SUM(D65:R65)</f>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="D65" s="30">
@@ -4264,7 +4256,7 @@
         <v>37</v>
       </c>
       <c r="C66" s="29">
-        <f>SUM(D66:R66)</f>
+        <f t="shared" ref="C66:C129" si="1">SUM(D66:R66)</f>
         <v>60</v>
       </c>
       <c r="D66" s="30">
@@ -4297,7 +4289,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="29">
-        <f>SUM(D67:R67)</f>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="D67" s="30">
@@ -4330,7 +4322,7 @@
         <v>19</v>
       </c>
       <c r="C68" s="29">
-        <f>SUM(D68:R68)</f>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="D68" s="30">
@@ -4363,7 +4355,7 @@
         <v>38</v>
       </c>
       <c r="C69" s="29">
-        <f>SUM(D69:R69)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D69" s="30">
@@ -4396,7 +4388,7 @@
         <v>27</v>
       </c>
       <c r="C70" s="29">
-        <f>SUM(D70:R70)</f>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="D70" s="30">
@@ -4429,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="C71" s="29">
-        <f>SUM(D71:R71)</f>
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="D71" s="30">
@@ -4462,7 +4454,7 @@
         <v>24</v>
       </c>
       <c r="C72" s="29">
-        <f>SUM(D72:R72)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="D72" s="30">
@@ -4495,7 +4487,7 @@
         <v>24</v>
       </c>
       <c r="C73" s="29">
-        <f>SUM(D73:R73)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="D73" s="30">
@@ -4528,7 +4520,7 @@
         <v>37</v>
       </c>
       <c r="C74" s="29">
-        <f>SUM(D74:R74)</f>
+        <f t="shared" si="1"/>
         <v>540</v>
       </c>
       <c r="D74" s="30">
@@ -4561,7 +4553,7 @@
         <v>31</v>
       </c>
       <c r="C75" s="29">
-        <f>SUM(D75:R75)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="D75" s="30">
@@ -4594,7 +4586,7 @@
         <v>37</v>
       </c>
       <c r="C76" s="29">
-        <f>SUM(D76:R76)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="D76" s="30">
@@ -4627,7 +4619,7 @@
         <v>33</v>
       </c>
       <c r="C77" s="29">
-        <f>SUM(D77:R77)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="D77" s="30">
@@ -4660,7 +4652,7 @@
         <v>33</v>
       </c>
       <c r="C78" s="29">
-        <f>SUM(D78:R78)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D78" s="30">
@@ -4693,7 +4685,7 @@
         <v>34</v>
       </c>
       <c r="C79" s="29">
-        <f>SUM(D79:R79)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="D79" s="30">
@@ -4726,7 +4718,7 @@
         <v>40</v>
       </c>
       <c r="C80" s="29">
-        <f>SUM(D80:R80)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D80" s="30">
@@ -4759,7 +4751,7 @@
         <v>41</v>
       </c>
       <c r="C81" s="29">
-        <f>SUM(D81:R81)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D81" s="30">
@@ -4792,7 +4784,7 @@
         <v>40</v>
       </c>
       <c r="C82" s="29">
-        <f>SUM(D82:R82)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="D82" s="30">
@@ -4825,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="C83" s="29">
-        <f>SUM(D83:R83)</f>
+        <f t="shared" si="1"/>
         <v>2010</v>
       </c>
       <c r="D83" s="30">
@@ -4858,7 +4850,7 @@
         <v>41</v>
       </c>
       <c r="C84" s="29">
-        <f>SUM(D84:R84)</f>
+        <f t="shared" si="1"/>
         <v>1020</v>
       </c>
       <c r="D84" s="30">
@@ -4891,7 +4883,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="29">
-        <f>SUM(D85:R85)</f>
+        <f t="shared" si="1"/>
         <v>349</v>
       </c>
       <c r="D85" s="30">
@@ -4924,7 +4916,7 @@
         <v>31</v>
       </c>
       <c r="C86" s="29">
-        <f>SUM(D86:R86)</f>
+        <f t="shared" si="1"/>
         <v>407</v>
       </c>
       <c r="D86" s="30">
@@ -4957,7 +4949,7 @@
         <v>33</v>
       </c>
       <c r="C87" s="29">
-        <f>SUM(D87:R87)</f>
+        <f t="shared" si="1"/>
         <v>918</v>
       </c>
       <c r="D87" s="30">
@@ -4990,7 +4982,7 @@
         <v>37</v>
       </c>
       <c r="C88" s="29">
-        <f>SUM(D88:R88)</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="D88" s="30">
@@ -5023,7 +5015,7 @@
         <v>42</v>
       </c>
       <c r="C89" s="29">
-        <f>SUM(D89:R89)</f>
+        <f t="shared" si="1"/>
         <v>990</v>
       </c>
       <c r="D89" s="30">
@@ -5056,7 +5048,7 @@
         <v>43</v>
       </c>
       <c r="C90" s="29">
-        <f>SUM(D90:R90)</f>
+        <f t="shared" si="1"/>
         <v>541</v>
       </c>
       <c r="D90" s="30">
@@ -5089,7 +5081,7 @@
         <v>24</v>
       </c>
       <c r="C91" s="29">
-        <f>SUM(D91:R91)</f>
+        <f t="shared" si="1"/>
         <v>573</v>
       </c>
       <c r="D91" s="30">
@@ -5122,7 +5114,7 @@
         <v>27</v>
       </c>
       <c r="C92" s="29">
-        <f>SUM(D92:R92)</f>
+        <f t="shared" si="1"/>
         <v>835</v>
       </c>
       <c r="D92" s="30">
@@ -5155,7 +5147,7 @@
         <v>22</v>
       </c>
       <c r="C93" s="29">
-        <f>SUM(D93:R93)</f>
+        <f t="shared" si="1"/>
         <v>1063</v>
       </c>
       <c r="D93" s="30">
@@ -5188,7 +5180,7 @@
         <v>26</v>
       </c>
       <c r="C94" s="29">
-        <f>SUM(D94:R94)</f>
+        <f t="shared" si="1"/>
         <v>924</v>
       </c>
       <c r="D94" s="30">
@@ -5221,7 +5213,7 @@
         <v>40</v>
       </c>
       <c r="C95" s="29">
-        <f>SUM(D95:R95)</f>
+        <f t="shared" si="1"/>
         <v>976</v>
       </c>
       <c r="D95" s="30">
@@ -5254,7 +5246,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="29">
-        <f>SUM(D96:R96)</f>
+        <f t="shared" si="1"/>
         <v>893</v>
       </c>
       <c r="D96" s="30">
@@ -5287,7 +5279,7 @@
         <v>34</v>
       </c>
       <c r="C97" s="29">
-        <f>SUM(D97:R97)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="D97" s="30">
@@ -5320,7 +5312,7 @@
         <v>31</v>
       </c>
       <c r="C98" s="29">
-        <f>SUM(D98:R98)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D98" s="30">
@@ -5353,7 +5345,7 @@
         <v>31</v>
       </c>
       <c r="C99" s="29">
-        <f>SUM(D99:R99)</f>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="D99" s="30">
@@ -5386,7 +5378,7 @@
         <v>28</v>
       </c>
       <c r="C100" s="29">
-        <f>SUM(D100:R100)</f>
+        <f t="shared" si="1"/>
         <v>733</v>
       </c>
       <c r="D100" s="30">
@@ -5419,7 +5411,7 @@
         <v>31</v>
       </c>
       <c r="C101" s="29">
-        <f>SUM(D101:R101)</f>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="D101" s="30">
@@ -5452,7 +5444,7 @@
         <v>33</v>
       </c>
       <c r="C102" s="29">
-        <f>SUM(D102:R102)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="D102" s="30">
@@ -5485,7 +5477,7 @@
         <v>28</v>
       </c>
       <c r="C103" s="29">
-        <f>SUM(D103:R103)</f>
+        <f t="shared" si="1"/>
         <v>1715</v>
       </c>
       <c r="D103" s="30">
@@ -5518,7 +5510,7 @@
         <v>27</v>
       </c>
       <c r="C104" s="29">
-        <f>SUM(D104:R104)</f>
+        <f t="shared" si="1"/>
         <v>883</v>
       </c>
       <c r="D104" s="30">
@@ -5551,7 +5543,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="29">
-        <f>SUM(D105:R105)</f>
+        <f t="shared" si="1"/>
         <v>535</v>
       </c>
       <c r="D105" s="30">
@@ -5584,7 +5576,7 @@
         <v>27</v>
       </c>
       <c r="C106" s="29">
-        <f>SUM(D106:R106)</f>
+        <f t="shared" si="1"/>
         <v>141</v>
       </c>
       <c r="D106" s="30">
@@ -5617,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="36">
-        <f>SUM(D107:R107)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D107" s="30">
@@ -5650,7 +5642,7 @@
         <v>44</v>
       </c>
       <c r="C108" s="36">
-        <f>SUM(D108:R108)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D108" s="30">
@@ -5685,7 +5677,7 @@
         <v>35</v>
       </c>
       <c r="C109" s="36">
-        <f>SUM(D109:R109)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="D109" s="30">
@@ -5722,7 +5714,7 @@
         <v>35</v>
       </c>
       <c r="C110" s="36">
-        <f>SUM(D110:R110)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="D110" s="30">
@@ -5759,7 +5751,7 @@
         <v>31</v>
       </c>
       <c r="C111" s="36">
-        <f>SUM(D111:R111)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D111" s="30">
@@ -5796,7 +5788,7 @@
         <v>26</v>
       </c>
       <c r="C112" s="36">
-        <f>SUM(D112:R112)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D112" s="30">
@@ -5845,7 +5837,7 @@
         <v>33</v>
       </c>
       <c r="C113" s="36">
-        <f>SUM(D113:R113)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="D113" s="30">
@@ -5884,7 +5876,7 @@
         <v>33</v>
       </c>
       <c r="C114" s="36">
-        <f>SUM(D114:R114)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="D114" s="30">
@@ -5941,7 +5933,7 @@
         <v>31</v>
       </c>
       <c r="C115" s="36">
-        <f>SUM(D115:R115)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="D115" s="30">
@@ -5974,7 +5966,7 @@
         <v>31</v>
       </c>
       <c r="C116" s="36">
-        <f>SUM(D116:R116)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D116" s="30">
@@ -6017,7 +6009,7 @@
         <v>33</v>
       </c>
       <c r="C117" s="36">
-        <f>SUM(D117:R117)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="D117" s="30">
@@ -6054,7 +6046,7 @@
         <v>31</v>
       </c>
       <c r="C118" s="36">
-        <f>SUM(D118:R118)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D118" s="30">
@@ -6093,7 +6085,7 @@
         <v>33</v>
       </c>
       <c r="C119" s="36">
-        <f>SUM(D119:R119)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="D119" s="30">
@@ -6152,7 +6144,7 @@
         <v>33</v>
       </c>
       <c r="C120" s="36">
-        <f>SUM(D120:R120)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D120" s="30">
@@ -6201,7 +6193,7 @@
         <v>33</v>
       </c>
       <c r="C121" s="36">
-        <f>SUM(D121:R121)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="D121" s="30">
@@ -6250,7 +6242,7 @@
         <v>31</v>
       </c>
       <c r="C122" s="36">
-        <f>SUM(D122:R122)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="D122" s="30">
@@ -6285,7 +6277,7 @@
         <v>31</v>
       </c>
       <c r="C123" s="36">
-        <f>SUM(D123:R123)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="D123" s="30">
@@ -6322,7 +6314,7 @@
         <v>31</v>
       </c>
       <c r="C124" s="36">
-        <f>SUM(D124:R124)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="D124" s="30">
@@ -6357,7 +6349,7 @@
         <v>31</v>
       </c>
       <c r="C125" s="36">
-        <f>SUM(D125:R125)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="D125" s="30">
@@ -6392,7 +6384,7 @@
         <v>31</v>
       </c>
       <c r="C126" s="36">
-        <f>SUM(D126:R126)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="D126" s="30">
@@ -6431,7 +6423,7 @@
         <v>33</v>
       </c>
       <c r="C127" s="36">
-        <f>SUM(D127:R127)</f>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
       <c r="D127" s="30">
@@ -6494,7 +6486,7 @@
         <v>31</v>
       </c>
       <c r="C128" s="36">
-        <f>SUM(D128:R128)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D128" s="30">
@@ -6531,7 +6523,7 @@
         <v>31</v>
       </c>
       <c r="C129" s="36">
-        <f>SUM(D129:R129)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="D129" s="30">
@@ -6570,7 +6562,7 @@
         <v>31</v>
       </c>
       <c r="C130" s="36">
-        <f>SUM(D130:R130)</f>
+        <f t="shared" ref="C130:C193" si="2">SUM(D130:R130)</f>
         <v>23</v>
       </c>
       <c r="D130" s="30">
@@ -6605,7 +6597,7 @@
         <v>31</v>
       </c>
       <c r="C131" s="36">
-        <f>SUM(D131:R131)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D131" s="30">
@@ -6650,7 +6642,7 @@
         <v>31</v>
       </c>
       <c r="C132" s="36">
-        <f>SUM(D132:R132)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D132" s="30">
@@ -6689,7 +6681,7 @@
         <v>31</v>
       </c>
       <c r="C133" s="36">
-        <f>SUM(D133:R133)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="D133" s="30">
@@ -6751,7 +6743,7 @@
         <v>31</v>
       </c>
       <c r="C134" s="36">
-        <f>SUM(D134:R134)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D134" s="30">
@@ -6791,7 +6783,7 @@
         <v>31</v>
       </c>
       <c r="C135" s="36">
-        <f>SUM(D135:R135)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="D135" s="30">
@@ -6826,7 +6818,7 @@
         <v>31</v>
       </c>
       <c r="C136" s="36">
-        <f>SUM(D136:R136)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D136" s="30">
@@ -6861,7 +6853,7 @@
         <v>31</v>
       </c>
       <c r="C137" s="36">
-        <f>SUM(D137:R137)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D137" s="30">
@@ -6894,7 +6886,7 @@
         <v>31</v>
       </c>
       <c r="C138" s="36">
-        <f>SUM(D138:R138)</f>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="D138" s="30">
@@ -6931,7 +6923,7 @@
         <v>31</v>
       </c>
       <c r="C139" s="36">
-        <f>SUM(D139:R139)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="D139" s="30">
@@ -6970,7 +6962,7 @@
         <v>31</v>
       </c>
       <c r="C140" s="36">
-        <f>SUM(D140:R140)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="D140" s="30">
@@ -7017,7 +7009,7 @@
         <v>31</v>
       </c>
       <c r="C141" s="36">
-        <f>SUM(D141:R141)</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="D141" s="30">
@@ -7068,7 +7060,7 @@
         <v>31</v>
       </c>
       <c r="C142" s="36">
-        <f>SUM(D142:R142)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="D142" s="30">
@@ -7117,7 +7109,7 @@
         <v>31</v>
       </c>
       <c r="C143" s="36">
-        <f>SUM(D143:R143)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D143" s="30">
@@ -7154,7 +7146,7 @@
         <v>31</v>
       </c>
       <c r="C144" s="36">
-        <f>SUM(D144:R144)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D144" s="30">
@@ -7189,7 +7181,7 @@
         <v>35</v>
       </c>
       <c r="C145" s="36">
-        <f>SUM(D145:R145)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="D145" s="30">
@@ -7226,7 +7218,7 @@
         <v>31</v>
       </c>
       <c r="C146" s="36">
-        <f>SUM(D146:R146)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D146" s="30">
@@ -7259,7 +7251,7 @@
         <v>31</v>
       </c>
       <c r="C147" s="36">
-        <f>SUM(D147:R147)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D147" s="30">
@@ -7294,7 +7286,7 @@
         <v>31</v>
       </c>
       <c r="C148" s="36">
-        <f>SUM(D148:R148)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D148" s="30">
@@ -7327,7 +7319,7 @@
         <v>31</v>
       </c>
       <c r="C149" s="36">
-        <f>SUM(D149:R149)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D149" s="30">
@@ -7362,7 +7354,7 @@
         <v>31</v>
       </c>
       <c r="C150" s="36">
-        <f>SUM(D150:R150)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D150" s="30">
@@ -7397,7 +7389,7 @@
         <v>31</v>
       </c>
       <c r="C151" s="36">
-        <f>SUM(D151:R151)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="D151" s="30">
@@ -7430,7 +7422,7 @@
         <v>31</v>
       </c>
       <c r="C152" s="36">
-        <f>SUM(D152:R152)</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="D152" s="30">
@@ -7463,7 +7455,7 @@
         <v>31</v>
       </c>
       <c r="C153" s="36">
-        <f>SUM(D153:R153)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D153" s="30">
@@ -7496,7 +7488,7 @@
         <v>31</v>
       </c>
       <c r="C154" s="36">
-        <f>SUM(D154:R154)</f>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="D154" s="30">
@@ -7531,7 +7523,7 @@
         <v>31</v>
       </c>
       <c r="C155" s="36">
-        <f>SUM(D155:R155)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D155" s="30">
@@ -7564,7 +7556,7 @@
         <v>31</v>
       </c>
       <c r="C156" s="36">
-        <f>SUM(D156:R156)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D156" s="30">
@@ -7597,7 +7589,7 @@
         <v>31</v>
       </c>
       <c r="C157" s="36">
-        <f>SUM(D157:R157)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D157" s="30">
@@ -7630,7 +7622,7 @@
         <v>31</v>
       </c>
       <c r="C158" s="36">
-        <f>SUM(D158:R158)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D158" s="30">
@@ -7663,7 +7655,7 @@
         <v>22</v>
       </c>
       <c r="C159" s="36">
-        <f>SUM(D159:R159)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D159" s="30">
@@ -7696,7 +7688,7 @@
         <v>22</v>
       </c>
       <c r="C160" s="36">
-        <f>SUM(D160:R160)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D160" s="30">
@@ -7731,7 +7723,7 @@
         <v>31</v>
       </c>
       <c r="C161" s="36">
-        <f>SUM(D161:R161)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="D161" s="30">
@@ -7778,7 +7770,7 @@
         <v>31</v>
       </c>
       <c r="C162" s="36">
-        <f>SUM(D162:R162)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D162" s="30">
@@ -7813,7 +7805,7 @@
         <v>31</v>
       </c>
       <c r="C163" s="36">
-        <f>SUM(D163:R163)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D163" s="30">
@@ -7846,7 +7838,7 @@
         <v>31</v>
       </c>
       <c r="C164" s="36">
-        <f>SUM(D164:R164)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="D164" s="30">
@@ -7881,7 +7873,7 @@
         <v>31</v>
       </c>
       <c r="C165" s="36">
-        <f>SUM(D165:R165)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D165" s="30">
@@ -7918,7 +7910,7 @@
         <v>28</v>
       </c>
       <c r="C166" s="36">
-        <f>SUM(D166:R166)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D166" s="30">
@@ -7951,7 +7943,7 @@
         <v>26</v>
       </c>
       <c r="C167" s="36">
-        <f>SUM(D167:R167)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="D167" s="30">
@@ -8004,7 +7996,7 @@
         <v>26</v>
       </c>
       <c r="C168" s="36">
-        <f>SUM(D168:R168)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D168" s="30">
@@ -8041,7 +8033,7 @@
         <v>33</v>
       </c>
       <c r="C169" s="36">
-        <f>SUM(D169:R169)</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="D169" s="30">
@@ -8092,7 +8084,7 @@
         <v>33</v>
       </c>
       <c r="C170" s="36">
-        <f>SUM(D170:R170)</f>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="D170" s="30">
@@ -8149,7 +8141,7 @@
         <v>33</v>
       </c>
       <c r="C171" s="36">
-        <f>SUM(D171:R171)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D171" s="30">
@@ -8204,7 +8196,7 @@
         <v>33</v>
       </c>
       <c r="C172" s="36">
-        <f>SUM(D172:R172)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="D172" s="30">
@@ -8266,7 +8258,7 @@
         <v>33</v>
       </c>
       <c r="C173" s="36">
-        <f>SUM(D173:R173)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D173" s="30">
@@ -8315,7 +8307,7 @@
         <v>33</v>
       </c>
       <c r="C174" s="36">
-        <f>SUM(D174:R174)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D174" s="30">
@@ -8370,7 +8362,7 @@
         <v>33</v>
       </c>
       <c r="C175" s="36">
-        <f>SUM(D175:R175)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D175" s="30">
@@ -8422,7 +8414,7 @@
         <v>33</v>
       </c>
       <c r="C176" s="36">
-        <f>SUM(D176:R176)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D176" s="30">
@@ -8471,7 +8463,7 @@
         <v>33</v>
       </c>
       <c r="C177" s="36">
-        <f>SUM(D177:R177)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D177" s="30">
@@ -8506,7 +8498,7 @@
         <v>31</v>
       </c>
       <c r="C178" s="36">
-        <f>SUM(D178:R178)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D178" s="30">
@@ -8539,7 +8531,7 @@
         <v>33</v>
       </c>
       <c r="C179" s="36">
-        <f>SUM(D179:R179)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="D179" s="30">
@@ -8574,7 +8566,7 @@
         <v>33</v>
       </c>
       <c r="C180" s="36">
-        <f>SUM(D180:R180)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D180" s="30">
@@ -8615,7 +8607,7 @@
         <v>33</v>
       </c>
       <c r="C181" s="36">
-        <f>SUM(D181:R181)</f>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="D181" s="30">
@@ -8656,7 +8648,7 @@
         <v>31</v>
       </c>
       <c r="C182" s="36">
-        <f>SUM(D182:R182)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="D182" s="30">
@@ -8703,7 +8695,7 @@
         <v>31</v>
       </c>
       <c r="C183" s="36">
-        <f>SUM(D183:R183)</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="D183" s="30">
@@ -8764,7 +8756,7 @@
         <v>31</v>
       </c>
       <c r="C184" s="36">
-        <f>SUM(D184:R184)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="D184" s="30">
@@ -8813,7 +8805,7 @@
         <v>31</v>
       </c>
       <c r="C185" s="36">
-        <f>SUM(D185:R185)</f>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="D185" s="30">
@@ -8852,7 +8844,7 @@
         <v>31</v>
       </c>
       <c r="C186" s="36">
-        <f>SUM(D186:R186)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D186" s="30">
@@ -8891,7 +8883,7 @@
         <v>31</v>
       </c>
       <c r="C187" s="36">
-        <f>SUM(D187:R187)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="D187" s="30">
@@ -8936,7 +8928,7 @@
         <v>31</v>
       </c>
       <c r="C188" s="36">
-        <f>SUM(D188:R188)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="D188" s="30">
@@ -8975,7 +8967,7 @@
         <v>31</v>
       </c>
       <c r="C189" s="36">
-        <f>SUM(D189:R189)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D189" s="30">
@@ -9014,7 +9006,7 @@
         <v>31</v>
       </c>
       <c r="C190" s="36">
-        <f>SUM(D190:R190)</f>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="D190" s="30">
@@ -9059,7 +9051,7 @@
         <v>33</v>
       </c>
       <c r="C191" s="36">
-        <f>SUM(D191:R191)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D191" s="30">
@@ -9096,7 +9088,7 @@
         <v>33</v>
       </c>
       <c r="C192" s="36">
-        <f>SUM(D192:R192)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D192" s="30">
@@ -9131,7 +9123,7 @@
         <v>33</v>
       </c>
       <c r="C193" s="36">
-        <f>SUM(D193:R193)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D193" s="30">
@@ -9164,7 +9156,7 @@
         <v>29</v>
       </c>
       <c r="C194" s="36">
-        <f>SUM(D194:R194)</f>
+        <f t="shared" ref="C194:C257" si="3">SUM(D194:R194)</f>
         <v>65</v>
       </c>
       <c r="D194" s="30">
@@ -9215,7 +9207,7 @@
         <v>29</v>
       </c>
       <c r="C195" s="36">
-        <f>SUM(D195:R195)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="D195" s="30">
@@ -9276,7 +9268,7 @@
         <v>29</v>
       </c>
       <c r="C196" s="36">
-        <f>SUM(D196:R196)</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="D196" s="30">
@@ -9311,7 +9303,7 @@
         <v>29</v>
       </c>
       <c r="C197" s="36">
-        <f>SUM(D197:R197)</f>
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
       <c r="D197" s="30">
@@ -9356,7 +9348,7 @@
         <v>29</v>
       </c>
       <c r="C198" s="36">
-        <f>SUM(D198:R198)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D198" s="30">
@@ -9397,7 +9389,7 @@
         <v>29</v>
       </c>
       <c r="C199" s="36">
-        <f>SUM(D199:R199)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D199" s="30">
@@ -9444,7 +9436,7 @@
         <v>29</v>
       </c>
       <c r="C200" s="36">
-        <f>SUM(D200:R200)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D200" s="30">
@@ -9503,7 +9495,7 @@
         <v>31</v>
       </c>
       <c r="C201" s="36">
-        <f>SUM(D201:R201)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="D201" s="30">
@@ -9536,7 +9528,7 @@
         <v>33</v>
       </c>
       <c r="C202" s="36">
-        <f>SUM(D202:R202)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D202" s="30">
@@ -9581,7 +9573,7 @@
         <v>33</v>
       </c>
       <c r="C203" s="36">
-        <f>SUM(D203:R203)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D203" s="30">
@@ -9626,7 +9618,7 @@
         <v>33</v>
       </c>
       <c r="C204" s="36">
-        <f>SUM(D204:R204)</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="D204" s="30">
@@ -9669,7 +9661,7 @@
         <v>33</v>
       </c>
       <c r="C205" s="36">
-        <f>SUM(D205:R205)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D205" s="30">
@@ -9722,7 +9714,7 @@
         <v>33</v>
       </c>
       <c r="C206" s="36">
-        <f>SUM(D206:R206)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D206" s="30">
@@ -9771,7 +9763,7 @@
         <v>33</v>
       </c>
       <c r="C207" s="36">
-        <f>SUM(D207:R207)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="D207" s="30">
@@ -9806,7 +9798,7 @@
         <v>31</v>
       </c>
       <c r="C208" s="36">
-        <f>SUM(D208:R208)</f>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="D208" s="30">
@@ -9847,7 +9839,7 @@
         <v>31</v>
       </c>
       <c r="C209" s="36">
-        <f>SUM(D209:R209)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D209" s="30">
@@ -9884,7 +9876,7 @@
         <v>31</v>
       </c>
       <c r="C210" s="36">
-        <f>SUM(D210:R210)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D210" s="30">
@@ -9925,7 +9917,7 @@
         <v>31</v>
       </c>
       <c r="C211" s="36">
-        <f>SUM(D211:R211)</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="D211" s="30">
@@ -9970,7 +9962,7 @@
         <v>31</v>
       </c>
       <c r="C212" s="36">
-        <f>SUM(D212:R212)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D212" s="30">
@@ -10017,7 +10009,7 @@
         <v>31</v>
       </c>
       <c r="C213" s="36">
-        <f>SUM(D213:R213)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D213" s="30">
@@ -10062,7 +10054,7 @@
         <v>31</v>
       </c>
       <c r="C214" s="36">
-        <f>SUM(D214:R214)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="D214" s="30">
@@ -10099,7 +10091,7 @@
         <v>31</v>
       </c>
       <c r="C215" s="36">
-        <f>SUM(D215:R215)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="D215" s="30">
@@ -10136,7 +10128,7 @@
         <v>31</v>
       </c>
       <c r="C216" s="36">
-        <f>SUM(D216:R216)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D216" s="30">
@@ -10173,7 +10165,7 @@
         <v>31</v>
       </c>
       <c r="C217" s="36">
-        <f>SUM(D217:R217)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D217" s="30">
@@ -10208,7 +10200,7 @@
         <v>31</v>
       </c>
       <c r="C218" s="36">
-        <f>SUM(D218:R218)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D218" s="30">
@@ -10247,7 +10239,7 @@
         <v>31</v>
       </c>
       <c r="C219" s="36">
-        <f>SUM(D219:R219)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D219" s="30">
@@ -10282,7 +10274,7 @@
         <v>31</v>
       </c>
       <c r="C220" s="36">
-        <f>SUM(D220:R220)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D220" s="30">
@@ -10319,7 +10311,7 @@
         <v>31</v>
       </c>
       <c r="C221" s="36">
-        <f>SUM(D221:R221)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D221" s="30">
@@ -10354,7 +10346,7 @@
         <v>31</v>
       </c>
       <c r="C222" s="36">
-        <f>SUM(D222:R222)</f>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D222" s="30">
@@ -10395,7 +10387,7 @@
         <v>31</v>
       </c>
       <c r="C223" s="36">
-        <f>SUM(D223:R223)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D223" s="30">
@@ -10430,7 +10422,7 @@
         <v>31</v>
       </c>
       <c r="C224" s="36">
-        <f>SUM(D224:R224)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D224" s="30">
@@ -10463,7 +10455,7 @@
         <v>31</v>
       </c>
       <c r="C225" s="36">
-        <f>SUM(D225:R225)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D225" s="30">
@@ -10498,7 +10490,7 @@
         <v>31</v>
       </c>
       <c r="C226" s="36">
-        <f>SUM(D226:R226)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="D226" s="30">
@@ -10533,7 +10525,7 @@
         <v>31</v>
       </c>
       <c r="C227" s="36">
-        <f>SUM(D227:R227)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D227" s="30">
@@ -10568,7 +10560,7 @@
         <v>31</v>
       </c>
       <c r="C228" s="36">
-        <f>SUM(D228:R228)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="D228" s="30">
@@ -10601,7 +10593,7 @@
         <v>31</v>
       </c>
       <c r="C229" s="36">
-        <f>SUM(D229:R229)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="D229" s="30">
@@ -10636,7 +10628,7 @@
         <v>31</v>
       </c>
       <c r="C230" s="36">
-        <f>SUM(D230:R230)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D230" s="30">
@@ -10671,7 +10663,7 @@
         <v>33</v>
       </c>
       <c r="C231" s="36">
-        <f>SUM(D231:R231)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D231" s="30">
@@ -10704,7 +10696,7 @@
         <v>31</v>
       </c>
       <c r="C232" s="36">
-        <f>SUM(D232:R232)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="D232" s="30">
@@ -10737,7 +10729,7 @@
         <v>33</v>
       </c>
       <c r="C233" s="36">
-        <f>SUM(D233:R233)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="D233" s="30">
@@ -10771,7 +10763,7 @@
         <v>31</v>
       </c>
       <c r="C234" s="36">
-        <f>SUM(D234:R234)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D234" s="30">
@@ -10806,7 +10798,7 @@
         <v>33</v>
       </c>
       <c r="C235" s="36">
-        <f>SUM(D235:R235)</f>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="D235" s="30">
@@ -10840,7 +10832,7 @@
         <v>31</v>
       </c>
       <c r="C236" s="36">
-        <f>SUM(D236:R236)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D236" s="30">
@@ -10875,7 +10867,7 @@
         <v>33</v>
       </c>
       <c r="C237" s="36">
-        <f>SUM(D237:R237)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="D237" s="30">
@@ -10908,7 +10900,7 @@
         <v>31</v>
       </c>
       <c r="C238" s="36">
-        <f>SUM(D238:R238)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="D238" s="30">
@@ -10941,7 +10933,7 @@
         <v>33</v>
       </c>
       <c r="C239" s="36">
-        <f>SUM(D239:R239)</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="D239" s="30">
@@ -10974,7 +10966,7 @@
         <v>33</v>
       </c>
       <c r="C240" s="36">
-        <f>SUM(D240:R240)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D240" s="30">
@@ -11009,7 +11001,7 @@
         <v>31</v>
       </c>
       <c r="C241" s="36">
-        <f>SUM(D241:R241)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D241" s="30">
@@ -11044,7 +11036,7 @@
         <v>31</v>
       </c>
       <c r="C242" s="36">
-        <f>SUM(D242:R242)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="D242" s="30">
@@ -11077,7 +11069,7 @@
         <v>33</v>
       </c>
       <c r="C243" s="36">
-        <f>SUM(D243:R243)</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="D243" s="30">
@@ -11110,7 +11102,7 @@
         <v>26</v>
       </c>
       <c r="C244" s="36">
-        <f>SUM(D244:R244)</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="D244" s="30">
@@ -11143,7 +11135,7 @@
         <v>33</v>
       </c>
       <c r="C245" s="36">
-        <f>SUM(D245:R245)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="D245" s="30">
@@ -11178,7 +11170,7 @@
         <v>31</v>
       </c>
       <c r="C246" s="36">
-        <f>SUM(D246:R246)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="D246" s="30">
@@ -11213,7 +11205,7 @@
         <v>33</v>
       </c>
       <c r="C247" s="36">
-        <f>SUM(D247:R247)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D247" s="30">
@@ -11246,7 +11238,7 @@
         <v>31</v>
       </c>
       <c r="C248" s="36">
-        <f>SUM(D248:R248)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="D248" s="30">
@@ -11281,7 +11273,7 @@
         <v>31</v>
       </c>
       <c r="C249" s="36">
-        <f>SUM(D249:R249)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D249" s="30">
@@ -11314,7 +11306,7 @@
         <v>33</v>
       </c>
       <c r="C250" s="36">
-        <f>SUM(D250:R250)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="D250" s="30">
@@ -11347,7 +11339,7 @@
         <v>31</v>
       </c>
       <c r="C251" s="36">
-        <f>SUM(D251:R251)</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
       <c r="D251" s="30">
@@ -11380,7 +11372,7 @@
         <v>33</v>
       </c>
       <c r="C252" s="36">
-        <f>SUM(D252:R252)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="D252" s="30">
@@ -11413,7 +11405,7 @@
         <v>31</v>
       </c>
       <c r="C253" s="36">
-        <f>SUM(D253:R253)</f>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="D253" s="30">
@@ -11446,7 +11438,7 @@
         <v>33</v>
       </c>
       <c r="C254" s="36">
-        <f>SUM(D254:R254)</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="D254" s="30">
@@ -11479,7 +11471,7 @@
         <v>31</v>
       </c>
       <c r="C255" s="36">
-        <f>SUM(D255:R255)</f>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="D255" s="30">
@@ -11514,7 +11506,7 @@
         <v>33</v>
       </c>
       <c r="C256" s="36">
-        <f>SUM(D256:R256)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="D256" s="30">
@@ -11547,7 +11539,7 @@
         <v>31</v>
       </c>
       <c r="C257" s="36">
-        <f>SUM(D257:R257)</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="D257" s="30">
@@ -11580,7 +11572,7 @@
         <v>33</v>
       </c>
       <c r="C258" s="36">
-        <f>SUM(D258:R258)</f>
+        <f t="shared" ref="C258:C321" si="4">SUM(D258:R258)</f>
         <v>18</v>
       </c>
       <c r="D258" s="30">
@@ -11613,7 +11605,7 @@
         <v>31</v>
       </c>
       <c r="C259" s="36">
-        <f>SUM(D259:R259)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D259" s="30">
@@ -11646,7 +11638,7 @@
         <v>33</v>
       </c>
       <c r="C260" s="36">
-        <f>SUM(D260:R260)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D260" s="30">
@@ -11679,7 +11671,7 @@
         <v>31</v>
       </c>
       <c r="C261" s="36">
-        <f>SUM(D261:R261)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="D261" s="30">
@@ -11714,7 +11706,7 @@
         <v>33</v>
       </c>
       <c r="C262" s="36">
-        <f>SUM(D262:R262)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="D262" s="30">
@@ -11747,7 +11739,7 @@
         <v>31</v>
       </c>
       <c r="C263" s="36">
-        <f>SUM(D263:R263)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D263" s="30">
@@ -11782,7 +11774,7 @@
         <v>33</v>
       </c>
       <c r="C264" s="36">
-        <f>SUM(D264:R264)</f>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D264" s="30">
@@ -11815,7 +11807,7 @@
         <v>31</v>
       </c>
       <c r="C265" s="36">
-        <f>SUM(D265:R265)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="D265" s="30">
@@ -11850,7 +11842,7 @@
         <v>33</v>
       </c>
       <c r="C266" s="36">
-        <f>SUM(D266:R266)</f>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D266" s="30">
@@ -11883,7 +11875,7 @@
         <v>31</v>
       </c>
       <c r="C267" s="36">
-        <f>SUM(D267:R267)</f>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D267" s="30">
@@ -11918,7 +11910,7 @@
         <v>33</v>
       </c>
       <c r="C268" s="36">
-        <f>SUM(D268:R268)</f>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D268" s="30">
@@ -11951,7 +11943,7 @@
         <v>31</v>
       </c>
       <c r="C269" s="36">
-        <f>SUM(D269:R269)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D269" s="30">
@@ -11984,7 +11976,7 @@
         <v>33</v>
       </c>
       <c r="C270" s="36">
-        <f>SUM(D270:R270)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D270" s="30">
@@ -12017,7 +12009,7 @@
         <v>31</v>
       </c>
       <c r="C271" s="36">
-        <f>SUM(D271:R271)</f>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="D271" s="30">
@@ -12058,7 +12050,7 @@
         <v>33</v>
       </c>
       <c r="C272" s="36">
-        <f>SUM(D272:R272)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D272" s="30">
@@ -12091,7 +12083,7 @@
         <v>31</v>
       </c>
       <c r="C273" s="36">
-        <f>SUM(D273:R273)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D273" s="30">
@@ -12136,7 +12128,7 @@
         <v>33</v>
       </c>
       <c r="C274" s="36">
-        <f>SUM(D274:R274)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D274" s="30">
@@ -12169,7 +12161,7 @@
         <v>31</v>
       </c>
       <c r="C275" s="36">
-        <f>SUM(D275:R275)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D275" s="30">
@@ -12214,7 +12206,7 @@
         <v>33</v>
       </c>
       <c r="C276" s="36">
-        <f>SUM(D276:R276)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D276" s="30">
@@ -12247,7 +12239,7 @@
         <v>31</v>
       </c>
       <c r="C277" s="36">
-        <f>SUM(D277:R277)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D277" s="30">
@@ -12286,7 +12278,7 @@
         <v>33</v>
       </c>
       <c r="C278" s="36">
-        <f>SUM(D278:R278)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D278" s="30">
@@ -12319,7 +12311,7 @@
         <v>31</v>
       </c>
       <c r="C279" s="36">
-        <f>SUM(D279:R279)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="D279" s="30">
@@ -12360,7 +12352,7 @@
         <v>33</v>
       </c>
       <c r="C280" s="36">
-        <f>SUM(D280:R280)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D280" s="30">
@@ -12395,7 +12387,7 @@
         <v>31</v>
       </c>
       <c r="C281" s="36">
-        <f>SUM(D281:R281)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="D281" s="30">
@@ -12434,7 +12426,7 @@
         <v>33</v>
       </c>
       <c r="C282" s="36">
-        <f>SUM(D282:R282)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="D282" s="30">
@@ -12467,7 +12459,7 @@
         <v>31</v>
       </c>
       <c r="C283" s="36">
-        <f>SUM(D283:R283)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D283" s="30">
@@ -12506,7 +12498,7 @@
         <v>33</v>
       </c>
       <c r="C284" s="36">
-        <f>SUM(D284:R284)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D284" s="30">
@@ -12539,7 +12531,7 @@
         <v>31</v>
       </c>
       <c r="C285" s="36">
-        <f>SUM(D285:R285)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D285" s="30">
@@ -12584,7 +12576,7 @@
         <v>33</v>
       </c>
       <c r="C286" s="36">
-        <f>SUM(D286:R286)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D286" s="30">
@@ -12617,7 +12609,7 @@
         <v>31</v>
       </c>
       <c r="C287" s="36">
-        <f>SUM(D287:R287)</f>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="D287" s="30">
@@ -12662,7 +12654,7 @@
         <v>33</v>
       </c>
       <c r="C288" s="36">
-        <f>SUM(D288:R288)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D288" s="30">
@@ -12695,7 +12687,7 @@
         <v>33</v>
       </c>
       <c r="C289" s="36">
-        <f>SUM(D289:R289)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="D289" s="30">
@@ -12728,7 +12720,7 @@
         <v>38</v>
       </c>
       <c r="C290" s="36">
-        <f>SUM(D290:R290)</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="D290" s="30">
@@ -12762,7 +12754,7 @@
         <v>31</v>
       </c>
       <c r="C291" s="36">
-        <f>SUM(D291:R291)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D291" s="30">
@@ -12795,7 +12787,7 @@
         <v>33</v>
       </c>
       <c r="C292" s="36">
-        <f>SUM(D292:R292)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D292" s="30">
@@ -12828,7 +12820,7 @@
         <v>31</v>
       </c>
       <c r="C293" s="36">
-        <f>SUM(D293:R293)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="D293" s="30">
@@ -12869,7 +12861,7 @@
         <v>33</v>
       </c>
       <c r="C294" s="36">
-        <f>SUM(D294:R294)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D294" s="30">
@@ -12902,7 +12894,7 @@
         <v>31</v>
       </c>
       <c r="C295" s="36">
-        <f>SUM(D295:R295)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D295" s="30">
@@ -12941,7 +12933,7 @@
         <v>33</v>
       </c>
       <c r="C296" s="36">
-        <f>SUM(D296:R296)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D296" s="30">
@@ -12974,7 +12966,7 @@
         <v>31</v>
       </c>
       <c r="C297" s="36">
-        <f>SUM(D297:R297)</f>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="D297" s="30">
@@ -13013,7 +13005,7 @@
         <v>33</v>
       </c>
       <c r="C298" s="36">
-        <f>SUM(D298:R298)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D298" s="30">
@@ -13046,7 +13038,7 @@
         <v>31</v>
       </c>
       <c r="C299" s="36">
-        <f>SUM(D299:R299)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D299" s="30">
@@ -13081,7 +13073,7 @@
         <v>33</v>
       </c>
       <c r="C300" s="36">
-        <f>SUM(D300:R300)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="D300" s="30">
@@ -13114,7 +13106,7 @@
         <v>31</v>
       </c>
       <c r="C301" s="36">
-        <f>SUM(D301:R301)</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D301" s="30">
@@ -13153,7 +13145,7 @@
         <v>31</v>
       </c>
       <c r="C302" s="36">
-        <f>SUM(D302:R302)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D302" s="30">
@@ -13192,7 +13184,7 @@
         <v>31</v>
       </c>
       <c r="C303" s="36">
-        <f>SUM(D303:R303)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D303" s="30">
@@ -13231,7 +13223,7 @@
         <v>46</v>
       </c>
       <c r="C304" s="36">
-        <f>SUM(D304:R304)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="D304" s="30">
@@ -13268,7 +13260,7 @@
         <v>31</v>
       </c>
       <c r="C305" s="36">
-        <f>SUM(D305:R305)</f>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="D305" s="30">
@@ -13311,7 +13303,7 @@
         <v>33</v>
       </c>
       <c r="C306" s="36">
-        <f>SUM(D306:R306)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D306" s="30">
@@ -13344,7 +13336,7 @@
         <v>31</v>
       </c>
       <c r="C307" s="36">
-        <f>SUM(D307:R307)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D307" s="30">
@@ -13385,7 +13377,7 @@
         <v>31</v>
       </c>
       <c r="C308" s="36">
-        <f>SUM(D308:R308)</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D308" s="30">
@@ -13424,7 +13416,7 @@
         <v>31</v>
       </c>
       <c r="C309" s="36">
-        <f>SUM(D309:R309)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="D309" s="30">
@@ -13461,7 +13453,7 @@
         <v>47</v>
       </c>
       <c r="C310" s="36">
-        <f>SUM(D310:R310)</f>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="D310" s="30">
@@ -13494,7 +13486,7 @@
         <v>31</v>
       </c>
       <c r="C311" s="36">
-        <f>SUM(D311:R311)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="D311" s="30">
@@ -13531,7 +13523,7 @@
         <v>31</v>
       </c>
       <c r="C312" s="36">
-        <f>SUM(D312:R312)</f>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="D312" s="30">
@@ -13572,7 +13564,7 @@
         <v>31</v>
       </c>
       <c r="C313" s="36">
-        <f>SUM(D313:R313)</f>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="D313" s="30">
@@ -13605,7 +13597,7 @@
         <v>33</v>
       </c>
       <c r="C314" s="36">
-        <f>SUM(D314:R314)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D314" s="30">
@@ -13638,7 +13630,7 @@
         <v>31</v>
       </c>
       <c r="C315" s="36">
-        <f>SUM(D315:R315)</f>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="D315" s="30">
@@ -13681,7 +13673,7 @@
         <v>33</v>
       </c>
       <c r="C316" s="36">
-        <f>SUM(D316:R316)</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D316" s="30">
@@ -13714,7 +13706,7 @@
         <v>31</v>
       </c>
       <c r="C317" s="36">
-        <f>SUM(D317:R317)</f>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D317" s="30">
@@ -13747,7 +13739,7 @@
         <v>33</v>
       </c>
       <c r="C318" s="36">
-        <f>SUM(D318:R318)</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D318" s="30">
@@ -13780,7 +13772,7 @@
         <v>31</v>
       </c>
       <c r="C319" s="36">
-        <f>SUM(D319:R319)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="D319" s="30">
@@ -13813,7 +13805,7 @@
         <v>33</v>
       </c>
       <c r="C320" s="36">
-        <f>SUM(D320:R320)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D320" s="30">
@@ -13846,7 +13838,7 @@
         <v>31</v>
       </c>
       <c r="C321" s="36">
-        <f>SUM(D321:R321)</f>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D321" s="30">
@@ -13879,7 +13871,7 @@
         <v>33</v>
       </c>
       <c r="C322" s="36">
-        <f>SUM(D322:R322)</f>
+        <f t="shared" ref="C322:C385" si="5">SUM(D322:R322)</f>
         <v>7</v>
       </c>
       <c r="D322" s="30">
@@ -13912,7 +13904,7 @@
         <v>47</v>
       </c>
       <c r="C323" s="36">
-        <f>SUM(D323:R323)</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="D323" s="30">
@@ -13945,7 +13937,7 @@
         <v>31</v>
       </c>
       <c r="C324" s="36">
-        <f>SUM(D324:R324)</f>
+        <f t="shared" si="5"/>
         <v>74</v>
       </c>
       <c r="D324" s="30">
@@ -13978,7 +13970,7 @@
         <v>31</v>
       </c>
       <c r="C325" s="36">
-        <f>SUM(D325:R325)</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D325" s="30">
@@ -14011,7 +14003,7 @@
         <v>31</v>
       </c>
       <c r="C326" s="36">
-        <f>SUM(D326:R326)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D326" s="30">
@@ -14052,7 +14044,7 @@
         <v>33</v>
       </c>
       <c r="C327" s="36">
-        <f>SUM(D327:R327)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D327" s="30">
@@ -14085,7 +14077,7 @@
         <v>31</v>
       </c>
       <c r="C328" s="36">
-        <f>SUM(D328:R328)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D328" s="30">
@@ -14122,7 +14114,7 @@
         <v>31</v>
       </c>
       <c r="C329" s="36">
-        <f>SUM(D329:R329)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D329" s="30">
@@ -14157,7 +14149,7 @@
         <v>33</v>
       </c>
       <c r="C330" s="36">
-        <f>SUM(D330:R330)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D330" s="30">
@@ -14190,7 +14182,7 @@
         <v>31</v>
       </c>
       <c r="C331" s="36">
-        <f>SUM(D331:R331)</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D331" s="30">
@@ -14227,7 +14219,7 @@
         <v>47</v>
       </c>
       <c r="C332" s="36">
-        <f>SUM(D332:R332)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D332" s="30">
@@ -14260,7 +14252,7 @@
         <v>31</v>
       </c>
       <c r="C333" s="36">
-        <f>SUM(D333:R333)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D333" s="30">
@@ -14297,7 +14289,7 @@
         <v>47</v>
       </c>
       <c r="C334" s="36">
-        <f>SUM(D334:R334)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D334" s="30">
@@ -14330,7 +14322,7 @@
         <v>31</v>
       </c>
       <c r="C335" s="36">
-        <f>SUM(D335:R335)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D335" s="30">
@@ -14367,7 +14359,7 @@
         <v>33</v>
       </c>
       <c r="C336" s="36">
-        <f>SUM(D336:R336)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D336" s="30">
@@ -14400,7 +14392,7 @@
         <v>31</v>
       </c>
       <c r="C337" s="36">
-        <f>SUM(D337:R337)</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="D337" s="30">
@@ -14443,7 +14435,7 @@
         <v>33</v>
       </c>
       <c r="C338" s="36">
-        <f>SUM(D338:R338)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="D338" s="30">
@@ -14476,7 +14468,7 @@
         <v>31</v>
       </c>
       <c r="C339" s="36">
-        <f>SUM(D339:R339)</f>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="D339" s="30">
@@ -14509,7 +14501,7 @@
         <v>31</v>
       </c>
       <c r="C340" s="36">
-        <f>SUM(D340:R340)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D340" s="30">
@@ -14542,7 +14534,7 @@
         <v>31</v>
       </c>
       <c r="C341" s="36">
-        <f>SUM(D341:R341)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D341" s="30">
@@ -14575,7 +14567,7 @@
         <v>31</v>
       </c>
       <c r="C342" s="36">
-        <f>SUM(D342:R342)</f>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="D342" s="30">
@@ -14608,7 +14600,7 @@
         <v>48</v>
       </c>
       <c r="C343" s="36">
-        <f>SUM(D343:R343)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D343" s="30">
@@ -14641,7 +14633,7 @@
         <v>31</v>
       </c>
       <c r="C344" s="36">
-        <f>SUM(D344:R344)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="D344" s="30">
@@ -14674,7 +14666,7 @@
         <v>48</v>
       </c>
       <c r="C345" s="36">
-        <f>SUM(D345:R345)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D345" s="30">
@@ -14709,7 +14701,7 @@
         <v>48</v>
       </c>
       <c r="C346" s="36">
-        <f>SUM(D346:R346)</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="D346" s="30">
@@ -14744,7 +14736,7 @@
         <v>31</v>
       </c>
       <c r="C347" s="36">
-        <f>SUM(D347:R347)</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D347" s="30">
@@ -14777,7 +14769,7 @@
         <v>31</v>
       </c>
       <c r="C348" s="36">
-        <f>SUM(D348:R348)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="D348" s="30">
@@ -14810,7 +14802,7 @@
         <v>31</v>
       </c>
       <c r="C349" s="36">
-        <f>SUM(D349:R349)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D349" s="30">
@@ -14845,7 +14837,7 @@
         <v>31</v>
       </c>
       <c r="C350" s="36">
-        <f>SUM(D350:R350)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D350" s="30">
@@ -14882,7 +14874,7 @@
         <v>31</v>
       </c>
       <c r="C351" s="36">
-        <f>SUM(D351:R351)</f>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="D351" s="30">
@@ -14915,7 +14907,7 @@
         <v>31</v>
       </c>
       <c r="C352" s="36">
-        <f>SUM(D352:R352)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="D352" s="30">
@@ -14952,7 +14944,7 @@
         <v>31</v>
       </c>
       <c r="C353" s="36">
-        <f>SUM(D353:R353)</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="D353" s="30">
@@ -14993,7 +14985,7 @@
         <v>31</v>
       </c>
       <c r="C354" s="36">
-        <f>SUM(D354:R354)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="D354" s="30">
@@ -15034,7 +15026,7 @@
         <v>31</v>
       </c>
       <c r="C355" s="36">
-        <f>SUM(D355:R355)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="D355" s="30">
@@ -15069,7 +15061,7 @@
         <v>31</v>
       </c>
       <c r="C356" s="36">
-        <f>SUM(D356:R356)</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="D356" s="30">
@@ -15106,7 +15098,7 @@
         <v>31</v>
       </c>
       <c r="C357" s="36">
-        <f>SUM(D357:R357)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="D357" s="30">
@@ -15141,7 +15133,7 @@
         <v>31</v>
       </c>
       <c r="C358" s="36">
-        <f>SUM(D358:R358)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="D358" s="30">
@@ -15180,7 +15172,7 @@
         <v>31</v>
       </c>
       <c r="C359" s="36">
-        <f>SUM(D359:R359)</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="D359" s="30">
@@ -15217,7 +15209,7 @@
         <v>31</v>
       </c>
       <c r="C360" s="36">
-        <f>SUM(D360:R360)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="D360" s="30">
@@ -15258,7 +15250,7 @@
         <v>31</v>
       </c>
       <c r="C361" s="36">
-        <f>SUM(D361:R361)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D361" s="30">
@@ -15291,7 +15283,7 @@
         <v>31</v>
       </c>
       <c r="C362" s="36">
-        <f>SUM(D362:R362)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="D362" s="30">
@@ -15326,7 +15318,7 @@
         <v>31</v>
       </c>
       <c r="C363" s="36">
-        <f>SUM(D363:R363)</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D363" s="30">
@@ -15371,7 +15363,7 @@
         <v>31</v>
       </c>
       <c r="C364" s="36">
-        <f>SUM(D364:R364)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D364" s="30">
@@ -15406,7 +15398,7 @@
         <v>31</v>
       </c>
       <c r="C365" s="36">
-        <f>SUM(D365:R365)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D365" s="30">
@@ -15445,7 +15437,7 @@
         <v>31</v>
       </c>
       <c r="C366" s="36">
-        <f>SUM(D366:R366)</f>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="D366" s="30">
@@ -15488,7 +15480,7 @@
         <v>41</v>
       </c>
       <c r="C367" s="36">
-        <f>SUM(D367:R367)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="D367" s="30">
@@ -15521,7 +15513,7 @@
         <v>41</v>
       </c>
       <c r="C368" s="36">
-        <f>SUM(D368:R368)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="D368" s="30">
@@ -15556,7 +15548,7 @@
         <v>31</v>
       </c>
       <c r="C369" s="36">
-        <f>SUM(D369:R369)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D369" s="30">
@@ -15599,7 +15591,7 @@
         <v>41</v>
       </c>
       <c r="C370" s="36">
-        <f>SUM(D370:R370)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="D370" s="30">
@@ -15636,7 +15628,7 @@
         <v>31</v>
       </c>
       <c r="C371" s="36">
-        <f>SUM(D371:R371)</f>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="D371" s="30">
@@ -15673,7 +15665,7 @@
         <v>41</v>
       </c>
       <c r="C372" s="36">
-        <f>SUM(D372:R372)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="D372" s="30">
@@ -15706,7 +15698,7 @@
         <v>31</v>
       </c>
       <c r="C373" s="36">
-        <f>SUM(D373:R373)</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="D373" s="30">
@@ -15745,7 +15737,7 @@
         <v>41</v>
       </c>
       <c r="C374" s="36">
-        <f>SUM(D374:R374)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="D374" s="30">
@@ -15778,7 +15770,7 @@
         <v>31</v>
       </c>
       <c r="C375" s="36">
-        <f>SUM(D375:R375)</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="D375" s="30">
@@ -15811,7 +15803,7 @@
         <v>31</v>
       </c>
       <c r="C376" s="36">
-        <f>SUM(D376:R376)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D376" s="30">
@@ -15848,7 +15840,7 @@
         <v>41</v>
       </c>
       <c r="C377" s="36">
-        <f>SUM(D377:R377)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="D377" s="30">
@@ -15883,7 +15875,7 @@
         <v>31</v>
       </c>
       <c r="C378" s="36">
-        <f>SUM(D378:R378)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D378" s="30">
@@ -15920,7 +15912,7 @@
         <v>31</v>
       </c>
       <c r="C379" s="36">
-        <f>SUM(D379:R379)</f>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="D379" s="30">
@@ -15953,7 +15945,7 @@
         <v>31</v>
       </c>
       <c r="C380" s="36">
-        <f>SUM(D380:R380)</f>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="D380" s="30">
@@ -15986,7 +15978,7 @@
         <v>31</v>
       </c>
       <c r="C381" s="36">
-        <f>SUM(D381:R381)</f>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="D381" s="30">
@@ -16021,7 +16013,7 @@
         <v>31</v>
       </c>
       <c r="C382" s="36">
-        <f>SUM(D382:R382)</f>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="D382" s="30">
@@ -16054,7 +16046,7 @@
         <v>31</v>
       </c>
       <c r="C383" s="36">
-        <f>SUM(D383:R383)</f>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="D383" s="30">
@@ -16095,7 +16087,7 @@
         <v>31</v>
       </c>
       <c r="C384" s="36">
-        <f>SUM(D384:R384)</f>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="D384" s="30">
@@ -16136,7 +16128,7 @@
         <v>31</v>
       </c>
       <c r="C385" s="36">
-        <f>SUM(D385:R385)</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="D385" s="30">
@@ -16169,7 +16161,7 @@
         <v>31</v>
       </c>
       <c r="C386" s="36">
-        <f>SUM(D386:R386)</f>
+        <f t="shared" ref="C386:C449" si="6">SUM(D386:R386)</f>
         <v>33</v>
       </c>
       <c r="D386" s="30">
@@ -16202,7 +16194,7 @@
         <v>31</v>
       </c>
       <c r="C387" s="36">
-        <f>SUM(D387:R387)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D387" s="30">
@@ -16235,7 +16227,7 @@
         <v>33</v>
       </c>
       <c r="C388" s="36">
-        <f>SUM(D388:R388)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D388" s="30">
@@ -16268,7 +16260,7 @@
         <v>31</v>
       </c>
       <c r="C389" s="36">
-        <f>SUM(D389:R389)</f>
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
       <c r="D389" s="30">
@@ -16301,7 +16293,7 @@
         <v>33</v>
       </c>
       <c r="C390" s="36">
-        <f>SUM(D390:R390)</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="D390" s="30">
@@ -16334,7 +16326,7 @@
         <v>31</v>
       </c>
       <c r="C391" s="36">
-        <f>SUM(D391:R391)</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D391" s="30">
@@ -16367,7 +16359,7 @@
         <v>31</v>
       </c>
       <c r="C392" s="36">
-        <f>SUM(D392:R392)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="D392" s="30">
@@ -16400,7 +16392,7 @@
         <v>33</v>
       </c>
       <c r="C393" s="36">
-        <f>SUM(D393:R393)</f>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D393" s="30">
@@ -16433,7 +16425,7 @@
         <v>33</v>
       </c>
       <c r="C394" s="36">
-        <f>SUM(D394:R394)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D394" s="30">
@@ -16468,7 +16460,7 @@
         <v>31</v>
       </c>
       <c r="C395" s="36">
-        <f>SUM(D395:R395)</f>
+        <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="D395" s="30">
@@ -16517,7 +16509,7 @@
         <v>31</v>
       </c>
       <c r="C396" s="36">
-        <f>SUM(D396:R396)</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="D396" s="30">
@@ -16568,7 +16560,7 @@
         <v>31</v>
       </c>
       <c r="C397" s="36">
-        <f>SUM(D397:R397)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D397" s="30">
@@ -16609,7 +16601,7 @@
         <v>31</v>
       </c>
       <c r="C398" s="36">
-        <f>SUM(D398:R398)</f>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D398" s="30">
@@ -16654,7 +16646,7 @@
         <v>31</v>
       </c>
       <c r="C399" s="36">
-        <f>SUM(D399:R399)</f>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D399" s="30">
@@ -16687,7 +16679,7 @@
         <v>31</v>
       </c>
       <c r="C400" s="36">
-        <f>SUM(D400:R400)</f>
+        <f t="shared" si="6"/>
         <v>81</v>
       </c>
       <c r="D400" s="30">
@@ -16720,7 +16712,7 @@
         <v>31</v>
       </c>
       <c r="C401" s="36">
-        <f>SUM(D401:R401)</f>
+        <f t="shared" si="6"/>
         <v>74</v>
       </c>
       <c r="D401" s="30">
@@ -16753,7 +16745,7 @@
         <v>31</v>
       </c>
       <c r="C402" s="36">
-        <f>SUM(D402:R402)</f>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D402" s="30">
@@ -16786,7 +16778,7 @@
         <v>49</v>
       </c>
       <c r="C403" s="36">
-        <f>SUM(D403:R403)</f>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D403" s="30">
@@ -16819,7 +16811,7 @@
         <v>33</v>
       </c>
       <c r="C404" s="36">
-        <f>SUM(D404:R404)</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="D404" s="30">
@@ -16852,7 +16844,7 @@
         <v>49</v>
       </c>
       <c r="C405" s="36">
-        <f>SUM(D405:R405)</f>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D405" s="30">
@@ -16885,7 +16877,7 @@
         <v>31</v>
       </c>
       <c r="C406" s="36">
-        <f>SUM(D406:R406)</f>
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
       <c r="D406" s="30">
@@ -16918,7 +16910,7 @@
         <v>49</v>
       </c>
       <c r="C407" s="36">
-        <f>SUM(D407:R407)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D407" s="30">
@@ -16951,7 +16943,7 @@
         <v>31</v>
       </c>
       <c r="C408" s="36">
-        <f>SUM(D408:R408)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D408" s="30">
@@ -16984,7 +16976,7 @@
         <v>31</v>
       </c>
       <c r="C409" s="36">
-        <f>SUM(D409:R409)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D409" s="30">
@@ -17017,7 +17009,7 @@
         <v>31</v>
       </c>
       <c r="C410" s="36">
-        <f>SUM(D410:R410)</f>
+        <f t="shared" si="6"/>
         <v>114</v>
       </c>
       <c r="D410" s="30">
@@ -17051,7 +17043,7 @@
         <v>33</v>
       </c>
       <c r="C411" s="36">
-        <f>SUM(D411:R411)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D411" s="30">
@@ -17084,7 +17076,7 @@
         <v>33</v>
       </c>
       <c r="C412" s="36">
-        <f>SUM(D412:R412)</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="D412" s="30">
@@ -17117,7 +17109,7 @@
         <v>33</v>
       </c>
       <c r="C413" s="36">
-        <f>SUM(D413:R413)</f>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="D413" s="30">
@@ -17150,7 +17142,7 @@
         <v>33</v>
       </c>
       <c r="C414" s="36">
-        <f>SUM(D414:R414)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="D414" s="30">
@@ -17183,7 +17175,7 @@
         <v>33</v>
       </c>
       <c r="C415" s="36">
-        <f>SUM(D415:R415)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D415" s="30">
@@ -17216,7 +17208,7 @@
         <v>49</v>
       </c>
       <c r="C416" s="36">
-        <f>SUM(D416:R416)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D416" s="30">
@@ -17249,7 +17241,7 @@
         <v>33</v>
       </c>
       <c r="C417" s="36">
-        <f>SUM(D417:R417)</f>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D417" s="30">
@@ -17282,7 +17274,7 @@
         <v>49</v>
       </c>
       <c r="C418" s="36">
-        <f>SUM(D418:R418)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D418" s="30">
@@ -17315,7 +17307,7 @@
         <v>49</v>
       </c>
       <c r="C419" s="36">
-        <f>SUM(D419:R419)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D419" s="30">
@@ -17348,7 +17340,7 @@
         <v>41</v>
       </c>
       <c r="C420" s="36">
-        <f>SUM(D420:R420)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D420" s="30">
@@ -17381,7 +17373,7 @@
         <v>33</v>
       </c>
       <c r="C421" s="36">
-        <f>SUM(D421:R421)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D421" s="30">
@@ -17414,7 +17406,7 @@
         <v>31</v>
       </c>
       <c r="C422" s="36">
-        <f>SUM(D422:R422)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D422" s="30">
@@ -17447,7 +17439,7 @@
         <v>31</v>
       </c>
       <c r="C423" s="36">
-        <f>SUM(D423:R423)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D423" s="30">
@@ -17484,7 +17476,7 @@
         <v>33</v>
       </c>
       <c r="C424" s="36">
-        <f>SUM(D424:R424)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D424" s="30">
@@ -17517,7 +17509,7 @@
         <v>49</v>
       </c>
       <c r="C425" s="36">
-        <f>SUM(D425:R425)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D425" s="30">
@@ -17550,7 +17542,7 @@
         <v>41</v>
       </c>
       <c r="C426" s="36">
-        <f>SUM(D426:R426)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D426" s="30">
@@ -17583,7 +17575,7 @@
         <v>33</v>
       </c>
       <c r="C427" s="36">
-        <f>SUM(D427:R427)</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="D427" s="30">
@@ -17616,7 +17608,7 @@
         <v>31</v>
       </c>
       <c r="C428" s="36">
-        <f>SUM(D428:R428)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D428" s="30">
@@ -17651,7 +17643,7 @@
         <v>49</v>
       </c>
       <c r="C429" s="36">
-        <f>SUM(D429:R429)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D429" s="30">
@@ -17684,7 +17676,7 @@
         <v>50</v>
       </c>
       <c r="C430" s="36">
-        <f>SUM(D430:R430)</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="D430" s="30">
@@ -17741,7 +17733,7 @@
         <v>50</v>
       </c>
       <c r="C431" s="36">
-        <f>SUM(D431:R431)</f>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="D431" s="30">
@@ -17802,7 +17794,7 @@
         <v>50</v>
       </c>
       <c r="C432" s="36">
-        <f>SUM(D432:R432)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D432" s="30">
@@ -17835,7 +17827,7 @@
         <v>50</v>
       </c>
       <c r="C433" s="36">
-        <f>SUM(D433:R433)</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="D433" s="30">
@@ -17884,7 +17876,7 @@
         <v>47</v>
       </c>
       <c r="C434" s="36">
-        <f>SUM(D434:R434)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D434" s="30">
@@ -17917,7 +17909,7 @@
         <v>50</v>
       </c>
       <c r="C435" s="36">
-        <f>SUM(D435:R435)</f>
+        <f t="shared" si="6"/>
         <v>77</v>
       </c>
       <c r="D435" s="30">
@@ -17958,7 +17950,7 @@
         <v>50</v>
       </c>
       <c r="C436" s="36">
-        <f>SUM(D436:R436)</f>
+        <f t="shared" si="6"/>
         <v>102</v>
       </c>
       <c r="D436" s="30">
@@ -17999,7 +17991,7 @@
         <v>50</v>
       </c>
       <c r="C437" s="36">
-        <f>SUM(D437:R437)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="D437" s="30">
@@ -18038,7 +18030,7 @@
         <v>33</v>
       </c>
       <c r="C438" s="36">
-        <f>SUM(D438:R438)</f>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="D438" s="30">
@@ -18071,7 +18063,7 @@
         <v>33</v>
       </c>
       <c r="C439" s="36">
-        <f>SUM(D439:R439)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="D439" s="30">
@@ -18104,7 +18096,7 @@
         <v>33</v>
       </c>
       <c r="C440" s="36">
-        <f>SUM(D440:R440)</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="D440" s="30">
@@ -18137,7 +18129,7 @@
         <v>33</v>
       </c>
       <c r="C441" s="36">
-        <f>SUM(D441:R441)</f>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D441" s="30">
@@ -18170,7 +18162,7 @@
         <v>33</v>
       </c>
       <c r="C442" s="36">
-        <f>SUM(D442:R442)</f>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D442" s="30">
@@ -18203,7 +18195,7 @@
         <v>31</v>
       </c>
       <c r="C443" s="36">
-        <f>SUM(D443:R443)</f>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="D443" s="30">
@@ -18238,7 +18230,7 @@
         <v>31</v>
       </c>
       <c r="C444" s="36">
-        <f>SUM(D444:R444)</f>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D444" s="30">
@@ -18271,7 +18263,7 @@
         <v>31</v>
       </c>
       <c r="C445" s="36">
-        <f>SUM(D445:R445)</f>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="D445" s="30">
@@ -18304,7 +18296,7 @@
         <v>31</v>
       </c>
       <c r="C446" s="36">
-        <f>SUM(D446:R446)</f>
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
       <c r="D446" s="30">
@@ -18339,7 +18331,7 @@
         <v>31</v>
       </c>
       <c r="C447" s="36">
-        <f>SUM(D447:R447)</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D447" s="30">
@@ -18376,7 +18368,7 @@
         <v>31</v>
       </c>
       <c r="C448" s="36">
-        <f>SUM(D448:R448)</f>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D448" s="30">
@@ -18415,7 +18407,7 @@
         <v>31</v>
       </c>
       <c r="C449" s="36">
-        <f>SUM(D449:R449)</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D449" s="30">
@@ -18450,7 +18442,7 @@
         <v>31</v>
       </c>
       <c r="C450" s="36">
-        <f>SUM(D450:R450)</f>
+        <f t="shared" ref="C450:C513" si="7">SUM(D450:R450)</f>
         <v>44</v>
       </c>
       <c r="D450" s="30">
@@ -18489,7 +18481,7 @@
         <v>31</v>
       </c>
       <c r="C451" s="36">
-        <f>SUM(D451:R451)</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="D451" s="30">
@@ -18526,7 +18518,7 @@
         <v>31</v>
       </c>
       <c r="C452" s="36">
-        <f>SUM(D452:R452)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D452" s="30">
@@ -18561,7 +18553,7 @@
         <v>31</v>
       </c>
       <c r="C453" s="36">
-        <f>SUM(D453:R453)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="D453" s="30">
@@ -18594,7 +18586,7 @@
         <v>31</v>
       </c>
       <c r="C454" s="36">
-        <f>SUM(D454:R454)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="D454" s="30">
@@ -18627,7 +18619,7 @@
         <v>31</v>
       </c>
       <c r="C455" s="36">
-        <f>SUM(D455:R455)</f>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="D455" s="30">
@@ -18662,7 +18654,7 @@
         <v>31</v>
       </c>
       <c r="C456" s="36">
-        <f>SUM(D456:R456)</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="D456" s="30">
@@ -18697,7 +18689,7 @@
         <v>31</v>
       </c>
       <c r="C457" s="36">
-        <f>SUM(D457:R457)</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="D457" s="30">
@@ -18732,7 +18724,7 @@
         <v>31</v>
       </c>
       <c r="C458" s="36">
-        <f>SUM(D458:R458)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="D458" s="30">
@@ -18769,7 +18761,7 @@
         <v>31</v>
       </c>
       <c r="C459" s="29">
-        <f>SUM(D459:R459)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="D459" s="30">
@@ -18810,7 +18802,7 @@
         <v>31</v>
       </c>
       <c r="C460" s="29">
-        <f>SUM(D460:R460)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="D460" s="30">
@@ -18843,7 +18835,7 @@
         <v>51</v>
       </c>
       <c r="C461" s="29">
-        <f>SUM(D461:R461)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="D461" s="30">
@@ -18876,7 +18868,7 @@
         <v>31</v>
       </c>
       <c r="C462" s="29">
-        <f>SUM(D462:R462)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="D462" s="30">
@@ -18909,7 +18901,7 @@
         <v>26</v>
       </c>
       <c r="C463" s="29">
-        <f>SUM(D463:R463)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="D463" s="30">
@@ -18948,7 +18940,7 @@
         <v>31</v>
       </c>
       <c r="C464" s="29">
-        <f>SUM(D464:R464)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="D464" s="30">
@@ -18981,7 +18973,7 @@
         <v>26</v>
       </c>
       <c r="C465" s="29">
-        <f>SUM(D465:R465)</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="D465" s="30">
@@ -19022,7 +19014,7 @@
         <v>26</v>
       </c>
       <c r="C466" s="29">
-        <f>SUM(D466:R466)</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="D466" s="30">
@@ -19065,7 +19057,7 @@
         <v>51</v>
       </c>
       <c r="C467" s="29">
-        <f>SUM(D467:R467)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D467" s="30">
@@ -19106,7 +19098,7 @@
         <v>51</v>
       </c>
       <c r="C468" s="29">
-        <f>SUM(D468:R468)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D468" s="30">
@@ -19147,7 +19139,7 @@
         <v>51</v>
       </c>
       <c r="C469" s="29">
-        <f>SUM(D469:R469)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="D469" s="30">
@@ -19184,7 +19176,7 @@
         <v>51</v>
       </c>
       <c r="C470" s="29">
-        <f>SUM(D470:R470)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="D470" s="30">
@@ -19219,7 +19211,7 @@
         <v>31</v>
       </c>
       <c r="C471" s="29">
-        <f>SUM(D471:R471)</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="D471" s="30">
@@ -19264,7 +19256,7 @@
         <v>31</v>
       </c>
       <c r="C472" s="29">
-        <f>SUM(D472:R472)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="D472" s="30">
@@ -19303,7 +19295,7 @@
         <v>31</v>
       </c>
       <c r="C473" s="29">
-        <f>SUM(D473:R473)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D473" s="30">
@@ -19342,7 +19334,7 @@
         <v>31</v>
       </c>
       <c r="C474" s="29">
-        <f>SUM(D474:R474)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D474" s="30">
@@ -19387,7 +19379,7 @@
         <v>31</v>
       </c>
       <c r="C475" s="29">
-        <f>SUM(D475:R475)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D475" s="30">
@@ -19432,7 +19424,7 @@
         <v>31</v>
       </c>
       <c r="C476" s="29">
-        <f>SUM(D476:R476)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D476" s="30">
@@ -19471,7 +19463,7 @@
         <v>27</v>
       </c>
       <c r="C477" s="29">
-        <f>SUM(D477:R477)</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="D477" s="30">
@@ -19506,7 +19498,7 @@
         <v>31</v>
       </c>
       <c r="C478" s="29">
-        <f>SUM(D478:R478)</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="D478" s="30">
@@ -19549,7 +19541,7 @@
         <v>31</v>
       </c>
       <c r="C479" s="29">
-        <f>SUM(D479:R479)</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="D479" s="30">
@@ -19590,7 +19582,7 @@
         <v>52</v>
       </c>
       <c r="C480" s="29">
-        <f>SUM(D480:R480)</f>
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="D480" s="30">
@@ -19633,7 +19625,7 @@
         <v>52</v>
       </c>
       <c r="C481" s="29">
-        <f>SUM(D481:R481)</f>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D481" s="30">
@@ -19682,7 +19674,7 @@
         <v>52</v>
       </c>
       <c r="C482" s="29">
-        <f>SUM(D482:R482)</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D482" s="30">
@@ -19727,7 +19719,7 @@
         <v>20</v>
       </c>
       <c r="C483" s="29">
-        <f>SUM(D483:R483)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D483" s="30">
@@ -19760,7 +19752,7 @@
         <v>20</v>
       </c>
       <c r="C484" s="29">
-        <f>SUM(D484:R484)</f>
+        <f t="shared" si="7"/>
         <v>136</v>
       </c>
       <c r="D484" s="30">
@@ -19799,7 +19791,7 @@
         <v>23</v>
       </c>
       <c r="C485" s="29">
-        <f>SUM(D485:R485)</f>
+        <f t="shared" si="7"/>
         <v>66</v>
       </c>
       <c r="D485" s="30">
@@ -19833,7 +19825,7 @@
         <v>23</v>
       </c>
       <c r="C486" s="29">
-        <f>SUM(D486:R486)</f>
+        <f t="shared" si="7"/>
         <v>77</v>
       </c>
       <c r="D486" s="30">
@@ -19868,7 +19860,7 @@
         <v>23</v>
       </c>
       <c r="C487" s="29">
-        <f>SUM(D487:R487)</f>
+        <f t="shared" si="7"/>
         <v>89</v>
       </c>
       <c r="D487" s="30">
@@ -19910,7 +19902,7 @@
         <v>23</v>
       </c>
       <c r="C488" s="29">
-        <f>SUM(D488:R488)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="D488" s="30">
@@ -19945,7 +19937,7 @@
         <v>23</v>
       </c>
       <c r="C489" s="29">
-        <f>SUM(D489:R489)</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="D489" s="30">
@@ -19986,7 +19978,7 @@
         <v>26</v>
       </c>
       <c r="C490" s="29">
-        <f>SUM(D490:R490)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="D490" s="30">
@@ -20019,7 +20011,7 @@
         <v>26</v>
       </c>
       <c r="C491" s="29">
-        <f>SUM(D491:R491)</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="D491" s="30">
@@ -20052,7 +20044,7 @@
         <v>26</v>
       </c>
       <c r="C492" s="29">
-        <f>SUM(D492:R492)</f>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="D492" s="30">
@@ -20085,7 +20077,7 @@
         <v>26</v>
       </c>
       <c r="C493" s="29">
-        <f>SUM(D493:R493)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D493" s="30">
@@ -20118,7 +20110,7 @@
         <v>26</v>
       </c>
       <c r="C494" s="29">
-        <f>SUM(D494:R494)</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="D494" s="30">
@@ -20151,7 +20143,7 @@
         <v>26</v>
       </c>
       <c r="C495" s="29">
-        <f>SUM(D495:R495)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D495" s="30">
@@ -20184,7 +20176,7 @@
         <v>26</v>
       </c>
       <c r="C496" s="29">
-        <f>SUM(D496:R496)</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D496" s="30">
@@ -20217,7 +20209,7 @@
         <v>26</v>
       </c>
       <c r="C497" s="29">
-        <f>SUM(D497:R497)</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="D497" s="30">
@@ -20250,7 +20242,7 @@
         <v>26</v>
       </c>
       <c r="C498" s="29">
-        <f>SUM(D498:R498)</f>
+        <f t="shared" si="7"/>
         <v>71</v>
       </c>
       <c r="D498" s="30">
@@ -20283,7 +20275,7 @@
         <v>26</v>
       </c>
       <c r="C499" s="29">
-        <f>SUM(D499:R499)</f>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="D499" s="30">
@@ -20316,7 +20308,7 @@
         <v>26</v>
       </c>
       <c r="C500" s="29">
-        <f>SUM(D500:R500)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="D500" s="30">
@@ -20349,7 +20341,7 @@
         <v>26</v>
       </c>
       <c r="C501" s="29">
-        <f>SUM(D501:R501)</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="D501" s="30">
@@ -20382,7 +20374,7 @@
         <v>26</v>
       </c>
       <c r="C502" s="29">
-        <f>SUM(D502:R502)</f>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="D502" s="30">
@@ -20415,7 +20407,7 @@
         <v>26</v>
       </c>
       <c r="C503" s="29">
-        <f>SUM(D503:R503)</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="D503" s="30">
@@ -20448,7 +20440,7 @@
         <v>26</v>
       </c>
       <c r="C504" s="29">
-        <f>SUM(D504:R504)</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="D504" s="30">
@@ -20481,7 +20473,7 @@
         <v>47</v>
       </c>
       <c r="C505" s="29">
-        <f>SUM(D505:R505)</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="D505" s="30">
@@ -20516,7 +20508,7 @@
         <v>47</v>
       </c>
       <c r="C506" s="29">
-        <f>SUM(D506:R506)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="D506" s="30">
@@ -20549,7 +20541,7 @@
         <v>26</v>
       </c>
       <c r="C507" s="29">
-        <f>SUM(D507:R507)</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="D507" s="30">
@@ -20582,7 +20574,7 @@
         <v>26</v>
       </c>
       <c r="C508" s="29">
-        <f>SUM(D508:R508)</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="D508" s="30">
@@ -20615,7 +20607,7 @@
         <v>26</v>
       </c>
       <c r="C509" s="29">
-        <f>SUM(D509:R509)</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="D509" s="30">
@@ -20648,7 +20640,7 @@
         <v>26</v>
       </c>
       <c r="C510" s="29">
-        <f>SUM(D510:R510)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D510" s="30">
@@ -20681,7 +20673,7 @@
         <v>42</v>
       </c>
       <c r="C511" s="29">
-        <f>SUM(D511:R511)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="D511" s="30">
@@ -20726,7 +20718,7 @@
         <v>53</v>
       </c>
       <c r="C512" s="29">
-        <f>SUM(D512:R512)</f>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="D512" s="30">
@@ -20773,7 +20765,7 @@
         <v>22</v>
       </c>
       <c r="C513" s="29">
-        <f>SUM(D513:R513)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="D513" s="30">
@@ -20814,7 +20806,7 @@
         <v>53</v>
       </c>
       <c r="C514" s="29">
-        <f>SUM(D514:R514)</f>
+        <f t="shared" ref="C514:C577" si="8">SUM(D514:R514)</f>
         <v>68</v>
       </c>
       <c r="D514" s="30">
@@ -20865,7 +20857,7 @@
         <v>53</v>
       </c>
       <c r="C515" s="29">
-        <f>SUM(D515:R515)</f>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D515" s="30">
@@ -20916,7 +20908,7 @@
         <v>53</v>
       </c>
       <c r="C516" s="29">
-        <f>SUM(D516:R516)</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D516" s="30">
@@ -20975,7 +20967,7 @@
         <v>53</v>
       </c>
       <c r="C517" s="29">
-        <f>SUM(D517:R517)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D517" s="30">
@@ -21026,7 +21018,7 @@
         <v>34</v>
       </c>
       <c r="C518" s="29">
-        <f>SUM(D518:R518)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="D518" s="30">
@@ -21075,7 +21067,7 @@
         <v>34</v>
       </c>
       <c r="C519" s="29">
-        <f>SUM(D519:R519)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D519" s="30">
@@ -21112,7 +21104,7 @@
         <v>26</v>
       </c>
       <c r="C520" s="29">
-        <f>SUM(D520:R520)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="D520" s="30">
@@ -21155,7 +21147,7 @@
         <v>53</v>
       </c>
       <c r="C521" s="29">
-        <f>SUM(D521:R521)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="D521" s="30">
@@ -21210,7 +21202,7 @@
         <v>26</v>
       </c>
       <c r="C522" s="29">
-        <f>SUM(D522:R522)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="D522" s="30">
@@ -21247,7 +21239,7 @@
         <v>53</v>
       </c>
       <c r="C523" s="29">
-        <f>SUM(D523:R523)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="D523" s="30">
@@ -21290,7 +21282,7 @@
         <v>26</v>
       </c>
       <c r="C524" s="29">
-        <f>SUM(D524:R524)</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D524" s="30">
@@ -21337,7 +21329,7 @@
         <v>53</v>
       </c>
       <c r="C525" s="29">
-        <f>SUM(D525:R525)</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="D525" s="30">
@@ -21380,7 +21372,7 @@
         <v>34</v>
       </c>
       <c r="C526" s="29">
-        <f>SUM(D526:R526)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="D526" s="30">
@@ -21421,7 +21413,7 @@
         <v>53</v>
       </c>
       <c r="C527" s="29">
-        <f>SUM(D527:R527)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="D527" s="30">
@@ -21462,7 +21454,7 @@
         <v>34</v>
       </c>
       <c r="C528" s="29">
-        <f>SUM(D528:R528)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="D528" s="30">
@@ -21501,7 +21493,7 @@
         <v>31</v>
       </c>
       <c r="C529" s="29">
-        <f>SUM(D529:R529)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="D529" s="30">
@@ -21534,7 +21526,7 @@
         <v>53</v>
       </c>
       <c r="C530" s="29">
-        <f>SUM(D530:R530)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="D530" s="30">
@@ -21575,7 +21567,7 @@
         <v>34</v>
       </c>
       <c r="C531" s="29">
-        <f>SUM(D531:R531)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D531" s="30">
@@ -21616,7 +21608,7 @@
         <v>53</v>
       </c>
       <c r="C532" s="29">
-        <f>SUM(D532:R532)</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="D532" s="30">
@@ -21657,7 +21649,7 @@
         <v>34</v>
       </c>
       <c r="C533" s="29">
-        <f>SUM(D533:R533)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="D533" s="30">
@@ -21696,7 +21688,7 @@
         <v>53</v>
       </c>
       <c r="C534" s="29">
-        <f>SUM(D534:R534)</f>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="D534" s="30">
@@ -21737,7 +21729,7 @@
         <v>34</v>
       </c>
       <c r="C535" s="29">
-        <f>SUM(D535:R535)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D535" s="30">
@@ -21782,7 +21774,7 @@
         <v>53</v>
       </c>
       <c r="C536" s="29">
-        <f>SUM(D536:R536)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D536" s="30">
@@ -21823,7 +21815,7 @@
         <v>34</v>
       </c>
       <c r="C537" s="29">
-        <f>SUM(D537:R537)</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="D537" s="30">
@@ -21864,7 +21856,7 @@
         <v>53</v>
       </c>
       <c r="C538" s="29">
-        <f>SUM(D538:R538)</f>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="D538" s="30">
@@ -21915,7 +21907,7 @@
         <v>31</v>
       </c>
       <c r="C539" s="29">
-        <f>SUM(D539:R539)</f>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="D539" s="30">
@@ -21952,7 +21944,7 @@
         <v>54</v>
       </c>
       <c r="C540" s="29">
-        <f>SUM(D540:R540)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="D540" s="30">
@@ -22005,7 +21997,7 @@
         <v>53</v>
       </c>
       <c r="C541" s="29">
-        <f>SUM(D541:R541)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D541" s="30">
@@ -22048,7 +22040,7 @@
         <v>54</v>
       </c>
       <c r="C542" s="29">
-        <f>SUM(D542:R542)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="D542" s="30">
@@ -22085,7 +22077,7 @@
         <v>53</v>
       </c>
       <c r="C543" s="29">
-        <f>SUM(D543:R543)</f>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="D543" s="30">
@@ -22130,7 +22122,7 @@
         <v>54</v>
       </c>
       <c r="C544" s="29">
-        <f>SUM(D544:R544)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="D544" s="30">
@@ -22167,7 +22159,7 @@
         <v>54</v>
       </c>
       <c r="C545" s="29">
-        <f>SUM(D545:R545)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="D545" s="30">
@@ -22200,7 +22192,7 @@
         <v>53</v>
       </c>
       <c r="C546" s="29">
-        <f>SUM(D546:R546)</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="D546" s="30">
@@ -22247,7 +22239,7 @@
         <v>55</v>
       </c>
       <c r="C547" s="29">
-        <f>SUM(D547:R547)</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="D547" s="30">
@@ -22280,7 +22272,7 @@
         <v>53</v>
       </c>
       <c r="C548" s="29">
-        <f>SUM(D548:R548)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="D548" s="30">
@@ -22317,7 +22309,7 @@
         <v>54</v>
       </c>
       <c r="C549" s="29">
-        <f>SUM(D549:R549)</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="D549" s="30">
@@ -22350,7 +22342,7 @@
         <v>53</v>
       </c>
       <c r="C550" s="29">
-        <f>SUM(D550:R550)</f>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="D550" s="30">
@@ -22391,7 +22383,7 @@
         <v>53</v>
       </c>
       <c r="C551" s="29">
-        <f>SUM(D551:R551)</f>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="D551" s="30">
@@ -22436,7 +22428,7 @@
         <v>53</v>
       </c>
       <c r="C552" s="29">
-        <f>SUM(D552:R552)</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D552" s="30">
@@ -22483,7 +22475,7 @@
         <v>54</v>
       </c>
       <c r="C553" s="29">
-        <f>SUM(D553:R553)</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="D553" s="30">
@@ -22516,7 +22508,7 @@
         <v>54</v>
       </c>
       <c r="C554" s="29">
-        <f>SUM(D554:R554)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="D554" s="30">
@@ -22551,7 +22543,7 @@
         <v>47</v>
       </c>
       <c r="C555" s="29">
-        <f>SUM(D555:R555)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="D555" s="30">
@@ -22584,7 +22576,7 @@
         <v>53</v>
       </c>
       <c r="C556" s="29">
-        <f>SUM(D556:R556)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="D556" s="30">
@@ -22625,7 +22617,7 @@
         <v>22</v>
       </c>
       <c r="C557" s="29">
-        <f>SUM(D557:R557)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="D557" s="30">
@@ -22660,7 +22652,7 @@
         <v>53</v>
       </c>
       <c r="C558" s="29">
-        <f>SUM(D558:R558)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="D558" s="30">
@@ -22705,7 +22697,7 @@
         <v>54</v>
       </c>
       <c r="C559" s="29">
-        <f>SUM(D559:R559)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="D559" s="30">
@@ -22740,7 +22732,7 @@
         <v>53</v>
       </c>
       <c r="C560" s="29">
-        <f>SUM(D560:R560)</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="D560" s="30">
@@ -22783,7 +22775,7 @@
         <v>54</v>
       </c>
       <c r="C561" s="29">
-        <f>SUM(D561:R561)</f>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="D561" s="30">
@@ -22818,7 +22810,7 @@
         <v>22</v>
       </c>
       <c r="C562" s="29">
-        <f>SUM(D562:R562)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="D562" s="30">
@@ -22851,7 +22843,7 @@
         <v>53</v>
       </c>
       <c r="C563" s="29">
-        <f>SUM(D563:R563)</f>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="D563" s="30">
@@ -22902,7 +22894,7 @@
         <v>56</v>
       </c>
       <c r="C564" s="29">
-        <f>SUM(D564:R564)</f>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="D564" s="30">
@@ -22945,7 +22937,7 @@
         <v>56</v>
       </c>
       <c r="C565" s="29">
-        <f>SUM(D565:R565)</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="D565" s="30">
@@ -22996,7 +22988,7 @@
         <v>57</v>
       </c>
       <c r="C566" s="29">
-        <f>SUM(D566:R566)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="D566" s="30">
@@ -23033,7 +23025,7 @@
         <v>22</v>
       </c>
       <c r="C567" s="29">
-        <f>SUM(D567:R567)</f>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="D567" s="30">
@@ -23070,7 +23062,7 @@
         <v>54</v>
       </c>
       <c r="C568" s="29">
-        <f>SUM(D568:R568)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="D568" s="30">
@@ -23105,7 +23097,7 @@
         <v>56</v>
       </c>
       <c r="C569" s="29">
-        <f>SUM(D569:R569)</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="D569" s="30">
@@ -23144,7 +23136,7 @@
         <v>56</v>
       </c>
       <c r="C570" s="29">
-        <f>SUM(D570:R570)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="D570" s="30">
@@ -23189,7 +23181,7 @@
         <v>54</v>
       </c>
       <c r="C571" s="29">
-        <f>SUM(D571:R571)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="D571" s="30">
@@ -23222,7 +23214,7 @@
         <v>56</v>
       </c>
       <c r="C572" s="29">
-        <f>SUM(D572:R572)</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="D572" s="30">
@@ -23259,7 +23251,7 @@
         <v>54</v>
       </c>
       <c r="C573" s="29">
-        <f>SUM(D573:R573)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="D573" s="30">
@@ -23299,7 +23291,7 @@
         <v>58</v>
       </c>
       <c r="C574" s="29">
-        <f>SUM(D574:R574)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="D574" s="30">
@@ -23335,7 +23327,7 @@
         <v>54</v>
       </c>
       <c r="C575" s="29">
-        <f>SUM(D575:R575)</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="D575" s="30">
@@ -23372,7 +23364,7 @@
         <v>56</v>
       </c>
       <c r="C576" s="29">
-        <f>SUM(D576:R576)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="D576" s="30">
@@ -23407,7 +23399,7 @@
         <v>54</v>
       </c>
       <c r="C577" s="29">
-        <f>SUM(D577:R577)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="D577" s="30">
@@ -23446,7 +23438,7 @@
         <v>56</v>
       </c>
       <c r="C578" s="29">
-        <f>SUM(D578:R578)</f>
+        <f t="shared" ref="C578:C622" si="9">SUM(D578:R578)</f>
         <v>18</v>
       </c>
       <c r="D578" s="30">
@@ -23481,7 +23473,7 @@
         <v>56</v>
       </c>
       <c r="C579" s="29">
-        <f>SUM(D579:R579)</f>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="D579" s="30">
@@ -23532,7 +23524,7 @@
         <v>54</v>
       </c>
       <c r="C580" s="29">
-        <f>SUM(D580:R580)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D580" s="30">
@@ -23565,7 +23557,7 @@
         <v>54</v>
       </c>
       <c r="C581" s="29">
-        <f>SUM(D581:R581)</f>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D581" s="30">
@@ -23610,7 +23602,7 @@
         <v>22</v>
       </c>
       <c r="C582" s="29">
-        <f>SUM(D582:R582)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D582" s="30">
@@ -23643,7 +23635,7 @@
         <v>56</v>
       </c>
       <c r="C583" s="29">
-        <f>SUM(D583:R583)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="D583" s="30">
@@ -23676,7 +23668,7 @@
         <v>22</v>
       </c>
       <c r="C584" s="29">
-        <f>SUM(D584:R584)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="D584" s="30">
@@ -23709,7 +23701,7 @@
         <v>58</v>
       </c>
       <c r="C585" s="29">
-        <f>SUM(D585:R585)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="D585" s="30">
@@ -23744,7 +23736,7 @@
         <v>56</v>
       </c>
       <c r="C586" s="29">
-        <f>SUM(D586:R586)</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D586" s="30">
@@ -23777,7 +23769,7 @@
         <v>59</v>
       </c>
       <c r="C587" s="29">
-        <f>SUM(D587:R587)</f>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D587" s="30">
@@ -23818,7 +23810,7 @@
         <v>58</v>
       </c>
       <c r="C588" s="29">
-        <f>SUM(D588:R588)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D588" s="30">
@@ -23851,7 +23843,7 @@
         <v>56</v>
       </c>
       <c r="C589" s="29">
-        <f>SUM(D589:R589)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D589" s="30">
@@ -23884,7 +23876,7 @@
         <v>59</v>
       </c>
       <c r="C590" s="29">
-        <f>SUM(D590:R590)</f>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="D590" s="30">
@@ -23923,7 +23915,7 @@
         <v>58</v>
       </c>
       <c r="C591" s="29">
-        <f>SUM(D591:R591)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="D591" s="30">
@@ -23956,7 +23948,7 @@
         <v>56</v>
       </c>
       <c r="C592" s="29">
-        <f>SUM(D592:R592)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="D592" s="30">
@@ -23989,7 +23981,7 @@
         <v>59</v>
       </c>
       <c r="C593" s="29">
-        <f>SUM(D593:R593)</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D593" s="30">
@@ -24026,7 +24018,7 @@
         <v>58</v>
       </c>
       <c r="C594" s="29">
-        <f>SUM(D594:R594)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D594" s="30">
@@ -24059,7 +24051,7 @@
         <v>56</v>
       </c>
       <c r="C595" s="29">
-        <f>SUM(D595:R595)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D595" s="30">
@@ -24092,7 +24084,7 @@
         <v>59</v>
       </c>
       <c r="C596" s="29">
-        <f>SUM(D596:R596)</f>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D596" s="30">
@@ -24127,7 +24119,7 @@
         <v>58</v>
       </c>
       <c r="C597" s="29">
-        <f>SUM(D597:R597)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="D597" s="30">
@@ -24160,7 +24152,7 @@
         <v>56</v>
       </c>
       <c r="C598" s="29">
-        <f>SUM(D598:R598)</f>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D598" s="30">
@@ -24195,7 +24187,7 @@
         <v>59</v>
       </c>
       <c r="C599" s="29">
-        <f>SUM(D599:R599)</f>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D599" s="30">
@@ -24232,7 +24224,7 @@
         <v>58</v>
       </c>
       <c r="C600" s="29">
-        <f>SUM(D600:R600)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="D600" s="30">
@@ -24265,7 +24257,7 @@
         <v>47</v>
       </c>
       <c r="C601" s="29">
-        <f>SUM(D601:R601)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D601" s="30">
@@ -24298,7 +24290,7 @@
         <v>22</v>
       </c>
       <c r="C602" s="29">
-        <f>SUM(D602:R602)</f>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="D602" s="30">
@@ -24333,7 +24325,7 @@
         <v>58</v>
       </c>
       <c r="C603" s="29">
-        <f>SUM(D603:R603)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="D603" s="30">
@@ -24366,7 +24358,7 @@
         <v>58</v>
       </c>
       <c r="C604" s="29">
-        <f>SUM(D604:R604)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D604" s="30">
@@ -24399,7 +24391,7 @@
         <v>56</v>
       </c>
       <c r="C605" s="29">
-        <f>SUM(D605:R605)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D605" s="30">
@@ -24432,7 +24424,7 @@
         <v>59</v>
       </c>
       <c r="C606" s="29">
-        <f>SUM(D606:R606)</f>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D606" s="30">
@@ -24467,7 +24459,7 @@
         <v>31</v>
       </c>
       <c r="C607" s="29">
-        <f>SUM(D607:R607)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D607" s="30">
@@ -24500,7 +24492,7 @@
         <v>58</v>
       </c>
       <c r="C608" s="29">
-        <f>SUM(D608:R608)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D608" s="30">
@@ -24537,7 +24529,7 @@
         <v>56</v>
       </c>
       <c r="C609" s="29">
-        <f>SUM(D609:R609)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="D609" s="30">
@@ -24570,7 +24562,7 @@
         <v>60</v>
       </c>
       <c r="C610" s="29">
-        <f>SUM(D610:R610)</f>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="D610" s="30">
@@ -24617,7 +24609,7 @@
         <v>60</v>
       </c>
       <c r="C611" s="29">
-        <f>SUM(D611:R611)</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D611" s="30">
@@ -24658,7 +24650,7 @@
         <v>60</v>
       </c>
       <c r="C612" s="29">
-        <f>SUM(D612:R612)</f>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="D612" s="30">
@@ -24705,7 +24697,7 @@
         <v>56</v>
       </c>
       <c r="C613" s="29">
-        <f>SUM(D613:R613)</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D613" s="30">
@@ -24744,7 +24736,7 @@
         <v>60</v>
       </c>
       <c r="C614" s="29">
-        <f>SUM(D614:R614)</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D614" s="30">
@@ -24792,8 +24784,8 @@
       <c r="B615" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C615" s="39">
-        <f>SUM(D615:R615)</f>
+      <c r="C615" s="29">
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D615" s="30">
@@ -24832,9 +24824,260 @@
         <v>2025</v>
       </c>
     </row>
+    <row r="616" spans="1:19">
+      <c r="A616" s="26">
+        <v>45730</v>
+      </c>
+      <c r="B616" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C616" s="29">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="D616" s="30">
+        <v>14</v>
+      </c>
+      <c r="E616" s="30">
+        <v>6</v>
+      </c>
+      <c r="F616" s="30">
+        <v>6</v>
+      </c>
+      <c r="G616" s="30">
+        <v>12</v>
+      </c>
+      <c r="H616" s="30"/>
+      <c r="I616" s="30"/>
+      <c r="J616" s="30"/>
+      <c r="K616" s="30"/>
+      <c r="L616" s="30"/>
+      <c r="M616" s="30"/>
+      <c r="N616" s="30"/>
+      <c r="O616" s="30"/>
+      <c r="P616" s="30"/>
+      <c r="Q616" s="30"/>
+      <c r="R616" s="30"/>
+      <c r="S616" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="617" spans="1:19">
+      <c r="A617" s="26">
+        <v>45730</v>
+      </c>
+      <c r="B617" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C617" s="29">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D617" s="30">
+        <v>8</v>
+      </c>
+      <c r="E617" s="30">
+        <v>16</v>
+      </c>
+      <c r="F617" s="30">
+        <v>6</v>
+      </c>
+      <c r="G617" s="30"/>
+      <c r="H617" s="30"/>
+      <c r="I617" s="30"/>
+      <c r="J617" s="30"/>
+      <c r="K617" s="30"/>
+      <c r="L617" s="30"/>
+      <c r="M617" s="30"/>
+      <c r="N617" s="30"/>
+      <c r="O617" s="30"/>
+      <c r="P617" s="30"/>
+      <c r="Q617" s="30"/>
+      <c r="R617" s="30"/>
+      <c r="S617" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="618" spans="1:19">
+      <c r="A618" s="26">
+        <v>45730</v>
+      </c>
+      <c r="B618" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C618" s="29">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="D618" s="30">
+        <v>40</v>
+      </c>
+      <c r="E618" s="30"/>
+      <c r="F618" s="30"/>
+      <c r="G618" s="30"/>
+      <c r="H618" s="30"/>
+      <c r="I618" s="30"/>
+      <c r="J618" s="30"/>
+      <c r="K618" s="30"/>
+      <c r="L618" s="30"/>
+      <c r="M618" s="30"/>
+      <c r="N618" s="30"/>
+      <c r="O618" s="30"/>
+      <c r="P618" s="30"/>
+      <c r="Q618" s="30"/>
+      <c r="R618" s="30"/>
+      <c r="S618" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="619" spans="1:19">
+      <c r="A619" s="26">
+        <v>45731</v>
+      </c>
+      <c r="B619" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C619" s="29">
+        <f t="shared" si="9"/>
+        <v>38</v>
+      </c>
+      <c r="D619" s="30">
+        <v>14</v>
+      </c>
+      <c r="E619" s="30">
+        <v>24</v>
+      </c>
+      <c r="F619" s="30"/>
+      <c r="G619" s="30"/>
+      <c r="H619" s="30"/>
+      <c r="I619" s="30"/>
+      <c r="J619" s="30"/>
+      <c r="K619" s="30"/>
+      <c r="L619" s="30"/>
+      <c r="M619" s="30"/>
+      <c r="N619" s="30"/>
+      <c r="O619" s="30"/>
+      <c r="P619" s="30"/>
+      <c r="Q619" s="30"/>
+      <c r="R619" s="30"/>
+      <c r="S619" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="620" spans="1:19">
+      <c r="A620" s="26">
+        <v>45733</v>
+      </c>
+      <c r="B620" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C620" s="29">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="D620" s="30">
+        <v>9</v>
+      </c>
+      <c r="E620" s="30">
+        <v>10</v>
+      </c>
+      <c r="F620" s="30">
+        <v>11</v>
+      </c>
+      <c r="G620" s="30"/>
+      <c r="H620" s="30"/>
+      <c r="I620" s="30"/>
+      <c r="J620" s="30"/>
+      <c r="K620" s="30"/>
+      <c r="L620" s="30"/>
+      <c r="M620" s="30"/>
+      <c r="N620" s="30"/>
+      <c r="O620" s="30"/>
+      <c r="P620" s="30"/>
+      <c r="Q620" s="30"/>
+      <c r="R620" s="30"/>
+      <c r="S620" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="621" spans="1:19">
+      <c r="A621" s="26">
+        <v>45733</v>
+      </c>
+      <c r="B621" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C621" s="29">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="D621" s="30">
+        <v>24</v>
+      </c>
+      <c r="E621" s="30">
+        <v>15</v>
+      </c>
+      <c r="F621" s="30"/>
+      <c r="G621" s="30"/>
+      <c r="H621" s="30"/>
+      <c r="I621" s="30"/>
+      <c r="J621" s="30"/>
+      <c r="K621" s="30"/>
+      <c r="L621" s="30"/>
+      <c r="M621" s="30"/>
+      <c r="N621" s="30"/>
+      <c r="O621" s="30"/>
+      <c r="P621" s="30"/>
+      <c r="Q621" s="30"/>
+      <c r="R621" s="30"/>
+      <c r="S621" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="622" spans="1:19">
+      <c r="A622" s="26">
+        <v>45734</v>
+      </c>
+      <c r="B622" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C622" s="29">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="D622" s="30">
+        <v>22</v>
+      </c>
+      <c r="E622" s="30">
+        <v>17</v>
+      </c>
+      <c r="F622" s="30"/>
+      <c r="G622" s="30"/>
+      <c r="H622" s="30"/>
+      <c r="I622" s="30"/>
+      <c r="J622" s="30"/>
+      <c r="K622" s="30"/>
+      <c r="L622" s="30"/>
+      <c r="M622" s="30"/>
+      <c r="N622" s="30"/>
+      <c r="O622" s="30"/>
+      <c r="P622" s="30"/>
+      <c r="Q622" s="30"/>
+      <c r="R622" s="30"/>
+      <c r="S622" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B615 B2:B614 B616:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>tecnologias</formula1>
     </dataValidation>
   </dataValidations>
@@ -25181,7 +25424,7 @@
       </c>
       <c r="B2" s="24">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>46.7918321043676</v>
+        <v>46.8031674208145</v>
       </c>
       <c r="C2" s="24">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -25205,7 +25448,7 @@
       </c>
       <c r="H2" s="24">
         <f>SUMIF(Tiempos!$S:$S,H1,Tiempos!$C:$C)/(H4-H3+1)</f>
-        <v>46.5277777777778</v>
+        <v>46.8051948051948</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -25241,7 +25484,7 @@
       </c>
       <c r="B4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45729</v>
+        <v>45734</v>
       </c>
       <c r="C4" s="25">
         <v>44196</v>
@@ -25260,7 +25503,7 @@
       </c>
       <c r="H4" s="25">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45729</v>
+        <v>45734</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -25300,11 +25543,11 @@
       </c>
       <c r="D10" s="27">
         <f>(H4-H3+1)*H2</f>
-        <v>3350</v>
+        <v>3604</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -25313,7 +25556,7 @@
       </c>
       <c r="D11" s="19">
         <f>D10/D9</f>
-        <v>0.305936073059361</v>
+        <v>0.329132420091324</v>
       </c>
     </row>
   </sheetData>

--- a/00soportes/Tiempos.xlsx
+++ b/00soportes/Tiempos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\petrix\projects\cvpetrix2022\00soportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9558D7-22A0-415F-AFFA-4CB650767872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6D6334-12C0-4808-BC15-1BB63E1F10B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7428" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiempos" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="248">
   <si>
     <t>Fecha</t>
   </si>
@@ -1190,8 +1190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:S841" totalsRowShown="0">
-  <autoFilter ref="A1:S841" xr:uid="{00000000-0009-0000-0100-000002000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:S843" totalsRowShown="0">
+  <autoFilter ref="A1:S843" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="18">
       <filters>
         <filter val="2025"/>
@@ -1498,13 +1498,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y841"/>
+  <dimension ref="A1:Y843"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D829" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D832" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M845" sqref="M845"/>
+      <selection pane="bottomRight" activeCell="E844" sqref="E844"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1582,15 +1582,15 @@
       </c>
       <c r="V1" s="32">
         <f>Resumen!H2</f>
-        <v>30.135693215339234</v>
+        <v>30.020467836257311</v>
       </c>
       <c r="W1" s="33">
         <f>Resumen!D11</f>
-        <v>0.93296803652968041</v>
+        <v>0.93762557077625575</v>
       </c>
       <c r="X1" s="34">
         <f>Resumen!D7+Resumen!F10</f>
-        <v>45998</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="2" spans="1:24" hidden="1">
@@ -32933,7 +32933,7 @@
         <v>31</v>
       </c>
       <c r="C836" s="29">
-        <f>SUM(D836:R836)</f>
+        <f t="shared" ref="C836:C841" si="18">SUM(D836:R836)</f>
         <v>29</v>
       </c>
       <c r="D836" s="30">
@@ -32968,7 +32968,7 @@
         <v>59</v>
       </c>
       <c r="C837" s="29">
-        <f>SUM(D837:R837)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="D837" s="30">
@@ -33005,7 +33005,7 @@
         <v>59</v>
       </c>
       <c r="C838" s="29">
-        <f>SUM(D838:R838)</f>
+        <f t="shared" si="18"/>
         <v>40</v>
       </c>
       <c r="D838" s="30">
@@ -33048,7 +33048,7 @@
         <v>34</v>
       </c>
       <c r="C839" s="29">
-        <f>SUM(D839:R839)</f>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="D839" s="30">
@@ -33093,7 +33093,7 @@
         <v>59</v>
       </c>
       <c r="C840" s="29">
-        <f>SUM(D840:R840)</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="D840" s="30">
@@ -33130,7 +33130,7 @@
         <v>41</v>
       </c>
       <c r="C841" s="29">
-        <f>SUM(D841:R841)</f>
+        <f t="shared" si="18"/>
         <v>44</v>
       </c>
       <c r="D841" s="30">
@@ -33169,6 +33169,82 @@
       <c r="Q841" s="30"/>
       <c r="R841" s="30"/>
       <c r="S841" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="842" spans="1:19">
+      <c r="A842" s="27">
+        <v>45997</v>
+      </c>
+      <c r="B842" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C842" s="29">
+        <f>SUM(D842:R842)</f>
+        <v>33</v>
+      </c>
+      <c r="D842" s="30">
+        <v>7</v>
+      </c>
+      <c r="E842" s="30">
+        <v>8</v>
+      </c>
+      <c r="F842" s="30">
+        <v>6</v>
+      </c>
+      <c r="G842" s="30">
+        <v>11</v>
+      </c>
+      <c r="H842" s="30">
+        <v>1</v>
+      </c>
+      <c r="I842" s="30"/>
+      <c r="J842" s="30"/>
+      <c r="K842" s="30"/>
+      <c r="L842" s="30"/>
+      <c r="M842" s="30"/>
+      <c r="N842" s="30"/>
+      <c r="O842" s="30"/>
+      <c r="P842" s="30"/>
+      <c r="Q842" s="30"/>
+      <c r="R842" s="30"/>
+      <c r="S842" s="28">
+        <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="843" spans="1:19">
+      <c r="A843" s="27">
+        <v>45999</v>
+      </c>
+      <c r="B843" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C843" s="29">
+        <f>SUM(D843:R843)</f>
+        <v>18</v>
+      </c>
+      <c r="D843" s="30">
+        <v>17</v>
+      </c>
+      <c r="E843" s="30">
+        <v>1</v>
+      </c>
+      <c r="F843" s="30"/>
+      <c r="G843" s="30"/>
+      <c r="H843" s="30"/>
+      <c r="I843" s="30"/>
+      <c r="J843" s="30"/>
+      <c r="K843" s="30"/>
+      <c r="L843" s="30"/>
+      <c r="M843" s="30"/>
+      <c r="N843" s="30"/>
+      <c r="O843" s="30"/>
+      <c r="P843" s="30"/>
+      <c r="Q843" s="30"/>
+      <c r="R843" s="30"/>
+      <c r="S843" s="28">
         <f>YEAR(Tabla2[[#This Row],[Fecha]])</f>
         <v>2025</v>
       </c>
@@ -33539,7 +33615,7 @@
       </c>
       <c r="B2" s="25">
         <f>SUM(Tabla2[Total])/(B4-B3+1)</f>
-        <v>44.019704433497537</v>
+        <v>43.979832759468763</v>
       </c>
       <c r="C2" s="25">
         <f>SUMIF(Tiempos!$S:$S,C1,Tiempos!$C:$C)/(C4-C3+1)</f>
@@ -33563,7 +33639,7 @@
       </c>
       <c r="H2" s="25">
         <f>SUMIF(Tiempos!$S:$S,H1,Tiempos!$C:$C)/(H4-H3+1)</f>
-        <v>30.135693215339234</v>
+        <v>30.020467836257311</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -33602,7 +33678,7 @@
       </c>
       <c r="B4" s="26">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="C4" s="26">
         <v>44196</v>
@@ -33621,11 +33697,11 @@
       </c>
       <c r="H4" s="26">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
       <c r="I4" s="26">
         <f>MAX(Tabla2[Fecha])</f>
-        <v>45996</v>
+        <v>45999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -33665,11 +33741,11 @@
       </c>
       <c r="D10">
         <f>(H4-H3+1)*H2</f>
-        <v>10216</v>
+        <v>10267</v>
       </c>
       <c r="F10">
         <f>ROUND(D10*F9/D9,0)</f>
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -33678,7 +33754,7 @@
       </c>
       <c r="D11" s="19">
         <f>D10/D9</f>
-        <v>0.93296803652968041</v>
+        <v>0.93762557077625575</v>
       </c>
     </row>
   </sheetData>
@@ -34084,7 +34160,7 @@
       </c>
       <c r="B43" s="22">
         <f>SUMIF(Tiempos!B:B,A43,Tiempos!C:C)/60</f>
-        <v>8.7333333333333325</v>
+        <v>9.5833333333333339</v>
       </c>
     </row>
     <row r="44" spans="1:2">
